--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -25,6 +25,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H405">
+      <text>
+        <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
+	-Jimmy Chou
+https://publications.reka.ai/reka-vibe-eval.pdf
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G46">
       <text>
         <t xml:space="preserve">https://github.com/zeyofu/BLINK_Benchmark
@@ -809,7 +817,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A428">
+    <comment authorId="0" ref="A429">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -1070,7 +1078,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A423">
+    <comment authorId="0" ref="A424">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1088,7 +1096,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A431">
+    <comment authorId="0" ref="A432">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1166,7 +1174,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A442">
+    <comment authorId="0" ref="A443">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1184,7 +1192,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A411">
+    <comment authorId="0" ref="A412">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
@@ -1620,13 +1628,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G442">
+    <comment authorId="0" ref="G443">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G431">
+    <comment authorId="0" ref="G432">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -1704,7 +1712,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G405">
+    <comment authorId="0" ref="G406">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1914,7 +1922,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G410">
+    <comment authorId="0" ref="G411">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -1946,7 +1954,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G440">
+    <comment authorId="0" ref="G441">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2202,7 +2210,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G422">
+    <comment authorId="0" ref="G423">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2335,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="941">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4462,6 +4470,12 @@
   </si>
   <si>
     <t>VGG-Sound</t>
+  </si>
+  <si>
+    <t>Vibe-Eval</t>
+  </si>
+  <si>
+    <t>Reka</t>
   </si>
   <si>
     <t>Video-Bench</t>
@@ -5268,7 +5282,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5325,6 +5339,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -13301,17 +13318,17 @@
         <v>705</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H405" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="H405" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>706</v>
@@ -13321,17 +13338,26 @@
       <c r="A406" s="8" t="s">
         <v>707</v>
       </c>
+      <c r="C406" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D406" s="2"/>
+      <c r="E406" s="2">
+        <v>2.0</v>
+      </c>
       <c r="G406" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H406" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I406" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D407" s="2"/>
       <c r="G407" s="2" t="s">
@@ -13343,76 +13369,67 @@
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>81</v>
+        <v>710</v>
       </c>
       <c r="D408" s="2"/>
-      <c r="E408" s="2">
-        <v>6.0</v>
-      </c>
       <c r="G408" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>709</v>
+        <v>32</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
         <v>710</v>
       </c>
+      <c r="C409" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2">
+        <v>6.0</v>
+      </c>
       <c r="G409" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H409" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I409" s="2"/>
+      <c r="I409" s="2" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="C410" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D410" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="E410" s="2">
-        <v>2.0</v>
-      </c>
       <c r="G410" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>714</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D411" s="2"/>
       <c r="E411" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>716</v>
@@ -13422,53 +13439,50 @@
       <c r="A412" s="8" t="s">
         <v>717</v>
       </c>
+      <c r="C412" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2">
+        <v>6.0</v>
+      </c>
       <c r="G412" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I412" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2">
-        <v>6.0</v>
+        <v>719</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H413" s="7"/>
-      <c r="I413" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H413" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
         <v>720</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>14</v>
+        <v>6.0</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H414" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H414" s="7"/>
       <c r="I414" s="2" t="s">
         <v>721</v>
       </c>
@@ -13477,156 +13491,168 @@
       <c r="A415" s="8" t="s">
         <v>722</v>
       </c>
+      <c r="C415" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G415" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H415" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I415" s="2"/>
+      <c r="I415" s="2" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I417" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I420" s="2"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I422" s="2"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="E423" s="2">
-        <v>2.0</v>
+        <v>731</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>730</v>
-      </c>
+      <c r="I423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
         <v>731</v>
       </c>
+      <c r="C424" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E424" s="2">
+        <v>2.0</v>
+      </c>
       <c r="G424" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I424" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G427" s="2" t="s">
         <v>10</v>
@@ -13638,24 +13664,15 @@
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F428" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G428" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H428" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
@@ -13665,8 +13682,8 @@
         <v>39</v>
       </c>
       <c r="D429" s="2"/>
-      <c r="E429" s="2">
-        <v>8.0</v>
+      <c r="E429" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>14</v>
@@ -13675,89 +13692,98 @@
         <v>40</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>738</v>
+        <v>16</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="12" t="s">
+      <c r="A430" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B430" s="4"/>
-      <c r="C430" s="5"/>
-      <c r="D430" s="5"/>
-      <c r="E430" s="4"/>
-      <c r="F430" s="5"/>
-      <c r="G430" s="6" t="s">
+      <c r="C430" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B431" s="4"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="H430" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I430" s="5"/>
-      <c r="J430" s="4"/>
-      <c r="K430" s="4"/>
-      <c r="L430" s="4"/>
-      <c r="M430" s="4"/>
-      <c r="N430" s="4"/>
-      <c r="O430" s="4"/>
-      <c r="P430" s="4"/>
-      <c r="Q430" s="4"/>
-      <c r="R430" s="4"/>
-      <c r="S430" s="4"/>
-      <c r="T430" s="4"/>
-      <c r="U430" s="4"/>
-      <c r="V430" s="4"/>
-      <c r="W430" s="4"/>
-      <c r="X430" s="4"/>
-      <c r="Y430" s="4"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E431" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G431" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H431" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I431" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I431" s="5"/>
+      <c r="J431" s="4"/>
+      <c r="K431" s="4"/>
+      <c r="L431" s="4"/>
+      <c r="M431" s="4"/>
+      <c r="N431" s="4"/>
+      <c r="O431" s="4"/>
+      <c r="P431" s="4"/>
+      <c r="Q431" s="4"/>
+      <c r="R431" s="4"/>
+      <c r="S431" s="4"/>
+      <c r="T431" s="4"/>
+      <c r="U431" s="4"/>
+      <c r="V431" s="4"/>
+      <c r="W431" s="4"/>
+      <c r="X431" s="4"/>
+      <c r="Y431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E432" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I432" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I432" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>742</v>
+        <v>25</v>
       </c>
       <c r="I433" s="2"/>
     </row>
@@ -13769,31 +13795,31 @@
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>97</v>
+        <v>744</v>
       </c>
       <c r="I434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H435" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>746</v>
+        <v>60</v>
       </c>
       <c r="I436" s="2"/>
     </row>
@@ -13801,113 +13827,121 @@
       <c r="A437" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
       <c r="G437" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H437" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H437" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="I437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="C438" s="2"/>
       <c r="D438" s="2"/>
-      <c r="E438" s="2">
-        <v>6.0</v>
-      </c>
       <c r="G438" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H438" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I438" s="2" t="s">
-        <v>749</v>
+        <v>10</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
         <v>750</v>
       </c>
+      <c r="C439" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2">
+        <v>6.0</v>
+      </c>
       <c r="G439" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I439" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="C440" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D440" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E440" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G440" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H440" s="7"/>
-      <c r="I440" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H440" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="8" t="s">
         <v>753</v>
       </c>
+      <c r="C441" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G441" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H441" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I441" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="H441" s="7"/>
+      <c r="I441" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C442" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H442" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I442" s="2"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E442" s="2">
+      <c r="E443" s="2">
         <v>2.0</v>
       </c>
-      <c r="F442" s="2" t="s">
+      <c r="F443" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G442" s="2" t="s">
+      <c r="G443" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H442" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I442" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="443">
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
     </row>
     <row r="444">
       <c r="C444" s="2"/>
@@ -16558,9 +16592,10 @@
     <hyperlink r:id="rId442" ref="A440"/>
     <hyperlink r:id="rId443" ref="A441"/>
     <hyperlink r:id="rId444" ref="A442"/>
+    <hyperlink r:id="rId445" ref="A443"/>
   </hyperlinks>
-  <drawing r:id="rId445"/>
-  <legacyDrawing r:id="rId446"/>
+  <drawing r:id="rId446"/>
+  <legacyDrawing r:id="rId447"/>
 </worksheet>
 </file>
 
@@ -16579,18 +16614,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -16614,112 +16649,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -16769,273 +16804,273 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="16" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="16" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="16" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="8" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -17128,87 +17163,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>768</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="16" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -17250,146 +17285,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" s="19"/>
+      <c r="C37" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17442,59 +17477,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -17531,22 +17566,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17571,23 +17606,23 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>895</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>897</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -17612,20 +17647,20 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>900</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>902</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -17651,17 +17686,17 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>904</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>906</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -17687,14 +17722,14 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5">
-      <c r="C5" s="20" t="s">
-        <v>905</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>795</v>
+      <c r="C5" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>797</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -17720,14 +17755,14 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6">
-      <c r="C6" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>809</v>
+      <c r="C6" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>811</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -17753,14 +17788,14 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7">
-      <c r="C7" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>910</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>912</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -17895,7 +17930,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -17923,7 +17958,7 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17951,7 +17986,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -18007,7 +18042,7 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -18035,7 +18070,7 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -18063,7 +18098,7 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -18091,7 +18126,7 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -18119,7 +18154,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -18147,7 +18182,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18203,7 +18238,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -18259,7 +18294,7 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -18287,7 +18322,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -18315,7 +18350,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -18343,7 +18378,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -18371,7 +18406,7 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -18399,7 +18434,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -46572,88 +46607,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -46696,48 +46731,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2432,6 +2432,9 @@
     <t>ActivityNet-QA</t>
   </si>
   <si>
+    <t>su</t>
+  </si>
+  <si>
     <t>ADE20K</t>
   </si>
   <si>
@@ -5044,160 +5047,157 @@
     <t>https://paperswithcode.com/sota/object-detection-on-coco</t>
   </si>
   <si>
+    <t>https://paperswithcode.com/sota/question-answering-on-squad11</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/embeddings-benchmark/mteb/issues/191</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/image-classification-on-humaneval</t>
+  </si>
+  <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/35</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
+  </si>
+  <si>
+    <t>https://github.com/google/BIG-bench/issues/983</t>
+  </si>
+  <si>
+    <t>https://github.com/TabbyML/tabby/issues/1369</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/MathOctopus/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2238</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
+  </si>
+  <si>
+    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/question-answering-on-squad11</t>
+    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/embeddings-benchmark/mteb/issues/191</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/image-classification-on-humaneval</t>
-  </si>
-  <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/35</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
-  </si>
-  <si>
-    <t>https://github.com/google/BIG-bench/issues/983</t>
-  </si>
-  <si>
-    <t>https://github.com/TabbyML/tabby/issues/1369</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/MathOctopus/issues/7</t>
-  </si>
-  <si>
-    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2238</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
-  </si>
-  <si>
-    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openkg/llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
   </si>
 </sst>
 </file>
@@ -5760,6 +5760,9 @@
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
@@ -5770,19 +5773,19 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -5795,60 +5798,60 @@
         <v>21</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>6.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>2.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -5857,21 +5860,21 @@
         <v>6.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -5880,18 +5883,18 @@
         <v>6.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
@@ -5903,40 +5906,40 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>2.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -5955,44 +5958,44 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -6008,39 +6011,39 @@
         <v>21</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -6058,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
@@ -6066,7 +6069,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -6077,7 +6080,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
@@ -6099,33 +6102,33 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
@@ -6137,18 +6140,18 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
@@ -6160,7 +6163,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6171,19 +6174,19 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6191,24 +6194,24 @@
         <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6216,24 +6219,24 @@
         <v>10</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="13"/>
@@ -6244,7 +6247,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
@@ -6266,10 +6269,10 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
@@ -6279,18 +6282,18 @@
         <v>21</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
@@ -6302,21 +6305,21 @@
         <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
@@ -6328,30 +6331,30 @@
         <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -6360,18 +6363,18 @@
         <v>6.0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>10</v>
@@ -6383,7 +6386,7 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -6391,15 +6394,15 @@
         <v>10</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -6409,16 +6412,16 @@
         <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -6434,18 +6437,18 @@
         <v>21</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
@@ -6455,33 +6458,33 @@
         <v>21</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2">
         <v>25.0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
@@ -6497,12 +6500,12 @@
         <v>11</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
@@ -6518,18 +6521,18 @@
         <v>21</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
@@ -6539,18 +6542,18 @@
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
@@ -6564,15 +6567,15 @@
         <v>21</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -6580,54 +6583,54 @@
         <v>10</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2">
         <v>2.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
@@ -6637,18 +6640,18 @@
         <v>14</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
@@ -6661,15 +6664,15 @@
         <v>21</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6677,12 +6680,12 @@
         <v>10</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -6694,19 +6697,19 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6714,12 +6717,12 @@
         <v>10</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
@@ -6732,15 +6735,15 @@
         <v>21</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
@@ -6753,42 +6756,42 @@
         <v>21</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>13</v>
@@ -6797,21 +6800,21 @@
         <v>6.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
@@ -6821,15 +6824,15 @@
         <v>15</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>20</v>
@@ -6846,38 +6849,38 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
@@ -6887,15 +6890,15 @@
         <v>15</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>20</v>
@@ -6911,18 +6914,18 @@
         <v>21</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
@@ -6932,27 +6935,27 @@
         <v>21</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6960,12 +6963,12 @@
         <v>10</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
@@ -6982,26 +6985,26 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
@@ -7011,52 +7014,52 @@
         <v>15</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2">
         <v>6.0</v>
@@ -7068,41 +7071,41 @@
         <v>15</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
@@ -7112,21 +7115,21 @@
         <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>13</v>
@@ -7138,63 +7141,63 @@
         <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
         <v>2.0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -7212,7 +7215,7 @@
         <v>15</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
@@ -7220,10 +7223,10 @@
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
@@ -7233,18 +7236,18 @@
         <v>21</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
@@ -7257,19 +7260,19 @@
         <v>21</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="2">
@@ -7280,10 +7283,10 @@
         <v>21</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -7304,7 +7307,7 @@
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>10</v>
@@ -7315,19 +7318,19 @@
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>20</v>
@@ -7343,15 +7346,15 @@
         <v>21</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -7369,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>16</v>
@@ -7377,10 +7380,10 @@
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>13</v>
@@ -7389,21 +7392,21 @@
         <v>6.0</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
@@ -7416,15 +7419,15 @@
         <v>21</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>20</v>
@@ -7437,15 +7440,15 @@
         <v>21</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>10</v>
@@ -7457,10 +7460,10 @@
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
@@ -7470,18 +7473,18 @@
         <v>21</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
@@ -7495,12 +7498,12 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -7511,7 +7514,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="4"/>
@@ -7533,19 +7536,19 @@
     </row>
     <row r="104">
       <c r="A104" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
@@ -7561,15 +7564,15 @@
         <v>21</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
@@ -7582,18 +7585,18 @@
         <v>21</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
@@ -7603,43 +7606,43 @@
         <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
@@ -7649,18 +7652,18 @@
         <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
@@ -7676,15 +7679,15 @@
         <v>21</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
@@ -7697,15 +7700,15 @@
         <v>21</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -7718,27 +7721,27 @@
         <v>21</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
@@ -7755,12 +7758,12 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -7768,29 +7771,29 @@
         <v>10</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2">
@@ -7801,48 +7804,48 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>10</v>
@@ -7854,39 +7857,39 @@
     </row>
     <row r="122">
       <c r="A122" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
         <v>6.0</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>13</v>
@@ -7895,21 +7898,21 @@
         <v>2.0</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
@@ -7919,21 +7922,21 @@
         <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2">
@@ -7943,15 +7946,15 @@
         <v>21</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -7959,23 +7962,23 @@
         <v>10</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
@@ -7993,7 +7996,7 @@
         <v>15</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>16</v>
@@ -8001,10 +8004,10 @@
     </row>
     <row r="130">
       <c r="A130" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
@@ -8014,18 +8017,18 @@
         <v>21</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
@@ -8035,18 +8038,18 @@
         <v>14</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>10</v>
@@ -8058,41 +8061,41 @@
     </row>
     <row r="133">
       <c r="A133" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
         <v>6.0</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
@@ -8102,19 +8105,19 @@
         <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
@@ -8124,21 +8127,21 @@
         <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
@@ -8148,27 +8151,27 @@
         <v>21</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D138" s="2"/>
       <c r="G138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
@@ -8184,15 +8187,15 @@
         <v>25</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
@@ -8205,30 +8208,30 @@
         <v>15</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
@@ -8241,21 +8244,21 @@
         <v>15</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2">
         <v>6.0</v>
@@ -8267,18 +8270,18 @@
         <v>15</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
@@ -8291,18 +8294,18 @@
         <v>15</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
@@ -8315,19 +8318,19 @@
         <v>15</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
@@ -8341,7 +8344,7 @@
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -8362,28 +8365,28 @@
     </row>
     <row r="147">
       <c r="A147" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2">
         <v>4.0</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8391,12 +8394,12 @@
         <v>10</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>10</v>
@@ -8408,19 +8411,19 @@
     </row>
     <row r="150">
       <c r="A150" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D150" s="2"/>
       <c r="G150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
@@ -8435,12 +8438,12 @@
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -8448,12 +8451,12 @@
         <v>10</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>10</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="154">
       <c r="A154" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>10</v>
@@ -8477,10 +8480,10 @@
     </row>
     <row r="155">
       <c r="A155" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>13</v>
@@ -8489,18 +8492,18 @@
         <v>1.0</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
@@ -8513,18 +8516,18 @@
         <v>21</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2">
@@ -8534,18 +8537,18 @@
         <v>14</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -8556,7 +8559,7 @@
         <v>10</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="4"/>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="159">
       <c r="A159" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -8586,15 +8589,15 @@
         <v>10</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2">
@@ -8607,15 +8610,15 @@
         <v>21</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B161" s="2">
         <v>2.0</v>
@@ -8631,15 +8634,15 @@
         <v>21</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -8647,12 +8650,12 @@
         <v>10</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>10</v>
@@ -8664,10 +8667,10 @@
     </row>
     <row r="164">
       <c r="A164" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>13</v>
@@ -8676,16 +8679,16 @@
         <v>8.0</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H164" s="10"/>
       <c r="I164" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>10</v>
@@ -8696,28 +8699,28 @@
     </row>
     <row r="166">
       <c r="A166" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2">
         <v>1.0</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
@@ -8727,15 +8730,15 @@
         <v>21</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>20</v>
@@ -8748,30 +8751,30 @@
         <v>21</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
@@ -8785,18 +8788,18 @@
       </c>
       <c r="H170" s="10"/>
       <c r="I170" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E171" s="2">
         <v>4.0</v>
@@ -8805,30 +8808,30 @@
         <v>15</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2">
@@ -8838,85 +8841,85 @@
         <v>21</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E174" s="2">
         <v>6.0</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
         <v>6.0</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2">
@@ -8926,52 +8929,52 @@
         <v>14</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2">
         <v>6.0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>13</v>
@@ -8980,18 +8983,18 @@
         <v>1.0</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2">
@@ -9001,21 +9004,21 @@
         <v>14</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>13</v>
@@ -9027,19 +9030,19 @@
         <v>14</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H183" s="7"/>
       <c r="I183" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2">
@@ -9049,61 +9052,61 @@
         <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184" s="10"/>
       <c r="I184" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2">
         <v>2.0</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H185" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E186" s="2">
         <v>6.0</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2">
@@ -9114,18 +9117,18 @@
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E188" s="2">
         <v>6.0</v>
@@ -9134,71 +9137,71 @@
         <v>15</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2">
         <v>4.0</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>20</v>
@@ -9211,18 +9214,18 @@
         <v>21</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2">
@@ -9235,22 +9238,22 @@
         <v>15</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>14</v>
@@ -9259,18 +9262,18 @@
         <v>15</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2">
@@ -9280,22 +9283,22 @@
         <v>21</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>14</v>
@@ -9304,30 +9307,30 @@
         <v>21</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2">
@@ -9337,22 +9340,22 @@
         <v>21</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>14</v>
@@ -9362,31 +9365,31 @@
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>14</v>
@@ -9395,18 +9398,18 @@
         <v>21</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2">
@@ -9419,39 +9422,39 @@
         <v>21</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -9462,7 +9465,7 @@
         <v>10</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="4"/>
@@ -9484,7 +9487,7 @@
     </row>
     <row r="206">
       <c r="A206" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
@@ -9502,7 +9505,7 @@
         <v>15</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>16</v>
@@ -9510,10 +9513,10 @@
     </row>
     <row r="207">
       <c r="A207" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2">
@@ -9523,15 +9526,15 @@
         <v>15</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -9539,27 +9542,27 @@
         <v>10</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2">
@@ -9572,26 +9575,26 @@
         <v>21</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>20</v>
@@ -9603,18 +9606,18 @@
         <v>21</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
@@ -9624,29 +9627,29 @@
         <v>15</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
@@ -9656,66 +9659,66 @@
         <v>14</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2">
         <v>2.0</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2">
@@ -9725,18 +9728,18 @@
         <v>14</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>20</v>
@@ -9749,22 +9752,22 @@
         <v>21</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>14</v>
@@ -9773,27 +9776,27 @@
         <v>21</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D222" s="2"/>
       <c r="G222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>20</v>
@@ -9809,18 +9812,18 @@
         <v>21</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>13</v>
@@ -9832,21 +9835,21 @@
         <v>14</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2">
@@ -9859,18 +9862,18 @@
         <v>21</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2">
@@ -9880,18 +9883,18 @@
         <v>21</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2">
@@ -9904,15 +9907,15 @@
         <v>27</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2">
@@ -9925,24 +9928,24 @@
         <v>27</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
@@ -9960,7 +9963,7 @@
         <v>15</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>16</v>
@@ -9968,10 +9971,10 @@
     </row>
     <row r="231">
       <c r="A231" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2">
@@ -9985,12 +9988,12 @@
       </c>
       <c r="H231" s="7"/>
       <c r="I231" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -9998,24 +10001,24 @@
         <v>10</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>10</v>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="235">
       <c r="A235" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>10</v>
@@ -10039,38 +10042,38 @@
     </row>
     <row r="236">
       <c r="A236" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2">
         <v>6.0</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H237" s="7"/>
       <c r="I237" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>20</v>
@@ -10082,45 +10085,45 @@
         <v>21</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E241" s="2">
         <v>1.0</v>
@@ -10129,52 +10132,52 @@
         <v>14</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -10182,15 +10185,15 @@
         <v>10</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>13</v>
@@ -10199,21 +10202,21 @@
         <v>1.0</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2">
@@ -10223,19 +10226,19 @@
         <v>14</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H247" s="7"/>
       <c r="I247" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2">
@@ -10245,35 +10248,35 @@
         <v>14</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H248" s="10"/>
       <c r="I248" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <v>6.0</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
@@ -10291,7 +10294,7 @@
         <v>15</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>16</v>
@@ -10299,7 +10302,7 @@
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>10</v>
@@ -10311,39 +10314,39 @@
     </row>
     <row r="252">
       <c r="A252" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <v>6.0</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>10</v>
@@ -10355,10 +10358,10 @@
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2">
@@ -10368,18 +10371,18 @@
         <v>14</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>20</v>
@@ -10392,30 +10395,30 @@
         <v>21</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>13</v>
@@ -10427,21 +10430,21 @@
         <v>14</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2">
@@ -10451,15 +10454,15 @@
         <v>21</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>10</v>
@@ -10471,7 +10474,7 @@
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>10</v>
@@ -10483,10 +10486,10 @@
     </row>
     <row r="262">
       <c r="A262" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2">
@@ -10496,24 +10499,24 @@
         <v>14</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E263" s="2">
         <v>6.0</v>
@@ -10522,21 +10525,21 @@
         <v>14</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>13</v>
@@ -10545,19 +10548,19 @@
         <v>4.0</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H264" s="7"/>
       <c r="I264" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2">
@@ -10567,19 +10570,19 @@
         <v>14</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H265" s="10"/>
       <c r="I265" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2">
@@ -10589,19 +10592,19 @@
         <v>14</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H266" s="10"/>
       <c r="I266" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2">
@@ -10611,19 +10614,19 @@
         <v>14</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H267" s="10"/>
       <c r="I267" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2">
@@ -10633,21 +10636,21 @@
         <v>14</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2">
@@ -10657,19 +10660,19 @@
         <v>14</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H269" s="7"/>
       <c r="I269" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2">
@@ -10679,19 +10682,19 @@
         <v>14</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H270" s="7"/>
       <c r="I270" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2">
@@ -10701,19 +10704,19 @@
         <v>14</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H271" s="10"/>
       <c r="I271" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2">
@@ -10723,21 +10726,21 @@
         <v>14</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2">
@@ -10747,41 +10750,41 @@
         <v>14</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H273" s="7"/>
       <c r="I273" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H274" s="10"/>
       <c r="I274" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2">
@@ -10791,16 +10794,16 @@
         <v>14</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H275" s="10"/>
       <c r="I275" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -10811,7 +10814,7 @@
         <v>10</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="4"/>
@@ -10833,7 +10836,7 @@
     </row>
     <row r="277">
       <c r="A277" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
@@ -10851,7 +10854,7 @@
         <v>15</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I277" s="2" t="s">
         <v>16</v>
@@ -10859,10 +10862,10 @@
     </row>
     <row r="278">
       <c r="A278" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2">
@@ -10872,22 +10875,22 @@
         <v>14</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H278" s="7"/>
       <c r="I278" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E279" s="2">
         <v>4.0</v>
@@ -10896,19 +10899,19 @@
         <v>14</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H279" s="10"/>
       <c r="I279" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2">
@@ -10918,15 +10921,15 @@
         <v>21</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>20</v>
@@ -10939,34 +10942,34 @@
         <v>21</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H282" s="7"/>
       <c r="I282" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>20</v>
@@ -10979,15 +10982,15 @@
         <v>21</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E284" s="2">
         <v>4.0</v>
@@ -10996,15 +10999,15 @@
         <v>14</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -11012,18 +11015,18 @@
         <v>10</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E286" s="2">
         <v>2.0</v>
@@ -11035,15 +11038,15 @@
         <v>21</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>10</v>
@@ -11055,7 +11058,7 @@
     </row>
     <row r="288">
       <c r="A288" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -11088,7 +11091,7 @@
     </row>
     <row r="289">
       <c r="A289" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
@@ -11114,21 +11117,21 @@
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2">
@@ -11138,37 +11141,37 @@
         <v>15</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <v>4.0</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H292" s="10"/>
       <c r="I292" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2">
@@ -11182,12 +11185,12 @@
       </c>
       <c r="H293" s="7"/>
       <c r="I293" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>20</v>
@@ -11200,15 +11203,15 @@
         <v>21</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>12</v>
@@ -11226,7 +11229,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>16</v>
@@ -11234,7 +11237,7 @@
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -11242,24 +11245,24 @@
         <v>10</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D297" s="2"/>
       <c r="G297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>20</v>
@@ -11275,18 +11278,18 @@
         <v>21</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>13</v>
@@ -11295,18 +11298,18 @@
         <v>6.0</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
@@ -11332,31 +11335,31 @@
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>20</v>
@@ -11372,27 +11375,27 @@
         <v>21</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="5"/>
@@ -11403,7 +11406,7 @@
         <v>10</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I305" s="5"/>
       <c r="J305" s="4"/>
@@ -11425,28 +11428,28 @@
     </row>
     <row r="306">
       <c r="A306" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <v>2.0</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -11454,27 +11457,27 @@
         <v>10</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2">
@@ -11484,15 +11487,15 @@
         <v>14</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>20</v>
@@ -11505,27 +11508,27 @@
         <v>21</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>20</v>
@@ -11538,21 +11541,21 @@
         <v>21</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E313" s="2">
         <v>6.0</v>
@@ -11561,30 +11564,30 @@
         <v>14</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>20</v>
@@ -11597,30 +11600,30 @@
         <v>21</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2">
@@ -11633,18 +11636,18 @@
         <v>15</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2">
@@ -11654,24 +11657,24 @@
         <v>14</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E319" s="2">
         <v>6.0</v>
@@ -11680,21 +11683,21 @@
         <v>14</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>13</v>
@@ -11706,30 +11709,30 @@
         <v>15</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D321" s="2"/>
       <c r="G321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2">
@@ -11742,15 +11745,15 @@
         <v>21</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>20</v>
@@ -11763,26 +11766,26 @@
         <v>21</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -11791,16 +11794,16 @@
         <v>10</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
@@ -11810,21 +11813,21 @@
         <v>15</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E327" s="2">
         <v>2.0</v>
@@ -11833,21 +11836,21 @@
         <v>14</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2">
@@ -11857,18 +11860,18 @@
         <v>14</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
@@ -11894,19 +11897,19 @@
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H330" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -11914,12 +11917,12 @@
         <v>10</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
@@ -11930,7 +11933,7 @@
         <v>10</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I332" s="5"/>
       <c r="J332" s="4"/>
@@ -11952,7 +11955,7 @@
     </row>
     <row r="333">
       <c r="A333" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
@@ -11970,7 +11973,7 @@
         <v>15</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I333" s="2" t="s">
         <v>16</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="334">
       <c r="A334" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>10</v>
@@ -11990,10 +11993,10 @@
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2">
@@ -12003,16 +12006,16 @@
         <v>14</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H335" s="9"/>
       <c r="I335" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -12020,12 +12023,12 @@
         <v>10</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="5"/>
@@ -12036,7 +12039,7 @@
         <v>10</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I337" s="5"/>
       <c r="J337" s="4"/>
@@ -12058,7 +12061,7 @@
     </row>
     <row r="338">
       <c r="A338" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>20</v>
@@ -12074,86 +12077,86 @@
         <v>21</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>12</v>
@@ -12171,7 +12174,7 @@
         <v>15</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I345" s="2" t="s">
         <v>16</v>
@@ -12179,22 +12182,22 @@
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>13</v>
@@ -12206,16 +12209,16 @@
         <v>14</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H347" s="7"/>
       <c r="I347" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>20</v>
@@ -12228,18 +12231,18 @@
         <v>21</v>
       </c>
       <c r="H348" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2">
@@ -12249,142 +12252,142 @@
         <v>15</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <v>4.0</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <v>4.0</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <v>4.0</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <v>4.0</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <v>4.0</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H354" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <v>4.0</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="18">
@@ -12392,13 +12395,13 @@
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H356" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
@@ -12419,10 +12422,10 @@
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2">
@@ -12432,57 +12435,57 @@
         <v>15</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <v>4.0</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <v>4.0</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>20</v>
@@ -12496,15 +12499,15 @@
       </c>
       <c r="H360" s="10"/>
       <c r="I360" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2">
@@ -12515,15 +12518,15 @@
       </c>
       <c r="H361" s="7"/>
       <c r="I361" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2">
@@ -12536,18 +12539,18 @@
         <v>15</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2">
@@ -12557,27 +12560,27 @@
         <v>15</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I363" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="5"/>
@@ -12588,7 +12591,7 @@
         <v>10</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I365" s="5"/>
       <c r="J365" s="4"/>
@@ -12610,10 +12613,10 @@
     </row>
     <row r="366">
       <c r="A366" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2">
@@ -12623,18 +12626,18 @@
         <v>15</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2">
@@ -12647,18 +12650,18 @@
         <v>21</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2">
@@ -12671,26 +12674,26 @@
         <v>21</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>20</v>
@@ -12703,15 +12706,15 @@
         <v>21</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>20</v>
@@ -12724,15 +12727,15 @@
         <v>21</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -12740,15 +12743,15 @@
         <v>10</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2">
@@ -12762,12 +12765,12 @@
       </c>
       <c r="H373" s="7"/>
       <c r="I373" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -12778,57 +12781,57 @@
         <v>25</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D376" s="2"/>
       <c r="G376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G377" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>20</v>
@@ -12838,40 +12841,40 @@
         <v>6.0</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="2">
         <v>4.0</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H379" s="7"/>
       <c r="I379" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2">
@@ -12881,21 +12884,21 @@
         <v>14</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2">
@@ -12905,15 +12908,15 @@
         <v>21</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -12921,15 +12924,15 @@
         <v>10</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2">
@@ -12939,64 +12942,64 @@
         <v>14</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H383" s="7"/>
       <c r="I383" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2">
         <v>2.0</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2">
@@ -13006,15 +13009,15 @@
         <v>21</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="5"/>
@@ -13025,7 +13028,7 @@
         <v>10</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I388" s="5"/>
       <c r="J388" s="4"/>
@@ -13047,7 +13050,7 @@
     </row>
     <row r="389">
       <c r="A389" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>20</v>
@@ -13060,15 +13063,15 @@
         <v>21</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>20</v>
@@ -13081,96 +13084,96 @@
         <v>21</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2">
         <v>5.0</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H392" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H395" s="7"/>
       <c r="I395" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2">
@@ -13180,15 +13183,15 @@
         <v>21</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -13196,18 +13199,18 @@
         <v>10</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E398" s="2">
         <v>6.0</v>
@@ -13216,18 +13219,18 @@
         <v>14</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -13240,10 +13243,10 @@
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2">
@@ -13253,18 +13256,18 @@
         <v>14</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G401" s="2" t="s">
         <v>10</v>
@@ -13276,7 +13279,7 @@
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -13289,7 +13292,7 @@
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -13302,7 +13305,7 @@
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -13310,12 +13313,12 @@
         <v>10</v>
       </c>
       <c r="H404" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>20</v>
@@ -13328,63 +13331,63 @@
         <v>21</v>
       </c>
       <c r="H405" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2">
         <v>2.0</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D407" s="2"/>
       <c r="G407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D408" s="2"/>
       <c r="G408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="2">
@@ -13397,12 +13400,12 @@
         <v>25</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G410" s="2" t="s">
         <v>10</v>
@@ -13414,33 +13417,33 @@
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E411" s="2">
         <v>2.0</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2">
@@ -13450,15 +13453,15 @@
         <v>15</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G413" s="2" t="s">
         <v>10</v>
@@ -13470,26 +13473,26 @@
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2">
         <v>6.0</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H414" s="7"/>
       <c r="I414" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>20</v>
@@ -13505,38 +13508,38 @@
         <v>21</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G418" s="2" t="s">
         <v>10</v>
@@ -13548,29 +13551,29 @@
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G421" s="2" t="s">
         <v>10</v>
@@ -13582,18 +13585,18 @@
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>10</v>
@@ -13605,42 +13608,42 @@
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E424" s="2">
         <v>2.0</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H424" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>10</v>
@@ -13652,44 +13655,44 @@
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>16</v>
@@ -13697,10 +13700,10 @@
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2">
@@ -13710,15 +13713,15 @@
         <v>14</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B431" s="4"/>
       <c r="C431" s="5"/>
@@ -13751,7 +13754,7 @@
     </row>
     <row r="432">
       <c r="A432" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>12</v>
@@ -13777,7 +13780,7 @@
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G433" s="2" t="s">
         <v>10</v>
@@ -13789,55 +13792,55 @@
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H435" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H437" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -13845,15 +13848,15 @@
         <v>10</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2">
@@ -13863,30 +13866,30 @@
         <v>21</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>13</v>
@@ -13898,16 +13901,16 @@
         <v>14</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H441" s="7"/>
       <c r="I441" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G442" s="2" t="s">
         <v>10</v>
@@ -13919,7 +13922,7 @@
     </row>
     <row r="443">
       <c r="A443" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>12</v>
@@ -13937,7 +13940,7 @@
         <v>15</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>16</v>
@@ -16614,17 +16617,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
         <v>940</v>
       </c>
     </row>
@@ -16632,8 +16640,9 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -16649,112 +16658,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -16804,273 +16813,273 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -17163,87 +17172,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="16" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -17285,142 +17294,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37">
@@ -17477,59 +17486,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="C5" s="8" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
         <v>890</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -17543,11 +17546,9 @@
     <hyperlink r:id="rId7" ref="A4"/>
     <hyperlink r:id="rId8" ref="C4"/>
     <hyperlink r:id="rId9" ref="A5"/>
-    <hyperlink r:id="rId10" ref="C5"/>
-    <hyperlink r:id="rId11" ref="A6"/>
-    <hyperlink r:id="rId12" ref="C6"/>
+    <hyperlink r:id="rId10" ref="A6"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -17566,22 +17567,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17607,22 +17608,22 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>896</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>897</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -17648,19 +17649,19 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>901</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>902</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -17687,16 +17688,16 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>905</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>906</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -17723,13 +17724,13 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>908</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -17756,13 +17757,13 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -17789,13 +17790,13 @@
     </row>
     <row r="7">
       <c r="C7" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>911</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>912</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -46607,88 +46608,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>915</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>917</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>919</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>921</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>923</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>925</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>927</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -46731,48 +46732,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>932</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>935</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>936</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2340,7 +2340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="934">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -2421,9 +2421,6 @@
   </si>
   <si>
     <t>ActivityNet-QA</t>
-  </si>
-  <si>
-    <t>su</t>
   </si>
   <si>
     <t>ADE20K</t>
@@ -5731,9 +5728,6 @@
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5744,19 +5738,19 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -5768,95 +5762,95 @@
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>6.0</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="2">
         <v>2.0</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="2">
         <v>6.0</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2">
         <v>6.0</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -5868,39 +5862,39 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="2">
         <v>2.0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -5916,43 +5910,43 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
         <v>1.0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -5967,38 +5961,38 @@
         <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -6013,7 +6007,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>14</v>
@@ -6021,7 +6015,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -6031,7 +6025,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
@@ -6053,33 +6047,33 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2">
         <v>2.0</v>
@@ -6088,18 +6082,18 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -6111,7 +6105,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -6121,67 +6115,67 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2"/>
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="13"/>
@@ -6191,7 +6185,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="4"/>
@@ -6213,10 +6207,10 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D37" s="2">
         <v>6.0</v>
@@ -6225,18 +6219,18 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="2">
         <v>6.0</v>
@@ -6245,21 +6239,21 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D39" s="2">
         <v>1.0</v>
@@ -6268,47 +6262,47 @@
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2">
         <v>6.0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -6320,22 +6314,22 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2">
         <v>4.0</v>
@@ -6344,16 +6338,16 @@
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
@@ -6368,18 +6362,18 @@
         <v>19</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D46" s="2">
         <v>6.0</v>
@@ -6388,33 +6382,33 @@
         <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2">
         <v>25.0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2">
         <v>2.0</v>
@@ -6429,12 +6423,12 @@
         <v>10</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
@@ -6449,18 +6443,18 @@
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="2">
         <v>2.0</v>
@@ -6469,18 +6463,18 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
@@ -6493,66 +6487,66 @@
         <v>19</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2"/>
       <c r="F52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2">
         <v>2.0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2">
         <v>2.0</v>
@@ -6561,18 +6555,18 @@
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -6584,27 +6578,27 @@
         <v>19</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2"/>
       <c r="F57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -6616,31 +6610,31 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2"/>
       <c r="F60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
@@ -6652,15 +6646,15 @@
         <v>19</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
@@ -6672,62 +6666,62 @@
         <v>19</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2">
         <v>6.0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D66" s="2">
         <v>4.0</v>
@@ -6736,15 +6730,15 @@
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
@@ -6760,38 +6754,38 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D70" s="2">
         <v>2.0</v>
@@ -6800,15 +6794,15 @@
         <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>18</v>
@@ -6823,18 +6817,18 @@
         <v>19</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D72" s="2">
         <v>6.0</v>
@@ -6843,39 +6837,39 @@
         <v>19</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2"/>
       <c r="F74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
@@ -6891,26 +6885,26 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D77" s="2">
         <v>6.0</v>
@@ -6919,52 +6913,52 @@
         <v>13</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D81" s="2">
         <v>6.0</v>
@@ -6976,41 +6970,41 @@
         <v>13</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D84" s="2">
         <v>2.0</v>
@@ -7019,21 +7013,21 @@
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="2">
         <v>6.0</v>
@@ -7042,62 +7036,62 @@
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D88" s="2">
         <v>2.0</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
@@ -7112,7 +7106,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>14</v>
@@ -7120,10 +7114,10 @@
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2">
         <v>6.0</v>
@@ -7132,18 +7126,18 @@
         <v>19</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D91" s="2">
         <v>2.0</v>
@@ -7155,19 +7149,19 @@
         <v>19</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2">
         <v>6.0</v>
@@ -7177,10 +7171,10 @@
         <v>19</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7201,7 +7195,7 @@
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -7212,19 +7206,19 @@
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
@@ -7239,15 +7233,15 @@
         <v>19</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -7262,7 +7256,7 @@
         <v>13</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>14</v>
@@ -7270,30 +7264,30 @@
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D97" s="2">
         <v>6.0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="2">
         <v>1.0</v>
@@ -7305,15 +7299,15 @@
         <v>19</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
@@ -7325,15 +7319,15 @@
         <v>19</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -7345,10 +7339,10 @@
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D101" s="2">
         <v>6.0</v>
@@ -7357,18 +7351,18 @@
         <v>19</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="2">
         <v>2.0</v>
@@ -7381,12 +7375,12 @@
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -7396,7 +7390,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="4"/>
@@ -7418,19 +7412,19 @@
     </row>
     <row r="104">
       <c r="A104" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
@@ -7445,15 +7439,15 @@
         <v>19</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
@@ -7465,18 +7459,18 @@
         <v>19</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="2">
         <v>4.0</v>
@@ -7485,42 +7479,42 @@
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D109" s="2">
         <v>4.0</v>
@@ -7529,18 +7523,18 @@
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
@@ -7555,15 +7549,15 @@
         <v>19</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
@@ -7575,15 +7569,15 @@
         <v>19</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -7595,27 +7589,27 @@
         <v>19</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
@@ -7631,41 +7625,41 @@
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="2"/>
       <c r="F115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D117" s="2">
         <v>4.0</v>
@@ -7675,48 +7669,48 @@
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -7728,58 +7722,58 @@
     </row>
     <row r="122">
       <c r="A122" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D123" s="2">
         <v>6.0</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D124" s="2">
         <v>2.0</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D125" s="2">
         <v>2.0</v>
@@ -7788,21 +7782,21 @@
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D126" s="2">
         <v>6.0</v>
@@ -7811,38 +7805,38 @@
         <v>19</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C127" s="2"/>
       <c r="F127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
@@ -7857,7 +7851,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>14</v>
@@ -7865,10 +7859,10 @@
     </row>
     <row r="130">
       <c r="A130" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D130" s="2">
         <v>6.0</v>
@@ -7877,18 +7871,18 @@
         <v>19</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" s="2">
         <v>2.0</v>
@@ -7897,18 +7891,18 @@
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -7920,40 +7914,40 @@
     </row>
     <row r="133">
       <c r="A133" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D134" s="2">
         <v>6.0</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D135" s="2">
         <v>3.0</v>
@@ -7962,19 +7956,19 @@
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D136" s="2">
         <v>4.0</v>
@@ -7983,21 +7977,21 @@
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D137" s="2">
         <v>6.0</v>
@@ -8006,26 +8000,26 @@
         <v>19</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
@@ -8040,15 +8034,15 @@
         <v>23</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="2">
         <v>6.0</v>
@@ -8060,30 +8054,30 @@
         <v>13</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D142" s="2">
         <v>2.0</v>
@@ -8095,21 +8089,21 @@
         <v>13</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D143" s="2">
         <v>6.0</v>
@@ -8121,18 +8115,18 @@
         <v>13</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D144" s="2">
         <v>6.0</v>
@@ -8144,18 +8138,18 @@
         <v>13</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D145" s="2">
         <v>6.0</v>
@@ -8167,19 +8161,19 @@
         <v>13</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D146" s="2">
         <v>6.0</v>
@@ -8192,7 +8186,7 @@
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -8213,39 +8207,39 @@
     </row>
     <row r="147">
       <c r="A147" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D147" s="2">
         <v>4.0</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C148" s="2"/>
       <c r="F148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -8257,18 +8251,18 @@
     </row>
     <row r="150">
       <c r="A150" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
@@ -8282,24 +8276,24 @@
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C152" s="2"/>
       <c r="F152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -8311,7 +8305,7 @@
     </row>
     <row r="154">
       <c r="A154" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -8323,27 +8317,27 @@
     </row>
     <row r="155">
       <c r="A155" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D155" s="2">
         <v>1.0</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D156" s="2">
         <v>6.0</v>
@@ -8355,18 +8349,18 @@
         <v>19</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D157" s="2">
         <v>2.0</v>
@@ -8375,18 +8369,18 @@
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -8396,7 +8390,7 @@
         <v>9</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="4"/>
@@ -8418,22 +8412,22 @@
     </row>
     <row r="159">
       <c r="A159" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C159" s="2"/>
       <c r="F159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
@@ -8445,15 +8439,15 @@
         <v>19</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B161" s="2">
         <v>2.0</v>
@@ -8468,27 +8462,27 @@
         <v>19</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C162" s="2"/>
       <c r="F162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -8500,25 +8494,25 @@
     </row>
     <row r="164">
       <c r="A164" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D164" s="2">
         <v>8.0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -8529,27 +8523,27 @@
     </row>
     <row r="166">
       <c r="A166" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D166" s="2">
         <v>1.0</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
@@ -8558,15 +8552,15 @@
         <v>19</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
@@ -8578,30 +8572,30 @@
         <v>19</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D170" s="2">
         <v>5.0</v>
@@ -8614,15 +8608,15 @@
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D171" s="2">
         <v>4.0</v>
@@ -8631,30 +8625,30 @@
         <v>13</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D173" s="2">
         <v>1.0</v>
@@ -8663,81 +8657,81 @@
         <v>19</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D174" s="2">
         <v>6.0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D176" s="2">
         <v>6.0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D178" s="2">
         <v>1.0</v>
@@ -8746,68 +8740,68 @@
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D180" s="2">
         <v>6.0</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G180" s="7"/>
       <c r="H180" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D181" s="2">
         <v>1.0</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D182" s="2">
         <v>4.0</v>
@@ -8816,21 +8810,21 @@
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D183" s="2">
         <v>1.0</v>
@@ -8839,19 +8833,19 @@
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D184" s="2">
         <v>6.0</v>
@@ -8860,57 +8854,57 @@
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D185" s="2">
         <v>2.0</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D186" s="2">
         <v>6.0</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D187" s="2">
         <v>4.0</v>
@@ -8920,15 +8914,15 @@
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D188" s="2">
         <v>6.0</v>
@@ -8937,67 +8931,67 @@
         <v>13</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D190" s="2">
         <v>4.0</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>18</v>
@@ -9009,18 +9003,18 @@
         <v>19</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D193" s="2">
         <v>2.0</v>
@@ -9032,21 +9026,21 @@
         <v>13</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>12</v>
@@ -9055,18 +9049,18 @@
         <v>13</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D195" s="2">
         <v>6.0</v>
@@ -9075,21 +9069,21 @@
         <v>19</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>12</v>
@@ -9098,30 +9092,30 @@
         <v>19</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D198" s="2">
         <v>6.0</v>
@@ -9130,21 +9124,21 @@
         <v>19</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>12</v>
@@ -9154,30 +9148,30 @@
       </c>
       <c r="G199" s="7"/>
       <c r="H199" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>12</v>
@@ -9186,18 +9180,18 @@
         <v>19</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D202" s="2">
         <v>2.0</v>
@@ -9209,39 +9203,39 @@
         <v>19</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -9251,7 +9245,7 @@
         <v>9</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="4"/>
@@ -9273,7 +9267,7 @@
     </row>
     <row r="206">
       <c r="A206" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
@@ -9288,7 +9282,7 @@
         <v>13</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>14</v>
@@ -9296,10 +9290,10 @@
     </row>
     <row r="207">
       <c r="A207" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D207" s="2">
         <v>2.0</v>
@@ -9308,42 +9302,42 @@
         <v>13</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C208" s="2"/>
       <c r="F208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D210" s="2">
         <v>2.0</v>
@@ -9355,18 +9349,18 @@
         <v>19</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D211" s="2">
         <v>1.0</v>
@@ -9375,26 +9369,26 @@
         <v>12</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G212" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>18</v>
@@ -9406,18 +9400,18 @@
         <v>19</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D214" s="2">
         <v>2.0</v>
@@ -9426,29 +9420,29 @@
         <v>13</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D216" s="2">
         <v>4.0</v>
@@ -9457,65 +9451,65 @@
         <v>12</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H216" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D217" s="2">
         <v>2.0</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D220" s="2">
         <v>2.0</v>
@@ -9524,18 +9518,18 @@
         <v>12</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>18</v>
@@ -9547,21 +9541,21 @@
         <v>19</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>12</v>
@@ -9570,26 +9564,26 @@
         <v>19</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
@@ -9604,18 +9598,18 @@
         <v>19</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D225" s="2">
         <v>6.0</v>
@@ -9624,21 +9618,21 @@
         <v>12</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D226" s="2">
         <v>2.0</v>
@@ -9650,18 +9644,18 @@
         <v>19</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D227" s="2">
         <v>1.0</v>
@@ -9670,18 +9664,18 @@
         <v>19</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="D228" s="2">
         <v>6.0</v>
@@ -9693,15 +9687,15 @@
         <v>25</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D229" s="2">
         <v>6.0</v>
@@ -9713,24 +9707,24 @@
         <v>25</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
@@ -9745,7 +9739,7 @@
         <v>13</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>14</v>
@@ -9753,10 +9747,10 @@
     </row>
     <row r="232">
       <c r="A232" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D232" s="2">
         <v>6.0</v>
@@ -9769,36 +9763,36 @@
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C233" s="2"/>
       <c r="F233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -9810,7 +9804,7 @@
     </row>
     <row r="236">
       <c r="A236" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -9822,37 +9816,37 @@
     </row>
     <row r="237">
       <c r="A237" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D238" s="2">
         <v>6.0</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G238" s="7"/>
       <c r="H238" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>18</v>
@@ -9864,42 +9858,42 @@
         <v>19</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D242" s="2">
         <v>1.0</v>
@@ -9908,87 +9902,87 @@
         <v>12</v>
       </c>
       <c r="F242" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G242" s="7" t="s">
+      <c r="H242" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C246" s="2"/>
       <c r="F246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="D247" s="2">
         <v>1.0</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D248" s="2">
         <v>6.0</v>
@@ -9997,19 +9991,19 @@
         <v>12</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G248" s="7"/>
       <c r="H248" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D249" s="2">
         <v>6.0</v>
@@ -10018,34 +10012,34 @@
         <v>12</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G249" s="10"/>
       <c r="H249" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D250" s="2">
         <v>6.0</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G250" s="10"/>
       <c r="H250" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
@@ -10060,7 +10054,7 @@
         <v>13</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>14</v>
@@ -10068,7 +10062,7 @@
     </row>
     <row r="252">
       <c r="A252" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -10080,38 +10074,38 @@
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D253" s="2">
         <v>6.0</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -10123,10 +10117,10 @@
     </row>
     <row r="256">
       <c r="A256" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D256" s="2">
         <v>6.0</v>
@@ -10135,18 +10129,18 @@
         <v>12</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>18</v>
@@ -10158,30 +10152,30 @@
         <v>19</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D259" s="2">
         <v>1.0</v>
@@ -10190,21 +10184,21 @@
         <v>12</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D260" s="2">
         <v>6.0</v>
@@ -10213,15 +10207,15 @@
         <v>19</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -10233,7 +10227,7 @@
     </row>
     <row r="262">
       <c r="A262" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -10245,10 +10239,10 @@
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D263" s="2">
         <v>4.0</v>
@@ -10257,21 +10251,21 @@
         <v>12</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D264" s="2">
         <v>6.0</v>
@@ -10280,39 +10274,39 @@
         <v>12</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D265" s="2">
         <v>4.0</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G265" s="7"/>
       <c r="H265" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D266" s="2">
         <v>4.0</v>
@@ -10321,19 +10315,19 @@
         <v>12</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G266" s="10"/>
       <c r="H266" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D267" s="2">
         <v>4.0</v>
@@ -10342,19 +10336,19 @@
         <v>12</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G267" s="10"/>
       <c r="H267" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D268" s="2">
         <v>4.0</v>
@@ -10363,19 +10357,19 @@
         <v>12</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G268" s="10"/>
       <c r="H268" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D269" s="2">
         <v>4.0</v>
@@ -10384,21 +10378,21 @@
         <v>12</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G269" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H269" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="H269" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D270" s="2">
         <v>6.0</v>
@@ -10407,19 +10401,19 @@
         <v>12</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G270" s="7"/>
       <c r="H270" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D271" s="2">
         <v>4.0</v>
@@ -10428,19 +10422,19 @@
         <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G271" s="7"/>
       <c r="H271" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D272" s="2">
         <v>2.0</v>
@@ -10449,19 +10443,19 @@
         <v>12</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G272" s="10"/>
       <c r="H272" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D273" s="2">
         <v>6.0</v>
@@ -10470,21 +10464,21 @@
         <v>12</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D274" s="2">
         <v>4.0</v>
@@ -10493,40 +10487,40 @@
         <v>12</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G274" s="7"/>
       <c r="H274" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G275" s="10"/>
       <c r="H275" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D276" s="2">
         <v>4.0</v>
@@ -10535,16 +10529,16 @@
         <v>12</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G276" s="10"/>
       <c r="H276" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -10554,7 +10548,7 @@
         <v>9</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H277" s="5"/>
       <c r="I277" s="4"/>
@@ -10576,7 +10570,7 @@
     </row>
     <row r="278">
       <c r="A278" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
@@ -10591,7 +10585,7 @@
         <v>13</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>14</v>
@@ -10599,10 +10593,10 @@
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D279" s="2">
         <v>4.0</v>
@@ -10611,19 +10605,19 @@
         <v>12</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G279" s="7"/>
       <c r="H279" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D280" s="2">
         <v>4.0</v>
@@ -10632,19 +10626,19 @@
         <v>12</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G280" s="10"/>
       <c r="H280" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D281" s="2">
         <v>6.0</v>
@@ -10653,15 +10647,15 @@
         <v>19</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>18</v>
@@ -10673,33 +10667,33 @@
         <v>19</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G283" s="7"/>
       <c r="H283" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>18</v>
@@ -10711,15 +10705,15 @@
         <v>19</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D285" s="2">
         <v>4.0</v>
@@ -10728,27 +10722,27 @@
         <v>12</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C286" s="2"/>
       <c r="F286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>18</v>
@@ -10763,15 +10757,15 @@
         <v>19</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -10783,7 +10777,7 @@
     </row>
     <row r="289">
       <c r="A289" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -10815,7 +10809,7 @@
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
@@ -10838,21 +10832,21 @@
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="D292" s="2">
         <v>6.0</v>
@@ -10861,36 +10855,36 @@
         <v>13</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D293" s="2">
         <v>4.0</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G293" s="10"/>
       <c r="H293" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D294" s="2">
         <v>6.0</v>
@@ -10903,12 +10897,12 @@
       </c>
       <c r="G294" s="7"/>
       <c r="H294" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>18</v>
@@ -10920,15 +10914,15 @@
         <v>19</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
@@ -10943,7 +10937,7 @@
         <v>13</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>14</v>
@@ -10951,30 +10945,30 @@
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C297" s="2"/>
       <c r="F297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>18</v>
@@ -10989,35 +10983,35 @@
         <v>19</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D300" s="2">
         <v>6.0</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
@@ -11040,31 +11034,31 @@
     </row>
     <row r="302">
       <c r="A302" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>18</v>
@@ -11079,27 +11073,27 @@
         <v>19</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G305" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="5"/>
@@ -11109,7 +11103,7 @@
         <v>9</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H306" s="5"/>
       <c r="I306" s="4"/>
@@ -11131,54 +11125,54 @@
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="D307" s="2">
         <v>2.0</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C308" s="2"/>
       <c r="F308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D310" s="2">
         <v>4.0</v>
@@ -11187,15 +11181,15 @@
         <v>12</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>18</v>
@@ -11207,27 +11201,27 @@
         <v>19</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>18</v>
@@ -11239,18 +11233,18 @@
         <v>19</v>
       </c>
       <c r="G313" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D314" s="2">
         <v>6.0</v>
@@ -11259,30 +11253,30 @@
         <v>12</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G314" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>18</v>
@@ -11294,30 +11288,30 @@
         <v>19</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D318" s="2">
         <v>2.0</v>
@@ -11329,18 +11323,18 @@
         <v>13</v>
       </c>
       <c r="G318" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D319" s="2">
         <v>2.0</v>
@@ -11349,21 +11343,21 @@
         <v>12</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D320" s="2">
         <v>6.0</v>
@@ -11372,21 +11366,21 @@
         <v>12</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D321" s="2">
         <v>6.0</v>
@@ -11395,29 +11389,29 @@
         <v>13</v>
       </c>
       <c r="G321" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H321" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="H321" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D323" s="2">
         <v>1.0</v>
@@ -11429,15 +11423,15 @@
         <v>19</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>18</v>
@@ -11449,26 +11443,26 @@
         <v>19</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -11476,16 +11470,16 @@
         <v>9</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D327" s="2">
         <v>2.0</v>
@@ -11494,18 +11488,18 @@
         <v>13</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D328" s="2">
         <v>2.0</v>
@@ -11514,21 +11508,21 @@
         <v>12</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D329" s="2">
         <v>2.0</v>
@@ -11537,18 +11531,18 @@
         <v>12</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
@@ -11571,31 +11565,31 @@
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G331" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C332" s="2"/>
       <c r="F332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
@@ -11605,7 +11599,7 @@
         <v>9</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H333" s="5"/>
       <c r="I333" s="4"/>
@@ -11627,7 +11621,7 @@
     </row>
     <row r="334">
       <c r="A334" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
@@ -11642,7 +11636,7 @@
         <v>13</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>14</v>
@@ -11650,7 +11644,7 @@
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -11662,10 +11656,10 @@
     </row>
     <row r="336">
       <c r="A336" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D336" s="2">
         <v>3.0</v>
@@ -11674,28 +11668,28 @@
         <v>12</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G336" s="9"/>
       <c r="H336" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C337" s="2"/>
       <c r="F337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
@@ -11705,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H338" s="5"/>
       <c r="I338" s="4"/>
@@ -11727,7 +11721,7 @@
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>18</v>
@@ -11742,86 +11736,86 @@
         <v>19</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G344" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>11</v>
@@ -11836,7 +11830,7 @@
         <v>13</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>14</v>
@@ -11844,22 +11838,22 @@
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D348" s="2">
         <v>4.0</v>
@@ -11868,16 +11862,16 @@
         <v>12</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G348" s="7"/>
       <c r="H348" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>18</v>
@@ -11889,18 +11883,18 @@
         <v>19</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D350" s="2">
         <v>4.0</v>
@@ -11909,149 +11903,149 @@
         <v>13</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D351" s="2">
         <v>4.0</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D352" s="2">
         <v>4.0</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D353" s="2">
         <v>4.0</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D354" s="2">
         <v>4.0</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D355" s="2">
         <v>4.0</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D356" s="2">
         <v>4.0</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D357" s="18">
         <v>4.0</v>
       </c>
       <c r="E357" s="4"/>
       <c r="F357" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
@@ -12072,10 +12066,10 @@
     </row>
     <row r="358">
       <c r="A358" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D358" s="2">
         <v>4.0</v>
@@ -12084,55 +12078,55 @@
         <v>13</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D359" s="2">
         <v>4.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D360" s="2">
         <v>4.0</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>18</v>
@@ -12145,15 +12139,15 @@
       </c>
       <c r="G361" s="10"/>
       <c r="H361" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D362" s="2">
         <v>4.0</v>
@@ -12163,15 +12157,15 @@
       </c>
       <c r="G362" s="7"/>
       <c r="H362" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D363" s="2">
         <v>2.0</v>
@@ -12183,18 +12177,18 @@
         <v>13</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D364" s="2">
         <v>1.0</v>
@@ -12203,27 +12197,27 @@
         <v>13</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H364" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
@@ -12233,7 +12227,7 @@
         <v>9</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H366" s="5"/>
       <c r="I366" s="4"/>
@@ -12255,10 +12249,10 @@
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D367" s="2">
         <v>2.0</v>
@@ -12267,18 +12261,18 @@
         <v>13</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D368" s="2">
         <v>2.0</v>
@@ -12290,18 +12284,18 @@
         <v>19</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D369" s="2">
         <v>1.0</v>
@@ -12313,26 +12307,26 @@
         <v>19</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>18</v>
@@ -12344,15 +12338,15 @@
         <v>19</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>18</v>
@@ -12364,30 +12358,30 @@
         <v>19</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C373" s="2"/>
       <c r="F373" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D374" s="2">
         <v>6.0</v>
@@ -12400,12 +12394,12 @@
       </c>
       <c r="G374" s="7"/>
       <c r="H374" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C375" s="2"/>
       <c r="F375" s="2" t="s">
@@ -12415,55 +12409,55 @@
         <v>23</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>18</v>
@@ -12472,39 +12466,39 @@
         <v>6.0</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D380" s="2">
         <v>4.0</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G380" s="7"/>
       <c r="H380" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D381" s="2">
         <v>6.0</v>
@@ -12513,21 +12507,21 @@
         <v>12</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H381" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D382" s="2">
         <v>6.0</v>
@@ -12536,30 +12530,30 @@
         <v>19</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C383" s="2"/>
       <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D384" s="2">
         <v>4.0</v>
@@ -12568,63 +12562,63 @@
         <v>12</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G384" s="7"/>
       <c r="H384" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D385" s="2">
         <v>2.0</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D388" s="2">
         <v>2.0</v>
@@ -12633,15 +12627,15 @@
         <v>19</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
@@ -12651,7 +12645,7 @@
         <v>9</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H389" s="5"/>
       <c r="I389" s="4"/>
@@ -12673,7 +12667,7 @@
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>18</v>
@@ -12685,15 +12679,15 @@
         <v>19</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>18</v>
@@ -12705,92 +12699,92 @@
         <v>19</v>
       </c>
       <c r="G391" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D392" s="2">
         <v>5.0</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G395" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G396" s="7"/>
       <c r="H396" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D397" s="2">
         <v>6.0</v>
@@ -12799,30 +12793,30 @@
         <v>19</v>
       </c>
       <c r="G397" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C398" s="2"/>
       <c r="F398" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D399" s="2">
         <v>6.0</v>
@@ -12831,18 +12825,18 @@
         <v>12</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C400" s="2"/>
       <c r="F400" s="2" t="s">
@@ -12854,10 +12848,10 @@
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D401" s="2">
         <v>2.0</v>
@@ -12866,18 +12860,18 @@
         <v>12</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -12889,7 +12883,7 @@
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C403" s="2"/>
       <c r="F403" s="2" t="s">
@@ -12901,7 +12895,7 @@
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C404" s="2"/>
       <c r="F404" s="2" t="s">
@@ -12913,19 +12907,19 @@
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C405" s="2"/>
       <c r="F405" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>18</v>
@@ -12937,60 +12931,60 @@
         <v>19</v>
       </c>
       <c r="G406" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D407" s="2">
         <v>2.0</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G408" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D410" s="2">
         <v>6.0</v>
@@ -13002,12 +12996,12 @@
         <v>23</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -13019,30 +13013,30 @@
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="D412" s="2">
         <v>2.0</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G412" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D413" s="2">
         <v>6.0</v>
@@ -13051,15 +13045,15 @@
         <v>13</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -13071,25 +13065,25 @@
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D415" s="2">
         <v>6.0</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G415" s="7"/>
       <c r="H415" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>18</v>
@@ -13104,38 +13098,38 @@
         <v>19</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -13147,29 +13141,29 @@
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -13181,18 +13175,18 @@
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -13204,39 +13198,39 @@
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D425" s="2">
         <v>2.0</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G425" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -13248,43 +13242,43 @@
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H430" s="2" t="s">
         <v>14</v>
@@ -13292,10 +13286,10 @@
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D431" s="2">
         <v>8.0</v>
@@ -13304,15 +13298,15 @@
         <v>12</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
@@ -13344,7 +13338,7 @@
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>11</v>
@@ -13367,7 +13361,7 @@
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -13379,70 +13373,70 @@
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C439" s="2"/>
       <c r="F439" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D440" s="2">
         <v>6.0</v>
@@ -13451,30 +13445,30 @@
         <v>19</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G441" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="D442" s="2">
         <v>6.0</v>
@@ -13483,16 +13477,16 @@
         <v>12</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G442" s="7"/>
       <c r="H442" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -13504,7 +13498,7 @@
     </row>
     <row r="444">
       <c r="A444" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>11</v>
@@ -13519,7 +13513,7 @@
         <v>13</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>14</v>
@@ -15643,23 +15637,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>932</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -15684,117 +15678,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -15845,276 +15839,276 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>785</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>792</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>799</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="8" t="s">
         <v>806</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="G6" s="8" t="s">
         <v>811</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>818</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>820</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>822</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>825</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>827</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>830</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>832</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>834</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>836</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>838</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>840</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -16208,87 +16202,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>764</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>755</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>771</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -16330,142 +16324,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>851</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>856</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>859</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>861</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>863</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37">
@@ -16522,53 +16516,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>876</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>879</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>881</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -16603,22 +16597,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -16644,22 +16638,22 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>890</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -16685,19 +16679,19 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>894</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>895</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -16724,16 +16718,16 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>898</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>899</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -16760,13 +16754,13 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>901</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -16793,13 +16787,13 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -16826,13 +16820,13 @@
     </row>
     <row r="7">
       <c r="C7" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>904</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>905</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -45644,88 +45638,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>908</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>910</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>912</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>914</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>916</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>918</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>920</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -45768,48 +45762,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>925</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>928</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>929</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -1613,12 +1613,6 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H199">
-      <text>
-        <t xml:space="preserve">https://github.com/open-compass/MathBench/issues/6
-	-Jimmy Chou</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="F444">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
@@ -2340,7 +2334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="935">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -3496,6 +3490,9 @@
   </si>
   <si>
     <t>MathBench</t>
+  </si>
+  <si>
+    <t>Shanghai AI Laboratory,Chinese University of Hong Kong,Beihang University,Nanjing University</t>
   </si>
   <si>
     <t>MathQA</t>
@@ -4619,7 +4616,7 @@
     <t>https://github.com/MikeGu721/XiezhiBenchmark/issues/6</t>
   </si>
   <si>
-    <t>https://github.com/OpenLMLab/LEval/issues/10</t>
+    <t>https://github.com/open-compass/MathBench/issues/4</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2205</t>
@@ -4899,6 +4896,9 @@
     <t>Leaderboard Publication</t>
   </si>
   <si>
+    <t>https://github.com/OpenLMLab/LEval/issues/10</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -4931,9 +4931,6 @@
   </si>
   <si>
     <t>https://github.com/Helsinki-NLP/OPUS-MT-dashboard/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/MathBench/issues/4</t>
   </si>
   <si>
     <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/14</t>
@@ -9146,14 +9143,16 @@
       <c r="F199" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G199" s="7"/>
+      <c r="G199" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H199" s="2" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -9165,7 +9164,7 @@
     </row>
     <row r="201">
       <c r="A201" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>182</v>
@@ -9183,15 +9182,15 @@
         <v>30</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D202" s="2">
         <v>2.0</v>
@@ -9206,12 +9205,12 @@
         <v>124</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -9223,7 +9222,7 @@
     </row>
     <row r="204">
       <c r="A204" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -9235,7 +9234,7 @@
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -9267,7 +9266,7 @@
     </row>
     <row r="206">
       <c r="A206" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
@@ -9290,7 +9289,7 @@
     </row>
     <row r="207">
       <c r="A207" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>105</v>
@@ -9305,12 +9304,12 @@
         <v>30</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C208" s="2"/>
       <c r="F208" s="2" t="s">
@@ -9322,22 +9321,22 @@
     </row>
     <row r="209">
       <c r="A209" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D210" s="2">
         <v>2.0</v>
@@ -9352,15 +9351,15 @@
         <v>30</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D211" s="2">
         <v>1.0</v>
@@ -9377,7 +9376,7 @@
     </row>
     <row r="212">
       <c r="A212" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -9388,7 +9387,7 @@
     </row>
     <row r="213">
       <c r="A213" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>18</v>
@@ -9403,15 +9402,15 @@
         <v>30</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D214" s="2">
         <v>2.0</v>
@@ -9423,26 +9422,26 @@
         <v>30</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D216" s="2">
         <v>4.0</v>
@@ -9454,15 +9453,15 @@
         <v>42</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>49</v>
@@ -9477,24 +9476,24 @@
         <v>30</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -9506,7 +9505,7 @@
     </row>
     <row r="220">
       <c r="A220" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>41</v>
@@ -9529,7 +9528,7 @@
     </row>
     <row r="221">
       <c r="A221" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>18</v>
@@ -9544,12 +9543,12 @@
         <v>30</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>18</v>
@@ -9567,12 +9566,12 @@
         <v>30</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -9583,7 +9582,7 @@
     </row>
     <row r="224">
       <c r="A224" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
@@ -9601,12 +9600,12 @@
         <v>124</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>86</v>
@@ -9624,15 +9623,15 @@
         <v>271</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D226" s="2">
         <v>2.0</v>
@@ -9647,12 +9646,12 @@
         <v>30</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>182</v>
@@ -9667,15 +9666,15 @@
         <v>30</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D228" s="2">
         <v>6.0</v>
@@ -9687,12 +9686,12 @@
         <v>25</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>79</v>
@@ -9707,12 +9706,12 @@
         <v>25</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -9724,7 +9723,7 @@
     </row>
     <row r="231">
       <c r="A231" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
@@ -9747,10 +9746,10 @@
     </row>
     <row r="232">
       <c r="A232" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D232" s="2">
         <v>6.0</v>
@@ -9763,36 +9762,36 @@
       </c>
       <c r="G232" s="7"/>
       <c r="H232" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C233" s="2"/>
       <c r="F233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -9804,7 +9803,7 @@
     </row>
     <row r="236">
       <c r="A236" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -9816,19 +9815,19 @@
     </row>
     <row r="237">
       <c r="A237" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>37</v>
@@ -9841,12 +9840,12 @@
       </c>
       <c r="G238" s="7"/>
       <c r="H238" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>18</v>
@@ -9861,12 +9860,12 @@
         <v>30</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -9878,22 +9877,22 @@
     </row>
     <row r="241">
       <c r="A241" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D242" s="2">
         <v>1.0</v>
@@ -9902,18 +9901,18 @@
         <v>12</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -9925,7 +9924,7 @@
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -9936,7 +9935,7 @@
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -9947,7 +9946,7 @@
     </row>
     <row r="246">
       <c r="A246" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C246" s="2"/>
       <c r="F246" s="2" t="s">
@@ -9959,10 +9958,10 @@
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D247" s="2">
         <v>1.0</v>
@@ -9974,12 +9973,12 @@
         <v>30</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>37</v>
@@ -9995,12 +9994,12 @@
       </c>
       <c r="G248" s="7"/>
       <c r="H248" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>37</v>
@@ -10016,12 +10015,12 @@
       </c>
       <c r="G249" s="10"/>
       <c r="H249" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>37</v>
@@ -10034,12 +10033,12 @@
       </c>
       <c r="G250" s="10"/>
       <c r="H250" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
@@ -10062,7 +10061,7 @@
     </row>
     <row r="252">
       <c r="A252" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -10074,10 +10073,10 @@
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D253" s="2">
         <v>6.0</v>
@@ -10089,12 +10088,12 @@
         <v>271</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -10105,7 +10104,7 @@
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -10117,7 +10116,7 @@
     </row>
     <row r="256">
       <c r="A256" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>173</v>
@@ -10135,12 +10134,12 @@
         <v>30</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>18</v>
@@ -10155,12 +10154,12 @@
         <v>30</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -10172,7 +10171,7 @@
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>37</v>
@@ -10190,12 +10189,12 @@
         <v>30</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>79</v>
@@ -10210,12 +10209,12 @@
         <v>95</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -10227,7 +10226,7 @@
     </row>
     <row r="262">
       <c r="A262" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -10239,7 +10238,7 @@
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>37</v>
@@ -10262,7 +10261,7 @@
     </row>
     <row r="264">
       <c r="A264" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>267</v>
@@ -10280,12 +10279,12 @@
         <v>30</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>37</v>
@@ -10303,7 +10302,7 @@
     </row>
     <row r="266">
       <c r="A266" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>37</v>
@@ -10319,12 +10318,12 @@
       </c>
       <c r="G266" s="10"/>
       <c r="H266" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>86</v>
@@ -10345,7 +10344,7 @@
     </row>
     <row r="268">
       <c r="A268" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>37</v>
@@ -10366,7 +10365,7 @@
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>37</v>
@@ -10381,15 +10380,15 @@
         <v>38</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>37</v>
@@ -10410,7 +10409,7 @@
     </row>
     <row r="271">
       <c r="A271" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>37</v>
@@ -10431,7 +10430,7 @@
     </row>
     <row r="272">
       <c r="A272" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>37</v>
@@ -10447,12 +10446,12 @@
       </c>
       <c r="G272" s="10"/>
       <c r="H272" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>173</v>
@@ -10470,12 +10469,12 @@
         <v>30</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>37</v>
@@ -10496,7 +10495,7 @@
     </row>
     <row r="275">
       <c r="A275" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>37</v>
@@ -10512,12 +10511,12 @@
       </c>
       <c r="G275" s="10"/>
       <c r="H275" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>86</v>
@@ -10533,12 +10532,12 @@
       </c>
       <c r="G276" s="10"/>
       <c r="H276" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -10570,7 +10569,7 @@
     </row>
     <row r="278">
       <c r="A278" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
@@ -10593,7 +10592,7 @@
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>222</v>
@@ -10609,12 +10608,12 @@
       </c>
       <c r="G279" s="7"/>
       <c r="H279" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>222</v>
@@ -10630,15 +10629,15 @@
       </c>
       <c r="G280" s="10"/>
       <c r="H280" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D281" s="2">
         <v>6.0</v>
@@ -10655,7 +10654,7 @@
     </row>
     <row r="282">
       <c r="A282" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>18</v>
@@ -10670,30 +10669,30 @@
         <v>30</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G283" s="7"/>
       <c r="H283" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>18</v>
@@ -10705,12 +10704,12 @@
         <v>19</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>37</v>
@@ -10730,19 +10729,19 @@
     </row>
     <row r="286">
       <c r="A286" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C286" s="2"/>
       <c r="F286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>18</v>
@@ -10760,12 +10759,12 @@
         <v>30</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -10777,7 +10776,7 @@
     </row>
     <row r="289">
       <c r="A289" s="12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -10809,7 +10808,7 @@
     </row>
     <row r="290">
       <c r="A290" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
@@ -10832,7 +10831,7 @@
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -10843,10 +10842,10 @@
     </row>
     <row r="292">
       <c r="A292" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D292" s="2">
         <v>6.0</v>
@@ -10858,12 +10857,12 @@
         <v>30</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>37</v>
@@ -10876,12 +10875,12 @@
       </c>
       <c r="G293" s="10"/>
       <c r="H293" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>146</v>
@@ -10897,12 +10896,12 @@
       </c>
       <c r="G294" s="7"/>
       <c r="H294" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>18</v>
@@ -10917,12 +10916,12 @@
         <v>30</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
@@ -10945,7 +10944,7 @@
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C297" s="2"/>
       <c r="F297" s="2" t="s">
@@ -10957,7 +10956,7 @@
     </row>
     <row r="298">
       <c r="A298" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -10968,7 +10967,7 @@
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>18</v>
@@ -10986,15 +10985,15 @@
         <v>95</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D300" s="2">
         <v>6.0</v>
@@ -11006,12 +11005,12 @@
         <v>124</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
@@ -11034,7 +11033,7 @@
     </row>
     <row r="302">
       <c r="A302" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -11046,19 +11045,19 @@
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>18</v>
@@ -11076,12 +11075,12 @@
         <v>103</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -11093,7 +11092,7 @@
     </row>
     <row r="306">
       <c r="A306" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="5"/>
@@ -11125,10 +11124,10 @@
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D307" s="2">
         <v>2.0</v>
@@ -11140,12 +11139,12 @@
         <v>61</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C308" s="2"/>
       <c r="F308" s="2" t="s">
@@ -11157,7 +11156,7 @@
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -11169,7 +11168,7 @@
     </row>
     <row r="310">
       <c r="A310" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>41</v>
@@ -11184,12 +11183,12 @@
         <v>42</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>18</v>
@@ -11204,12 +11203,12 @@
         <v>30</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -11221,7 +11220,7 @@
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>18</v>
@@ -11236,12 +11235,12 @@
         <v>30</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>37</v>
@@ -11259,24 +11258,24 @@
         <v>30</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>18</v>
@@ -11291,24 +11290,24 @@
         <v>30</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>146</v>
@@ -11331,10 +11330,10 @@
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D319" s="2">
         <v>2.0</v>
@@ -11349,12 +11348,12 @@
         <v>30</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>173</v>
@@ -11372,12 +11371,12 @@
         <v>30</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>105</v>
@@ -11389,15 +11388,15 @@
         <v>13</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -11408,7 +11407,7 @@
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>182</v>
@@ -11426,12 +11425,12 @@
         <v>61</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>18</v>
@@ -11451,18 +11450,18 @@
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -11476,7 +11475,7 @@
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>146</v>
@@ -11491,12 +11490,12 @@
         <v>95</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>37</v>
@@ -11514,12 +11513,12 @@
         <v>30</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>37</v>
@@ -11537,12 +11536,12 @@
         <v>30</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
@@ -11565,7 +11564,7 @@
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -11577,19 +11576,19 @@
     </row>
     <row r="332">
       <c r="A332" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C332" s="2"/>
       <c r="F332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
@@ -11599,7 +11598,7 @@
         <v>9</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H333" s="5"/>
       <c r="I333" s="4"/>
@@ -11621,7 +11620,7 @@
     </row>
     <row r="334">
       <c r="A334" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
@@ -11636,7 +11635,7 @@
         <v>13</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>14</v>
@@ -11644,7 +11643,7 @@
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -11656,7 +11655,7 @@
     </row>
     <row r="336">
       <c r="A336" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>37</v>
@@ -11677,19 +11676,19 @@
     </row>
     <row r="337">
       <c r="A337" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C337" s="2"/>
       <c r="F337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
@@ -11721,7 +11720,7 @@
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>18</v>
@@ -11739,12 +11738,12 @@
         <v>95</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -11756,7 +11755,7 @@
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -11768,7 +11767,7 @@
     </row>
     <row r="342">
       <c r="A342" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
@@ -11780,19 +11779,19 @@
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>9</v>
@@ -11804,7 +11803,7 @@
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>9</v>
@@ -11815,7 +11814,7 @@
     </row>
     <row r="346">
       <c r="A346" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>11</v>
@@ -11838,7 +11837,7 @@
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
@@ -11850,7 +11849,7 @@
     </row>
     <row r="348">
       <c r="A348" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>37</v>
@@ -11871,7 +11870,7 @@
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>18</v>
@@ -11886,12 +11885,12 @@
         <v>30</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>146</v>
@@ -11908,10 +11907,10 @@
     </row>
     <row r="351">
       <c r="A351" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D351" s="2">
         <v>4.0</v>
@@ -11923,15 +11922,15 @@
         <v>83</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D352" s="2">
         <v>4.0</v>
@@ -11943,15 +11942,15 @@
         <v>271</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D353" s="2">
         <v>4.0</v>
@@ -11963,15 +11962,15 @@
         <v>271</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D354" s="2">
         <v>4.0</v>
@@ -11983,15 +11982,15 @@
         <v>271</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D355" s="2">
         <v>4.0</v>
@@ -12003,15 +12002,15 @@
         <v>271</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D356" s="2">
         <v>4.0</v>
@@ -12023,16 +12022,16 @@
         <v>83</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D357" s="18">
         <v>4.0</v>
@@ -12045,7 +12044,7 @@
         <v>271</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
@@ -12066,7 +12065,7 @@
     </row>
     <row r="358">
       <c r="A358" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>105</v>
@@ -12081,15 +12080,15 @@
         <v>271</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D359" s="2">
         <v>4.0</v>
@@ -12101,15 +12100,15 @@
         <v>271</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D360" s="2">
         <v>4.0</v>
@@ -12121,12 +12120,12 @@
         <v>83</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>18</v>
@@ -12139,12 +12138,12 @@
       </c>
       <c r="G361" s="10"/>
       <c r="H361" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>79</v>
@@ -12157,12 +12156,12 @@
       </c>
       <c r="G362" s="7"/>
       <c r="H362" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>146</v>
@@ -12180,12 +12179,12 @@
         <v>61</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>105</v>
@@ -12200,12 +12199,12 @@
         <v>95</v>
       </c>
       <c r="H364" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -12217,7 +12216,7 @@
     </row>
     <row r="366">
       <c r="A366" s="12" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
@@ -12249,7 +12248,7 @@
     </row>
     <row r="367">
       <c r="A367" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>146</v>
@@ -12264,15 +12263,15 @@
         <v>124</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D368" s="2">
         <v>2.0</v>
@@ -12287,12 +12286,12 @@
         <v>30</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>306</v>
@@ -12310,12 +12309,12 @@
         <v>124</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>
@@ -12326,7 +12325,7 @@
     </row>
     <row r="371">
       <c r="A371" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>18</v>
@@ -12338,15 +12337,15 @@
         <v>19</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>18</v>
@@ -12361,12 +12360,12 @@
         <v>58</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C373" s="2"/>
       <c r="F373" s="2" t="s">
@@ -12378,7 +12377,7 @@
     </row>
     <row r="374">
       <c r="A374" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>146</v>
@@ -12399,7 +12398,7 @@
     </row>
     <row r="375">
       <c r="A375" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C375" s="2"/>
       <c r="F375" s="2" t="s">
@@ -12409,12 +12408,12 @@
         <v>23</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>9</v>
@@ -12426,7 +12425,7 @@
     </row>
     <row r="377">
       <c r="A377" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>9</v>
@@ -12437,7 +12436,7 @@
     </row>
     <row r="378">
       <c r="A378" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>146</v>
@@ -12452,12 +12451,12 @@
         <v>30</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>18</v>
@@ -12472,12 +12471,12 @@
         <v>95</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>41</v>
@@ -12490,12 +12489,12 @@
       </c>
       <c r="G380" s="7"/>
       <c r="H380" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>37</v>
@@ -12513,15 +12512,15 @@
         <v>30</v>
       </c>
       <c r="H381" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D382" s="2">
         <v>6.0</v>
@@ -12533,24 +12532,24 @@
         <v>30</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C383" s="2"/>
       <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>37</v>
@@ -12571,10 +12570,10 @@
     </row>
     <row r="385">
       <c r="A385" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D385" s="2">
         <v>2.0</v>
@@ -12586,24 +12585,24 @@
         <v>30</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>9</v>
@@ -12615,7 +12614,7 @@
     </row>
     <row r="388">
       <c r="A388" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>182</v>
@@ -12630,12 +12629,12 @@
         <v>30</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
@@ -12667,7 +12666,7 @@
     </row>
     <row r="390">
       <c r="A390" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>18</v>
@@ -12682,12 +12681,12 @@
         <v>58</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>18</v>
@@ -12702,12 +12701,12 @@
         <v>61</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>37</v>
@@ -12724,7 +12723,7 @@
     </row>
     <row r="393">
       <c r="A393" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
@@ -12736,7 +12735,7 @@
     </row>
     <row r="394">
       <c r="A394" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -12748,7 +12747,7 @@
     </row>
     <row r="395">
       <c r="A395" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
@@ -12760,7 +12759,7 @@
     </row>
     <row r="396">
       <c r="A396" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>37</v>
@@ -12781,7 +12780,7 @@
     </row>
     <row r="397">
       <c r="A397" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>79</v>
@@ -12796,12 +12795,12 @@
         <v>30</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C398" s="2"/>
       <c r="F398" s="2" t="s">
@@ -12813,7 +12812,7 @@
     </row>
     <row r="399">
       <c r="A399" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>37</v>
@@ -12836,7 +12835,7 @@
     </row>
     <row r="400">
       <c r="A400" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C400" s="2"/>
       <c r="F400" s="2" t="s">
@@ -12848,10 +12847,10 @@
     </row>
     <row r="401">
       <c r="A401" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D401" s="2">
         <v>2.0</v>
@@ -12866,12 +12865,12 @@
         <v>30</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -12883,7 +12882,7 @@
     </row>
     <row r="403">
       <c r="A403" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C403" s="2"/>
       <c r="F403" s="2" t="s">
@@ -12895,7 +12894,7 @@
     </row>
     <row r="404">
       <c r="A404" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C404" s="2"/>
       <c r="F404" s="2" t="s">
@@ -12907,7 +12906,7 @@
     </row>
     <row r="405">
       <c r="A405" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C405" s="2"/>
       <c r="F405" s="2" t="s">
@@ -12919,7 +12918,7 @@
     </row>
     <row r="406">
       <c r="A406" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>18</v>
@@ -12934,12 +12933,12 @@
         <v>83</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>37</v>
@@ -12954,12 +12953,12 @@
         <v>30</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
@@ -12970,7 +12969,7 @@
     </row>
     <row r="409">
       <c r="A409" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>9</v>
@@ -12981,7 +12980,7 @@
     </row>
     <row r="410">
       <c r="A410" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>79</v>
@@ -12996,12 +12995,12 @@
         <v>23</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -13013,10 +13012,10 @@
     </row>
     <row r="412">
       <c r="A412" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D412" s="2">
         <v>2.0</v>
@@ -13028,12 +13027,12 @@
         <v>61</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>146</v>
@@ -13048,12 +13047,12 @@
         <v>30</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -13065,7 +13064,7 @@
     </row>
     <row r="415">
       <c r="A415" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>37</v>
@@ -13078,12 +13077,12 @@
       </c>
       <c r="G415" s="7"/>
       <c r="H415" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>18</v>
@@ -13101,12 +13100,12 @@
         <v>30</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -13118,7 +13117,7 @@
     </row>
     <row r="418">
       <c r="A418" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -13129,7 +13128,7 @@
     </row>
     <row r="419">
       <c r="A419" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -13141,7 +13140,7 @@
     </row>
     <row r="420">
       <c r="A420" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
@@ -13152,7 +13151,7 @@
     </row>
     <row r="421">
       <c r="A421" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -13163,7 +13162,7 @@
     </row>
     <row r="422">
       <c r="A422" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -13175,7 +13174,7 @@
     </row>
     <row r="423">
       <c r="A423" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>9</v>
@@ -13186,7 +13185,7 @@
     </row>
     <row r="424">
       <c r="A424" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -13198,7 +13197,7 @@
     </row>
     <row r="425">
       <c r="A425" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>37</v>
@@ -13213,12 +13212,12 @@
         <v>25</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>9</v>
@@ -13230,7 +13229,7 @@
     </row>
     <row r="427">
       <c r="A427" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -13242,7 +13241,7 @@
     </row>
     <row r="428">
       <c r="A428" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -13254,7 +13253,7 @@
     </row>
     <row r="429">
       <c r="A429" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -13266,13 +13265,13 @@
     </row>
     <row r="430">
       <c r="A430" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>12</v>
@@ -13286,7 +13285,7 @@
     </row>
     <row r="431">
       <c r="A431" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>37</v>
@@ -13301,12 +13300,12 @@
         <v>38</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
@@ -13338,7 +13337,7 @@
     </row>
     <row r="433">
       <c r="A433" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>11</v>
@@ -13361,7 +13360,7 @@
     </row>
     <row r="434">
       <c r="A434" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -13373,19 +13372,19 @@
     </row>
     <row r="435">
       <c r="A435" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
@@ -13397,7 +13396,7 @@
     </row>
     <row r="437">
       <c r="A437" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>9</v>
@@ -13409,19 +13408,19 @@
     </row>
     <row r="438">
       <c r="A438" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C439" s="2"/>
       <c r="F439" s="2" t="s">
@@ -13433,7 +13432,7 @@
     </row>
     <row r="440">
       <c r="A440" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>79</v>
@@ -13448,12 +13447,12 @@
         <v>30</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -13465,10 +13464,10 @@
     </row>
     <row r="442">
       <c r="A442" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D442" s="2">
         <v>6.0</v>
@@ -13486,7 +13485,7 @@
     </row>
     <row r="443">
       <c r="A443" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -13498,7 +13497,7 @@
     </row>
     <row r="444">
       <c r="A444" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>11</v>
@@ -15637,23 +15636,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -15678,117 +15677,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -15839,276 +15838,276 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -16202,87 +16201,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>755</v>
+        <v>846</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="16" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -16324,142 +16323,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>853</v>
+        <v>756</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37">
@@ -16516,53 +16515,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -16597,22 +16596,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -16638,22 +16637,22 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -16679,19 +16678,19 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -16718,16 +16717,16 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -16754,13 +16753,13 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -16787,13 +16786,13 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -16820,13 +16819,13 @@
     </row>
     <row r="7">
       <c r="C7" s="21" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -45638,88 +45637,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -45762,48 +45761,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -25,6 +25,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H199">
+      <text>
+        <t xml:space="preserve">https://arxiv.org/pdf/2405.12209
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G406">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
@@ -2334,7 +2340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="933">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4640,23 +4646,10 @@
     <t>https://github.com/THU-KEG/KoLA/issues/3</t>
   </si>
   <si>
-    <t>https://huggingface.co/blog/leaderboard-drop-dive</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/BramVanroy/open_dutch_llm_leaderboard</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://huggingface.co/spaces/daishen/SCULAiW/discussions/1</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>1</t>
-    </r>
+    <t>https://huggingface.co/spaces/daishen/SCULAiW/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/felixz/meta_open_llm_leaderboard/discussions/1</t>
@@ -4818,6 +4811,9 @@
     <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
   </si>
   <si>
+    <t>https://huggingface.co/blog/open-llm-leaderboard-drop</t>
+  </si>
+  <si>
     <t>https://github.com/TabbyML/tabby/discussions/1368</t>
   </si>
   <si>
@@ -4899,19 +4895,6 @@
     <t>https://github.com/OpenLMLab/LEval/issues/10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://huggingface.co/spaces/daishen/SCULAiW/discussions/1</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/41</t>
   </si>
   <si>
@@ -5042,9 +5025,6 @@
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2060</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/image-classification-on-humaneval</t>
   </si>
   <si>
     <t>https://github.com/FlagOpen/FlagEval/issues/35</t>
@@ -15636,23 +15616,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -15746,7 +15726,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="8" t="s">
         <v>765</v>
       </c>
     </row>
@@ -15756,17 +15736,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="16" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="8" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="16" t="s">
         <v>769</v>
       </c>
     </row>
@@ -15776,18 +15756,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="8" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="16" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16" t="s">
-        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -15814,9 +15789,8 @@
     <hyperlink r:id="rId20" ref="A20"/>
     <hyperlink r:id="rId21" ref="A21"/>
     <hyperlink r:id="rId22" ref="A22"/>
-    <hyperlink r:id="rId23" ref="A23"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -15838,167 +15812,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>785</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>792</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>799</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="8" t="s">
         <v>806</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="G6" s="8" t="s">
         <v>811</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>761</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>773</v>
+        <v>819</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>820</v>
@@ -16008,6 +15982,9 @@
       </c>
     </row>
     <row r="10">
+      <c r="B10" s="8" t="s">
+        <v>772</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>822</v>
       </c>
@@ -16017,7 +15994,7 @@
     </row>
     <row r="11">
       <c r="C11" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>824</v>
@@ -16156,33 +16133,34 @@
     <hyperlink r:id="rId42" ref="B9"/>
     <hyperlink r:id="rId43" ref="C9"/>
     <hyperlink r:id="rId44" ref="G9"/>
-    <hyperlink r:id="rId45" ref="C10"/>
-    <hyperlink r:id="rId46" ref="G10"/>
-    <hyperlink r:id="rId47" ref="C11"/>
-    <hyperlink r:id="rId48" ref="G11"/>
-    <hyperlink r:id="rId49" ref="C12"/>
-    <hyperlink r:id="rId50" ref="G12"/>
-    <hyperlink r:id="rId51" ref="C13"/>
-    <hyperlink r:id="rId52" ref="G13"/>
-    <hyperlink r:id="rId53" ref="C14"/>
-    <hyperlink r:id="rId54" ref="G14"/>
-    <hyperlink r:id="rId55" ref="C15"/>
-    <hyperlink r:id="rId56" ref="G15"/>
-    <hyperlink r:id="rId57" ref="C16"/>
-    <hyperlink r:id="rId58" ref="G16"/>
-    <hyperlink r:id="rId59" ref="C17"/>
-    <hyperlink r:id="rId60" ref="G17"/>
-    <hyperlink r:id="rId61" ref="C18"/>
-    <hyperlink r:id="rId62" ref="G18"/>
-    <hyperlink r:id="rId63" ref="C19"/>
-    <hyperlink r:id="rId64" ref="G19"/>
-    <hyperlink r:id="rId65" ref="C20"/>
-    <hyperlink r:id="rId66" ref="G20"/>
-    <hyperlink r:id="rId67" ref="C21"/>
-    <hyperlink r:id="rId68" ref="C22"/>
-    <hyperlink r:id="rId69" ref="C23"/>
+    <hyperlink r:id="rId45" ref="B10"/>
+    <hyperlink r:id="rId46" ref="C10"/>
+    <hyperlink r:id="rId47" ref="G10"/>
+    <hyperlink r:id="rId48" ref="C11"/>
+    <hyperlink r:id="rId49" ref="G11"/>
+    <hyperlink r:id="rId50" ref="C12"/>
+    <hyperlink r:id="rId51" ref="G12"/>
+    <hyperlink r:id="rId52" ref="C13"/>
+    <hyperlink r:id="rId53" ref="G13"/>
+    <hyperlink r:id="rId54" ref="C14"/>
+    <hyperlink r:id="rId55" ref="G14"/>
+    <hyperlink r:id="rId56" ref="C15"/>
+    <hyperlink r:id="rId57" ref="G15"/>
+    <hyperlink r:id="rId58" ref="C16"/>
+    <hyperlink r:id="rId59" ref="G16"/>
+    <hyperlink r:id="rId60" ref="C17"/>
+    <hyperlink r:id="rId61" ref="G17"/>
+    <hyperlink r:id="rId62" ref="C18"/>
+    <hyperlink r:id="rId63" ref="G18"/>
+    <hyperlink r:id="rId64" ref="C19"/>
+    <hyperlink r:id="rId65" ref="G19"/>
+    <hyperlink r:id="rId66" ref="C20"/>
+    <hyperlink r:id="rId67" ref="G20"/>
+    <hyperlink r:id="rId68" ref="C21"/>
+    <hyperlink r:id="rId69" ref="C22"/>
+    <hyperlink r:id="rId70" ref="C23"/>
   </hyperlinks>
-  <drawing r:id="rId70"/>
+  <drawing r:id="rId71"/>
 </worksheet>
 </file>
 
@@ -16201,27 +16179,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>845</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>753</v>
@@ -16244,7 +16222,7 @@
         <v>754</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>755</v>
@@ -16254,14 +16232,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="16" t="s">
-        <v>771</v>
-      </c>
       <c r="E4" s="16" t="s">
         <v>846</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5">
@@ -16271,17 +16246,17 @@
     </row>
     <row r="6">
       <c r="E6" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>847</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -16296,15 +16271,14 @@
     <hyperlink r:id="rId8" ref="C3"/>
     <hyperlink r:id="rId9" ref="E3"/>
     <hyperlink r:id="rId10" ref="F3"/>
-    <hyperlink r:id="rId11" ref="C4"/>
-    <hyperlink r:id="rId12" ref="E4"/>
-    <hyperlink r:id="rId13" ref="F4"/>
-    <hyperlink r:id="rId14" ref="E5"/>
-    <hyperlink r:id="rId15" ref="E6"/>
-    <hyperlink r:id="rId16" ref="E7"/>
-    <hyperlink r:id="rId17" ref="E8"/>
+    <hyperlink r:id="rId11" ref="E4"/>
+    <hyperlink r:id="rId12" ref="F4"/>
+    <hyperlink r:id="rId13" ref="E5"/>
+    <hyperlink r:id="rId14" ref="E6"/>
+    <hyperlink r:id="rId15" ref="E7"/>
+    <hyperlink r:id="rId16" ref="E8"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -16323,142 +16297,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>845</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>852</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>756</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>856</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>859</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>861</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>863</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37">
@@ -16512,56 +16486,59 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>757</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>879</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>881</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -16596,22 +16573,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -16637,22 +16614,22 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>890</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -16678,19 +16655,17 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>893</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>895</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -16717,16 +16692,16 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>897</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>899</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -16753,13 +16728,13 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -16786,13 +16761,11 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>892</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -16819,13 +16792,13 @@
     </row>
     <row r="7">
       <c r="C7" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>903</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>905</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -45599,26 +45572,24 @@
     <hyperlink r:id="rId6" ref="E2"/>
     <hyperlink r:id="rId7" ref="F2"/>
     <hyperlink r:id="rId8" ref="A3"/>
-    <hyperlink r:id="rId9" ref="B3"/>
-    <hyperlink r:id="rId10" ref="C3"/>
-    <hyperlink r:id="rId11" ref="D3"/>
-    <hyperlink r:id="rId12" ref="E3"/>
-    <hyperlink r:id="rId13" ref="A4"/>
-    <hyperlink r:id="rId14" ref="C4"/>
-    <hyperlink r:id="rId15" ref="D4"/>
-    <hyperlink r:id="rId16" ref="E4"/>
-    <hyperlink r:id="rId17" ref="C5"/>
-    <hyperlink r:id="rId18" ref="D5"/>
-    <hyperlink r:id="rId19" ref="E5"/>
-    <hyperlink r:id="rId20" ref="C6"/>
-    <hyperlink r:id="rId21" ref="D6"/>
-    <hyperlink r:id="rId22" ref="E6"/>
-    <hyperlink r:id="rId23" ref="C7"/>
-    <hyperlink r:id="rId24" ref="D7"/>
-    <hyperlink r:id="rId25" ref="E7"/>
+    <hyperlink r:id="rId9" ref="C3"/>
+    <hyperlink r:id="rId10" ref="D3"/>
+    <hyperlink r:id="rId11" ref="E3"/>
+    <hyperlink r:id="rId12" ref="A4"/>
+    <hyperlink r:id="rId13" ref="C4"/>
+    <hyperlink r:id="rId14" ref="D4"/>
+    <hyperlink r:id="rId15" ref="E4"/>
+    <hyperlink r:id="rId16" ref="C5"/>
+    <hyperlink r:id="rId17" ref="D5"/>
+    <hyperlink r:id="rId18" ref="E5"/>
+    <hyperlink r:id="rId19" ref="C6"/>
+    <hyperlink r:id="rId20" ref="E6"/>
+    <hyperlink r:id="rId21" ref="C7"/>
+    <hyperlink r:id="rId22" ref="D7"/>
+    <hyperlink r:id="rId23" ref="E7"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -45637,88 +45608,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>907</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -45761,32 +45732,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>924</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>759</v>
@@ -45794,15 +45765,15 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -13,6 +13,7 @@
     <sheet state="visible" name="Missing Entity" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Redundant Entity" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Unresponsive Entity" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Uncategorized" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -25,6 +26,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D199">
+      <text>
+        <t xml:space="preserve">https://github.com/open-compass/MathBench/issues/7
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="H199">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2405.12209
@@ -2340,7 +2347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="934">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -5151,6 +5158,9 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/MathBench/issues/5</t>
   </si>
 </sst>
 </file>
@@ -5318,6 +5328,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9114,8 +9128,8 @@
       <c r="C199" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>116</v>
+      <c r="D199" s="2">
+        <v>2.0</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>12</v>
@@ -15645,6 +15659,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2347,7 +2347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="941">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -5170,6 +5170,15 @@
   </si>
   <si>
     <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>https://github.com/bytedance/Portrait-Mode-Video/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/HowieHwong/TrustLLM/pull/13</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/59</t>
   </si>
   <si>
     <t>https://github.com/open-compass/MathBench/issues/5</t>
@@ -15677,7 +15686,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -15687,15 +15699,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>937</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A279">
+      <text>
+        <t xml:space="preserve">https://opencompass.org.cn/arena
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D199">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/MathBench/issues/7
@@ -2347,7 +2353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="941">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -10612,8 +10618,8 @@
       <c r="C279" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D279" s="2">
-        <v>4.0</v>
+      <c r="D279" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>12</v>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2362,7 +2362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="949">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4719,6 +4719,9 @@
     <t>https://github.com/open-compass/opencompass/discussions/784</t>
   </si>
   <si>
+    <t>https://github.com/stanford-crfm/fmti/issues/2</t>
+  </si>
+  <si>
     <t>https://github.com/open-compass/LawBench/issues/7</t>
   </si>
   <si>
@@ -4737,91 +4740,91 @@
     <t>https://github.com/open-compass/opencompass/discussions/785</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
+    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/26</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/26</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
+    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
   </si>
   <si>
-    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
+    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
   </si>
   <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
@@ -15752,15 +15755,15 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -15788,27 +15791,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -15967,30 +15970,30 @@
         <v>780</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>786</v>
-      </c>
-      <c r="D3" s="16" t="s">
         <v>787</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>766</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>788</v>
@@ -16012,7 +16015,7 @@
       <c r="C4" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="16" t="s">
         <v>794</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -16035,7 +16038,7 @@
       <c r="C5" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="8" t="s">
         <v>801</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -16055,7 +16058,7 @@
       <c r="C6" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>806</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -16089,19 +16092,22 @@
       <c r="C8" s="16" t="s">
         <v>815</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>816</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
@@ -16109,10 +16115,10 @@
         <v>770</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11">
@@ -16120,94 +16126,94 @@
         <v>767</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -16252,38 +16258,39 @@
     <hyperlink r:id="rId38" ref="G7"/>
     <hyperlink r:id="rId39" ref="B8"/>
     <hyperlink r:id="rId40" ref="C8"/>
-    <hyperlink r:id="rId41" ref="G8"/>
-    <hyperlink r:id="rId42" ref="B9"/>
-    <hyperlink r:id="rId43" ref="C9"/>
-    <hyperlink r:id="rId44" ref="G9"/>
-    <hyperlink r:id="rId45" ref="B10"/>
-    <hyperlink r:id="rId46" ref="C10"/>
-    <hyperlink r:id="rId47" ref="G10"/>
-    <hyperlink r:id="rId48" ref="C11"/>
-    <hyperlink r:id="rId49" ref="G11"/>
-    <hyperlink r:id="rId50" ref="C12"/>
-    <hyperlink r:id="rId51" ref="G12"/>
-    <hyperlink r:id="rId52" ref="C13"/>
-    <hyperlink r:id="rId53" ref="G13"/>
-    <hyperlink r:id="rId54" ref="C14"/>
-    <hyperlink r:id="rId55" ref="G14"/>
-    <hyperlink r:id="rId56" ref="C15"/>
-    <hyperlink r:id="rId57" ref="G15"/>
-    <hyperlink r:id="rId58" ref="C16"/>
-    <hyperlink r:id="rId59" ref="G16"/>
-    <hyperlink r:id="rId60" ref="C17"/>
-    <hyperlink r:id="rId61" ref="G17"/>
-    <hyperlink r:id="rId62" ref="C18"/>
-    <hyperlink r:id="rId63" ref="G18"/>
-    <hyperlink r:id="rId64" ref="C19"/>
-    <hyperlink r:id="rId65" ref="G19"/>
-    <hyperlink r:id="rId66" ref="C20"/>
-    <hyperlink r:id="rId67" ref="G20"/>
-    <hyperlink r:id="rId68" ref="C21"/>
-    <hyperlink r:id="rId69" ref="C22"/>
-    <hyperlink r:id="rId70" ref="C23"/>
+    <hyperlink r:id="rId41" ref="D8"/>
+    <hyperlink r:id="rId42" ref="G8"/>
+    <hyperlink r:id="rId43" ref="B9"/>
+    <hyperlink r:id="rId44" ref="C9"/>
+    <hyperlink r:id="rId45" ref="G9"/>
+    <hyperlink r:id="rId46" ref="B10"/>
+    <hyperlink r:id="rId47" ref="C10"/>
+    <hyperlink r:id="rId48" ref="G10"/>
+    <hyperlink r:id="rId49" ref="C11"/>
+    <hyperlink r:id="rId50" ref="G11"/>
+    <hyperlink r:id="rId51" ref="C12"/>
+    <hyperlink r:id="rId52" ref="G12"/>
+    <hyperlink r:id="rId53" ref="C13"/>
+    <hyperlink r:id="rId54" ref="G13"/>
+    <hyperlink r:id="rId55" ref="C14"/>
+    <hyperlink r:id="rId56" ref="G14"/>
+    <hyperlink r:id="rId57" ref="C15"/>
+    <hyperlink r:id="rId58" ref="G15"/>
+    <hyperlink r:id="rId59" ref="C16"/>
+    <hyperlink r:id="rId60" ref="G16"/>
+    <hyperlink r:id="rId61" ref="C17"/>
+    <hyperlink r:id="rId62" ref="G17"/>
+    <hyperlink r:id="rId63" ref="C18"/>
+    <hyperlink r:id="rId64" ref="G18"/>
+    <hyperlink r:id="rId65" ref="C19"/>
+    <hyperlink r:id="rId66" ref="G19"/>
+    <hyperlink r:id="rId67" ref="C20"/>
+    <hyperlink r:id="rId68" ref="G20"/>
+    <hyperlink r:id="rId69" ref="C21"/>
+    <hyperlink r:id="rId70" ref="C22"/>
+    <hyperlink r:id="rId71" ref="C23"/>
   </hyperlinks>
-  <drawing r:id="rId71"/>
+  <drawing r:id="rId72"/>
 </worksheet>
 </file>
 
@@ -16305,7 +16312,7 @@
         <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>773</v>
@@ -16322,13 +16329,13 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>759</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>763</v>
@@ -16337,15 +16344,15 @@
         <v>758</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>760</v>
@@ -16356,7 +16363,7 @@
     </row>
     <row r="4">
       <c r="E4" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>769</v>
@@ -16364,7 +16371,7 @@
     </row>
     <row r="5">
       <c r="E5" s="8" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6">
@@ -16374,12 +16381,12 @@
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -16423,7 +16430,7 @@
         <v>774</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>773</v>
@@ -16440,122 +16447,122 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>761</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20"/>
       <c r="E5" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="8" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37">
@@ -16626,42 +16633,42 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -16705,7 +16712,7 @@
         <v>773</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>774</v>
@@ -16740,25 +16747,25 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16784,20 +16791,20 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="21" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16824,17 +16831,17 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16861,11 +16868,11 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>788</v>
@@ -16895,7 +16902,7 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -16927,14 +16934,14 @@
     </row>
     <row r="7">
       <c r="C7" s="21" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46752,74 +46759,74 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="8" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="16" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="16" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -46873,21 +46880,21 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>762</v>
@@ -46895,15 +46902,15 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H325">
+      <text>
+        <t xml:space="preserve">https://scale.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G65">
       <text>
         <t xml:space="preserve">https://conf.researchr.org/details/icse-2024/icse-2024-research-track/219/Evaluating-Large-Language-Models-in-Class-Level-Code-Generation
@@ -62,7 +68,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G402">
+    <comment authorId="0" ref="G403">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -88,31 +94,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G355">
+    <comment authorId="0" ref="G356">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F355">
+    <comment authorId="0" ref="F356">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G354">
+    <comment authorId="0" ref="G355">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F354">
+    <comment authorId="0" ref="F355">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D346">
+    <comment authorId="0" ref="D347">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
 	-Jimmy Chou</t>
@@ -124,7 +130,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D363">
+    <comment authorId="0" ref="D364">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -848,13 +854,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A395">
+    <comment authorId="0" ref="A396">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A422">
+    <comment authorId="0" ref="A423">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -963,27 +969,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G353">
+    <comment authorId="0" ref="G354">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F351">
+    <comment authorId="0" ref="F352">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G351">
+    <comment authorId="0" ref="G352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F349">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -993,43 +1005,37 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F347">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G347">
+    <comment authorId="0" ref="G348">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G348">
+    <comment authorId="0" ref="G349">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G349">
+    <comment authorId="0" ref="G350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G350">
+    <comment authorId="0" ref="G351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G352">
+    <comment authorId="0" ref="G353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G356">
+    <comment authorId="0" ref="G357">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
@@ -1115,7 +1121,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A419">
+    <comment authorId="0" ref="A420">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1133,7 +1139,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A425">
+    <comment authorId="0" ref="A426">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1199,25 +1205,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A326">
+    <comment authorId="0" ref="A327">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A330">
+    <comment authorId="0" ref="A331">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A435">
+    <comment authorId="0" ref="A436">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A342">
+    <comment authorId="0" ref="A343">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1229,19 +1235,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A409">
+    <comment authorId="0" ref="A410">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A374">
+    <comment authorId="0" ref="A375">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1298,7 +1304,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F345">
+    <comment authorId="0" ref="F346">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
@@ -1572,25 +1578,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F349">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F352">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F350">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F353">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F351">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1662,31 +1668,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F435">
+    <comment authorId="0" ref="F436">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F425">
+    <comment authorId="0" ref="F426">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F342">
+    <comment authorId="0" ref="F343">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F330">
+    <comment authorId="0" ref="F331">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="F327">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
@@ -1749,7 +1755,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F403">
+    <comment authorId="0" ref="F404">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1761,7 +1767,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F377">
+    <comment authorId="0" ref="F378">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1953,13 +1959,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F408">
+    <comment authorId="0" ref="F409">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F397">
+    <comment authorId="0" ref="F398">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1985,7 +1991,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F433">
+    <comment authorId="0" ref="F434">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2091,25 +2097,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A358">
+    <comment authorId="0" ref="A359">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A357">
+    <comment authorId="0" ref="A358">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A349">
+    <comment authorId="0" ref="A350">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A348">
+    <comment authorId="0" ref="A349">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2121,13 +2127,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A363">
+    <comment authorId="0" ref="A364">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
@@ -2226,7 +2232,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F418">
+    <comment authorId="0" ref="F419">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2234,13 +2240,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F376">
+    <comment authorId="0" ref="F377">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F360">
+    <comment authorId="0" ref="F361">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
@@ -2359,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="900">
   <si>
     <t>Name</t>
   </si>
@@ -4038,6 +4044,15 @@
   </si>
   <si>
     <t>A*STAR I2R,CFAR A*STAR,Nanyang Technological University</t>
+  </si>
+  <si>
+    <t>SEAL</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>Scale AI</t>
   </si>
   <si>
     <t>SEED-Bench (v2)</t>
@@ -11132,30 +11147,27 @@
         <v>559</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D325" s="2">
-        <v>2.0</v>
+        <v>91</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G325" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D326" s="2">
         <v>2.0</v>
@@ -11164,195 +11176,208 @@
         <v>11</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>14</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G327" s="15"/>
-      <c r="H327" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C328" s="2"/>
+        <v>565</v>
+      </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G328" s="7"/>
+      <c r="G328" s="15"/>
+      <c r="H328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="5"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="6" t="s">
+      <c r="A329" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C329" s="2"/>
+      <c r="F329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G329" s="7"/>
-      <c r="H329" s="5"/>
-      <c r="I329" s="4"/>
-      <c r="J329" s="4"/>
-      <c r="K329" s="4"/>
-      <c r="L329" s="4"/>
-      <c r="M329" s="4"/>
-      <c r="N329" s="4"/>
-      <c r="O329" s="4"/>
-      <c r="P329" s="4"/>
-      <c r="Q329" s="4"/>
-      <c r="R329" s="4"/>
-      <c r="S329" s="4"/>
-      <c r="T329" s="4"/>
-      <c r="U329" s="4"/>
-      <c r="V329" s="4"/>
-      <c r="W329" s="4"/>
-      <c r="X329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D330" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G330" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A330" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" s="7"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+      <c r="M330" s="4"/>
+      <c r="N330" s="4"/>
+      <c r="O330" s="4"/>
+      <c r="P330" s="4"/>
+      <c r="Q330" s="4"/>
+      <c r="R330" s="4"/>
+      <c r="S330" s="4"/>
+      <c r="T330" s="4"/>
+      <c r="U330" s="4"/>
+      <c r="V330" s="4"/>
+      <c r="W330" s="4"/>
+      <c r="X330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G331" s="7"/>
-      <c r="H331" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D332" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>11</v>
+        <v>569</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G332" s="10"/>
-      <c r="H332" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G332" s="7"/>
+      <c r="H332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C333" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D333" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F333" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G333" s="10"/>
+      <c r="H333" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C334" s="2"/>
+      <c r="F334" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G333" s="7"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="5"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="6" t="s">
+      <c r="G334" s="7"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G334" s="7"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="4"/>
-      <c r="J334" s="4"/>
-      <c r="K334" s="4"/>
-      <c r="L334" s="4"/>
-      <c r="M334" s="4"/>
-      <c r="N334" s="4"/>
-      <c r="O334" s="4"/>
-      <c r="P334" s="4"/>
-      <c r="Q334" s="4"/>
-      <c r="R334" s="4"/>
-      <c r="S334" s="4"/>
-      <c r="T334" s="4"/>
-      <c r="U334" s="4"/>
-      <c r="V334" s="4"/>
-      <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D335" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G335" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>570</v>
-      </c>
+      <c r="G335" s="7"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4"/>
+      <c r="N335" s="4"/>
+      <c r="O335" s="4"/>
+      <c r="P335" s="4"/>
+      <c r="Q335" s="4"/>
+      <c r="R335" s="4"/>
+      <c r="S335" s="4"/>
+      <c r="T335" s="4"/>
+      <c r="U335" s="4"/>
+      <c r="V335" s="4"/>
+      <c r="W335" s="4"/>
+      <c r="X335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G336" s="7"/>
-      <c r="H336" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -11362,7 +11387,7 @@
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>9</v>
@@ -11372,7 +11397,7 @@
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -11382,7 +11407,7 @@
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -11392,122 +11417,112 @@
     </row>
     <row r="341">
       <c r="A341" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G341" s="7"/>
+      <c r="H341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D342" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G342" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G342" s="7"/>
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G343" s="7"/>
-      <c r="H343" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D344" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>11</v>
+        <v>581</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G344" s="7"/>
-      <c r="H344" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D345" s="2">
-        <v>6.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G345" s="7"/>
       <c r="H345" s="2" t="s">
-        <v>581</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="D346" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>304</v>
+        <v>584</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>584</v>
+        <v>133</v>
       </c>
       <c r="D347" s="2">
         <v>4.0</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G347" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>585</v>
+        <v>304</v>
       </c>
     </row>
     <row r="348">
@@ -11524,18 +11539,18 @@
         <v>30</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D349" s="2">
         <v>4.0</v>
@@ -11547,15 +11562,15 @@
         <v>252</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D350" s="2">
         <v>4.0</v>
@@ -11567,12 +11582,12 @@
         <v>252</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="9" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>587</v>
@@ -11587,15 +11602,15 @@
         <v>252</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D352" s="2">
         <v>4.0</v>
@@ -11604,96 +11619,96 @@
         <v>30</v>
       </c>
       <c r="G352" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D353" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G353" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H352" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D353" s="19">
+      <c r="H353" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B354" s="4"/>
+      <c r="C354" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D354" s="19">
         <v>4.0</v>
       </c>
-      <c r="E353" s="4"/>
-      <c r="F353" s="5" t="s">
+      <c r="E354" s="4"/>
+      <c r="F354" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G353" s="6" t="s">
+      <c r="G354" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="I353" s="4"/>
-      <c r="J353" s="4"/>
-      <c r="K353" s="4"/>
-      <c r="L353" s="4"/>
-      <c r="M353" s="4"/>
-      <c r="N353" s="4"/>
-      <c r="O353" s="4"/>
-      <c r="P353" s="4"/>
-      <c r="Q353" s="4"/>
-      <c r="R353" s="4"/>
-      <c r="S353" s="4"/>
-      <c r="T353" s="4"/>
-      <c r="U353" s="4"/>
-      <c r="V353" s="4"/>
-      <c r="W353" s="4"/>
-      <c r="X353" s="4"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D354" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G354" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>583</v>
-      </c>
+      <c r="H354" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="4"/>
+      <c r="N354" s="4"/>
+      <c r="O354" s="4"/>
+      <c r="P354" s="4"/>
+      <c r="Q354" s="4"/>
+      <c r="R354" s="4"/>
+      <c r="S354" s="4"/>
+      <c r="T354" s="4"/>
+      <c r="U354" s="4"/>
+      <c r="V354" s="4"/>
+      <c r="W354" s="4"/>
+      <c r="X354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D355" s="2">
         <v>4.0</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G355" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D356" s="2">
         <v>4.0</v>
@@ -11702,36 +11717,38 @@
         <v>30</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>17</v>
+        <v>587</v>
       </c>
       <c r="D357" s="2">
         <v>4.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G357" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="H357" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D358" s="2">
         <v>4.0</v>
@@ -11739,132 +11756,127 @@
       <c r="F358" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G358" s="7"/>
+      <c r="G358" s="11"/>
       <c r="H358" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="D359" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>11</v>
+        <v>4.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G359" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G359" s="7"/>
       <c r="H359" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D360" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H360" s="9" t="s">
-        <v>602</v>
+        <v>84</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D361" s="2">
+        <v>1.0</v>
       </c>
       <c r="F361" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G361" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H361" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F362" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G361" s="7"/>
-      <c r="H361" s="2"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="6" t="s">
+      <c r="G362" s="7"/>
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G362" s="7"/>
-      <c r="H362" s="5"/>
-      <c r="I362" s="4"/>
-      <c r="J362" s="4"/>
-      <c r="K362" s="4"/>
-      <c r="L362" s="4"/>
-      <c r="M362" s="4"/>
-      <c r="N362" s="4"/>
-      <c r="O362" s="4"/>
-      <c r="P362" s="4"/>
-      <c r="Q362" s="4"/>
-      <c r="R362" s="4"/>
-      <c r="S362" s="4"/>
-      <c r="T362" s="4"/>
-      <c r="U362" s="4"/>
-      <c r="V362" s="4"/>
-      <c r="W362" s="4"/>
-      <c r="X362" s="4"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D363" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G363" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H363" s="2" t="s">
-        <v>605</v>
-      </c>
+      <c r="G363" s="7"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="4"/>
+      <c r="J363" s="4"/>
+      <c r="K363" s="4"/>
+      <c r="L363" s="4"/>
+      <c r="M363" s="4"/>
+      <c r="N363" s="4"/>
+      <c r="O363" s="4"/>
+      <c r="P363" s="4"/>
+      <c r="Q363" s="4"/>
+      <c r="R363" s="4"/>
+      <c r="S363" s="4"/>
+      <c r="T363" s="4"/>
+      <c r="U363" s="4"/>
+      <c r="V363" s="4"/>
+      <c r="W363" s="4"/>
+      <c r="X363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>607</v>
+        <v>133</v>
       </c>
       <c r="D364" s="2">
         <v>2.0</v>
       </c>
-      <c r="E364" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F364" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>608</v>
@@ -11875,10 +11887,10 @@
         <v>609</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>286</v>
+        <v>610</v>
       </c>
       <c r="D365" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>11</v>
@@ -11887,40 +11899,43 @@
         <v>18</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D366" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G366" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G366" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D367" s="2">
-        <v>2.0</v>
+        <v>614</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>614</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G367" s="7"/>
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
@@ -11936,239 +11951,249 @@
         <v>18</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>51</v>
+        <v>616</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C369" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D369" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F369" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G369" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D370" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C370" s="2"/>
       <c r="F370" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G370" s="7"/>
-      <c r="H370" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="C371" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D371" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G371" s="7"/>
       <c r="H371" s="2" t="s">
-        <v>620</v>
+        <v>49</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>621</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C372" s="2"/>
       <c r="F372" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G372" s="7"/>
-      <c r="H372" s="2"/>
+      <c r="H372" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G373" s="7"/>
+      <c r="H373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>101</v>
+        <v>625</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G374" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H374" s="2" t="s">
-        <v>623</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G374" s="7"/>
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D375" s="2">
-        <v>6.0</v>
+        <v>133</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D376" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G376" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="G376" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="H376" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D377" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E377" s="2" t="s">
-        <v>11</v>
+        <v>4.0</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G377" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G377" s="7"/>
       <c r="H377" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="D378" s="2">
         <v>6.0</v>
       </c>
+      <c r="E378" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G378" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C379" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D379" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F379" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G379" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D380" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="C380" s="2"/>
       <c r="F380" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G380" s="7"/>
-      <c r="H380" s="2" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>635</v>
+        <v>33</v>
       </c>
       <c r="D381" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G381" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G381" s="7"/>
       <c r="H381" s="2" t="s">
-        <v>636</v>
+        <v>330</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
         <v>637</v>
       </c>
+      <c r="C382" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D382" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G382" s="7"/>
-      <c r="H382" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>9</v>
@@ -12178,77 +12203,67 @@
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C384" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G384" s="7"/>
+      <c r="H384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D385" s="2">
         <v>2.0</v>
       </c>
-      <c r="F384" s="2" t="s">
+      <c r="F385" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G384" s="7" t="s">
+      <c r="G385" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H384" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="B385" s="4"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="6" t="s">
+      <c r="H385" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B386" s="4"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G385" s="7"/>
-      <c r="H385" s="5"/>
-      <c r="I385" s="4"/>
-      <c r="J385" s="4"/>
-      <c r="K385" s="4"/>
-      <c r="L385" s="4"/>
-      <c r="M385" s="4"/>
-      <c r="N385" s="4"/>
-      <c r="O385" s="4"/>
-      <c r="P385" s="4"/>
-      <c r="Q385" s="4"/>
-      <c r="R385" s="4"/>
-      <c r="S385" s="4"/>
-      <c r="T385" s="4"/>
-      <c r="U385" s="4"/>
-      <c r="V385" s="4"/>
-      <c r="W385" s="4"/>
-      <c r="X385" s="4"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D386" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G386" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H386" s="2" t="s">
-        <v>642</v>
-      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="4"/>
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="4"/>
+      <c r="N386" s="4"/>
+      <c r="O386" s="4"/>
+      <c r="P386" s="4"/>
+      <c r="Q386" s="4"/>
+      <c r="R386" s="4"/>
+      <c r="S386" s="4"/>
+      <c r="T386" s="4"/>
+      <c r="U386" s="4"/>
+      <c r="V386" s="4"/>
+      <c r="W386" s="4"/>
+      <c r="X386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>17</v>
@@ -12260,42 +12275,52 @@
         <v>18</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D388" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="G388" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>49</v>
+        <v>647</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D389" s="2">
+        <v>5.0</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G389" s="7"/>
-      <c r="H389" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>9</v>
@@ -12305,7 +12330,7 @@
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>9</v>
@@ -12315,134 +12340,134 @@
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>11</v>
+        <v>651</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G392" s="7"/>
-      <c r="H392" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D393" s="2">
-        <v>6.0</v>
+        <v>33</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G393" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G393" s="7"/>
       <c r="H393" s="2" t="s">
-        <v>651</v>
+        <v>49</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C394" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D394" s="2">
+        <v>6.0</v>
+      </c>
       <c r="F394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G394" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G394" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D395" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C395" s="2"/>
       <c r="F395" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G395" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H395" s="2" t="s">
-        <v>298</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G395" s="7"/>
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C396" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D396" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G396" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G396" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D397" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C397" s="2"/>
       <c r="F397" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G397" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>657</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G397" s="7"/>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
         <v>658</v>
       </c>
+      <c r="C398" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D398" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G398" s="7"/>
-      <c r="H398" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="C399" s="2"/>
+        <v>661</v>
+      </c>
       <c r="F399" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G399" s="7"/>
+      <c r="H399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C400" s="2"/>
       <c r="F400" s="2" t="s">
@@ -12452,7 +12477,7 @@
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C401" s="2"/>
       <c r="F401" s="2" t="s">
@@ -12462,56 +12487,57 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D402" s="2">
-        <v>4.0</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="C402" s="2"/>
       <c r="F402" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>663</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G402" s="7"/>
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D403" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G403" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="G403" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D404" s="2">
+        <v>2.0</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G404" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G404" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>9</v>
@@ -12520,138 +12546,137 @@
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D406" s="2">
-        <v>6.0</v>
+        <v>670</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G406" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>668</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G406" s="7"/>
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D407" s="2">
+        <v>6.0</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G407" s="7"/>
-      <c r="H407" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D408" s="2">
-        <v>2.0</v>
+        <v>672</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G408" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>672</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G408" s="7"/>
+      <c r="H408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
         <v>673</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>133</v>
+        <v>674</v>
       </c>
       <c r="D409" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D410" s="2">
+        <v>6.0</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G410" s="7"/>
-      <c r="H410" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D411" s="2">
-        <v>6.0</v>
+        <v>678</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G411" s="7"/>
-      <c r="H411" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="H411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D412" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>11</v>
+        <v>6.0</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G412" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G412" s="7"/>
       <c r="H412" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G413" s="7"/>
-      <c r="H413" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -12661,16 +12686,17 @@
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G415" s="7"/>
+      <c r="H415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>9</v>
@@ -12679,7 +12705,7 @@
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -12688,47 +12714,46 @@
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G418" s="7"/>
-      <c r="H418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D419" s="2">
-        <v>2.0</v>
+        <v>688</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G419" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H419" s="2" t="s">
-        <v>686</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G419" s="7"/>
+      <c r="H419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" s="2">
+        <v>2.0</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G420" s="7"/>
-      <c r="H420" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -12738,33 +12763,23 @@
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>11</v>
+        <v>691</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D423" s="2">
-        <v>8.0</v>
+      <c r="D423" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>11</v>
@@ -12773,75 +12788,85 @@
         <v>34</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>692</v>
+        <v>14</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="B424" s="4"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="5"/>
-      <c r="F424" s="6" t="s">
+      <c r="A424" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D424" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B425" s="4"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G424" s="7"/>
-      <c r="H424" s="5"/>
-      <c r="I424" s="4"/>
-      <c r="J424" s="4"/>
-      <c r="K424" s="4"/>
-      <c r="L424" s="4"/>
-      <c r="M424" s="4"/>
-      <c r="N424" s="4"/>
-      <c r="O424" s="4"/>
-      <c r="P424" s="4"/>
-      <c r="Q424" s="4"/>
-      <c r="R424" s="4"/>
-      <c r="S424" s="4"/>
-      <c r="T424" s="4"/>
-      <c r="U424" s="4"/>
-      <c r="V424" s="4"/>
-      <c r="W424" s="4"/>
-      <c r="X424" s="4"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D425" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G425" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G425" s="7"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="4"/>
+      <c r="J425" s="4"/>
+      <c r="K425" s="4"/>
+      <c r="L425" s="4"/>
+      <c r="M425" s="4"/>
+      <c r="N425" s="4"/>
+      <c r="O425" s="4"/>
+      <c r="P425" s="4"/>
+      <c r="Q425" s="4"/>
+      <c r="R425" s="4"/>
+      <c r="S425" s="4"/>
+      <c r="T425" s="4"/>
+      <c r="U425" s="4"/>
+      <c r="V425" s="4"/>
+      <c r="W425" s="4"/>
+      <c r="X425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G426" s="7"/>
-      <c r="H426" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -12851,7 +12876,7 @@
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -12861,7 +12886,7 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -12871,99 +12896,106 @@
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="C430" s="2"/>
+        <v>700</v>
+      </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G430" s="7"/>
+      <c r="H430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D431" s="2">
-        <v>6.0</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="C431" s="2"/>
       <c r="F431" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G431" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H431" s="2" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D432" s="2">
+        <v>6.0</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G432" s="7"/>
-      <c r="H432" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D433" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>11</v>
+        <v>703</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="G433" s="7"/>
-      <c r="H433" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D434" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="G434" s="7"/>
-      <c r="H434" s="2"/>
+      <c r="H434" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="C435" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G435" s="7"/>
+      <c r="H435" s="2"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D436" s="2">
         <v>2.0</v>
       </c>
-      <c r="E435" s="2" t="s">
+      <c r="E436" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F435" s="2" t="s">
+      <c r="F436" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G435" s="2" t="s">
+      <c r="G436" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H435" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="436">
-      <c r="C436" s="2"/>
     </row>
     <row r="437">
       <c r="C437" s="2"/>
@@ -14950,8 +14982,8 @@
     <hyperlink r:id="rId344" ref="A343"/>
     <hyperlink r:id="rId345" ref="A344"/>
     <hyperlink r:id="rId346" ref="A345"/>
-    <hyperlink r:id="rId347" location="/leaderboard" ref="A346"/>
-    <hyperlink r:id="rId348" ref="A347"/>
+    <hyperlink r:id="rId347" ref="A346"/>
+    <hyperlink r:id="rId348" location="/leaderboard" ref="A347"/>
     <hyperlink r:id="rId349" ref="A348"/>
     <hyperlink r:id="rId350" ref="A349"/>
     <hyperlink r:id="rId351" ref="A350"/>
@@ -14965,8 +14997,8 @@
     <hyperlink r:id="rId359" ref="A358"/>
     <hyperlink r:id="rId360" ref="A359"/>
     <hyperlink r:id="rId361" ref="A360"/>
-    <hyperlink r:id="rId362" ref="H360"/>
-    <hyperlink r:id="rId363" ref="A361"/>
+    <hyperlink r:id="rId362" ref="A361"/>
+    <hyperlink r:id="rId363" ref="H361"/>
     <hyperlink r:id="rId364" ref="A362"/>
     <hyperlink r:id="rId365" ref="A363"/>
     <hyperlink r:id="rId366" ref="A364"/>
@@ -15041,9 +15073,10 @@
     <hyperlink r:id="rId435" ref="A433"/>
     <hyperlink r:id="rId436" ref="A434"/>
     <hyperlink r:id="rId437" ref="A435"/>
+    <hyperlink r:id="rId438" ref="A436"/>
   </hyperlinks>
-  <drawing r:id="rId438"/>
-  <legacyDrawing r:id="rId439"/>
+  <drawing r:id="rId439"/>
+  <legacyDrawing r:id="rId440"/>
 </worksheet>
 </file>
 
@@ -15062,23 +15095,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -15106,27 +15139,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -15152,67 +15185,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -15253,282 +15286,282 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="17" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="9" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="17" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -15624,84 +15657,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" s="17" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="9" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="17" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -15742,142 +15775,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21"/>
       <c r="E5" s="9" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="9" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="17" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="9" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="9" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="9" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="17" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37">
@@ -15937,53 +15970,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -16018,25 +16051,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16062,25 +16095,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16106,20 +16139,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16146,17 +16179,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16183,14 +16216,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16217,12 +16250,12 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="22" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16249,14 +16282,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46060,93 +46093,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -46190,48 +46223,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2365,7 +2365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="902">
   <si>
     <t>Name</t>
   </si>
@@ -2437,6 +2437,9 @@
   </si>
   <si>
     <t>ActivityNet-QA</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>ADE20K</t>
@@ -4575,66 +4578,69 @@
     <t>https://github.com/stanford-crfm/fmti/issues/2</t>
   </si>
   <si>
+    <t>https://github.com/open-compass/DevBench/issues/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/687</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/785</t>
+  </si>
+  <si>
     <t>https://github.com/open-compass/LawBench/issues/7</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/687</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/785</t>
+    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/26</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/26</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
   </si>
   <si>
@@ -4650,34 +4656,34 @@
     <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
   </si>
   <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
+  </si>
+  <si>
     <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
   </si>
   <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
@@ -5630,6 +5636,9 @@
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5638,7 +5647,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -5648,7 +5657,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -5660,95 +5669,95 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>6.0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>2.0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2">
         <v>6.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>6.0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -5758,7 +5767,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -5768,27 +5777,27 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>2.0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -5804,32 +5813,32 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>1.0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -5844,15 +5853,15 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -5861,7 +5870,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -5871,7 +5880,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -5886,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
@@ -5894,7 +5903,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -5924,7 +5933,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -5934,7 +5943,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -5943,10 +5952,10 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>2.0</v>
@@ -5955,18 +5964,18 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -5976,7 +5985,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -5986,7 +5995,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -5996,7 +6005,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -6006,7 +6015,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -6016,7 +6025,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="F33" s="2" t="s">
@@ -6026,7 +6035,7 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -6036,7 +6045,7 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="14"/>
@@ -6066,10 +6075,10 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2">
         <v>6.0</v>
@@ -6078,18 +6087,18 @@
         <v>18</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2">
         <v>6.0</v>
@@ -6098,21 +6107,21 @@
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2">
         <v>1.0</v>
@@ -6121,16 +6130,16 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -6139,27 +6148,27 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>6.0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -6169,7 +6178,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -6179,10 +6188,10 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>4.0</v>
@@ -6191,16 +6200,16 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -6215,18 +6224,18 @@
         <v>18</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2">
         <v>6.0</v>
@@ -6235,15 +6244,15 @@
         <v>18</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -6253,13 +6262,13 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2">
         <v>25.0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2">
         <v>2.0</v>
@@ -6274,12 +6283,12 @@
         <v>13</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -6294,18 +6303,18 @@
         <v>18</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2">
         <v>2.0</v>
@@ -6314,18 +6323,18 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
@@ -6338,15 +6347,15 @@
         <v>18</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -6356,28 +6365,28 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -6387,13 +6396,13 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2">
         <v>2.0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2">
         <v>2.0</v>
@@ -6402,18 +6411,18 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
@@ -6425,15 +6434,15 @@
         <v>18</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2"/>
       <c r="F56" s="2" t="s">
@@ -6443,7 +6452,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -6453,7 +6462,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -6463,7 +6472,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -6473,7 +6482,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -6483,7 +6492,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
@@ -6495,15 +6504,15 @@
         <v>18</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
@@ -6515,15 +6524,15 @@
         <v>18</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -6533,7 +6542,7 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -6543,13 +6552,13 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -6558,38 +6567,38 @@
         <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2">
         <v>6.0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D67" s="2">
         <v>4.0</v>
@@ -6598,15 +6607,15 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -6622,12 +6631,12 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -6636,7 +6645,7 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -6646,10 +6655,10 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D71" s="2">
         <v>2.0</v>
@@ -6658,15 +6667,15 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
@@ -6681,18 +6690,18 @@
         <v>18</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="2">
         <v>6.0</v>
@@ -6701,15 +6710,15 @@
         <v>18</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -6719,7 +6728,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="2"/>
       <c r="F75" s="2" t="s">
@@ -6729,7 +6738,7 @@
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
@@ -6745,12 +6754,12 @@
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -6759,10 +6768,10 @@
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D78" s="2">
         <v>6.0</v>
@@ -6771,15 +6780,15 @@
         <v>12</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -6789,7 +6798,7 @@
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -6798,7 +6807,7 @@
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -6807,10 +6816,10 @@
     </row>
     <row r="82">
       <c r="A82" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D82" s="2">
         <v>6.0</v>
@@ -6822,15 +6831,15 @@
         <v>12</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -6840,7 +6849,7 @@
     </row>
     <row r="84">
       <c r="A84" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -6849,10 +6858,10 @@
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D85" s="2">
         <v>2.0</v>
@@ -6861,21 +6870,21 @@
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>6.0</v>
@@ -6884,18 +6893,18 @@
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -6905,7 +6914,7 @@
     </row>
     <row r="88">
       <c r="A88" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -6915,27 +6924,27 @@
     </row>
     <row r="89">
       <c r="A89" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D89" s="2">
         <v>2.0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
@@ -6950,7 +6959,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>14</v>
@@ -6958,10 +6967,10 @@
     </row>
     <row r="91">
       <c r="A91" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D91" s="2">
         <v>6.0</v>
@@ -6970,18 +6979,18 @@
         <v>18</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D92" s="2">
         <v>2.0</v>
@@ -6993,19 +7002,19 @@
         <v>18</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D93" s="2">
         <v>6.0</v>
@@ -7015,10 +7024,10 @@
         <v>18</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7039,7 +7048,7 @@
     </row>
     <row r="94">
       <c r="A94" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -7048,7 +7057,7 @@
     </row>
     <row r="95">
       <c r="A95" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -7058,7 +7067,7 @@
     </row>
     <row r="96">
       <c r="A96" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
@@ -7073,15 +7082,15 @@
         <v>18</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -7096,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>14</v>
@@ -7104,30 +7113,30 @@
     </row>
     <row r="98">
       <c r="A98" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2">
         <v>6.0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D99" s="2">
         <v>1.0</v>
@@ -7139,15 +7148,15 @@
         <v>18</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -7159,15 +7168,15 @@
         <v>18</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -7177,10 +7186,10 @@
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D102" s="2">
         <v>6.0</v>
@@ -7189,18 +7198,18 @@
         <v>18</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D103" s="2">
         <v>2.0</v>
@@ -7213,12 +7222,12 @@
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -7248,7 +7257,7 @@
     </row>
     <row r="105">
       <c r="A105" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -7258,7 +7267,7 @@
     </row>
     <row r="106">
       <c r="A106" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
@@ -7273,15 +7282,15 @@
         <v>18</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -7293,18 +7302,18 @@
         <v>18</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>4.0</v>
@@ -7313,42 +7322,42 @@
         <v>11</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D110" s="2">
         <v>6.0</v>
@@ -7357,21 +7366,21 @@
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D111" s="2">
         <v>6.0</v>
@@ -7380,15 +7389,15 @@
         <v>18</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -7403,15 +7412,15 @@
         <v>18</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -7423,15 +7432,15 @@
         <v>18</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -7443,15 +7452,15 @@
         <v>18</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -7461,7 +7470,7 @@
     </row>
     <row r="116">
       <c r="A116" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
@@ -7477,12 +7486,12 @@
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C117" s="2"/>
       <c r="F117" s="2" t="s">
@@ -7492,7 +7501,7 @@
     </row>
     <row r="118">
       <c r="A118" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -7501,13 +7510,13 @@
     </row>
     <row r="119">
       <c r="A119" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D119" s="2">
         <v>4.0</v>
@@ -7517,12 +7526,12 @@
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -7532,7 +7541,7 @@
     </row>
     <row r="121">
       <c r="A121" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -7542,7 +7551,7 @@
     </row>
     <row r="122">
       <c r="A122" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -7552,7 +7561,7 @@
     </row>
     <row r="123">
       <c r="A123" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -7561,47 +7570,47 @@
     </row>
     <row r="124">
       <c r="A124" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>6.0</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>2.0</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>2.0</v>
@@ -7610,21 +7619,21 @@
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D127" s="2">
         <v>6.0</v>
@@ -7633,15 +7642,15 @@
         <v>18</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C128" s="2"/>
       <c r="F128" s="2" t="s">
@@ -7650,7 +7659,7 @@
     </row>
     <row r="129">
       <c r="A129" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -7659,7 +7668,7 @@
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -7674,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>14</v>
@@ -7682,10 +7691,10 @@
     </row>
     <row r="131">
       <c r="A131" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D131" s="2">
         <v>6.0</v>
@@ -7694,18 +7703,18 @@
         <v>18</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D132" s="2">
         <v>2.0</v>
@@ -7714,18 +7723,18 @@
         <v>11</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -7735,7 +7744,7 @@
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -7745,28 +7754,28 @@
     </row>
     <row r="135">
       <c r="A135" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D135" s="2">
         <v>6.0</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>3.0</v>
@@ -7775,19 +7784,19 @@
         <v>11</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>4.0</v>
@@ -7796,21 +7805,21 @@
         <v>11</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D138" s="2">
         <v>6.0</v>
@@ -7819,15 +7828,15 @@
         <v>18</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -7836,7 +7845,7 @@
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -7848,18 +7857,18 @@
         <v>18</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D141" s="2">
         <v>6.0</v>
@@ -7871,15 +7880,15 @@
         <v>12</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -7889,10 +7898,10 @@
     </row>
     <row r="143">
       <c r="A143" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D143" s="2">
         <v>2.0</v>
@@ -7904,21 +7913,21 @@
         <v>12</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D144" s="2">
         <v>6.0</v>
@@ -7930,18 +7939,18 @@
         <v>12</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D145" s="2">
         <v>6.0</v>
@@ -7953,18 +7962,18 @@
         <v>12</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D146" s="2">
         <v>6.0</v>
@@ -7976,19 +7985,19 @@
         <v>12</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D147" s="2">
         <v>6.0</v>
@@ -8001,7 +8010,7 @@
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8022,27 +8031,27 @@
     </row>
     <row r="148">
       <c r="A148" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D148" s="2">
         <v>4.0</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C149" s="2"/>
       <c r="F149" s="2" t="s">
@@ -8052,7 +8061,7 @@
     </row>
     <row r="150">
       <c r="A150" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -8062,7 +8071,7 @@
     </row>
     <row r="151">
       <c r="A151" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -8071,7 +8080,7 @@
     </row>
     <row r="152">
       <c r="A152" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
@@ -8085,12 +8094,12 @@
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C153" s="2"/>
       <c r="F153" s="2" t="s">
@@ -8100,7 +8109,7 @@
     </row>
     <row r="154">
       <c r="A154" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -8110,7 +8119,7 @@
     </row>
     <row r="155">
       <c r="A155" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -8120,27 +8129,27 @@
     </row>
     <row r="156">
       <c r="A156" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>1.0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D157" s="2">
         <v>6.0</v>
@@ -8152,18 +8161,18 @@
         <v>18</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D158" s="2">
         <v>2.0</v>
@@ -8172,18 +8181,18 @@
         <v>11</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -8213,7 +8222,7 @@
     </row>
     <row r="160">
       <c r="A160" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C160" s="2"/>
       <c r="F160" s="2" t="s">
@@ -8223,10 +8232,10 @@
     </row>
     <row r="161">
       <c r="A161" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D161" s="2">
         <v>6.0</v>
@@ -8238,15 +8247,15 @@
         <v>18</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B162" s="2">
         <v>2.0</v>
@@ -8261,15 +8270,15 @@
         <v>18</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C163" s="2"/>
       <c r="F163" s="2" t="s">
@@ -8279,7 +8288,7 @@
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -8289,25 +8298,25 @@
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>8.0</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -8316,27 +8325,27 @@
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D167" s="2">
         <v>1.0</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D168" s="2">
         <v>6.0</v>
@@ -8345,15 +8354,15 @@
         <v>18</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -8365,15 +8374,15 @@
         <v>18</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -8383,10 +8392,10 @@
     </row>
     <row r="171">
       <c r="A171" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
@@ -8399,15 +8408,15 @@
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D172" s="2">
         <v>4.0</v>
@@ -8416,18 +8425,18 @@
         <v>12</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D173" s="2">
         <v>1.0</v>
@@ -8436,35 +8445,35 @@
         <v>18</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D174" s="2">
         <v>6.0</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -8474,27 +8483,27 @@
     </row>
     <row r="176">
       <c r="A176" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D176" s="2">
         <v>6.0</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -8503,10 +8512,10 @@
     </row>
     <row r="178">
       <c r="A178" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D178" s="2">
         <v>1.0</v>
@@ -8515,18 +8524,18 @@
         <v>11</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -8536,45 +8545,45 @@
     </row>
     <row r="180">
       <c r="A180" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D180" s="2">
         <v>6.0</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" s="7"/>
       <c r="H180" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D181" s="2">
         <v>1.0</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>4.0</v>
@@ -8583,21 +8592,21 @@
         <v>11</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D183" s="2">
         <v>1.0</v>
@@ -8606,19 +8615,19 @@
         <v>11</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D184" s="2">
         <v>6.0</v>
@@ -8627,57 +8636,57 @@
         <v>11</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D185" s="2">
         <v>2.0</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D186" s="2">
         <v>6.0</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D187" s="2">
         <v>4.0</v>
@@ -8687,15 +8696,15 @@
       </c>
       <c r="G187" s="11"/>
       <c r="H187" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D188" s="2">
         <v>6.0</v>
@@ -8704,55 +8713,55 @@
         <v>12</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D190" s="2">
         <v>4.0</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
@@ -8764,18 +8773,18 @@
         <v>18</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D192" s="2">
         <v>2.0</v>
@@ -8787,21 +8796,21 @@
         <v>12</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>11</v>
@@ -8810,18 +8819,18 @@
         <v>12</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D194" s="2">
         <v>6.0</v>
@@ -8830,21 +8839,21 @@
         <v>18</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>11</v>
@@ -8853,15 +8862,15 @@
         <v>18</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -8871,10 +8880,10 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D197" s="2">
         <v>6.0</v>
@@ -8883,15 +8892,15 @@
         <v>18</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
@@ -8906,15 +8915,15 @@
         <v>18</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -8924,13 +8933,13 @@
     </row>
     <row r="200">
       <c r="A200" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -8939,18 +8948,18 @@
         <v>18</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D201" s="2">
         <v>2.0</v>
@@ -8962,15 +8971,15 @@
         <v>18</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -8980,7 +8989,7 @@
     </row>
     <row r="203">
       <c r="A203" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -8990,7 +8999,7 @@
     </row>
     <row r="204">
       <c r="A204" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -9005,7 +9014,7 @@
         <v>12</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>14</v>
@@ -9013,10 +9022,10 @@
     </row>
     <row r="205">
       <c r="A205" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D205" s="2">
         <v>2.0</v>
@@ -9025,15 +9034,15 @@
         <v>12</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C206" s="2"/>
       <c r="F206" s="2" t="s">
@@ -9043,7 +9052,7 @@
     </row>
     <row r="207">
       <c r="A207" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -9053,10 +9062,10 @@
     </row>
     <row r="208">
       <c r="A208" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D208" s="2">
         <v>2.0</v>
@@ -9068,18 +9077,18 @@
         <v>18</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D209" s="2">
         <v>1.0</v>
@@ -9088,15 +9097,15 @@
         <v>11</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -9105,7 +9114,7 @@
     </row>
     <row r="211">
       <c r="A211" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>17</v>
@@ -9117,18 +9126,18 @@
         <v>18</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D212" s="2">
         <v>2.0</v>
@@ -9137,15 +9146,15 @@
         <v>12</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -9154,10 +9163,10 @@
     </row>
     <row r="214">
       <c r="A214" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D214" s="2">
         <v>4.0</v>
@@ -9166,38 +9175,38 @@
         <v>11</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D215" s="2">
         <v>2.0</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -9207,10 +9216,10 @@
     </row>
     <row r="217">
       <c r="A217" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D217" s="2">
         <v>2.0</v>
@@ -9219,18 +9228,18 @@
         <v>11</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>17</v>
@@ -9242,21 +9251,21 @@
         <v>18</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>11</v>
@@ -9265,15 +9274,15 @@
         <v>18</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -9282,7 +9291,7 @@
     </row>
     <row r="221">
       <c r="A221" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>17</v>
@@ -9297,18 +9306,18 @@
         <v>18</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D222" s="2">
         <v>6.0</v>
@@ -9317,21 +9326,21 @@
         <v>11</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D223" s="2">
         <v>2.0</v>
@@ -9343,18 +9352,18 @@
         <v>18</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D224" s="2">
         <v>1.0</v>
@@ -9363,18 +9372,18 @@
         <v>18</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D225" s="2">
         <v>6.0</v>
@@ -9383,18 +9392,18 @@
         <v>18</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D226" s="2">
         <v>6.0</v>
@@ -9403,15 +9412,15 @@
         <v>18</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -9426,7 +9435,7 @@
         <v>12</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>14</v>
@@ -9434,10 +9443,10 @@
     </row>
     <row r="228">
       <c r="A228" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D228" s="2">
         <v>6.0</v>
@@ -9450,12 +9459,12 @@
       </c>
       <c r="G228" s="7"/>
       <c r="H228" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C229" s="2"/>
       <c r="F229" s="2" t="s">
@@ -9465,7 +9474,7 @@
     </row>
     <row r="230">
       <c r="A230" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -9475,7 +9484,7 @@
     </row>
     <row r="231">
       <c r="A231" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -9485,7 +9494,7 @@
     </row>
     <row r="232">
       <c r="A232" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -9495,7 +9504,7 @@
     </row>
     <row r="233">
       <c r="A233" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -9505,25 +9514,25 @@
     </row>
     <row r="234">
       <c r="A234" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>6.0</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G234" s="7"/>
       <c r="H234" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>17</v>
@@ -9535,15 +9544,15 @@
         <v>18</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -9553,7 +9562,7 @@
     </row>
     <row r="237">
       <c r="A237" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -9563,10 +9572,10 @@
     </row>
     <row r="238">
       <c r="A238" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D238" s="2">
         <v>1.0</v>
@@ -9575,18 +9584,18 @@
         <v>11</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -9596,7 +9605,7 @@
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -9605,7 +9614,7 @@
     </row>
     <row r="241">
       <c r="A241" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -9614,7 +9623,7 @@
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C242" s="2"/>
       <c r="F242" s="2" t="s">
@@ -9624,30 +9633,30 @@
     </row>
     <row r="243">
       <c r="A243" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D243" s="2">
         <v>1.0</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>6.0</v>
@@ -9656,19 +9665,19 @@
         <v>11</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G244" s="7"/>
       <c r="H244" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>6.0</v>
@@ -9677,34 +9686,34 @@
         <v>11</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G245" s="11"/>
       <c r="H245" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>6.0</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
@@ -9719,7 +9728,7 @@
         <v>12</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>14</v>
@@ -9727,7 +9736,7 @@
     </row>
     <row r="248">
       <c r="A248" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -9737,27 +9746,27 @@
     </row>
     <row r="249">
       <c r="A249" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D249" s="2">
         <v>6.0</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -9766,7 +9775,7 @@
     </row>
     <row r="251">
       <c r="A251" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -9776,10 +9785,10 @@
     </row>
     <row r="252">
       <c r="A252" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D252" s="2">
         <v>6.0</v>
@@ -9788,18 +9797,18 @@
         <v>11</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>17</v>
@@ -9811,15 +9820,15 @@
         <v>18</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -9829,10 +9838,10 @@
     </row>
     <row r="255">
       <c r="A255" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>1.0</v>
@@ -9841,21 +9850,21 @@
         <v>11</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D256" s="2">
         <v>6.0</v>
@@ -9864,15 +9873,15 @@
         <v>18</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -9882,7 +9891,7 @@
     </row>
     <row r="258">
       <c r="A258" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -9892,10 +9901,10 @@
     </row>
     <row r="259">
       <c r="A259" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>4.0</v>
@@ -9904,21 +9913,21 @@
         <v>11</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D260" s="2">
         <v>6.0</v>
@@ -9927,39 +9936,39 @@
         <v>11</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>4.0</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G261" s="7"/>
       <c r="H261" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
         <v>4.0</v>
@@ -9968,19 +9977,19 @@
         <v>11</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D263" s="2">
         <v>4.0</v>
@@ -9989,19 +9998,19 @@
         <v>11</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
         <v>4.0</v>
@@ -10010,19 +10019,19 @@
         <v>11</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
         <v>4.0</v>
@@ -10031,21 +10040,21 @@
         <v>11</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2">
         <v>6.0</v>
@@ -10054,19 +10063,19 @@
         <v>11</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G266" s="7"/>
       <c r="H266" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
         <v>4.0</v>
@@ -10075,19 +10084,19 @@
         <v>11</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G267" s="7"/>
       <c r="H267" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
         <v>2.0</v>
@@ -10096,19 +10105,19 @@
         <v>11</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D269" s="2">
         <v>6.0</v>
@@ -10117,21 +10126,21 @@
         <v>11</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D270" s="2">
         <v>4.0</v>
@@ -10140,40 +10149,40 @@
         <v>11</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G270" s="7"/>
       <c r="H270" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D272" s="2">
         <v>4.0</v>
@@ -10182,16 +10191,16 @@
         <v>11</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G272" s="11"/>
       <c r="H272" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -10221,7 +10230,7 @@
     </row>
     <row r="274">
       <c r="A274" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>10</v>
@@ -10236,7 +10245,7 @@
         <v>12</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>14</v>
@@ -10244,31 +10253,31 @@
     </row>
     <row r="275">
       <c r="A275" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G275" s="7"/>
       <c r="H275" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D276" s="2">
         <v>4.0</v>
@@ -10277,19 +10286,19 @@
         <v>11</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G276" s="11"/>
       <c r="H276" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D277" s="2">
         <v>6.0</v>
@@ -10298,15 +10307,15 @@
         <v>18</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>17</v>
@@ -10318,33 +10327,33 @@
         <v>18</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G279" s="7"/>
       <c r="H279" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>17</v>
@@ -10356,15 +10365,15 @@
         <v>18</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D281" s="2">
         <v>4.0</v>
@@ -10373,15 +10382,15 @@
         <v>11</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C282" s="2"/>
       <c r="F282" s="2" t="s">
@@ -10391,7 +10400,7 @@
     </row>
     <row r="283">
       <c r="A283" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>17</v>
@@ -10406,15 +10415,15 @@
         <v>18</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -10424,7 +10433,7 @@
     </row>
     <row r="285">
       <c r="A285" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -10454,7 +10463,7 @@
     </row>
     <row r="286">
       <c r="A286" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>10</v>
@@ -10469,7 +10478,7 @@
         <v>12</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>14</v>
@@ -10477,7 +10486,7 @@
     </row>
     <row r="287">
       <c r="A287" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -10486,10 +10495,10 @@
     </row>
     <row r="288">
       <c r="A288" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D288" s="2">
         <v>6.0</v>
@@ -10498,36 +10507,36 @@
         <v>12</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D289" s="2">
         <v>4.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G289" s="11"/>
       <c r="H289" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D290" s="2">
         <v>6.0</v>
@@ -10540,12 +10549,12 @@
       </c>
       <c r="G290" s="7"/>
       <c r="H290" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>17</v>
@@ -10557,15 +10566,15 @@
         <v>18</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>10</v>
@@ -10580,7 +10589,7 @@
         <v>12</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>14</v>
@@ -10588,7 +10597,7 @@
     </row>
     <row r="293">
       <c r="A293" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C293" s="2"/>
       <c r="F293" s="2" t="s">
@@ -10598,7 +10607,7 @@
     </row>
     <row r="294">
       <c r="A294" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -10607,7 +10616,7 @@
     </row>
     <row r="295">
       <c r="A295" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>17</v>
@@ -10622,35 +10631,35 @@
         <v>18</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D296" s="2">
         <v>6.0</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>10</v>
@@ -10665,7 +10674,7 @@
         <v>12</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>14</v>
@@ -10673,7 +10682,7 @@
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -10683,7 +10692,7 @@
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>17</v>
@@ -10698,15 +10707,15 @@
         <v>18</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -10716,7 +10725,7 @@
     </row>
     <row r="301">
       <c r="A301" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="5"/>
@@ -10746,27 +10755,27 @@
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D302" s="2">
         <v>2.0</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C303" s="2"/>
       <c r="F303" s="2" t="s">
@@ -10776,7 +10785,7 @@
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -10786,10 +10795,10 @@
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D305" s="2">
         <v>4.0</v>
@@ -10798,15 +10807,15 @@
         <v>11</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>17</v>
@@ -10818,15 +10827,15 @@
         <v>18</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -10836,7 +10845,7 @@
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>17</v>
@@ -10848,15 +10857,15 @@
         <v>18</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>17</v>
@@ -10871,15 +10880,15 @@
         <v>18</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D310" s="2">
         <v>6.0</v>
@@ -10888,18 +10897,18 @@
         <v>11</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -10909,7 +10918,7 @@
     </row>
     <row r="312">
       <c r="A312" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>17</v>
@@ -10921,15 +10930,15 @@
         <v>18</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -10939,10 +10948,10 @@
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D314" s="2">
         <v>2.0</v>
@@ -10954,18 +10963,18 @@
         <v>12</v>
       </c>
       <c r="G314" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D315" s="2">
         <v>2.0</v>
@@ -10974,21 +10983,21 @@
         <v>11</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D316" s="2">
         <v>6.0</v>
@@ -10997,21 +11006,21 @@
         <v>11</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D317" s="2">
         <v>6.0</v>
@@ -11020,15 +11029,15 @@
         <v>12</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -11037,10 +11046,10 @@
     </row>
     <row r="319">
       <c r="A319" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D319" s="2">
         <v>1.0</v>
@@ -11052,15 +11061,15 @@
         <v>18</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>17</v>
@@ -11072,15 +11081,15 @@
         <v>18</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -11089,7 +11098,7 @@
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -11101,10 +11110,10 @@
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D323" s="2">
         <v>2.0</v>
@@ -11113,18 +11122,18 @@
         <v>12</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D324" s="2">
         <v>2.0</v>
@@ -11133,24 +11142,24 @@
         <v>11</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>11</v>
@@ -11159,15 +11168,15 @@
         <v>12</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D326" s="2">
         <v>2.0</v>
@@ -11176,18 +11185,18 @@
         <v>11</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>10</v>
@@ -11210,7 +11219,7 @@
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -11220,7 +11229,7 @@
     </row>
     <row r="329">
       <c r="A329" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C329" s="2"/>
       <c r="F329" s="2" t="s">
@@ -11230,7 +11239,7 @@
     </row>
     <row r="330">
       <c r="A330" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
@@ -11260,7 +11269,7 @@
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>10</v>
@@ -11275,7 +11284,7 @@
         <v>12</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>14</v>
@@ -11283,7 +11292,7 @@
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
@@ -11293,10 +11302,10 @@
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D333" s="2">
         <v>3.0</v>
@@ -11305,16 +11314,16 @@
         <v>11</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G333" s="10"/>
       <c r="H333" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C334" s="2"/>
       <c r="F334" s="2" t="s">
@@ -11324,7 +11333,7 @@
     </row>
     <row r="335">
       <c r="A335" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="5"/>
@@ -11354,7 +11363,7 @@
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>17</v>
@@ -11369,15 +11378,15 @@
         <v>18</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -11387,7 +11396,7 @@
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>9</v>
@@ -11397,7 +11406,7 @@
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -11407,7 +11416,7 @@
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -11417,7 +11426,7 @@
     </row>
     <row r="341">
       <c r="A341" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -11427,7 +11436,7 @@
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
@@ -11436,7 +11445,7 @@
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>10</v>
@@ -11451,7 +11460,7 @@
         <v>12</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>14</v>
@@ -11459,7 +11468,7 @@
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>9</v>
@@ -11469,10 +11478,10 @@
     </row>
     <row r="345">
       <c r="A345" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D345" s="2">
         <v>4.0</v>
@@ -11481,16 +11490,16 @@
         <v>11</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G345" s="7"/>
       <c r="H345" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>17</v>
@@ -11502,18 +11511,18 @@
         <v>18</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D347" s="2">
         <v>4.0</v>
@@ -11522,149 +11531,149 @@
         <v>12</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D348" s="2">
         <v>4.0</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D349" s="2">
         <v>4.0</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D350" s="2">
         <v>4.0</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D351" s="2">
         <v>4.0</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D352" s="2">
         <v>4.0</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D353" s="2">
         <v>4.0</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D354" s="19">
         <v>4.0</v>
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
@@ -11685,10 +11694,10 @@
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D355" s="2">
         <v>4.0</v>
@@ -11697,55 +11706,55 @@
         <v>12</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D356" s="2">
         <v>4.0</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D357" s="2">
         <v>4.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G357" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>17</v>
@@ -11758,15 +11767,15 @@
       </c>
       <c r="G358" s="11"/>
       <c r="H358" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D359" s="2">
         <v>4.0</v>
@@ -11776,15 +11785,15 @@
       </c>
       <c r="G359" s="7"/>
       <c r="H359" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D360" s="2">
         <v>2.0</v>
@@ -11796,18 +11805,18 @@
         <v>12</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D361" s="2">
         <v>1.0</v>
@@ -11816,15 +11825,15 @@
         <v>12</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H361" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -11834,7 +11843,7 @@
     </row>
     <row r="363">
       <c r="A363" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B363" s="4"/>
       <c r="C363" s="5"/>
@@ -11864,10 +11873,10 @@
     </row>
     <row r="364">
       <c r="A364" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D364" s="2">
         <v>2.0</v>
@@ -11876,18 +11885,18 @@
         <v>12</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D365" s="2">
         <v>2.0</v>
@@ -11899,18 +11908,18 @@
         <v>18</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D366" s="2">
         <v>1.0</v>
@@ -11922,15 +11931,15 @@
         <v>18</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>9</v>
@@ -11939,7 +11948,7 @@
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>17</v>
@@ -11951,15 +11960,15 @@
         <v>18</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>17</v>
@@ -11971,15 +11980,15 @@
         <v>18</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C370" s="2"/>
       <c r="F370" s="2" t="s">
@@ -11989,10 +11998,10 @@
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D371" s="2">
         <v>6.0</v>
@@ -12005,24 +12014,24 @@
       </c>
       <c r="G371" s="7"/>
       <c r="H371" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C372" s="2"/>
       <c r="F372" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>9</v>
@@ -12032,7 +12041,7 @@
     </row>
     <row r="374">
       <c r="A374" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>9</v>
@@ -12041,27 +12050,27 @@
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>17</v>
@@ -12070,39 +12079,39 @@
         <v>6.0</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D377" s="2">
         <v>4.0</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G377" s="7"/>
       <c r="H377" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D378" s="2">
         <v>6.0</v>
@@ -12111,21 +12120,21 @@
         <v>11</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D379" s="2">
         <v>6.0</v>
@@ -12134,15 +12143,15 @@
         <v>18</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C380" s="2"/>
       <c r="F380" s="2" t="s">
@@ -12152,10 +12161,10 @@
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D381" s="2">
         <v>4.0</v>
@@ -12164,36 +12173,36 @@
         <v>11</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G381" s="7"/>
       <c r="H381" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D382" s="2">
         <v>2.0</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>9</v>
@@ -12203,7 +12212,7 @@
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
@@ -12213,10 +12222,10 @@
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D385" s="2">
         <v>2.0</v>
@@ -12225,15 +12234,15 @@
         <v>18</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="5"/>
@@ -12263,7 +12272,7 @@
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>17</v>
@@ -12275,15 +12284,15 @@
         <v>18</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>17</v>
@@ -12295,32 +12304,32 @@
         <v>18</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D389" s="2">
         <v>5.0</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>9</v>
@@ -12330,7 +12339,7 @@
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>9</v>
@@ -12340,7 +12349,7 @@
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>9</v>
@@ -12350,31 +12359,31 @@
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G393" s="7"/>
       <c r="H393" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D394" s="2">
         <v>6.0</v>
@@ -12383,15 +12392,15 @@
         <v>18</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C395" s="2"/>
       <c r="F395" s="2" t="s">
@@ -12401,10 +12410,10 @@
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D396" s="2">
         <v>6.0</v>
@@ -12413,18 +12422,18 @@
         <v>11</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G396" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C397" s="2"/>
       <c r="F397" s="2" t="s">
@@ -12434,10 +12443,10 @@
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D398" s="2">
         <v>2.0</v>
@@ -12446,18 +12455,18 @@
         <v>11</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>9</v>
@@ -12467,7 +12476,7 @@
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C400" s="2"/>
       <c r="F400" s="2" t="s">
@@ -12477,7 +12486,7 @@
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C401" s="2"/>
       <c r="F401" s="2" t="s">
@@ -12487,7 +12496,7 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C402" s="2"/>
       <c r="F402" s="2" t="s">
@@ -12497,7 +12506,7 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>17</v>
@@ -12509,35 +12518,35 @@
         <v>18</v>
       </c>
       <c r="G403" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D404" s="2">
         <v>2.0</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>9</v>
@@ -12546,7 +12555,7 @@
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>9</v>
@@ -12555,10 +12564,10 @@
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D407" s="2">
         <v>6.0</v>
@@ -12567,15 +12576,15 @@
         <v>18</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
@@ -12585,30 +12594,30 @@
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D409" s="2">
         <v>2.0</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D410" s="2">
         <v>6.0</v>
@@ -12617,15 +12626,15 @@
         <v>12</v>
       </c>
       <c r="G410" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -12635,25 +12644,25 @@
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D412" s="2">
         <v>6.0</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G412" s="7"/>
       <c r="H412" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>17</v>
@@ -12668,15 +12677,15 @@
         <v>18</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -12686,7 +12695,7 @@
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>9</v>
@@ -12696,7 +12705,7 @@
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>9</v>
@@ -12705,7 +12714,7 @@
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -12714,7 +12723,7 @@
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -12723,7 +12732,7 @@
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -12733,27 +12742,27 @@
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D420" s="2">
         <v>2.0</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -12763,7 +12772,7 @@
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -12773,19 +12782,19 @@
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H423" s="2" t="s">
         <v>14</v>
@@ -12793,10 +12802,10 @@
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D424" s="2">
         <v>8.0</v>
@@ -12805,15 +12814,15 @@
         <v>11</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B425" s="4"/>
       <c r="C425" s="5"/>
@@ -12843,7 +12852,7 @@
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>10</v>
@@ -12858,7 +12867,7 @@
         <v>12</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H426" s="2" t="s">
         <v>14</v>
@@ -12866,7 +12875,7 @@
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -12876,7 +12885,7 @@
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -12886,7 +12895,7 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -12896,7 +12905,7 @@
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -12906,7 +12915,7 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C431" s="2"/>
       <c r="F431" s="2" t="s">
@@ -12915,10 +12924,10 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D432" s="2">
         <v>6.0</v>
@@ -12927,15 +12936,15 @@
         <v>18</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
@@ -12945,10 +12954,10 @@
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D434" s="2">
         <v>6.0</v>
@@ -12957,16 +12966,16 @@
         <v>11</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G434" s="7"/>
       <c r="H434" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -12976,7 +12985,7 @@
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>10</v>
@@ -12991,7 +13000,7 @@
         <v>12</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H436" s="2" t="s">
         <v>14</v>
@@ -15095,23 +15104,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -15139,27 +15148,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -15185,67 +15194,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -15286,282 +15295,285 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>745</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>746</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>718</v>
+        <v>752</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>753</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>757</v>
+        <v>758</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>719</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="E7" s="9" t="s">
         <v>762</v>
       </c>
+      <c r="E7" s="17" t="s">
+        <v>763</v>
+      </c>
       <c r="G7" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="17" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -15607,38 +15619,39 @@
     <hyperlink r:id="rId39" ref="B8"/>
     <hyperlink r:id="rId40" ref="C8"/>
     <hyperlink r:id="rId41" ref="D8"/>
-    <hyperlink r:id="rId42" ref="G8"/>
-    <hyperlink r:id="rId43" ref="B9"/>
-    <hyperlink r:id="rId44" ref="C9"/>
-    <hyperlink r:id="rId45" ref="G9"/>
-    <hyperlink r:id="rId46" ref="B10"/>
-    <hyperlink r:id="rId47" ref="C10"/>
-    <hyperlink r:id="rId48" ref="G10"/>
-    <hyperlink r:id="rId49" ref="C11"/>
-    <hyperlink r:id="rId50" ref="G11"/>
-    <hyperlink r:id="rId51" ref="C12"/>
-    <hyperlink r:id="rId52" ref="G12"/>
-    <hyperlink r:id="rId53" ref="C13"/>
-    <hyperlink r:id="rId54" ref="G13"/>
-    <hyperlink r:id="rId55" ref="C14"/>
-    <hyperlink r:id="rId56" ref="G14"/>
-    <hyperlink r:id="rId57" ref="C15"/>
-    <hyperlink r:id="rId58" ref="G15"/>
-    <hyperlink r:id="rId59" ref="C16"/>
-    <hyperlink r:id="rId60" ref="G16"/>
-    <hyperlink r:id="rId61" ref="C17"/>
-    <hyperlink r:id="rId62" ref="G17"/>
-    <hyperlink r:id="rId63" ref="C18"/>
-    <hyperlink r:id="rId64" ref="G18"/>
-    <hyperlink r:id="rId65" ref="C19"/>
-    <hyperlink r:id="rId66" ref="G19"/>
-    <hyperlink r:id="rId67" ref="C20"/>
-    <hyperlink r:id="rId68" ref="G20"/>
-    <hyperlink r:id="rId69" ref="C21"/>
-    <hyperlink r:id="rId70" ref="C22"/>
-    <hyperlink r:id="rId71" ref="C23"/>
+    <hyperlink r:id="rId42" ref="E8"/>
+    <hyperlink r:id="rId43" ref="G8"/>
+    <hyperlink r:id="rId44" ref="B9"/>
+    <hyperlink r:id="rId45" ref="C9"/>
+    <hyperlink r:id="rId46" ref="G9"/>
+    <hyperlink r:id="rId47" ref="B10"/>
+    <hyperlink r:id="rId48" ref="C10"/>
+    <hyperlink r:id="rId49" ref="G10"/>
+    <hyperlink r:id="rId50" ref="C11"/>
+    <hyperlink r:id="rId51" ref="G11"/>
+    <hyperlink r:id="rId52" ref="C12"/>
+    <hyperlink r:id="rId53" ref="G12"/>
+    <hyperlink r:id="rId54" ref="C13"/>
+    <hyperlink r:id="rId55" ref="G13"/>
+    <hyperlink r:id="rId56" ref="C14"/>
+    <hyperlink r:id="rId57" ref="G14"/>
+    <hyperlink r:id="rId58" ref="C15"/>
+    <hyperlink r:id="rId59" ref="G15"/>
+    <hyperlink r:id="rId60" ref="C16"/>
+    <hyperlink r:id="rId61" ref="G16"/>
+    <hyperlink r:id="rId62" ref="C17"/>
+    <hyperlink r:id="rId63" ref="G17"/>
+    <hyperlink r:id="rId64" ref="C18"/>
+    <hyperlink r:id="rId65" ref="G18"/>
+    <hyperlink r:id="rId66" ref="C19"/>
+    <hyperlink r:id="rId67" ref="G19"/>
+    <hyperlink r:id="rId68" ref="C20"/>
+    <hyperlink r:id="rId69" ref="G20"/>
+    <hyperlink r:id="rId70" ref="C21"/>
+    <hyperlink r:id="rId71" ref="C22"/>
+    <hyperlink r:id="rId72" ref="C23"/>
   </hyperlinks>
-  <drawing r:id="rId72"/>
+  <drawing r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -15657,84 +15670,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>708</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" s="17" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -15775,142 +15788,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21"/>
       <c r="E5" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="9" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="17" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="9" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="17" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="9" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37">
@@ -15970,53 +15983,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -16051,25 +16064,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16095,25 +16108,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16139,20 +16152,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16179,17 +16192,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16216,14 +16229,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16250,12 +16263,12 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16282,14 +16295,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46093,93 +46106,93 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -46223,48 +46236,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B47">
+      <text>
+        <t xml:space="preserve">https://github.com/thodan/bop_toolkit/issues/119
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B162">
+      <text>
+        <t xml:space="preserve">https://github.com/princeton-nlp/intercode/issues/23
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="H325">
       <text>
         <t xml:space="preserve">https://scale.com/
@@ -2210,7 +2222,9 @@
     </comment>
     <comment authorId="0" ref="B144">
       <text>
-        <t xml:space="preserve">There is no way to know the exact number for now.
+        <t xml:space="preserve">https://github.com/stanford-crfm/helm/issues/2238
+	-Jimmy Chou
+There is no way to know the exact number for now.
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -2365,7 +2379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="903">
   <si>
     <t>Name</t>
   </si>
@@ -4518,6 +4532,9 @@
     <t>https://github.com/open-compass/MathBench/issues/4</t>
   </si>
   <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2238</t>
+  </si>
+  <si>
     <t>https://github.com/stanford-crfm/helm/issues/2351</t>
   </si>
   <si>
@@ -4986,55 +5003,55 @@
     <t>https://github.com/llmeval/llmeval-3/issues/1</t>
   </si>
   <si>
+    <t>https://github.com/princeton-nlp/intercode/issues/23</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
+  </si>
+  <si>
     <t>https://github.com/stanford-crfm/helm/issues/2008</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2238</t>
-  </si>
-  <si>
     <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
     <t>https://github.com/thodan/bop_toolkit/issues/119</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
   </si>
   <si>
     <t>https://github.com/THU-KEG/KoLA/issues/18</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
   </si>
   <si>
     <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
   </si>
   <si>
+    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
+  </si>
+  <si>
     <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2176</t>
@@ -6398,9 +6415,6 @@
       <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="2">
-        <v>2.0</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
@@ -7511,9 +7525,6 @@
     <row r="119">
       <c r="A119" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>92</v>
@@ -14763,7 +14774,7 @@
     <hyperlink r:id="rId116" ref="A116"/>
     <hyperlink r:id="rId117" ref="A117"/>
     <hyperlink r:id="rId118" ref="A118"/>
-    <hyperlink r:id="rId119" location="/trending" ref="A119"/>
+    <hyperlink r:id="rId119" location="/leaderboard" ref="A119"/>
     <hyperlink r:id="rId120" ref="A120"/>
     <hyperlink r:id="rId121" ref="A121"/>
     <hyperlink r:id="rId122" ref="A122"/>
@@ -15104,23 +15115,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -15148,27 +15159,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -15218,12 +15229,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>715</v>
       </c>
     </row>
@@ -15233,17 +15244,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="9" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="17" t="s">
         <v>719</v>
       </c>
     </row>
@@ -15253,8 +15264,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="9" t="s">
         <v>721</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -15272,8 +15288,9 @@
     <hyperlink r:id="rId11" ref="A11"/>
     <hyperlink r:id="rId12" ref="A12"/>
     <hyperlink r:id="rId13" ref="A13"/>
+    <hyperlink r:id="rId14" ref="A14"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -15295,285 +15312,285 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="17" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -15670,84 +15687,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>724</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>710</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>709</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>711</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -15788,142 +15805,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>724</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>712</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21"/>
       <c r="E5" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37">
@@ -15983,53 +16000,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -16064,25 +16081,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16108,25 +16125,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16152,20 +16169,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16192,17 +16209,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16229,14 +16246,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16263,12 +16280,12 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16295,14 +16312,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46106,53 +46123,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="C2" s="17" t="s">
         <v>869</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>870</v>
+      </c>
       <c r="D2" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>873</v>
-      </c>
-      <c r="C4" s="9" t="s">
         <v>874</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>876</v>
       </c>
     </row>
@@ -46193,6 +46210,11 @@
     <row r="11">
       <c r="C11" s="9" t="s">
         <v>885</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="17" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -46216,8 +46238,9 @@
     <hyperlink r:id="rId17" ref="C9"/>
     <hyperlink r:id="rId18" ref="C10"/>
     <hyperlink r:id="rId19" ref="C11"/>
+    <hyperlink r:id="rId20" ref="C12"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -46236,48 +46259,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="906">
   <si>
     <t>Name</t>
   </si>
@@ -4606,190 +4606,193 @@
     <t>https://github.com/GAIR-NLP/factool/issues/39</t>
   </si>
   <si>
+    <t>https://github.com/embeddings-benchmark/mteb/issues/192</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/fmti/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/DevBench/issues/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/687</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
+  </si>
+  <si>
     <t>https://github.com/open-compass/opencompass/discussions/784</t>
   </si>
   <si>
-    <t>https://github.com/stanford-crfm/fmti/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/DevBench/issues/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/687</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
+    <t>https://github.com/open-compass/LawBench/issues/7</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
   </si>
   <si>
     <t>https://github.com/open-compass/opencompass/discussions/785</t>
   </si>
   <si>
-    <t>https://github.com/open-compass/LawBench/issues/7</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
+    <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/26</t>
   </si>
   <si>
     <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/26</t>
+    <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2028</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
+    <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2062</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
+  </si>
+  <si>
+    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2358</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
-  </si>
-  <si>
-    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
+    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/blog/open-llm-leaderboard-drop</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2441</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/blog/open-llm-leaderboard-drop</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Role/issues/2</t>
   </si>
   <si>
     <t>https://github.com/TabbyML/tabby/discussions/1368</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Role/issues/2</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/8</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/6</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/8</t>
-  </si>
-  <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/43</t>
   </si>
   <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/2</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/6</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/2</t>
+    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
-  </si>
-  <si>
     <t>https://github.com/FreedomIntelligence/MLLM-Bench/issues/3</t>
   </si>
   <si>
+    <t>https://github.com/hendrycks/test/issues/25</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/lovodkin93/FuseReviews-Leaderboard/discussions/1</t>
   </si>
   <si>
-    <t>https://github.com/hendrycks/test/issues/25</t>
+    <t>https://github.com/open-compass/MathBench/issues/7</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/luisrguerra/guerra-llm-ai-leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/open-compass/MathBench/issues/7</t>
+    <t>https://github.com/princeton-nlp/SWE-bench/issues/46</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/luisrguerra/guerra-llm-ai-leaderboard/discussions/3</t>
   </si>
   <si>
-    <t>https://github.com/princeton-nlp/SWE-bench/issues/46</t>
+    <t>https://github.com/tjunlp-lab/M3KE/issues/8</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/malhajar/OpenLLMTurkishLeaderboard/discussions/5</t>
   </si>
   <si>
-    <t>https://github.com/tjunlp-lab/M3KE/issues/8</t>
+    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/4</t>
   </si>
   <si>
-    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/9</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/Nexusflow/Nexus_Function_Calling_Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/9</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/2</t>
@@ -15155,15 +15158,15 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -15191,27 +15194,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -15372,7 +15375,7 @@
       <c r="B2" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>734</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -15461,7 +15464,7 @@
       <c r="B6" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="17" t="s">
         <v>760</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -15478,7 +15481,7 @@
       <c r="B7" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>764</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -15512,7 +15515,7 @@
       <c r="B9" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>774</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -15532,22 +15535,22 @@
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>779</v>
+        <v>721</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="9" t="s">
         <v>781</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -15556,15 +15559,15 @@
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>785</v>
@@ -15579,7 +15582,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>788</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -15595,7 +15598,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="9" t="s">
         <v>792</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -15623,6 +15626,11 @@
     <row r="23">
       <c r="C23" s="17" t="s">
         <v>798</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="17" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -15699,8 +15707,9 @@
     <hyperlink r:id="rId70" ref="C21"/>
     <hyperlink r:id="rId71" ref="C22"/>
     <hyperlink r:id="rId72" ref="C23"/>
+    <hyperlink r:id="rId73" ref="C24"/>
   </hyperlinks>
-  <drawing r:id="rId73"/>
+  <drawing r:id="rId74"/>
 </worksheet>
 </file>
 
@@ -15722,7 +15731,7 @@
         <v>728</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>727</v>
@@ -15739,13 +15748,13 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>712</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>717</v>
@@ -15754,15 +15763,15 @@
         <v>711</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>713</v>
@@ -15773,7 +15782,7 @@
     </row>
     <row r="4">
       <c r="E4" s="17" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>723</v>
@@ -15781,7 +15790,7 @@
     </row>
     <row r="5">
       <c r="E5" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6">
@@ -15791,12 +15800,12 @@
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -15840,7 +15849,7 @@
         <v>728</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>727</v>
@@ -15857,122 +15866,122 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>714</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21"/>
       <c r="E5" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37">
@@ -16043,42 +16052,42 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -16122,7 +16131,7 @@
         <v>727</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>728</v>
@@ -16157,25 +16166,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16201,20 +16210,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16241,17 +16250,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16278,11 +16287,11 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>749</v>
@@ -16312,7 +16321,7 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -16344,14 +16353,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46169,29 +46178,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>715</v>
@@ -46199,54 +46208,54 @@
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -46302,21 +46311,21 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>716</v>
@@ -46324,15 +46333,15 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="904">
   <si>
     <t>Name</t>
   </si>
@@ -4895,6 +4895,9 @@
   </si>
   <si>
     <t>https://github.com/Yuliang-Liu/MultimodalOCR/issues/23</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
@@ -15113,15 +15116,15 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -15149,32 +15152,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7">
@@ -15189,7 +15192,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="10">
@@ -15946,13 +15949,18 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="9" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="17" t="s">
         <v>832</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="9" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="37">
@@ -15987,8 +15995,9 @@
     <hyperlink r:id="rId25" ref="D15"/>
     <hyperlink r:id="rId26" ref="D16"/>
     <hyperlink r:id="rId27" ref="D17"/>
+    <hyperlink r:id="rId28" ref="D18"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -16021,42 +16030,42 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -16100,7 +16109,7 @@
         <v>725</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>726</v>
@@ -16135,25 +16144,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16179,20 +16188,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16219,17 +16228,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16256,11 +16265,11 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>747</v>
@@ -16290,7 +16299,7 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -16322,14 +16331,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46147,29 +46156,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>712</v>
@@ -46177,54 +46186,54 @@
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -46280,21 +46289,21 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>713</v>
@@ -46302,15 +46311,15 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -46,7 +46,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H325">
+    <comment authorId="0" ref="H326">
       <text>
         <t xml:space="preserve">https://scale.com/
 	-Jimmy Chou</t>
@@ -64,13 +64,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C309">
+    <comment authorId="0" ref="C310">
       <text>
         <t xml:space="preserve">https://github.com/evalplus/repoqa
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A275">
+    <comment authorId="0" ref="A276">
       <text>
         <t xml:space="preserve">https://opencompass.org.cn/arena
 	-Jimmy Chou</t>
@@ -88,7 +88,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G402">
+    <comment authorId="0" ref="G403">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -114,43 +114,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G355">
+    <comment authorId="0" ref="G356">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F355">
+    <comment authorId="0" ref="F356">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G354">
+    <comment authorId="0" ref="G355">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F354">
+    <comment authorId="0" ref="F355">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D346">
+    <comment authorId="0" ref="D347">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G277">
+    <comment authorId="0" ref="G278">
       <text>
         <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D363">
+    <comment authorId="0" ref="D364">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -184,7 +184,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F305">
+    <comment authorId="0" ref="F306">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
@@ -868,31 +868,34 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A310">
+    <comment authorId="0" ref="A311">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A395">
+    <comment authorId="0" ref="A396">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A422">
+    <comment authorId="0" ref="A423">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H280">
+    <comment authorId="0" ref="H281">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
+	-Jimmy Chou
+----
+Text Analysis Conference
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A280">
+    <comment authorId="0" ref="A281">
       <text>
         <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Chou</t>
@@ -960,7 +963,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A288">
+    <comment authorId="0" ref="A289">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -986,27 +989,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G353">
+    <comment authorId="0" ref="G354">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F351">
+    <comment authorId="0" ref="F352">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G351">
+    <comment authorId="0" ref="G352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F349">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1016,49 +1025,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F347">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G347">
+    <comment authorId="0" ref="G348">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G348">
+    <comment authorId="0" ref="G349">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G349">
+    <comment authorId="0" ref="G350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G350">
+    <comment authorId="0" ref="G351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G352">
+    <comment authorId="0" ref="G353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G356">
+    <comment authorId="0" ref="G357">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D261">
+    <comment authorId="0" ref="D262">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4
 	-Jimmy Chou</t>
@@ -1138,34 +1141,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A419">
+    <comment authorId="0" ref="A420">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F323">
+    <comment authorId="0" ref="F324">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
-	-Jimmy Chou
-----
-https://github.com/NousResearch/finetuning-subnet
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A317">
+    <comment authorId="0" ref="A318">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A425">
+    <comment authorId="0" ref="A426">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A286">
+    <comment authorId="0" ref="A287">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
@@ -1207,13 +1207,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A297">
+    <comment authorId="0" ref="A298">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A274">
+    <comment authorId="0" ref="A275">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1225,25 +1225,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A327">
+    <comment authorId="0" ref="A328">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A331">
+    <comment authorId="0" ref="A332">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A435">
+    <comment authorId="0" ref="A436">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A342">
+    <comment authorId="0" ref="A343">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1255,19 +1255,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A409">
+    <comment authorId="0" ref="A410">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A374">
+    <comment authorId="0" ref="A375">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1324,13 +1324,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F345">
+    <comment authorId="0" ref="F346">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F317">
+    <comment authorId="0" ref="F318">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1390,13 +1390,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F261">
+    <comment authorId="0" ref="F262">
       <text>
         <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F316">
+    <comment authorId="0" ref="F317">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
@@ -1468,7 +1468,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F324">
+    <comment authorId="0" ref="F325">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1525,7 +1525,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F269">
+    <comment authorId="0" ref="F270">
       <text>
         <t xml:space="preserve">https://github.com/njunlp/mapo
 	-Jimmy Chou</t>
@@ -1577,7 +1577,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F259">
+    <comment authorId="0" ref="F323">
+      <text>
+        <t xml:space="preserve">https://github.com/NousResearch/finetuning-subnet
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F260">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1595,25 +1601,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F349">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F352">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F350">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F353">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F351">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1649,7 +1655,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F291">
+    <comment authorId="0" ref="F292">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1685,55 +1691,55 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F435">
+    <comment authorId="0" ref="F436">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F425">
+    <comment authorId="0" ref="F426">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F342">
+    <comment authorId="0" ref="F343">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F331">
+    <comment authorId="0" ref="F332">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F327">
+    <comment authorId="0" ref="F328">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F297">
+    <comment authorId="0" ref="F298">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F292">
+    <comment authorId="0" ref="F293">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F286">
+    <comment authorId="0" ref="F287">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F274">
+    <comment authorId="0" ref="F275">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/open_book_qa/submissions/public
 	-Jimmy Chou</t>
@@ -1772,7 +1778,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F403">
+    <comment authorId="0" ref="F404">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1784,7 +1790,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F377">
+    <comment authorId="0" ref="F378">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1870,13 +1876,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F296">
+    <comment authorId="0" ref="F297">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F275">
+    <comment authorId="0" ref="F276">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
 	-Jimmy Chou</t>
@@ -1960,13 +1966,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A276">
+    <comment authorId="0" ref="A277">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F276">
+    <comment authorId="0" ref="F277">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1976,13 +1982,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F408">
+    <comment authorId="0" ref="F409">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F397">
+    <comment authorId="0" ref="F398">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -1996,7 +2002,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A263">
+    <comment authorId="0" ref="A264">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard
 	-Jimmy Chou</t>
@@ -2008,7 +2014,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F433">
+    <comment authorId="0" ref="F434">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2102,13 +2108,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H281">
-      <text>
-        <t xml:space="preserve">Text Analysis Conference
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A279">
+    <comment authorId="0" ref="A280">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Chou</t>
@@ -2120,25 +2120,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A358">
+    <comment authorId="0" ref="A359">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A357">
+    <comment authorId="0" ref="A358">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A349">
+    <comment authorId="0" ref="A350">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A348">
+    <comment authorId="0" ref="A349">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2150,19 +2150,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A363">
+    <comment authorId="0" ref="A364">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A314">
+    <comment authorId="0" ref="A315">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2257,7 +2257,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F418">
+    <comment authorId="0" ref="F419">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2265,19 +2265,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F376">
+    <comment authorId="0" ref="F377">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F360">
+    <comment authorId="0" ref="F361">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F302">
+    <comment authorId="0" ref="F303">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="905">
   <si>
     <t>Name</t>
   </si>
@@ -2539,7 +2539,7 @@
     <t>ANGO</t>
   </si>
   <si>
-    <t>Independent Contributor</t>
+    <t>Independent Contributors</t>
   </si>
   <si>
     <t>ANLI</t>
@@ -3596,7 +3596,7 @@
     <t>MMLU-by-task Leaderboard</t>
   </si>
   <si>
-    <t>Hugging Face,Independent Contributor</t>
+    <t>Hugging Face,Independent Contributors</t>
   </si>
   <si>
     <t>MMMU</t>
@@ -3605,7 +3605,7 @@
     <t>gh:Rankable Table+Regular Table+Bar Chart</t>
   </si>
   <si>
-    <t>in.ai,University of Waterloo,Ohio State University,Carnegie Mellon University,University of Victoria,Princeton University,Independent Contributor</t>
+    <t>in.ai,University of Waterloo,Ohio State University,Carnegie Mellon University,University of Victoria,Princeton University,Independent Contributors</t>
   </si>
   <si>
     <t>MMStar</t>
@@ -3777,6 +3777,9 @@
   </si>
   <si>
     <t>OmniBenchmark</t>
+  </si>
+  <si>
+    <t>Open Arabic LLM Leaderboard</t>
   </si>
   <si>
     <t>Open ASR Leaderboard</t>
@@ -4969,33 +4972,36 @@
     <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
   </si>
   <si>
+    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
+  </si>
+  <si>
+    <t>https://github.com/google/BIG-bench/issues/983</t>
+  </si>
+  <si>
     <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
   </si>
   <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
-  </si>
-  <si>
-    <t>https://github.com/google/BIG-bench/issues/983</t>
+    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/MathOctopus/issues/7</t>
   </si>
   <si>
     <t>https://github.com/TabbyML/tabby/issues/1369</t>
   </si>
   <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/MathOctopus/issues/7</t>
+    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
   </si>
   <si>
     <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
   </si>
   <si>
@@ -5008,7 +5014,7 @@
     <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
   </si>
   <si>
-    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
   </si>
   <si>
     <t>https://github.com/princeton-nlp/intercode/issues/23</t>
@@ -5017,36 +5023,33 @@
     <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
   </si>
   <si>
-    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
   </si>
   <si>
     <t>https://github.com/stanford-crfm/helm/issues/2008</t>
   </si>
   <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+  </si>
+  <si>
     <t>https://github.com/thodan/bop_toolkit/issues/119</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
   </si>
   <si>
     <t>https://github.com/THU-KEG/KoLA/issues/18</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
   </si>
   <si>
     <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
   </si>
   <si>
@@ -5101,19 +5104,19 @@
     <t>https://github.com/bytedance/Portrait-Mode-Video/issues/3</t>
   </si>
   <si>
+    <t>https://github.com/CMMMU-Benchmark/CMMMU/issues/3</t>
+  </si>
+  <si>
     <t>https://github.com/HowieHwong/TrustLLM/pull/13</t>
   </si>
   <si>
+    <t>https://github.com/microsoft/promptbench/issues/52</t>
+  </si>
+  <si>
     <t>https://github.com/microsoft/promptbench/issues/59</t>
   </si>
   <si>
     <t>https://github.com/open-compass/MathBench/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/CMMMU-Benchmark/CMMMU/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/52</t>
   </si>
 </sst>
 </file>
@@ -9944,11 +9947,9 @@
       <c r="F259" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G259" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="G259" s="11"/>
       <c r="H259" s="2" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260">
@@ -9956,10 +9957,10 @@
         <v>463</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="D260" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>11</v>
@@ -9971,25 +9972,30 @@
         <v>26</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>464</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="D261" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G261" s="7"/>
+      <c r="G261" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H261" s="2" t="s">
-        <v>49</v>
+        <v>465</v>
       </c>
     </row>
     <row r="262">
@@ -10002,23 +10008,20 @@
       <c r="D262" s="2">
         <v>3.0</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F262" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G262" s="11"/>
+      <c r="G262" s="7"/>
       <c r="H262" s="2" t="s">
-        <v>467</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D263" s="2">
         <v>3.0</v>
@@ -10031,7 +10034,7 @@
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="2" t="s">
-        <v>328</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264">
@@ -10039,7 +10042,7 @@
         <v>469</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D264" s="2">
         <v>3.0</v>
@@ -10052,7 +10055,7 @@
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="2" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265">
@@ -10071,22 +10074,20 @@
       <c r="F265" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G265" s="7" t="s">
-        <v>471</v>
-      </c>
+      <c r="G265" s="11"/>
       <c r="H265" s="2" t="s">
-        <v>472</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D266" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>11</v>
@@ -10094,9 +10095,11 @@
       <c r="F266" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G266" s="7"/>
+      <c r="G266" s="7" t="s">
+        <v>472</v>
+      </c>
       <c r="H266" s="2" t="s">
-        <v>49</v>
+        <v>473</v>
       </c>
     </row>
     <row r="267">
@@ -10107,7 +10110,7 @@
         <v>33</v>
       </c>
       <c r="D267" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>11</v>
@@ -10128,7 +10131,7 @@
         <v>33</v>
       </c>
       <c r="D268" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>11</v>
@@ -10136,53 +10139,53 @@
       <c r="F268" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="11"/>
+      <c r="G268" s="7"/>
       <c r="H268" s="2" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="D269" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G269" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G269" s="11"/>
       <c r="H269" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="D270" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G270" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H270" s="2" t="s">
-        <v>328</v>
+        <v>479</v>
       </c>
     </row>
     <row r="271">
@@ -10192,8 +10195,8 @@
       <c r="C271" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>101</v>
+      <c r="D271" s="2">
+        <v>3.0</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>11</v>
@@ -10201,20 +10204,20 @@
       <c r="F271" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G271" s="11"/>
+      <c r="G271" s="7"/>
       <c r="H271" s="2" t="s">
-        <v>481</v>
+        <v>328</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D272" s="2">
-        <v>3.0</v>
+        <v>33</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>11</v>
@@ -10224,92 +10227,92 @@
       </c>
       <c r="G272" s="11"/>
       <c r="H272" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="9" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="13" t="s">
+      <c r="C273" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D273" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G273" s="11"/>
+      <c r="H273" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="6" t="s">
+    </row>
+    <row r="274">
+      <c r="A274" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G273" s="7"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-      <c r="M273" s="4"/>
-      <c r="N273" s="4"/>
-      <c r="O273" s="4"/>
-      <c r="P273" s="4"/>
-      <c r="Q273" s="4"/>
-      <c r="R273" s="4"/>
-      <c r="S273" s="4"/>
-      <c r="T273" s="4"/>
-      <c r="U273" s="4"/>
-      <c r="V273" s="4"/>
-      <c r="W273" s="4"/>
-      <c r="X273" s="4"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G274" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H274" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G274" s="7"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="4"/>
+      <c r="O274" s="4"/>
+      <c r="P274" s="4"/>
+      <c r="Q274" s="4"/>
+      <c r="R274" s="4"/>
+      <c r="S274" s="4"/>
+      <c r="T274" s="4"/>
+      <c r="U274" s="4"/>
+      <c r="V274" s="4"/>
+      <c r="W274" s="4"/>
+      <c r="X274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>341</v>
+        <v>10</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2.0</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G275" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="H275" s="2" t="s">
-        <v>486</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D276" s="2">
-        <v>3.0</v>
+      <c r="D276" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>11</v>
@@ -10317,9 +10320,9 @@
       <c r="F276" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G276" s="11"/>
+      <c r="G276" s="7"/>
       <c r="H276" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="277">
@@ -10327,19 +10330,20 @@
         <v>488</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="D277" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G277" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G277" s="11"/>
       <c r="H277" s="2" t="s">
-        <v>183</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278">
@@ -10347,7 +10351,7 @@
         <v>489</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="D278" s="2">
         <v>5.0</v>
@@ -10356,288 +10360,299 @@
         <v>18</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>490</v>
+        <v>183</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D279" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H279" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G279" s="7"/>
-      <c r="H279" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" s="7"/>
+      <c r="H280" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D280" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H281" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D281" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C282" s="2"/>
+      <c r="C282" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D282" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G282" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D283" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C283" s="2"/>
       <c r="F283" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>499</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G283" s="7"/>
     </row>
     <row r="284">
       <c r="A284" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H284" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F284" s="2" t="s">
+    </row>
+    <row r="285">
+      <c r="A285" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F285" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G284" s="7"/>
-      <c r="H284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="6" t="s">
+      <c r="G285" s="7"/>
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G285" s="7"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="4"/>
-      <c r="J285" s="4"/>
-      <c r="K285" s="4"/>
-      <c r="L285" s="4"/>
-      <c r="M285" s="4"/>
-      <c r="N285" s="4"/>
-      <c r="O285" s="4"/>
-      <c r="P285" s="4"/>
-      <c r="Q285" s="4"/>
-      <c r="R285" s="4"/>
-      <c r="S285" s="4"/>
-      <c r="T285" s="4"/>
-      <c r="U285" s="4"/>
-      <c r="V285" s="4"/>
-      <c r="W285" s="4"/>
-      <c r="X285" s="4"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D286" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H286" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G286" s="7"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
+      <c r="O286" s="4"/>
+      <c r="P286" s="4"/>
+      <c r="Q286" s="4"/>
+      <c r="R286" s="4"/>
+      <c r="S286" s="4"/>
+      <c r="T286" s="4"/>
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+      <c r="X286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="C287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G287" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D288" s="2">
-        <v>5.0</v>
-      </c>
       <c r="F288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G288" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H288" s="2" t="s">
-        <v>505</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G288" s="7"/>
     </row>
     <row r="289">
       <c r="A289" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D289" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H289" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D289" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G289" s="11"/>
-      <c r="H289" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G290" s="11"/>
+      <c r="H290" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D290" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" s="7"/>
-      <c r="H290" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D291" s="2">
         <v>5.0</v>
       </c>
+      <c r="E291" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F291" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G291" s="7"/>
       <c r="H291" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H292" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D292" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G292" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H292" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C293" s="2"/>
+      <c r="C293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G293" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="9" t="s">
         <v>514</v>
       </c>
+      <c r="C294" s="2"/>
       <c r="F294" s="2" t="s">
         <v>9</v>
       </c>
@@ -10645,271 +10660,260 @@
     </row>
     <row r="295">
       <c r="A295" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D295" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G295" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G295" s="7"/>
     </row>
     <row r="296">
       <c r="A296" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D296" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H296" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D296" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G296" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D297" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H297" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D297" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
         <v>520</v>
       </c>
+      <c r="C298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G298" s="7"/>
-      <c r="H298" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D299" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>522</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G299" s="7"/>
+      <c r="H299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H300" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F300" s="2" t="s">
+    </row>
+    <row r="301">
+      <c r="A301" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F301" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G300" s="7"/>
-      <c r="H300" s="2"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="6" t="s">
+      <c r="G301" s="7"/>
+      <c r="H301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G301" s="7"/>
-      <c r="H301" s="5"/>
-      <c r="I301" s="4"/>
-      <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4"/>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-      <c r="P301" s="4"/>
-      <c r="Q301" s="4"/>
-      <c r="R301" s="4"/>
-      <c r="S301" s="4"/>
-      <c r="T301" s="4"/>
-      <c r="U301" s="4"/>
-      <c r="V301" s="4"/>
-      <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D302" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G302" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="G302" s="7"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="4"/>
+      <c r="N302" s="4"/>
+      <c r="O302" s="4"/>
+      <c r="P302" s="4"/>
+      <c r="Q302" s="4"/>
+      <c r="R302" s="4"/>
+      <c r="S302" s="4"/>
+      <c r="T302" s="4"/>
+      <c r="U302" s="4"/>
+      <c r="V302" s="4"/>
+      <c r="W302" s="4"/>
+      <c r="X302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D303" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H303" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="F303" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G303" s="7"/>
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
         <v>528</v>
       </c>
+      <c r="C304" s="2"/>
       <c r="F304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G304" s="7"/>
-      <c r="H304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D305" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H305" s="2" t="s">
-        <v>530</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G305" s="7"/>
+      <c r="H305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H306" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D306" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G306" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D307" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H307" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G307" s="7"/>
-      <c r="H307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D308" s="2">
-        <v>1.0</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G308" s="7"/>
+      <c r="H308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D309" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>11</v>
+        <v>1.0</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G309" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H309" s="2" t="s">
-        <v>185</v>
+        <v>536</v>
       </c>
     </row>
     <row r="310">
@@ -10917,7 +10921,7 @@
         <v>537</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D310" s="2">
         <v>5.0</v>
@@ -10926,84 +10930,81 @@
         <v>11</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G310" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>538</v>
+        <v>185</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G311" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H311" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F311" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G311" s="7"/>
-      <c r="H311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D312" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F312" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G312" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>541</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G312" s="7"/>
+      <c r="H312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D313" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H313" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F313" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G313" s="7"/>
-      <c r="H313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D314" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G314" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G314" s="7"/>
+      <c r="H314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
         <v>544</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>545</v>
+        <v>133</v>
       </c>
       <c r="D315" s="2">
         <v>2.0</v>
@@ -11012,223 +11013,223 @@
         <v>11</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G315" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>546</v>
+        <v>302</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>156</v>
+        <v>546</v>
       </c>
       <c r="D316" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="G316" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D317" s="2">
         <v>5.0</v>
       </c>
+      <c r="E317" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F317" s="2" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>550</v>
+        <v>26</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D318" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H318" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F318" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G318" s="7"/>
     </row>
     <row r="319">
       <c r="A319" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D319" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>11</v>
+        <v>553</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>553</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G319" s="7"/>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="D320" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>49</v>
+        <v>554</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
         <v>555</v>
       </c>
+      <c r="C321" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D321" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F321" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G321" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
       <c r="F322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G322" s="7"/>
-      <c r="H322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D323" s="2">
-        <v>2.0</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
       <c r="F323" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G323" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>557</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G323" s="7"/>
+      <c r="H323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D324" s="2">
         <v>2.0</v>
       </c>
-      <c r="E324" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F324" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>561</v>
+        <v>33</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2.0</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D326" s="2">
-        <v>2.0</v>
+        <v>91</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G326" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D327" s="2">
         <v>2.0</v>
@@ -11237,170 +11238,183 @@
         <v>11</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>14</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
         <v>566</v>
       </c>
+      <c r="C328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F328" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G328" s="15"/>
-      <c r="H328" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C329" s="2"/>
       <c r="F329" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G329" s="7"/>
+      <c r="G329" s="15"/>
+      <c r="H329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="13" t="s">
+      <c r="A330" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B330" s="4"/>
-      <c r="C330" s="5"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="6" t="s">
+      <c r="C330" s="2"/>
+      <c r="F330" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G330" s="7"/>
-      <c r="H330" s="5"/>
-      <c r="I330" s="4"/>
-      <c r="J330" s="4"/>
-      <c r="K330" s="4"/>
-      <c r="L330" s="4"/>
-      <c r="M330" s="4"/>
-      <c r="N330" s="4"/>
-      <c r="O330" s="4"/>
-      <c r="P330" s="4"/>
-      <c r="Q330" s="4"/>
-      <c r="R330" s="4"/>
-      <c r="S330" s="4"/>
-      <c r="T330" s="4"/>
-      <c r="U330" s="4"/>
-      <c r="V330" s="4"/>
-      <c r="W330" s="4"/>
-      <c r="X330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D331" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G331" s="7" t="s">
+      <c r="A331" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="H331" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B331" s="4"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="7"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+      <c r="K331" s="4"/>
+      <c r="L331" s="4"/>
+      <c r="M331" s="4"/>
+      <c r="N331" s="4"/>
+      <c r="O331" s="4"/>
+      <c r="P331" s="4"/>
+      <c r="Q331" s="4"/>
+      <c r="R331" s="4"/>
+      <c r="S331" s="4"/>
+      <c r="T331" s="4"/>
+      <c r="U331" s="4"/>
+      <c r="V331" s="4"/>
+      <c r="W331" s="4"/>
+      <c r="X331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F332" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G332" s="7"/>
-      <c r="H332" s="2"/>
+      <c r="H332" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C333" s="2"/>
       <c r="F333" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G333" s="7"/>
+      <c r="H333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="13" t="s">
+      <c r="A334" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="5"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="6" t="s">
+      <c r="C334" s="2"/>
+      <c r="F334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G334" s="7"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="4"/>
-      <c r="J334" s="4"/>
-      <c r="K334" s="4"/>
-      <c r="L334" s="4"/>
-      <c r="M334" s="4"/>
-      <c r="N334" s="4"/>
-      <c r="O334" s="4"/>
-      <c r="P334" s="4"/>
-      <c r="Q334" s="4"/>
-      <c r="R334" s="4"/>
-      <c r="S334" s="4"/>
-      <c r="T334" s="4"/>
-      <c r="U334" s="4"/>
-      <c r="V334" s="4"/>
-      <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D335" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G335" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H335" s="2" t="s">
+      <c r="A335" s="13" t="s">
         <v>573</v>
       </c>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" s="7"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4"/>
+      <c r="N335" s="4"/>
+      <c r="O335" s="4"/>
+      <c r="P335" s="4"/>
+      <c r="Q335" s="4"/>
+      <c r="R335" s="4"/>
+      <c r="S335" s="4"/>
+      <c r="T335" s="4"/>
+      <c r="U335" s="4"/>
+      <c r="V335" s="4"/>
+      <c r="W335" s="4"/>
+      <c r="X335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H336" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F336" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G336" s="7"/>
-      <c r="H336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
@@ -11450,96 +11464,89 @@
         <v>9</v>
       </c>
       <c r="G341" s="7"/>
+      <c r="H341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D342" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>11</v>
+        <v>580</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G342" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G342" s="7"/>
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F343" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G343" s="7"/>
-      <c r="H343" s="2"/>
+      <c r="H343" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D344" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F344" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G344" s="7"/>
-      <c r="H344" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="9" t="s">
         <v>583</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D345" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G345" s="7"/>
       <c r="H345" s="2" t="s">
-        <v>584</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H346" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D346" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H346" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="347">
@@ -11547,27 +11554,24 @@
         <v>586</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>587</v>
+        <v>133</v>
       </c>
       <c r="D347" s="2">
         <v>3.0</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G347" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>588</v>
+        <v>302</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D348" s="2">
         <v>3.0</v>
@@ -11576,18 +11580,18 @@
         <v>30</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D349" s="2">
         <v>3.0</v>
@@ -11599,7 +11603,7 @@
         <v>250</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="350">
@@ -11607,7 +11611,7 @@
         <v>592</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D350" s="2">
         <v>3.0</v>
@@ -11619,7 +11623,7 @@
         <v>250</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="351">
@@ -11627,7 +11631,7 @@
         <v>593</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D351" s="2">
         <v>3.0</v>
@@ -11639,7 +11643,7 @@
         <v>250</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="352">
@@ -11647,7 +11651,7 @@
         <v>594</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D352" s="2">
         <v>3.0</v>
@@ -11656,96 +11660,96 @@
         <v>30</v>
       </c>
       <c r="G352" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D353" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G353" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H352" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="6" t="s">
+      <c r="H353" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D353" s="19">
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B354" s="4"/>
+      <c r="C354" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D354" s="19">
         <v>3.0</v>
       </c>
-      <c r="E353" s="4"/>
-      <c r="F353" s="5" t="s">
+      <c r="E354" s="4"/>
+      <c r="F354" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G353" s="6" t="s">
+      <c r="G354" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="I353" s="4"/>
-      <c r="J353" s="4"/>
-      <c r="K353" s="4"/>
-      <c r="L353" s="4"/>
-      <c r="M353" s="4"/>
-      <c r="N353" s="4"/>
-      <c r="O353" s="4"/>
-      <c r="P353" s="4"/>
-      <c r="Q353" s="4"/>
-      <c r="R353" s="4"/>
-      <c r="S353" s="4"/>
-      <c r="T353" s="4"/>
-      <c r="U353" s="4"/>
-      <c r="V353" s="4"/>
-      <c r="W353" s="4"/>
-      <c r="X353" s="4"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D354" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G354" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>586</v>
-      </c>
+      <c r="H354" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="4"/>
+      <c r="N354" s="4"/>
+      <c r="O354" s="4"/>
+      <c r="P354" s="4"/>
+      <c r="Q354" s="4"/>
+      <c r="R354" s="4"/>
+      <c r="S354" s="4"/>
+      <c r="T354" s="4"/>
+      <c r="U354" s="4"/>
+      <c r="V354" s="4"/>
+      <c r="W354" s="4"/>
+      <c r="X354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C355" s="2" t="s">
-        <v>598</v>
+      <c r="C355" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D355" s="2">
         <v>3.0</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G355" s="7" t="s">
         <v>250</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D356" s="2">
         <v>3.0</v>
@@ -11754,10 +11758,10 @@
         <v>30</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="357">
@@ -11765,17 +11769,19 @@
         <v>600</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>17</v>
+        <v>588</v>
       </c>
       <c r="D357" s="2">
         <v>3.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G357" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="H357" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="358">
@@ -11783,7 +11789,7 @@
         <v>601</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D358" s="2">
         <v>3.0</v>
@@ -11791,9 +11797,9 @@
       <c r="F358" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G358" s="7"/>
+      <c r="G358" s="11"/>
       <c r="H358" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="359">
@@ -11801,136 +11807,131 @@
         <v>602</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="D359" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G359" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G359" s="7"/>
       <c r="H359" s="2" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D360" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H360" s="9" t="s">
-        <v>605</v>
+        <v>84</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D361" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G361" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H361" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F361" s="2" t="s">
+    </row>
+    <row r="362">
+      <c r="A362" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F362" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G361" s="7"/>
-      <c r="H361" s="2"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B362" s="4"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="6" t="s">
+      <c r="G362" s="7"/>
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G362" s="7"/>
-      <c r="H362" s="5"/>
-      <c r="I362" s="4"/>
-      <c r="J362" s="4"/>
-      <c r="K362" s="4"/>
-      <c r="L362" s="4"/>
-      <c r="M362" s="4"/>
-      <c r="N362" s="4"/>
-      <c r="O362" s="4"/>
-      <c r="P362" s="4"/>
-      <c r="Q362" s="4"/>
-      <c r="R362" s="4"/>
-      <c r="S362" s="4"/>
-      <c r="T362" s="4"/>
-      <c r="U362" s="4"/>
-      <c r="V362" s="4"/>
-      <c r="W362" s="4"/>
-      <c r="X362" s="4"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D363" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G363" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H363" s="2" t="s">
-        <v>608</v>
-      </c>
+      <c r="G363" s="7"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="4"/>
+      <c r="J363" s="4"/>
+      <c r="K363" s="4"/>
+      <c r="L363" s="4"/>
+      <c r="M363" s="4"/>
+      <c r="N363" s="4"/>
+      <c r="O363" s="4"/>
+      <c r="P363" s="4"/>
+      <c r="Q363" s="4"/>
+      <c r="R363" s="4"/>
+      <c r="S363" s="4"/>
+      <c r="T363" s="4"/>
+      <c r="U363" s="4"/>
+      <c r="V363" s="4"/>
+      <c r="W363" s="4"/>
+      <c r="X363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>610</v>
+        <v>133</v>
       </c>
       <c r="D364" s="2">
         <v>2.0</v>
       </c>
-      <c r="E364" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F364" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>284</v>
+        <v>611</v>
       </c>
       <c r="D365" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>11</v>
@@ -11939,44 +11940,47 @@
         <v>18</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D366" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G366" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H366" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F366" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G366" s="7"/>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D367" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F367" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G367" s="7"/>
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>17</v>
@@ -11988,64 +11992,74 @@
         <v>18</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D369" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H369" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C369" s="2"/>
-      <c r="F369" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G369" s="7"/>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D370" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C370" s="2"/>
       <c r="F370" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G370" s="7"/>
-      <c r="H370" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D371" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G371" s="7"/>
       <c r="H371" s="2" t="s">
-        <v>623</v>
+        <v>49</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>624</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C372" s="2"/>
       <c r="F372" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G372" s="7"/>
-      <c r="H372" s="2"/>
+      <c r="H372" s="2" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
@@ -12055,168 +12069,168 @@
         <v>9</v>
       </c>
       <c r="G373" s="7"/>
+      <c r="H373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>101</v>
+        <v>626</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G374" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H374" s="2" t="s">
-        <v>626</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G374" s="7"/>
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H375" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D375" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G375" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H375" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G376" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H376" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D376" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G376" s="7"/>
-      <c r="H376" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D377" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G377" s="7"/>
+      <c r="H377" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D377" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G377" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H377" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>375</v>
+        <v>33</v>
       </c>
       <c r="D378" s="2">
         <v>5.0</v>
       </c>
+      <c r="E378" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G378" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D379" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H379" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C379" s="2"/>
-      <c r="F379" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G379" s="7"/>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D380" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C380" s="2"/>
       <c r="F380" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G380" s="7"/>
-      <c r="H380" s="2" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
         <v>637</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>638</v>
+        <v>33</v>
       </c>
       <c r="D381" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G381" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G381" s="7"/>
       <c r="H381" s="2" t="s">
-        <v>639</v>
+        <v>328</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D382" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H382" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="F382" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G382" s="7"/>
-      <c r="H382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
@@ -12232,75 +12246,65 @@
       <c r="A384" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="F384" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G384" s="7"/>
+      <c r="H384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D385" s="2">
         <v>2.0</v>
       </c>
-      <c r="F384" s="2" t="s">
+      <c r="F385" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G384" s="7" t="s">
+      <c r="G385" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H384" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="13" t="s">
+      <c r="H385" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B385" s="4"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="6" t="s">
+    </row>
+    <row r="386">
+      <c r="A386" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="B386" s="4"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G385" s="7"/>
-      <c r="H385" s="5"/>
-      <c r="I385" s="4"/>
-      <c r="J385" s="4"/>
-      <c r="K385" s="4"/>
-      <c r="L385" s="4"/>
-      <c r="M385" s="4"/>
-      <c r="N385" s="4"/>
-      <c r="O385" s="4"/>
-      <c r="P385" s="4"/>
-      <c r="Q385" s="4"/>
-      <c r="R385" s="4"/>
-      <c r="S385" s="4"/>
-      <c r="T385" s="4"/>
-      <c r="U385" s="4"/>
-      <c r="V385" s="4"/>
-      <c r="W385" s="4"/>
-      <c r="X385" s="4"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D386" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G386" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H386" s="2" t="s">
-        <v>645</v>
-      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="4"/>
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="4"/>
+      <c r="N386" s="4"/>
+      <c r="O386" s="4"/>
+      <c r="P386" s="4"/>
+      <c r="Q386" s="4"/>
+      <c r="R386" s="4"/>
+      <c r="S386" s="4"/>
+      <c r="T386" s="4"/>
+      <c r="U386" s="4"/>
+      <c r="V386" s="4"/>
+      <c r="W386" s="4"/>
+      <c r="X386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>17</v>
@@ -12312,38 +12316,48 @@
         <v>18</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D388" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G388" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H388" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D388" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
         <v>649</v>
       </c>
+      <c r="C389" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D389" s="2">
+        <v>4.0</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G389" s="7"/>
-      <c r="H389" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
@@ -12369,128 +12383,128 @@
       <c r="A392" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F392" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G392" s="7"/>
-      <c r="H392" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
         <v>653</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D393" s="2">
-        <v>5.0</v>
+        <v>33</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G393" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G393" s="7"/>
       <c r="H393" s="2" t="s">
-        <v>654</v>
+        <v>49</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D394" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G394" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C394" s="2"/>
-      <c r="F394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G394" s="7"/>
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D395" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C395" s="2"/>
       <c r="F395" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G395" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H395" s="2" t="s">
-        <v>296</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G395" s="7"/>
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C396" s="2"/>
+      <c r="C396" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D396" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G396" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G396" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D397" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C397" s="2"/>
       <c r="F397" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G397" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>660</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G397" s="7"/>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D398" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H398" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F398" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G398" s="7"/>
-      <c r="H398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C399" s="2"/>
       <c r="F399" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G399" s="7"/>
+      <c r="H399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
@@ -12516,50 +12530,51 @@
       <c r="A402" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D402" s="2">
-        <v>3.0</v>
-      </c>
+      <c r="C402" s="2"/>
       <c r="F402" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>666</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G402" s="7"/>
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D403" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G403" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H403" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D403" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G403" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D404" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G404" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H404" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="F404" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G404" s="7"/>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
@@ -12572,134 +12587,133 @@
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D406" s="2">
-        <v>5.0</v>
+        <v>671</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G406" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>671</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G406" s="7"/>
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D407" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H407" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F407" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G407" s="7"/>
-      <c r="H407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C408" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D408" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F408" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G408" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>675</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G408" s="7"/>
+      <c r="H408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D409" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G409" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D409" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F409" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G409" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H409" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D410" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H410" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F410" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G410" s="7"/>
-      <c r="H410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D411" s="2">
-        <v>5.0</v>
-      </c>
       <c r="F411" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G411" s="7"/>
-      <c r="H411" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="H411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D412" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G412" s="7"/>
+      <c r="H412" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D412" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G412" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H413" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F413" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G413" s="7"/>
-      <c r="H413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
@@ -12719,6 +12733,7 @@
         <v>9</v>
       </c>
       <c r="G415" s="7"/>
+      <c r="H415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
@@ -12746,37 +12761,36 @@
         <v>9</v>
       </c>
       <c r="G418" s="7"/>
-      <c r="H418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D419" s="2">
-        <v>2.0</v>
+        <v>689</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G419" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H419" s="2" t="s">
-        <v>689</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G419" s="7"/>
+      <c r="H419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G420" s="7"/>
-      <c r="H420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
@@ -12792,31 +12806,21 @@
       <c r="A422" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F422" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D423" s="2">
-        <v>7.0</v>
+      <c r="D423" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>11</v>
@@ -12825,71 +12829,81 @@
         <v>34</v>
       </c>
       <c r="H423" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="9" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="13" t="s">
+      <c r="C424" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D424" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B424" s="4"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="5"/>
-      <c r="F424" s="6" t="s">
+    </row>
+    <row r="425">
+      <c r="A425" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B425" s="4"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G424" s="7"/>
-      <c r="H424" s="5"/>
-      <c r="I424" s="4"/>
-      <c r="J424" s="4"/>
-      <c r="K424" s="4"/>
-      <c r="L424" s="4"/>
-      <c r="M424" s="4"/>
-      <c r="N424" s="4"/>
-      <c r="O424" s="4"/>
-      <c r="P424" s="4"/>
-      <c r="Q424" s="4"/>
-      <c r="R424" s="4"/>
-      <c r="S424" s="4"/>
-      <c r="T424" s="4"/>
-      <c r="U424" s="4"/>
-      <c r="V424" s="4"/>
-      <c r="W424" s="4"/>
-      <c r="X424" s="4"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D425" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G425" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G425" s="7"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="4"/>
+      <c r="J425" s="4"/>
+      <c r="K425" s="4"/>
+      <c r="L425" s="4"/>
+      <c r="M425" s="4"/>
+      <c r="N425" s="4"/>
+      <c r="O425" s="4"/>
+      <c r="P425" s="4"/>
+      <c r="Q425" s="4"/>
+      <c r="R425" s="4"/>
+      <c r="S425" s="4"/>
+      <c r="T425" s="4"/>
+      <c r="U425" s="4"/>
+      <c r="V425" s="4"/>
+      <c r="W425" s="4"/>
+      <c r="X425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
         <v>697</v>
       </c>
+      <c r="C426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G426" s="7"/>
-      <c r="H426" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
@@ -12925,97 +12939,104 @@
       <c r="A430" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C430" s="2"/>
       <c r="F430" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G430" s="7"/>
+      <c r="H430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D431" s="2">
-        <v>5.0</v>
-      </c>
+      <c r="C431" s="2"/>
       <c r="F431" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G431" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H431" s="2" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
         <v>703</v>
       </c>
+      <c r="C432" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D432" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F432" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G432" s="7"/>
-      <c r="H432" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D433" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F433" s="2" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="G433" s="7"/>
-      <c r="H433" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>706</v>
       </c>
+      <c r="D434" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F434" s="2" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="G434" s="7"/>
-      <c r="H434" s="2"/>
+      <c r="H434" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="F435" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G435" s="7"/>
+      <c r="H435" s="2"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D436" s="2">
         <v>2.0</v>
       </c>
-      <c r="E435" s="2" t="s">
+      <c r="E436" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F435" s="2" t="s">
+      <c r="F436" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G435" s="2" t="s">
+      <c r="G436" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H435" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="436">
-      <c r="C436" s="2"/>
     </row>
     <row r="437">
       <c r="C437" s="2"/>
@@ -14929,8 +14950,8 @@
     <hyperlink r:id="rId277" ref="A276"/>
     <hyperlink r:id="rId278" ref="A277"/>
     <hyperlink r:id="rId279" ref="A278"/>
-    <hyperlink r:id="rId280" location="/rank" ref="A279"/>
-    <hyperlink r:id="rId281" ref="A280"/>
+    <hyperlink r:id="rId280" ref="A279"/>
+    <hyperlink r:id="rId281" location="/rank" ref="A280"/>
     <hyperlink r:id="rId282" ref="A281"/>
     <hyperlink r:id="rId283" ref="A282"/>
     <hyperlink r:id="rId284" ref="A283"/>
@@ -14996,8 +15017,8 @@
     <hyperlink r:id="rId344" ref="A343"/>
     <hyperlink r:id="rId345" ref="A344"/>
     <hyperlink r:id="rId346" ref="A345"/>
-    <hyperlink r:id="rId347" location="/leaderboard" ref="A346"/>
-    <hyperlink r:id="rId348" ref="A347"/>
+    <hyperlink r:id="rId347" ref="A346"/>
+    <hyperlink r:id="rId348" location="/leaderboard" ref="A347"/>
     <hyperlink r:id="rId349" ref="A348"/>
     <hyperlink r:id="rId350" ref="A349"/>
     <hyperlink r:id="rId351" ref="A350"/>
@@ -15011,8 +15032,8 @@
     <hyperlink r:id="rId359" ref="A358"/>
     <hyperlink r:id="rId360" ref="A359"/>
     <hyperlink r:id="rId361" ref="A360"/>
-    <hyperlink r:id="rId362" ref="H360"/>
-    <hyperlink r:id="rId363" ref="A361"/>
+    <hyperlink r:id="rId362" ref="A361"/>
+    <hyperlink r:id="rId363" ref="H361"/>
     <hyperlink r:id="rId364" ref="A362"/>
     <hyperlink r:id="rId365" ref="A363"/>
     <hyperlink r:id="rId366" ref="A364"/>
@@ -15087,9 +15108,10 @@
     <hyperlink r:id="rId435" ref="A433"/>
     <hyperlink r:id="rId436" ref="A434"/>
     <hyperlink r:id="rId437" ref="A435"/>
+    <hyperlink r:id="rId438" ref="A436"/>
   </hyperlinks>
-  <drawing r:id="rId438"/>
-  <legacyDrawing r:id="rId439"/>
+  <drawing r:id="rId439"/>
+  <legacyDrawing r:id="rId440"/>
 </worksheet>
 </file>
 
@@ -15108,23 +15130,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -15152,52 +15174,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>899</v>
+      <c r="A3" s="24" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>901</v>
+      <c r="A5" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="9" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>711</v>
+      <c r="A7" s="17" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>709</v>
+      <c r="A8" s="24" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -15228,77 +15250,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -15341,290 +15363,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -15722,75 +15744,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -15829,138 +15851,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21"/>
       <c r="D5" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="17" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37">
@@ -16019,53 +16041,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -16100,25 +16122,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16144,25 +16166,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16188,20 +16210,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="E3" s="22" t="s">
         <v>855</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>856</v>
+      </c>
       <c r="F3" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16228,17 +16250,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16265,14 +16287,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16299,12 +16321,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22" t="s">
+        <v>865</v>
+      </c>
       <c r="F6" s="22" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16331,14 +16355,14 @@
     </row>
     <row r="7">
       <c r="C7" s="22" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="22" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -16366,7 +16390,7 @@
     <row r="8">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -46117,13 +46141,14 @@
     <hyperlink r:id="rId19" ref="E5"/>
     <hyperlink r:id="rId20" ref="F5"/>
     <hyperlink r:id="rId21" ref="C6"/>
-    <hyperlink r:id="rId22" ref="F6"/>
-    <hyperlink r:id="rId23" ref="C7"/>
-    <hyperlink r:id="rId24" ref="E7"/>
-    <hyperlink r:id="rId25" ref="F7"/>
+    <hyperlink r:id="rId22" ref="E6"/>
+    <hyperlink r:id="rId23" ref="F6"/>
+    <hyperlink r:id="rId24" ref="C7"/>
+    <hyperlink r:id="rId25" ref="E7"/>
+    <hyperlink r:id="rId26" ref="F7"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -46142,98 +46167,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>867</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>870</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="17" t="s">
-        <v>874</v>
+      <c r="B5" s="9" t="s">
+        <v>876</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="9" t="s">
-        <v>878</v>
+      <c r="B7" s="17" t="s">
+        <v>880</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="17" t="s">
-        <v>880</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -46252,14 +46274,13 @@
     <hyperlink r:id="rId12" ref="C6"/>
     <hyperlink r:id="rId13" ref="B7"/>
     <hyperlink r:id="rId14" ref="C7"/>
-    <hyperlink r:id="rId15" ref="B8"/>
-    <hyperlink r:id="rId16" ref="C8"/>
-    <hyperlink r:id="rId17" ref="C9"/>
-    <hyperlink r:id="rId18" ref="C10"/>
-    <hyperlink r:id="rId19" ref="C11"/>
-    <hyperlink r:id="rId20" ref="C12"/>
+    <hyperlink r:id="rId15" ref="C8"/>
+    <hyperlink r:id="rId16" ref="C9"/>
+    <hyperlink r:id="rId17" ref="C10"/>
+    <hyperlink r:id="rId18" ref="C11"/>
+    <hyperlink r:id="rId19" ref="C12"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -46278,48 +46299,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="905">
   <si>
     <t>Name</t>
   </si>
@@ -12828,8 +12828,11 @@
       <c r="F423" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G423" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H423" s="2" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
     </row>
     <row r="424">

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2402,7 +2402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="908">
   <si>
     <t>Name</t>
   </si>
@@ -4606,16 +4606,16 @@
     <t>Benchmark Raw Dataset</t>
   </si>
   <si>
-    <t>Evaluation Record</t>
-  </si>
-  <si>
-    <t>Model</t>
+    <t>Evaluation Record/Result</t>
+  </si>
+  <si>
+    <t>Model (Information)</t>
   </si>
   <si>
     <t>Ranking Dataframe</t>
   </si>
   <si>
-    <t>Submission Channel</t>
+    <t>Submission Channel/Guideline</t>
   </si>
   <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/2</t>
@@ -5005,19 +5005,22 @@
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
   </si>
   <si>
+    <t>https://github.com/Re-Align/URIAL/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+    <t>https://github.com/TabbyML/tabby/issues/1369</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://github.com/TabbyML/tabby/issues/1369</t>
   </si>
   <si>
     <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
@@ -15197,15 +15200,15 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -15233,22 +15236,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5">
@@ -15258,12 +15261,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8">
@@ -15273,7 +15276,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10">
@@ -16327,7 +16330,7 @@
       <c r="A4" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="9" t="s">
         <v>863</v>
       </c>
       <c r="D4" s="23"/>
@@ -16395,9 +16398,12 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6">
+      <c r="C6" s="21" t="s">
+        <v>868</v>
+      </c>
       <c r="D6" s="23"/>
       <c r="E6" s="21" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>724</v>
@@ -16428,10 +16434,10 @@
     <row r="7">
       <c r="D7" s="23"/>
       <c r="E7" s="21" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46209,13 +46215,14 @@
     <hyperlink r:id="rId18" ref="C5"/>
     <hyperlink r:id="rId19" ref="E5"/>
     <hyperlink r:id="rId20" ref="F5"/>
-    <hyperlink r:id="rId21" ref="E6"/>
-    <hyperlink r:id="rId22" ref="F6"/>
-    <hyperlink r:id="rId23" ref="E7"/>
-    <hyperlink r:id="rId24" ref="F7"/>
+    <hyperlink r:id="rId21" ref="C6"/>
+    <hyperlink r:id="rId22" ref="E6"/>
+    <hyperlink r:id="rId23" ref="F6"/>
+    <hyperlink r:id="rId24" ref="E7"/>
+    <hyperlink r:id="rId25" ref="F7"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <drawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -46248,29 +46255,29 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>715</v>
@@ -46278,51 +46285,51 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -46377,21 +46384,21 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>716</v>
@@ -46399,15 +46406,15 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,20 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="G397">
+      <text>
+        <t xml:space="preserve">https://arxiv.org/pdf/2403.20331
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D397">
+      <text>
+        <t xml:space="preserve">https://github.com/AtsuMiyai/UPD?tab=readme-ov-file#how-to-add-new-vlms
+	-Jimmy Chou
+https://huggingface.co/spaces/MM-UPD/MM-UPD_Leaderboard
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D239">
       <text>
         <t xml:space="preserve">https://opendfm.github.io/MULTI-Benchmark/static/pages/submit.html
@@ -88,7 +102,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G405">
+    <comment authorId="0" ref="G406">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -874,13 +888,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A397">
+    <comment authorId="0" ref="A398">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A425">
+    <comment authorId="0" ref="A426">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -1138,7 +1152,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A422">
+    <comment authorId="0" ref="A423">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1156,7 +1170,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A428">
+    <comment authorId="0" ref="A429">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1234,7 +1248,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A438">
+    <comment authorId="0" ref="A439">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1252,7 +1266,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A412">
+    <comment authorId="0" ref="A413">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
@@ -1679,13 +1693,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F438">
+    <comment authorId="0" ref="F439">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F428">
+    <comment authorId="0" ref="F429">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -1763,7 +1777,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F406">
+    <comment authorId="0" ref="F407">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1973,13 +1987,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F411">
+    <comment authorId="0" ref="F412">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F399">
+    <comment authorId="0" ref="F400">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -2005,7 +2019,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F436">
+    <comment authorId="0" ref="F437">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2269,7 +2283,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F421">
+    <comment authorId="0" ref="F422">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2402,7 +2416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="912">
   <si>
     <t>Name</t>
   </si>
@@ -4390,6 +4404,12 @@
     <t>UniProtQA</t>
   </si>
   <si>
+    <t>UPD Leaderboard</t>
+  </si>
+  <si>
+    <t>University of Tokyo,Nanyang Technological University,Duke University,University of Wisconsin Madison,LY Corporation,Tokyo University of Science</t>
+  </si>
+  <si>
     <t>URIAL Bench</t>
   </si>
   <si>
@@ -5119,6 +5139,9 @@
     <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+  </si>
+  <si>
     <t>Uncategorized</t>
   </si>
   <si>
@@ -5138,6 +5161,9 @@
   </si>
   <si>
     <t>https://github.com/open-compass/MathBench/issues/5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MohamedRashad/timm-leaderboard/discussions/1</t>
   </si>
 </sst>
 </file>
@@ -12487,10 +12513,10 @@
         <v>658</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D397" s="2">
-        <v>5.0</v>
+        <v>10</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>11</v>
@@ -12498,69 +12524,82 @@
       <c r="F397" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G397" s="7" t="s">
+      <c r="G397" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>297</v>
+        <v>659</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="C398" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D398" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G398" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C399" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D399" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C399" s="2"/>
       <c r="F399" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G399" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>662</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G399" s="7"/>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>663</v>
       </c>
+      <c r="D400" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F400" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G400" s="7"/>
-      <c r="H400" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G400" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C401" s="2"/>
+        <v>665</v>
+      </c>
       <c r="F401" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G401" s="7"/>
+      <c r="H401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C402" s="2"/>
       <c r="F402" s="2" t="s">
@@ -12570,7 +12609,7 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C403" s="2"/>
       <c r="F403" s="2" t="s">
@@ -12580,43 +12619,33 @@
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D404" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C404" s="2"/>
       <c r="F404" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G404" s="7"/>
-      <c r="H404" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D405" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G405" s="20" t="s">
-        <v>73</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G405" s="7"/>
       <c r="H405" s="2" t="s">
-        <v>669</v>
+        <v>44</v>
       </c>
     </row>
     <row r="406">
@@ -12624,16 +12653,16 @@
         <v>670</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D406" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G406" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="G406" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>671</v>
@@ -12643,14 +12672,25 @@
       <c r="A407" s="9" t="s">
         <v>672</v>
       </c>
+      <c r="C407" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D407" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F407" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G407" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
@@ -12659,69 +12699,58 @@
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D409" s="2">
-        <v>5.0</v>
+        <v>675</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G409" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H409" s="2" t="s">
-        <v>674</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G409" s="7"/>
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
         <v>675</v>
       </c>
+      <c r="C410" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D410" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F410" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G410" s="7"/>
-      <c r="H410" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C411" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D411" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F411" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G411" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>678</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G411" s="7"/>
+      <c r="H411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D412" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G412" s="7" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>680</v>
@@ -12731,49 +12760,46 @@
       <c r="A413" s="9" t="s">
         <v>681</v>
       </c>
+      <c r="C413" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D413" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F413" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G413" s="7"/>
-      <c r="H413" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D414" s="2">
-        <v>5.0</v>
+        <v>683</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G414" s="7"/>
-      <c r="H414" s="2" t="s">
-        <v>683</v>
-      </c>
+      <c r="H414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
         <v>684</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D415" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G415" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G415" s="7"/>
       <c r="H415" s="2" t="s">
         <v>685</v>
       </c>
@@ -12782,15 +12808,28 @@
       <c r="A416" s="9" t="s">
         <v>686</v>
       </c>
+      <c r="C416" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D416" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F416" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G416" s="7"/>
-      <c r="H416" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G416" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -12800,16 +12839,17 @@
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G418" s="7"/>
+      <c r="H418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -12818,7 +12858,7 @@
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
@@ -12827,47 +12867,46 @@
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G421" s="7"/>
-      <c r="H421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D422" s="2">
-        <v>2.0</v>
+        <v>693</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G422" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>692</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
         <v>693</v>
       </c>
+      <c r="C423" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D423" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F423" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G423" s="7"/>
-      <c r="H423" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -12877,26 +12916,13 @@
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D425" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E425" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F425" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G425" s="7"/>
+      <c r="H425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
@@ -12905,8 +12931,8 @@
       <c r="C426" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D426" s="2">
-        <v>7.0</v>
+      <c r="D426" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>11</v>
@@ -12914,76 +12940,89 @@
       <c r="F426" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G426" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H426" s="2" t="s">
-        <v>698</v>
+        <v>297</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="13" t="s">
+      <c r="A427" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B427" s="4"/>
-      <c r="C427" s="5"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="5"/>
-      <c r="F427" s="6" t="s">
+      <c r="C427" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B428" s="4"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G427" s="7"/>
-      <c r="H427" s="5"/>
-      <c r="I427" s="4"/>
-      <c r="J427" s="4"/>
-      <c r="K427" s="4"/>
-      <c r="L427" s="4"/>
-      <c r="M427" s="4"/>
-      <c r="N427" s="4"/>
-      <c r="O427" s="4"/>
-      <c r="P427" s="4"/>
-      <c r="Q427" s="4"/>
-      <c r="R427" s="4"/>
-      <c r="S427" s="4"/>
-      <c r="T427" s="4"/>
-      <c r="U427" s="4"/>
-      <c r="V427" s="4"/>
-      <c r="W427" s="4"/>
-      <c r="X427" s="4"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D428" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G428" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G428" s="7"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="4"/>
+      <c r="J428" s="4"/>
+      <c r="K428" s="4"/>
+      <c r="L428" s="4"/>
+      <c r="M428" s="4"/>
+      <c r="N428" s="4"/>
+      <c r="O428" s="4"/>
+      <c r="P428" s="4"/>
+      <c r="Q428" s="4"/>
+      <c r="R428" s="4"/>
+      <c r="S428" s="4"/>
+      <c r="T428" s="4"/>
+      <c r="U428" s="4"/>
+      <c r="V428" s="4"/>
+      <c r="W428" s="4"/>
+      <c r="X428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D429" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G429" s="7"/>
-      <c r="H429" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G429" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -12993,7 +13032,7 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -13003,7 +13042,7 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -13013,99 +13052,106 @@
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="C433" s="2"/>
+        <v>705</v>
+      </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G433" s="7"/>
+      <c r="H433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D434" s="2">
-        <v>5.0</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="C434" s="2"/>
       <c r="F434" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G434" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D435" s="2">
+        <v>5.0</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G435" s="7"/>
-      <c r="H435" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G435" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="C436" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="D436" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F436" s="2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="G436" s="7"/>
-      <c r="H436" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="9" t="s">
         <v>709</v>
       </c>
+      <c r="C437" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D437" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F437" s="2" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="G437" s="7"/>
-      <c r="H437" s="2"/>
+      <c r="H437" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="C438" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G438" s="7"/>
+      <c r="H438" s="2"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D439" s="2">
         <v>2.0</v>
       </c>
-      <c r="E438" s="2" t="s">
+      <c r="E439" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F438" s="2" t="s">
+      <c r="F439" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G438" s="2" t="s">
+      <c r="G439" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H438" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="439">
-      <c r="C439" s="2"/>
     </row>
     <row r="440">
       <c r="C440" s="2"/>
@@ -15171,9 +15217,10 @@
     <hyperlink r:id="rId438" ref="A436"/>
     <hyperlink r:id="rId439" ref="A437"/>
     <hyperlink r:id="rId440" ref="A438"/>
+    <hyperlink r:id="rId441" ref="A439"/>
   </hyperlinks>
-  <drawing r:id="rId441"/>
-  <legacyDrawing r:id="rId442"/>
+  <drawing r:id="rId442"/>
+  <legacyDrawing r:id="rId443"/>
 </worksheet>
 </file>
 
@@ -15192,23 +15239,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>900</v>
+        <v>902</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -15216,8 +15266,9 @@
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="B2"/>
     <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="B3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -15236,57 +15287,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -15301,8 +15357,9 @@
     <hyperlink r:id="rId8" ref="A9"/>
     <hyperlink r:id="rId9" ref="A10"/>
     <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -15318,82 +15375,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -15437,290 +15494,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="17" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -15818,78 +15875,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -15929,138 +15986,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22"/>
       <c r="D5" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="17" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="17" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37">
@@ -16119,53 +16176,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -16200,25 +16257,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16244,25 +16301,25 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16288,20 +16345,20 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="21" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16328,17 +16385,17 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="21" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16365,14 +16422,14 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16399,14 +16456,14 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="21" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16434,10 +16491,10 @@
     <row r="7">
       <c r="D7" s="23"/>
       <c r="E7" s="21" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46241,95 +46298,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="17" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="17" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -46373,48 +46430,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,13 +26,19 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G397">
+    <comment authorId="0" ref="F216">
+      <text>
+        <t xml:space="preserve">https://github.com/isXinLiu/MM-SafetyBench
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G398">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2403.20331
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D397">
+    <comment authorId="0" ref="D398">
       <text>
         <t xml:space="preserve">https://github.com/AtsuMiyai/UPD?tab=readme-ov-file#how-to-add-new-vlms
 	-Jimmy Chou
@@ -40,7 +46,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D239">
+    <comment authorId="0" ref="D240">
       <text>
         <t xml:space="preserve">https://opendfm.github.io/MULTI-Benchmark/static/pages/submit.html
 	-Jimmy Chou
@@ -60,7 +66,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H327">
+    <comment authorId="0" ref="H328">
       <text>
         <t xml:space="preserve">https://scale.com/
 	-Jimmy Chou</t>
@@ -78,13 +84,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C311">
+    <comment authorId="0" ref="C312">
       <text>
         <t xml:space="preserve">https://github.com/evalplus/repoqa
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A277">
+    <comment authorId="0" ref="A278">
       <text>
         <t xml:space="preserve">https://opencompass.org.cn/arena
 	-Jimmy Chou</t>
@@ -102,7 +108,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G406">
+    <comment authorId="0" ref="G407">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -128,43 +134,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G357">
+    <comment authorId="0" ref="G358">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F357">
+    <comment authorId="0" ref="F358">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G356">
+    <comment authorId="0" ref="G357">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D348">
+    <comment authorId="0" ref="D349">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G279">
+    <comment authorId="0" ref="G280">
       <text>
         <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D365">
+    <comment authorId="0" ref="D366">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -198,9 +204,12 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F307">
+    <comment authorId="0" ref="F308">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
+	-Jimmy Chou
+----
+Transactions of the Association for Computational Linguistics
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -882,31 +891,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A312">
+    <comment authorId="0" ref="A313">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A398">
+    <comment authorId="0" ref="A399">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A426">
+    <comment authorId="0" ref="A427">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H282">
+    <comment authorId="0" ref="H283">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A282">
+    <comment authorId="0" ref="A283">
       <text>
         <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Chou</t>
@@ -918,7 +927,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D224">
+    <comment authorId="0" ref="D225">
       <text>
         <t xml:space="preserve">https://github.com/MMStar-Benchmark/MMStar/tree/main/eval
 	-Jimmy Chou</t>
@@ -974,7 +983,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A290">
+    <comment authorId="0" ref="A291">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -1000,27 +1009,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F355">
+    <comment authorId="0" ref="F356">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G355">
+    <comment authorId="0" ref="G356">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G353">
+    <comment authorId="0" ref="G354">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F351">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1030,79 +1045,73 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F349">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G349">
+    <comment authorId="0" ref="G350">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G350">
+    <comment authorId="0" ref="G351">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G351">
+    <comment authorId="0" ref="G352">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G352">
+    <comment authorId="0" ref="G353">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G354">
+    <comment authorId="0" ref="G355">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G358">
+    <comment authorId="0" ref="G359">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D263">
+    <comment authorId="0" ref="D264">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G250">
+    <comment authorId="0" ref="G251">
       <text>
         <t xml:space="preserve">https://nexusflow.ai/blogs/ravenv2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A247">
+    <comment authorId="0" ref="A248">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/malaysian-stt-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A245">
+    <comment authorId="0" ref="A246">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A246">
+    <comment authorId="0" ref="A247">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/embedding-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G222">
+    <comment authorId="0" ref="G223">
       <text>
         <t xml:space="preserve">https://coreymorrisdata.medium.com/preliminary-analysis-of-mmlu-evaluation-data-insights-from-500-open-source-models-e67885aa364b
 	-Jimmy Chou
@@ -1152,43 +1161,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A423">
+    <comment authorId="0" ref="A424">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F325">
+    <comment authorId="0" ref="F326">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A319">
+    <comment authorId="0" ref="A320">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A429">
+    <comment authorId="0" ref="A430">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A288">
+    <comment authorId="0" ref="A289">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A248">
+    <comment authorId="0" ref="A249">
       <text>
         <t xml:space="preserve">https://github.com/allenai/natural-instructions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A227">
+    <comment authorId="0" ref="A228">
       <text>
         <t xml:space="preserve">https://github.com/anthonywchen/mocha-leaderboard/tree/master/evaluator
 	-Jimmy Chou</t>
@@ -1218,13 +1227,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A299">
+    <comment authorId="0" ref="A300">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A276">
+    <comment authorId="0" ref="A277">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1236,25 +1245,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A329">
+    <comment authorId="0" ref="A330">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A333">
+    <comment authorId="0" ref="A334">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A439">
+    <comment authorId="0" ref="A440">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A344">
+    <comment authorId="0" ref="A345">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1266,19 +1275,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A413">
+    <comment authorId="0" ref="A414">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A376">
+    <comment authorId="0" ref="A377">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A362">
+    <comment authorId="0" ref="A363">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1302,13 +1311,16 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F225">
+    <comment authorId="0" ref="F226">
       <text>
         <t xml:space="preserve">https://github.com/tsb0601/MMVP
+	-Jimmy Chou
+----
+https://rrc.cvc.uab.es/?ch=17&amp;com=evaluation&amp;task=4
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A219">
+    <comment authorId="0" ref="A220">
       <text>
         <t xml:space="preserve">https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/tree/Evaluation-PrivateModel
 	-Jimmy Chou</t>
@@ -1332,13 +1344,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F347">
+    <comment authorId="0" ref="F348">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F319">
+    <comment authorId="0" ref="F320">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1347,9 +1359,6 @@
     <comment authorId="0" ref="F263">
       <text>
         <t xml:space="preserve">https://github.com/withmartian/leaderboard-backend
-	-Jimmy Chou
-----
-https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1377,7 +1386,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F250">
+    <comment authorId="0" ref="F251">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven/
 	-Jimmy Chou</t>
@@ -1395,13 +1404,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F245">
+    <comment authorId="0" ref="F246">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F318">
+    <comment authorId="0" ref="F264">
+      <text>
+        <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F319">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
 	-Jimmy Chou</t>
@@ -1467,13 +1482,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F253">
+    <comment authorId="0" ref="F254">
       <text>
         <t xml:space="preserve">https://github.com/casmlab/NPHardEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="F327">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1527,7 +1542,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F271">
+    <comment authorId="0" ref="F272">
       <text>
         <t xml:space="preserve">https://github.com/njunlp/mapo
 	-Jimmy Chou</t>
@@ -1585,7 +1600,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F261">
+    <comment authorId="0" ref="F262">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1603,25 +1618,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F358">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F351">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F354">
+    <comment authorId="0" ref="F359">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F352">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F355">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F353">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1657,7 +1672,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F293">
+    <comment authorId="0" ref="F294">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1693,67 +1708,67 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F439">
+    <comment authorId="0" ref="F440">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F429">
+    <comment authorId="0" ref="F430">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F344">
+    <comment authorId="0" ref="F345">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F333">
+    <comment authorId="0" ref="F334">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F329">
+    <comment authorId="0" ref="F330">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F299">
+    <comment authorId="0" ref="F300">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F294">
+    <comment authorId="0" ref="F295">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F288">
+    <comment authorId="0" ref="F289">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F276">
+    <comment authorId="0" ref="F277">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/open_book_qa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F248">
+    <comment authorId="0" ref="F249">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/natural-instructions/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F227">
+    <comment authorId="0" ref="F228">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mocha-qa/submissions/public
 	-Jimmy Chou</t>
@@ -1777,7 +1792,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F407">
+    <comment authorId="0" ref="F408">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1789,7 +1804,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F379">
+    <comment authorId="0" ref="F380">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1845,12 +1860,6 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F226">
-      <text>
-        <t xml:space="preserve">https://rrc.cvc.uab.es/?ch=17&amp;com=evaluation&amp;task=4
-	-Jimmy Chou</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="I54">
       <text>
         <t xml:space="preserve">http://www.lavicleva.com/#/homepage/createautotask
@@ -1869,7 +1878,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F217">
+    <comment authorId="0" ref="F218">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/MMBench
 	-Jimmy Chou</t>
@@ -1881,19 +1890,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F298">
+    <comment authorId="0" ref="F299">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F277">
+    <comment authorId="0" ref="F278">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F244">
+    <comment authorId="0" ref="F245">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard
 	-Jimmy Chou
@@ -1971,13 +1980,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A278">
+    <comment authorId="0" ref="A279">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F278">
+    <comment authorId="0" ref="F279">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -1987,13 +1996,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F412">
+    <comment authorId="0" ref="F413">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F400">
+    <comment authorId="0" ref="F401">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -2007,7 +2016,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A265">
+    <comment authorId="0" ref="A266">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard
 	-Jimmy Chou</t>
@@ -2019,7 +2028,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F437">
+    <comment authorId="0" ref="F438">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2095,12 +2104,6 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F308">
-      <text>
-        <t xml:space="preserve">Transactions of the Association for Computational Linguistics
-	-Jimmy Chou</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="H295">
       <text>
         <t xml:space="preserve">Language Resources and Evaluation Conference
@@ -2131,7 +2134,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A281">
+    <comment authorId="0" ref="A282">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Chou</t>
@@ -2143,25 +2146,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A351">
+    <comment authorId="0" ref="A352">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A350">
+    <comment authorId="0" ref="A351">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2173,19 +2176,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A365">
+    <comment authorId="0" ref="A366">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A361">
+    <comment authorId="0" ref="A362">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A316">
+    <comment authorId="0" ref="A317">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2283,7 +2286,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F422">
+    <comment authorId="0" ref="F423">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2291,19 +2294,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F378">
+    <comment authorId="0" ref="F379">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F362">
+    <comment authorId="0" ref="F363">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F304">
+    <comment authorId="0" ref="F305">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2319,7 +2322,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F238">
+    <comment authorId="0" ref="F239">
       <text>
         <t xml:space="preserve">https://mteb.info
 	-Jimmy Chou</t>
@@ -2416,7 +2419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="923">
   <si>
     <t>Name</t>
   </si>
@@ -3596,6 +3599,12 @@
   </si>
   <si>
     <t>Shenzhen Research Institute of Big Data,Chinese University of Hong Kong</t>
+  </si>
+  <si>
+    <t>MM-SafetyBench</t>
+  </si>
+  <si>
+    <t>Shanghai AI Laboratory,East China Normal University,Midea Group,University of Oxford</t>
   </si>
   <si>
     <t>MM-Vet</t>
@@ -4944,202 +4953,229 @@
     <t>https://github.com/Yuliang-Liu/MultimodalOCR/issues/23</t>
   </si>
   <si>
+    <t>https://paperswithcode.com/sota/image-classification-on-imagenet</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2205</t>
+  </si>
+  <si>
+    <t>https://github.com/Q-Future/Chinese-Q-Bench/issues/2</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-french</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/8</t>
+  </si>
+  <si>
+    <t>https://github.com/Q-Future/Q-Bench/issues/11</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-german</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/object-detection-on-coco</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/question-answering-on-squad11</t>
+  </si>
+  <si>
+    <t>Benchmark Task</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/35</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
+  </si>
+  <si>
+    <t>https://github.com/google/BIG-bench/issues/983</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
+  </si>
+  <si>
+    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
+  </si>
+  <si>
+    <t>https://github.com/Re-Align/URIAL/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://github.com/TabbyML/tabby/issues/1369</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
+  </si>
+  <si>
+    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
+  </si>
+  <si>
+    <t>https://github.com/princeton-nlp/intercode/issues/23</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
   </si>
   <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/glitchbench/Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MarketingHackers/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/image-classification-on-imagenet</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2205</t>
-  </si>
-  <si>
-    <t>https://github.com/Q-Future/Chinese-Q-Bench/issues/2</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-french</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/8</t>
-  </si>
-  <si>
-    <t>https://github.com/Q-Future/Q-Bench/issues/11</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/machine-translation-on-wmt2014-english-german</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/object-detection-on-coco</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/question-answering-on-squad11</t>
-  </si>
-  <si>
-    <t>Benchmark Task</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2034</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/35</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/5</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2060</t>
-  </si>
-  <si>
-    <t>https://github.com/google/BIG-bench/issues/983</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
-  </si>
-  <si>
-    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
-  </si>
-  <si>
-    <t>https://github.com/Re-Align/URIAL/issues/7</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/8</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://github.com/TabbyML/tabby/issues/1369</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/princeton-nlp/intercode/issues/23</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+    <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Skywork/agent-studio-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
   </si>
   <si>
     <t>Uncategorized</t>
@@ -9288,53 +9324,53 @@
       <c r="A216" s="9" t="s">
         <v>393</v>
       </c>
+      <c r="C216" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="7"/>
-      <c r="H216" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D217" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G217" s="7"/>
+      <c r="H217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D218" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>396</v>
+        <v>105</v>
       </c>
     </row>
     <row r="219">
@@ -9344,11 +9380,8 @@
       <c r="C219" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>11</v>
+      <c r="D219" s="2">
+        <v>5.0</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>18</v>
@@ -9364,52 +9397,52 @@
       <c r="A220" s="9" t="s">
         <v>399</v>
       </c>
+      <c r="C220" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G220" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D221" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G221" s="7"/>
     </row>
     <row r="222">
       <c r="A222" s="9" t="s">
         <v>401</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D222" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>402</v>
@@ -9420,33 +9453,36 @@
         <v>403</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="D223" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D224" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>18</v>
@@ -9463,27 +9499,27 @@
         <v>408</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="D225" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>69</v>
+        <v>411</v>
       </c>
       <c r="D226" s="2">
         <v>5.0</v>
@@ -9492,44 +9528,41 @@
         <v>18</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H227" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="D228" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>11</v>
@@ -9537,34 +9570,47 @@
       <c r="F228" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G228" s="7"/>
+      <c r="G228" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H228" s="2" t="s">
-        <v>416</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C229" s="2"/>
+      <c r="D229" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G229" s="7"/>
+      <c r="H229" s="2" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="9" t="s">
-        <v>418</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C230" s="2"/>
       <c r="F230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G230" s="7"/>
-      <c r="H230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -9574,7 +9620,7 @@
     </row>
     <row r="232">
       <c r="A232" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -9584,7 +9630,7 @@
     </row>
     <row r="233">
       <c r="A233" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -9594,55 +9640,55 @@
     </row>
     <row r="234">
       <c r="A234" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D234" s="2">
-        <v>5.0</v>
+        <v>423</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G234" s="7"/>
-      <c r="H234" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="H234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="9" t="s">
         <v>424</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>5.0</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G235" s="7"/>
       <c r="H235" s="2" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="2">
+        <v>5.0</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G236" s="7"/>
-      <c r="H236" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -9652,69 +9698,70 @@
     </row>
     <row r="238">
       <c r="A238" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C238" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D238" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F238" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G238" s="7"/>
+      <c r="H238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G239" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="H239" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>435</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G240" s="7"/>
-      <c r="H240" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="7"/>
+      <c r="H241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -9723,9 +9770,8 @@
     </row>
     <row r="243">
       <c r="A243" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C243" s="2"/>
+        <v>438</v>
+      </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
       </c>
@@ -9733,41 +9779,30 @@
     </row>
     <row r="244">
       <c r="A244" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C244" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D244" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C244" s="2"/>
       <c r="F244" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>440</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G244" s="7"/>
     </row>
     <row r="245">
       <c r="A245" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D245" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>11</v>
+        <v>1.0</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G245" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H245" s="2" t="s">
         <v>442</v>
       </c>
@@ -9788,14 +9823,14 @@
       <c r="F246" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G246" s="11"/>
+      <c r="G246" s="7"/>
       <c r="H246" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>33</v>
@@ -9803,121 +9838,122 @@
       <c r="D247" s="2">
         <v>5.0</v>
       </c>
+      <c r="E247" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F247" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G247" s="11"/>
       <c r="H247" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G248" s="11"/>
       <c r="H248" s="2" t="s">
-        <v>14</v>
+        <v>444</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G249" s="7"/>
-      <c r="H249" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C250" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D250" s="2">
-        <v>5.0</v>
-      </c>
       <c r="F250" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>449</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G250" s="7"/>
+      <c r="H250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="D251" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G251" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G252" s="7"/>
-      <c r="H252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D253" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G253" s="7"/>
+      <c r="H253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="9" t="s">
         <v>454</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="D254" s="2">
         <v>5.0</v>
       </c>
+      <c r="E254" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F254" s="2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="G254" s="7" t="s">
         <v>26</v>
@@ -9930,50 +9966,50 @@
       <c r="A255" s="9" t="s">
         <v>456</v>
       </c>
+      <c r="C255" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G255" s="7"/>
-      <c r="H255" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D256" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>11</v>
+        <v>458</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G256" s="7"/>
+      <c r="H256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="9" t="s">
         <v>459</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D257" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>460</v>
@@ -9983,15 +10019,25 @@
       <c r="A258" s="9" t="s">
         <v>461</v>
       </c>
+      <c r="C258" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D258" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G258" s="7"/>
-      <c r="H258" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -10001,28 +10047,17 @@
     </row>
     <row r="260">
       <c r="A260" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D260" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G260" s="7"/>
+      <c r="H260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>33</v>
@@ -10036,22 +10071,20 @@
       <c r="F261" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G261" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="G261" s="11"/>
       <c r="H261" s="2" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="D262" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>11</v>
@@ -10063,7 +10096,7 @@
         <v>26</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>466</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263">
@@ -10071,22 +10104,27 @@
         <v>467</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="D263" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G263" s="7"/>
+      <c r="G263" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H263" s="2" t="s">
-        <v>51</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>33</v>
@@ -10094,15 +10132,12 @@
       <c r="D264" s="2">
         <v>3.0</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F264" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G264" s="11"/>
+      <c r="G264" s="7"/>
       <c r="H264" s="2" t="s">
-        <v>469</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265">
@@ -10110,7 +10145,7 @@
         <v>470</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D265" s="2">
         <v>3.0</v>
@@ -10123,15 +10158,15 @@
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="2" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D266" s="2">
         <v>3.0</v>
@@ -10144,12 +10179,12 @@
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="2" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>33</v>
@@ -10163,22 +10198,20 @@
       <c r="F267" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G267" s="7" t="s">
-        <v>473</v>
-      </c>
+      <c r="G267" s="11"/>
       <c r="H267" s="2" t="s">
-        <v>474</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D268" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>11</v>
@@ -10186,20 +10219,22 @@
       <c r="F268" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="7"/>
+      <c r="G268" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="H268" s="2" t="s">
-        <v>51</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D269" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>11</v>
@@ -10214,13 +10249,13 @@
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D270" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>11</v>
@@ -10228,9 +10263,9 @@
       <c r="F270" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G270" s="11"/>
+      <c r="G270" s="7"/>
       <c r="H270" s="2" t="s">
-        <v>478</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271">
@@ -10238,20 +10273,18 @@
         <v>479</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="D271" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G271" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G271" s="11"/>
       <c r="H271" s="2" t="s">
         <v>480</v>
       </c>
@@ -10261,31 +10294,33 @@
         <v>481</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D272" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G272" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H272" s="2" t="s">
-        <v>329</v>
+        <v>482</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>102</v>
+      <c r="D273" s="2">
+        <v>3.0</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>11</v>
@@ -10293,9 +10328,9 @@
       <c r="F273" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G273" s="11"/>
+      <c r="G273" s="7"/>
       <c r="H273" s="2" t="s">
-        <v>483</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274">
@@ -10303,10 +10338,10 @@
         <v>484</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D274" s="2">
-        <v>3.0</v>
+        <v>33</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>11</v>
@@ -10320,77 +10355,77 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="5"/>
-      <c r="F275" s="6" t="s">
+      <c r="C275" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D275" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G275" s="11"/>
+      <c r="H275" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G275" s="7"/>
-      <c r="H275" s="5"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4"/>
-      <c r="N275" s="4"/>
-      <c r="O275" s="4"/>
-      <c r="P275" s="4"/>
-      <c r="Q275" s="4"/>
-      <c r="R275" s="4"/>
-      <c r="S275" s="4"/>
-      <c r="T275" s="4"/>
-      <c r="U275" s="4"/>
-      <c r="V275" s="4"/>
-      <c r="W275" s="4"/>
-      <c r="X275" s="4"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G276" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G276" s="7"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="4"/>
+      <c r="T276" s="4"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>342</v>
+        <v>10</v>
+      </c>
+      <c r="D277" s="2">
+        <v>2.0</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G277" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H277" s="2" t="s">
-        <v>488</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
@@ -10400,8 +10435,8 @@
       <c r="C278" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D278" s="2">
-        <v>3.0</v>
+      <c r="D278" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>11</v>
@@ -10409,37 +10444,38 @@
       <c r="F278" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G278" s="11"/>
+      <c r="G278" s="7"/>
       <c r="H278" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D279" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G279" s="11"/>
+      <c r="H279" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D279" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G279" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H279" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="D280" s="2">
         <v>5.0</v>
@@ -10448,10 +10484,10 @@
         <v>18</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>492</v>
+        <v>184</v>
       </c>
     </row>
     <row r="281">
@@ -10459,32 +10495,35 @@
         <v>493</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H281" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G281" s="7"/>
-      <c r="H281" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D282" s="2">
-        <v>5.0</v>
-      </c>
       <c r="F282" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G282" s="7"/>
       <c r="H282" s="2" t="s">
         <v>497</v>
       </c>
@@ -10494,160 +10533,159 @@
         <v>498</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D283" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>51</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C284" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F284" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G284" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D285" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C285" s="2"/>
       <c r="F285" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G285" s="7"/>
     </row>
     <row r="286">
       <c r="A286" s="9" t="s">
         <v>502</v>
       </c>
+      <c r="C286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F286" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G286" s="7"/>
-      <c r="H286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="5"/>
-      <c r="F287" s="6" t="s">
+      <c r="G287" s="7"/>
+      <c r="H287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G287" s="7"/>
-      <c r="H287" s="5"/>
-      <c r="I287" s="4"/>
-      <c r="J287" s="4"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="4"/>
-      <c r="O287" s="4"/>
-      <c r="P287" s="4"/>
-      <c r="Q287" s="4"/>
-      <c r="R287" s="4"/>
-      <c r="S287" s="4"/>
-      <c r="T287" s="4"/>
-      <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
-      <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G288" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H288" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G288" s="7"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="4"/>
+      <c r="J288" s="4"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="4"/>
+      <c r="N288" s="4"/>
+      <c r="O288" s="4"/>
+      <c r="P288" s="4"/>
+      <c r="Q288" s="4"/>
+      <c r="R288" s="4"/>
+      <c r="S288" s="4"/>
+      <c r="T288" s="4"/>
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+      <c r="X288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G289" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C290" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D290" s="2">
-        <v>5.0</v>
-      </c>
       <c r="F290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H290" s="2" t="s">
-        <v>507</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G290" s="7"/>
     </row>
     <row r="291">
       <c r="A291" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D291" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G291" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H291" s="2" t="s">
         <v>509</v>
       </c>
@@ -10657,18 +10695,15 @@
         <v>510</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D292" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G292" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G292" s="11"/>
       <c r="H292" s="2" t="s">
         <v>511</v>
       </c>
@@ -10678,17 +10713,18 @@
         <v>512</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D293" s="2">
         <v>5.0</v>
       </c>
+      <c r="E293" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G293" s="7"/>
       <c r="H293" s="2" t="s">
         <v>513</v>
       </c>
@@ -10698,38 +10734,49 @@
         <v>514</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D294" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>14</v>
+        <v>515</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C295" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G295" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="9" t="s">
-        <v>516</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C296" s="2"/>
       <c r="F296" s="2" t="s">
         <v>9</v>
       </c>
@@ -10737,218 +10784,207 @@
     </row>
     <row r="297">
       <c r="A297" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D297" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>517</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G297" s="7"/>
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
         <v>518</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H298" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="D298" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G298" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D299" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>14</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G300" s="7"/>
-      <c r="H300" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D301" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G301" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>524</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G301" s="7"/>
+      <c r="H301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
         <v>525</v>
       </c>
+      <c r="C302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F302" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G302" s="7"/>
-      <c r="H302" s="2"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B303" s="4"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="6" t="s">
+      <c r="G303" s="7"/>
+      <c r="H303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G303" s="7"/>
-      <c r="H303" s="5"/>
-      <c r="I303" s="4"/>
-      <c r="J303" s="4"/>
-      <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="4"/>
-      <c r="N303" s="4"/>
-      <c r="O303" s="4"/>
-      <c r="P303" s="4"/>
-      <c r="Q303" s="4"/>
-      <c r="R303" s="4"/>
-      <c r="S303" s="4"/>
-      <c r="T303" s="4"/>
-      <c r="U303" s="4"/>
-      <c r="V303" s="4"/>
-      <c r="W303" s="4"/>
-      <c r="X303" s="4"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D304" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G304" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="G304" s="7"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="4"/>
+      <c r="N304" s="4"/>
+      <c r="O304" s="4"/>
+      <c r="P304" s="4"/>
+      <c r="Q304" s="4"/>
+      <c r="R304" s="4"/>
+      <c r="S304" s="4"/>
+      <c r="T304" s="4"/>
+      <c r="U304" s="4"/>
+      <c r="V304" s="4"/>
+      <c r="W304" s="4"/>
+      <c r="X304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C305" s="2"/>
+      <c r="D305" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F305" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G305" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>530</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C306" s="2"/>
       <c r="F306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G306" s="7"/>
-      <c r="H306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D307" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H307" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G307" s="7"/>
+      <c r="H307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
         <v>533</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D308" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>534</v>
@@ -10958,31 +10994,31 @@
       <c r="A309" s="9" t="s">
         <v>535</v>
       </c>
+      <c r="C309" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G309" s="7"/>
-      <c r="H309" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D310" s="2">
-        <v>1.0</v>
+        <v>537</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G310" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G310" s="7"/>
+      <c r="H310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="9" t="s">
@@ -10992,24 +11028,24 @@
         <v>17</v>
       </c>
       <c r="D311" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>11</v>
+        <v>1.0</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G311" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H311" s="2" t="s">
-        <v>186</v>
+        <v>539</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D312" s="2">
         <v>5.0</v>
@@ -11018,84 +11054,81 @@
         <v>11</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G312" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>540</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
         <v>541</v>
       </c>
+      <c r="C313" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D313" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G313" s="7"/>
-      <c r="H313" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D314" s="2">
-        <v>2.0</v>
+        <v>543</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G314" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>543</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G314" s="7"/>
+      <c r="H314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
         <v>544</v>
       </c>
+      <c r="C315" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D315" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F315" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G315" s="7"/>
-      <c r="H315" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D316" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G316" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G316" s="7"/>
+      <c r="H316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>547</v>
+        <v>134</v>
       </c>
       <c r="D317" s="2">
         <v>2.0</v>
@@ -11104,30 +11137,30 @@
         <v>11</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G317" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D318" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="G318" s="7" t="s">
         <v>26</v>
@@ -11141,132 +11174,132 @@
         <v>551</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D319" s="2">
         <v>5.0</v>
       </c>
+      <c r="E319" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F319" s="2" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G319" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H319" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D320" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F320" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G320" s="7"/>
+      <c r="H320" s="2" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D321" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>11</v>
+        <v>556</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G321" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H321" s="2" t="s">
-        <v>555</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G321" s="7"/>
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
         <v>556</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="D322" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>51</v>
+        <v>557</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323" s="2">
+        <v>5.0</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G323" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
+        <v>559</v>
+      </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G324" s="7"/>
-      <c r="H324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D325" s="2">
-        <v>2.0</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
       <c r="F325" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G325" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G325" s="7"/>
+      <c r="H325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
         <v>560</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D326" s="2">
         <v>2.0</v>
       </c>
-      <c r="E326" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F326" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>561</v>
@@ -11277,39 +11310,39 @@
         <v>562</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>563</v>
+        <v>33</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2.0</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D328" s="2">
-        <v>2.0</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G328" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>566</v>
@@ -11320,7 +11353,7 @@
         <v>567</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D329" s="2">
         <v>2.0</v>
@@ -11329,174 +11362,187 @@
         <v>11</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G330" s="15"/>
-      <c r="H330" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="C331" s="2"/>
+        <v>570</v>
+      </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G331" s="7"/>
+      <c r="G331" s="15"/>
+      <c r="H331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="5"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="5"/>
-      <c r="F332" s="6" t="s">
+      <c r="A332" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C332" s="2"/>
+      <c r="F332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G332" s="7"/>
-      <c r="H332" s="5"/>
-      <c r="I332" s="4"/>
-      <c r="J332" s="4"/>
-      <c r="K332" s="4"/>
-      <c r="L332" s="4"/>
-      <c r="M332" s="4"/>
-      <c r="N332" s="4"/>
-      <c r="O332" s="4"/>
-      <c r="P332" s="4"/>
-      <c r="Q332" s="4"/>
-      <c r="R332" s="4"/>
-      <c r="S332" s="4"/>
-      <c r="T332" s="4"/>
-      <c r="U332" s="4"/>
-      <c r="V332" s="4"/>
-      <c r="W332" s="4"/>
-      <c r="X332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D333" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G333" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A333" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" s="7"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="4"/>
+      <c r="J333" s="4"/>
+      <c r="K333" s="4"/>
+      <c r="L333" s="4"/>
+      <c r="M333" s="4"/>
+      <c r="N333" s="4"/>
+      <c r="O333" s="4"/>
+      <c r="P333" s="4"/>
+      <c r="Q333" s="4"/>
+      <c r="R333" s="4"/>
+      <c r="S333" s="4"/>
+      <c r="T333" s="4"/>
+      <c r="U333" s="4"/>
+      <c r="V333" s="4"/>
+      <c r="W333" s="4"/>
+      <c r="X333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
         <v>572</v>
       </c>
+      <c r="C334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F334" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G334" s="7"/>
-      <c r="H334" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G334" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C335" s="2"/>
+        <v>574</v>
+      </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G335" s="7"/>
+      <c r="H335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="5"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="5"/>
-      <c r="F336" s="6" t="s">
+      <c r="A336" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C336" s="2"/>
+      <c r="F336" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G336" s="7"/>
-      <c r="H336" s="5"/>
-      <c r="I336" s="4"/>
-      <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
-      <c r="L336" s="4"/>
-      <c r="M336" s="4"/>
-      <c r="N336" s="4"/>
-      <c r="O336" s="4"/>
-      <c r="P336" s="4"/>
-      <c r="Q336" s="4"/>
-      <c r="R336" s="4"/>
-      <c r="S336" s="4"/>
-      <c r="T336" s="4"/>
-      <c r="U336" s="4"/>
-      <c r="V336" s="4"/>
-      <c r="W336" s="4"/>
-      <c r="X336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G337" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>575</v>
-      </c>
+      <c r="A337" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" s="7"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+      <c r="L337" s="4"/>
+      <c r="M337" s="4"/>
+      <c r="N337" s="4"/>
+      <c r="O337" s="4"/>
+      <c r="P337" s="4"/>
+      <c r="Q337" s="4"/>
+      <c r="R337" s="4"/>
+      <c r="S337" s="4"/>
+      <c r="T337" s="4"/>
+      <c r="U337" s="4"/>
+      <c r="V337" s="4"/>
+      <c r="W337" s="4"/>
+      <c r="X337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
         <v>576</v>
       </c>
+      <c r="C338" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G338" s="7"/>
-      <c r="H338" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -11506,7 +11552,7 @@
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -11516,7 +11562,7 @@
     </row>
     <row r="341">
       <c r="A341" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -11526,7 +11572,7 @@
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
@@ -11536,85 +11582,75 @@
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G343" s="7"/>
+      <c r="H343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D344" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>11</v>
+        <v>583</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G344" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G344" s="7"/>
     </row>
     <row r="345">
       <c r="A345" s="9" t="s">
         <v>583</v>
       </c>
+      <c r="C345" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G345" s="7"/>
-      <c r="H345" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D346" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>11</v>
+        <v>585</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G346" s="7"/>
-      <c r="H346" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D347" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G347" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G347" s="7"/>
       <c r="H347" s="2" t="s">
-        <v>586</v>
+        <v>51</v>
       </c>
     </row>
     <row r="348">
@@ -11622,44 +11658,44 @@
         <v>587</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="D348" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="G348" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>303</v>
+        <v>588</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>589</v>
+        <v>134</v>
       </c>
       <c r="D349" s="2">
         <v>3.0</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G349" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>590</v>
+        <v>303</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D350" s="2">
         <v>3.0</v>
@@ -11668,10 +11704,10 @@
         <v>30</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="351">
@@ -11679,7 +11715,7 @@
         <v>593</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D351" s="2">
         <v>3.0</v>
@@ -11691,15 +11727,15 @@
         <v>251</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D352" s="2">
         <v>3.0</v>
@@ -11711,15 +11747,15 @@
         <v>251</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D353" s="2">
         <v>3.0</v>
@@ -11731,15 +11767,15 @@
         <v>251</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D354" s="2">
         <v>3.0</v>
@@ -11748,88 +11784,88 @@
         <v>30</v>
       </c>
       <c r="G354" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D355" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G355" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H354" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D355" s="19">
+      <c r="H355" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B356" s="4"/>
+      <c r="C356" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D356" s="19">
         <v>3.0</v>
       </c>
-      <c r="E355" s="4"/>
-      <c r="F355" s="5" t="s">
+      <c r="E356" s="4"/>
+      <c r="F356" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G355" s="6" t="s">
+      <c r="G356" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H355" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="I355" s="4"/>
-      <c r="J355" s="4"/>
-      <c r="K355" s="4"/>
-      <c r="L355" s="4"/>
-      <c r="M355" s="4"/>
-      <c r="N355" s="4"/>
-      <c r="O355" s="4"/>
-      <c r="P355" s="4"/>
-      <c r="Q355" s="4"/>
-      <c r="R355" s="4"/>
-      <c r="S355" s="4"/>
-      <c r="T355" s="4"/>
-      <c r="U355" s="4"/>
-      <c r="V355" s="4"/>
-      <c r="W355" s="4"/>
-      <c r="X355" s="4"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D356" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G356" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H356" s="2" t="s">
-        <v>588</v>
-      </c>
+      <c r="H356" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+      <c r="K356" s="4"/>
+      <c r="L356" s="4"/>
+      <c r="M356" s="4"/>
+      <c r="N356" s="4"/>
+      <c r="O356" s="4"/>
+      <c r="P356" s="4"/>
+      <c r="Q356" s="4"/>
+      <c r="R356" s="4"/>
+      <c r="S356" s="4"/>
+      <c r="T356" s="4"/>
+      <c r="U356" s="4"/>
+      <c r="V356" s="4"/>
+      <c r="W356" s="4"/>
+      <c r="X356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="C357" s="2" t="s">
         <v>600</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D357" s="2">
         <v>3.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G357" s="7" t="s">
         <v>251</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="358">
@@ -11837,7 +11873,7 @@
         <v>601</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="D358" s="2">
         <v>3.0</v>
@@ -11846,36 +11882,38 @@
         <v>30</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>17</v>
+        <v>591</v>
       </c>
       <c r="D359" s="2">
         <v>3.0</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G359" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="G359" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="H359" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D360" s="2">
         <v>3.0</v>
@@ -11883,32 +11921,27 @@
       <c r="F360" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G360" s="7"/>
+      <c r="G360" s="11"/>
       <c r="H360" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D361" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G361" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G361" s="7"/>
       <c r="H361" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="362">
@@ -11916,18 +11949,21 @@
         <v>606</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D362" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H362" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H362" s="2" t="s">
         <v>607</v>
       </c>
     </row>
@@ -11935,94 +11971,91 @@
       <c r="A363" s="9" t="s">
         <v>608</v>
       </c>
+      <c r="C363" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D363" s="2">
+        <v>1.0</v>
+      </c>
       <c r="F363" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G363" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H363" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="F364" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G363" s="7"/>
-      <c r="H363" s="2"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="5"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="6" t="s">
+      <c r="G364" s="7"/>
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G364" s="7"/>
-      <c r="H364" s="5"/>
-      <c r="I364" s="4"/>
-      <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
-      <c r="M364" s="4"/>
-      <c r="N364" s="4"/>
-      <c r="O364" s="4"/>
-      <c r="P364" s="4"/>
-      <c r="Q364" s="4"/>
-      <c r="R364" s="4"/>
-      <c r="S364" s="4"/>
-      <c r="T364" s="4"/>
-      <c r="U364" s="4"/>
-      <c r="V364" s="4"/>
-      <c r="W364" s="4"/>
-      <c r="X364" s="4"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D365" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G365" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H365" s="2" t="s">
-        <v>610</v>
-      </c>
+      <c r="G365" s="7"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="4"/>
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+      <c r="L365" s="4"/>
+      <c r="M365" s="4"/>
+      <c r="N365" s="4"/>
+      <c r="O365" s="4"/>
+      <c r="P365" s="4"/>
+      <c r="Q365" s="4"/>
+      <c r="R365" s="4"/>
+      <c r="S365" s="4"/>
+      <c r="T365" s="4"/>
+      <c r="U365" s="4"/>
+      <c r="V365" s="4"/>
+      <c r="W365" s="4"/>
+      <c r="X365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
         <v>611</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>612</v>
+        <v>134</v>
       </c>
       <c r="D366" s="2">
         <v>2.0</v>
       </c>
-      <c r="E366" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F366" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D367" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>11</v>
@@ -12031,7 +12064,7 @@
         <v>18</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>615</v>
@@ -12041,34 +12074,37 @@
       <c r="A368" s="9" t="s">
         <v>616</v>
       </c>
+      <c r="C368" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D368" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G368" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G368" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D369" s="2">
-        <v>2.0</v>
+        <v>618</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G369" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="H369" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G369" s="7"/>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>17</v>
@@ -12080,7 +12116,7 @@
         <v>18</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>53</v>
+        <v>620</v>
       </c>
       <c r="H370" s="2" t="s">
         <v>621</v>
@@ -12090,99 +12126,99 @@
       <c r="A371" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G371" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G371" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D372" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C372" s="2"/>
       <c r="F372" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G372" s="7"/>
-      <c r="H372" s="2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C373" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D373" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F373" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G373" s="7"/>
       <c r="H373" s="2" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="9" t="s">
         <v>626</v>
       </c>
+      <c r="C374" s="2"/>
       <c r="F374" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G374" s="7"/>
-      <c r="H374" s="2"/>
+      <c r="H374" s="2" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G375" s="7"/>
+      <c r="H375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>102</v>
+        <v>629</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G376" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H376" s="2" t="s">
-        <v>628</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G376" s="7"/>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
         <v>629</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D377" s="2">
-        <v>5.0</v>
+        <v>134</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>630</v>
@@ -12193,15 +12229,17 @@
         <v>631</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D378" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G378" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H378" s="2" t="s">
         <v>632</v>
       </c>
@@ -12211,20 +12249,15 @@
         <v>633</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D379" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E379" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G379" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G379" s="7"/>
       <c r="H379" s="2" t="s">
         <v>634</v>
       </c>
@@ -12234,13 +12267,16 @@
         <v>635</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="D380" s="2">
         <v>5.0</v>
       </c>
+      <c r="E380" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G380" s="7" t="s">
         <v>26</v>
@@ -12253,66 +12289,76 @@
       <c r="A381" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C381" s="2"/>
+      <c r="C381" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D381" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G381" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G381" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D382" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="C382" s="2"/>
       <c r="F382" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G382" s="7"/>
-      <c r="H382" s="2" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>640</v>
+        <v>33</v>
       </c>
       <c r="D383" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G383" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G383" s="7"/>
       <c r="H383" s="2" t="s">
-        <v>641</v>
+        <v>329</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>642</v>
       </c>
+      <c r="D384" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G384" s="7"/>
-      <c r="H384" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G384" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>9</v>
@@ -12322,73 +12368,63 @@
     </row>
     <row r="386">
       <c r="A386" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C386" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D387" s="2">
         <v>2.0</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="F387" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G386" s="7" t="s">
+      <c r="G387" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H386" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="B387" s="4"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="6" t="s">
+      <c r="H387" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="B388" s="4"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="4"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G387" s="7"/>
-      <c r="H387" s="5"/>
-      <c r="I387" s="4"/>
-      <c r="J387" s="4"/>
-      <c r="K387" s="4"/>
-      <c r="L387" s="4"/>
-      <c r="M387" s="4"/>
-      <c r="N387" s="4"/>
-      <c r="O387" s="4"/>
-      <c r="P387" s="4"/>
-      <c r="Q387" s="4"/>
-      <c r="R387" s="4"/>
-      <c r="S387" s="4"/>
-      <c r="T387" s="4"/>
-      <c r="U387" s="4"/>
-      <c r="V387" s="4"/>
-      <c r="W387" s="4"/>
-      <c r="X387" s="4"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D388" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G388" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>647</v>
-      </c>
+      <c r="G388" s="7"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="4"/>
+      <c r="J388" s="4"/>
+      <c r="K388" s="4"/>
+      <c r="L388" s="4"/>
+      <c r="M388" s="4"/>
+      <c r="N388" s="4"/>
+      <c r="O388" s="4"/>
+      <c r="P388" s="4"/>
+      <c r="Q388" s="4"/>
+      <c r="R388" s="4"/>
+      <c r="S388" s="4"/>
+      <c r="T388" s="4"/>
+      <c r="U388" s="4"/>
+      <c r="V388" s="4"/>
+      <c r="W388" s="4"/>
+      <c r="X388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
@@ -12404,7 +12440,7 @@
         <v>18</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H389" s="2" t="s">
         <v>649</v>
@@ -12415,31 +12451,41 @@
         <v>650</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D390" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="G390" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>51</v>
+        <v>651</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D391" s="2">
+        <v>4.0</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G391" s="7"/>
-      <c r="H391" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>9</v>
@@ -12449,7 +12495,7 @@
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
@@ -12459,87 +12505,74 @@
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G394" s="7"/>
-      <c r="H394" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D395" s="2">
-        <v>5.0</v>
+        <v>33</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G395" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G395" s="7"/>
       <c r="H395" s="2" t="s">
-        <v>656</v>
+        <v>51</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C396" s="2"/>
+      <c r="C396" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D396" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G396" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G396" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C397" s="2"/>
       <c r="F397" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G397" s="7"/>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D398" s="2">
-        <v>5.0</v>
+        <v>10</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>11</v>
@@ -12547,69 +12580,82 @@
       <c r="F398" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G398" s="7" t="s">
+      <c r="G398" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>297</v>
+        <v>661</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C399" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D399" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F399" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G399" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G399" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C400" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D400" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C400" s="2"/>
       <c r="F400" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G400" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>664</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G400" s="7"/>
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>665</v>
       </c>
+      <c r="D401" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F401" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G401" s="7"/>
-      <c r="H401" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G401" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="C402" s="2"/>
+        <v>667</v>
+      </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G402" s="7"/>
+      <c r="H402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C403" s="2"/>
       <c r="F403" s="2" t="s">
@@ -12619,7 +12665,7 @@
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C404" s="2"/>
       <c r="F404" s="2" t="s">
@@ -12629,43 +12675,33 @@
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D405" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E405" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C405" s="2"/>
       <c r="F405" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G405" s="7"/>
-      <c r="H405" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D406" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G406" s="20" t="s">
-        <v>73</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G406" s="7"/>
       <c r="H406" s="2" t="s">
-        <v>671</v>
+        <v>44</v>
       </c>
     </row>
     <row r="407">
@@ -12673,16 +12709,16 @@
         <v>672</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D407" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G407" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="G407" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="H407" s="2" t="s">
         <v>673</v>
@@ -12692,14 +12728,25 @@
       <c r="A408" s="9" t="s">
         <v>674</v>
       </c>
+      <c r="C408" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D408" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F408" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G408" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G408" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>9</v>
@@ -12708,69 +12755,58 @@
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D410" s="2">
-        <v>5.0</v>
+        <v>677</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G410" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>676</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G410" s="7"/>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
         <v>677</v>
       </c>
+      <c r="C411" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D411" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F411" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G411" s="7"/>
-      <c r="H411" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G411" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="C412" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D412" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F412" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G412" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>680</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G412" s="7"/>
+      <c r="H412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D413" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>682</v>
@@ -12780,49 +12816,46 @@
       <c r="A414" s="9" t="s">
         <v>683</v>
       </c>
+      <c r="C414" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D414" s="2">
+        <v>5.0</v>
+      </c>
       <c r="F414" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G414" s="7"/>
-      <c r="H414" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G414" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D415" s="2">
-        <v>5.0</v>
+        <v>685</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G415" s="7"/>
-      <c r="H415" s="2" t="s">
-        <v>685</v>
-      </c>
+      <c r="H415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
         <v>686</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D416" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>11</v>
+        <v>5.0</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G416" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G416" s="7"/>
       <c r="H416" s="2" t="s">
         <v>687</v>
       </c>
@@ -12831,15 +12864,28 @@
       <c r="A417" s="9" t="s">
         <v>688</v>
       </c>
+      <c r="C417" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D417" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F417" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G417" s="7"/>
-      <c r="H417" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G417" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -12849,16 +12895,17 @@
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G419" s="7"/>
+      <c r="H419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
@@ -12867,7 +12914,7 @@
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -12876,47 +12923,46 @@
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G422" s="7"/>
-      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D423" s="2">
-        <v>2.0</v>
+        <v>695</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G423" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>694</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G423" s="7"/>
+      <c r="H423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
         <v>695</v>
       </c>
+      <c r="C424" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D424" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F424" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G424" s="7"/>
-      <c r="H424" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>9</v>
@@ -12926,26 +12972,13 @@
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D426" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E426" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F426" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H426" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G426" s="7"/>
+      <c r="H426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
@@ -12954,8 +12987,8 @@
       <c r="C427" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D427" s="2">
-        <v>7.0</v>
+      <c r="D427" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>11</v>
@@ -12963,76 +12996,89 @@
       <c r="F427" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G427" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H427" s="2" t="s">
-        <v>700</v>
+        <v>297</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="13" t="s">
+      <c r="A428" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B428" s="4"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="5"/>
-      <c r="F428" s="6" t="s">
+      <c r="C428" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D428" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B429" s="4"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G428" s="7"/>
-      <c r="H428" s="5"/>
-      <c r="I428" s="4"/>
-      <c r="J428" s="4"/>
-      <c r="K428" s="4"/>
-      <c r="L428" s="4"/>
-      <c r="M428" s="4"/>
-      <c r="N428" s="4"/>
-      <c r="O428" s="4"/>
-      <c r="P428" s="4"/>
-      <c r="Q428" s="4"/>
-      <c r="R428" s="4"/>
-      <c r="S428" s="4"/>
-      <c r="T428" s="4"/>
-      <c r="U428" s="4"/>
-      <c r="V428" s="4"/>
-      <c r="W428" s="4"/>
-      <c r="X428" s="4"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D429" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G429" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H429" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G429" s="7"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="4"/>
+      <c r="J429" s="4"/>
+      <c r="K429" s="4"/>
+      <c r="L429" s="4"/>
+      <c r="M429" s="4"/>
+      <c r="N429" s="4"/>
+      <c r="O429" s="4"/>
+      <c r="P429" s="4"/>
+      <c r="Q429" s="4"/>
+      <c r="R429" s="4"/>
+      <c r="S429" s="4"/>
+      <c r="T429" s="4"/>
+      <c r="U429" s="4"/>
+      <c r="V429" s="4"/>
+      <c r="W429" s="4"/>
+      <c r="X429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D430" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G430" s="7"/>
-      <c r="H430" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -13042,7 +13088,7 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -13052,7 +13098,7 @@
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
@@ -13062,99 +13108,106 @@
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="C434" s="2"/>
+        <v>707</v>
+      </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G434" s="7"/>
+      <c r="H434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D435" s="2">
-        <v>5.0</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="C435" s="2"/>
       <c r="F435" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G435" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H435" s="2" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D436" s="2">
+        <v>5.0</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G436" s="7"/>
-      <c r="H436" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G436" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C437" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D437" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F437" s="2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="G437" s="7"/>
-      <c r="H437" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="9" t="s">
         <v>711</v>
       </c>
+      <c r="C438" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D438" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F438" s="2" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="G438" s="7"/>
-      <c r="H438" s="2"/>
+      <c r="H438" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="C439" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G439" s="7"/>
+      <c r="H439" s="2"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D440" s="2">
         <v>2.0</v>
       </c>
-      <c r="E439" s="2" t="s">
+      <c r="E440" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F439" s="2" t="s">
+      <c r="F440" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G439" s="2" t="s">
+      <c r="G440" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="H440" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="440">
-      <c r="C440" s="2"/>
     </row>
     <row r="441">
       <c r="C441" s="2"/>
@@ -14772,9 +14825,6 @@
     </row>
     <row r="979">
       <c r="C979" s="2"/>
-    </row>
-    <row r="980">
-      <c r="C980" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15000,9 +15050,9 @@
     <hyperlink r:id="rId221" ref="A220"/>
     <hyperlink r:id="rId222" ref="A221"/>
     <hyperlink r:id="rId223" ref="A222"/>
-    <hyperlink r:id="rId224" location="leaderboard" ref="A223"/>
-    <hyperlink r:id="rId225" location="Leaderboard" ref="A224"/>
-    <hyperlink r:id="rId226" ref="A225"/>
+    <hyperlink r:id="rId224" ref="A223"/>
+    <hyperlink r:id="rId225" location="leaderboard" ref="A224"/>
+    <hyperlink r:id="rId226" location="Leaderboard" ref="A225"/>
     <hyperlink r:id="rId227" ref="A226"/>
     <hyperlink r:id="rId228" ref="A227"/>
     <hyperlink r:id="rId229" ref="A228"/>
@@ -15058,8 +15108,8 @@
     <hyperlink r:id="rId279" ref="A278"/>
     <hyperlink r:id="rId280" ref="A279"/>
     <hyperlink r:id="rId281" ref="A280"/>
-    <hyperlink r:id="rId282" location="/rank" ref="A281"/>
-    <hyperlink r:id="rId283" ref="A282"/>
+    <hyperlink r:id="rId282" ref="A281"/>
+    <hyperlink r:id="rId283" location="/rank" ref="A282"/>
     <hyperlink r:id="rId284" ref="A283"/>
     <hyperlink r:id="rId285" ref="A284"/>
     <hyperlink r:id="rId286" ref="A285"/>
@@ -15125,8 +15175,8 @@
     <hyperlink r:id="rId346" ref="A345"/>
     <hyperlink r:id="rId347" ref="A346"/>
     <hyperlink r:id="rId348" ref="A347"/>
-    <hyperlink r:id="rId349" location="/leaderboard" ref="A348"/>
-    <hyperlink r:id="rId350" ref="A349"/>
+    <hyperlink r:id="rId349" ref="A348"/>
+    <hyperlink r:id="rId350" location="/leaderboard" ref="A349"/>
     <hyperlink r:id="rId351" ref="A350"/>
     <hyperlink r:id="rId352" ref="A351"/>
     <hyperlink r:id="rId353" ref="A352"/>
@@ -15140,8 +15190,8 @@
     <hyperlink r:id="rId361" ref="A360"/>
     <hyperlink r:id="rId362" ref="A361"/>
     <hyperlink r:id="rId363" ref="A362"/>
-    <hyperlink r:id="rId364" ref="H362"/>
-    <hyperlink r:id="rId365" ref="A363"/>
+    <hyperlink r:id="rId364" ref="A363"/>
+    <hyperlink r:id="rId365" ref="H363"/>
     <hyperlink r:id="rId366" ref="A364"/>
     <hyperlink r:id="rId367" ref="A365"/>
     <hyperlink r:id="rId368" ref="A366"/>
@@ -15218,9 +15268,10 @@
     <hyperlink r:id="rId439" ref="A437"/>
     <hyperlink r:id="rId440" ref="A438"/>
     <hyperlink r:id="rId441" ref="A439"/>
+    <hyperlink r:id="rId442" ref="A440"/>
   </hyperlinks>
-  <drawing r:id="rId442"/>
-  <legacyDrawing r:id="rId443"/>
+  <drawing r:id="rId443"/>
+  <legacyDrawing r:id="rId444"/>
 </worksheet>
 </file>
 
@@ -15236,29 +15287,102 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
         <v>903</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -15267,8 +15391,22 @@
     <hyperlink r:id="rId2" ref="B2"/>
     <hyperlink r:id="rId3" ref="A3"/>
     <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="A5"/>
+    <hyperlink r:id="rId7" ref="A6"/>
+    <hyperlink r:id="rId8" ref="A7"/>
+    <hyperlink r:id="rId9" ref="A8"/>
+    <hyperlink r:id="rId10" ref="A9"/>
+    <hyperlink r:id="rId11" ref="A10"/>
+    <hyperlink r:id="rId12" ref="A11"/>
+    <hyperlink r:id="rId13" ref="A12"/>
+    <hyperlink r:id="rId14" ref="A13"/>
+    <hyperlink r:id="rId15" ref="A14"/>
+    <hyperlink r:id="rId16" ref="A15"/>
+    <hyperlink r:id="rId17" ref="A16"/>
+    <hyperlink r:id="rId18" ref="A17"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -15287,62 +15425,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -15375,82 +15513,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -15494,290 +15632,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="17" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="17" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="17" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="17" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="17" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="17" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -15875,78 +16013,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="17" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -15986,139 +16124,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22"/>
       <c r="D5" s="9" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="17" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="9" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="17" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="9" t="s">
-        <v>840</v>
-      </c>
+      <c r="D16" s="22"/>
     </row>
     <row r="37">
       <c r="B37" s="22"/>
@@ -16150,11 +16276,8 @@
     <hyperlink r:id="rId23" ref="D13"/>
     <hyperlink r:id="rId24" ref="D14"/>
     <hyperlink r:id="rId25" ref="D15"/>
-    <hyperlink r:id="rId26" ref="D16"/>
-    <hyperlink r:id="rId27" ref="D17"/>
-    <hyperlink r:id="rId28" ref="D18"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -16176,53 +16299,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>842</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>845</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>847</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -16257,25 +16380,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16301,25 +16424,25 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>858</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16345,20 +16468,20 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="21" t="s">
         <v>862</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>863</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16385,17 +16508,17 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>864</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>865</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>866</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>867</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16422,14 +16545,14 @@
     </row>
     <row r="5">
       <c r="C5" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16456,14 +16579,14 @@
     </row>
     <row r="6">
       <c r="C6" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16491,10 +16614,10 @@
     <row r="7">
       <c r="D7" s="23"/>
       <c r="E7" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>872</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>873</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46298,95 +46421,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>876</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>878</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>881</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>883</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>885</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -46430,48 +46553,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>893</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>896</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>897</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2431,7 +2431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1009">
   <si>
     <t>Name</t>
   </si>
@@ -4641,6 +4641,9 @@
     <t>https://huggingface.co/spaces/BramVanroy/open_dutch_llm_leaderboard</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/choco9966/open-ko-llm-leaderboard/discussions/2</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/felixz/meta_open_llm_leaderboard/discussions/1</t>
   </si>
   <si>
@@ -5163,16 +5166,115 @@
     <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/0x1668/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Aarifkhan/leaderboard-results-to-modelcard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/AI-Vietnam/prompt-translation-vie-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Alfasign/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-docker/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-gradio/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/asir0z/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/automerger/Yet_Another_LLM_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/awacke1/CanAICode-Leaderboard-Customized/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/b1sheng/kg_llm_leaderboard_test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/bittensor-dataset/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CDT-BMAI-GP/biomed_probing_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/choco9966/LeaderboardTest/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Classroom-workshop/assignments-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CVPR/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DeepBrainz/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-crafters/leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-leaderboard-backend/leaderboard/discussions/6</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-leaderboard/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard-v13/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
   </si>
   <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
+    <t>https://huggingface.co/spaces/Docfile/open_llm_leaderboard/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+    <t>https://huggingface.co/spaces/ecai-2034/FSS-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/eduagarcia-temp/portuguese-leaderboard-results-to-modelcard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroSciPy2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/freddyaboulton/gradio_leaderboard_demo/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
@@ -5181,12 +5283,57 @@
     <t>https://huggingface.co/spaces/glitchbench/Leaderboard/discussions/3</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/Gradio-Blocks/Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hjzhou/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/homunculus/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/HuggingFaceH4/human_eval_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ICML2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/JarvisKi/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kbmlcoding/open_llm_leaderboard_free/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/khhuiyh/AutoEval-Video_LeaderBoard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kunato-lab/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ludwigstumpp/llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/MarketingHackers/chatbot-arena-leaderboard/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/NAACL2022/Spaces-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nan/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/neelalex/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nouamanetazi/mteb-leaderboard-old/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
   </si>
   <si>
@@ -5199,16 +5346,106 @@
     <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/2</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/openskyml/diffusion-models-leaderboard-template/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/osanseviero/llama-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/patrickvonplaten/parti-prompts-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/platzi/platzi-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/PlixAI/pixel-subnet-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard_two/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/reach-vb/leaderboards/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_enterprise_scenarios_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_hallucination_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_llm_perf_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data-only-mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rusticluftig/9-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sanchit-gandhi/leaderboards/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/seikwan/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/SIGGRAPH2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/Skywork/agent-studio-leaderboard/discussions/1</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/somosnlp/likes_leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/speech-recognition-community-v2/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/stabletoolbench/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/starmorph/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard-test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/TIGER-Lab/LongICL-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/umdclip/grounded_qa_leaderboard/discussions/1</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/winglian/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/xtreme-s/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ybjeong/leaderboard_kr/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/yzeng58/CoBSAT_Leaderboard/discussions/1</t>
   </si>
   <si>
     <t>Uncategorized</t>
@@ -15399,96 +15636,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>908</v>
+      <c r="A3" s="9" t="s">
+        <v>909</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>911</v>
+      <c r="A5" s="18" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>893</v>
+      <c r="A6" s="9" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>913</v>
+      <c r="A8" s="18" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>915</v>
+      <c r="A10" s="18" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>916</v>
+      <c r="A11" s="18" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>917</v>
+      <c r="A12" s="18" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>918</v>
+      <c r="A13" s="9" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>921</v>
+      <c r="A16" s="18" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>905</v>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="18" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="18" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="18" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="18" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="18" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="18" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="18" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="18" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="18" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="18" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="18" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="18" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="18" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="18" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="18" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="18" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="18" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="18" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="18" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="18" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="18" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="18" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="18" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="18" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="18" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="18" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="18" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="18" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="18" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="18" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="18" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="18" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="18" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -15511,8 +16153,89 @@
     <hyperlink r:id="rId16" ref="A15"/>
     <hyperlink r:id="rId17" ref="A16"/>
     <hyperlink r:id="rId18" ref="A17"/>
+    <hyperlink r:id="rId19" ref="A18"/>
+    <hyperlink r:id="rId20" ref="A19"/>
+    <hyperlink r:id="rId21" ref="A20"/>
+    <hyperlink r:id="rId22" ref="A21"/>
+    <hyperlink r:id="rId23" ref="A22"/>
+    <hyperlink r:id="rId24" ref="A23"/>
+    <hyperlink r:id="rId25" ref="A24"/>
+    <hyperlink r:id="rId26" ref="A25"/>
+    <hyperlink r:id="rId27" ref="A26"/>
+    <hyperlink r:id="rId28" ref="A27"/>
+    <hyperlink r:id="rId29" ref="A28"/>
+    <hyperlink r:id="rId30" ref="A29"/>
+    <hyperlink r:id="rId31" ref="A30"/>
+    <hyperlink r:id="rId32" ref="A31"/>
+    <hyperlink r:id="rId33" ref="A32"/>
+    <hyperlink r:id="rId34" ref="A33"/>
+    <hyperlink r:id="rId35" ref="A34"/>
+    <hyperlink r:id="rId36" ref="A35"/>
+    <hyperlink r:id="rId37" ref="A36"/>
+    <hyperlink r:id="rId38" ref="A37"/>
+    <hyperlink r:id="rId39" ref="A38"/>
+    <hyperlink r:id="rId40" ref="A39"/>
+    <hyperlink r:id="rId41" ref="A40"/>
+    <hyperlink r:id="rId42" ref="A41"/>
+    <hyperlink r:id="rId43" ref="A42"/>
+    <hyperlink r:id="rId44" ref="A43"/>
+    <hyperlink r:id="rId45" ref="A44"/>
+    <hyperlink r:id="rId46" ref="A45"/>
+    <hyperlink r:id="rId47" ref="A46"/>
+    <hyperlink r:id="rId48" ref="A47"/>
+    <hyperlink r:id="rId49" ref="A48"/>
+    <hyperlink r:id="rId50" ref="A49"/>
+    <hyperlink r:id="rId51" ref="A50"/>
+    <hyperlink r:id="rId52" ref="A51"/>
+    <hyperlink r:id="rId53" ref="A52"/>
+    <hyperlink r:id="rId54" ref="A53"/>
+    <hyperlink r:id="rId55" ref="A54"/>
+    <hyperlink r:id="rId56" ref="A55"/>
+    <hyperlink r:id="rId57" ref="A56"/>
+    <hyperlink r:id="rId58" ref="A57"/>
+    <hyperlink r:id="rId59" ref="A58"/>
+    <hyperlink r:id="rId60" ref="A59"/>
+    <hyperlink r:id="rId61" ref="A60"/>
+    <hyperlink r:id="rId62" ref="A61"/>
+    <hyperlink r:id="rId63" ref="A62"/>
+    <hyperlink r:id="rId64" ref="A63"/>
+    <hyperlink r:id="rId65" ref="A64"/>
+    <hyperlink r:id="rId66" ref="A65"/>
+    <hyperlink r:id="rId67" ref="A66"/>
+    <hyperlink r:id="rId68" ref="A67"/>
+    <hyperlink r:id="rId69" ref="A68"/>
+    <hyperlink r:id="rId70" ref="A69"/>
+    <hyperlink r:id="rId71" ref="A70"/>
+    <hyperlink r:id="rId72" ref="A71"/>
+    <hyperlink r:id="rId73" ref="A72"/>
+    <hyperlink r:id="rId74" ref="A73"/>
+    <hyperlink r:id="rId75" ref="A74"/>
+    <hyperlink r:id="rId76" ref="A75"/>
+    <hyperlink r:id="rId77" ref="A76"/>
+    <hyperlink r:id="rId78" ref="A77"/>
+    <hyperlink r:id="rId79" ref="A78"/>
+    <hyperlink r:id="rId80" ref="A79"/>
+    <hyperlink r:id="rId81" ref="A80"/>
+    <hyperlink r:id="rId82" ref="A81"/>
+    <hyperlink r:id="rId83" ref="A82"/>
+    <hyperlink r:id="rId84" ref="A83"/>
+    <hyperlink r:id="rId85" ref="A84"/>
+    <hyperlink r:id="rId86" ref="A85"/>
+    <hyperlink r:id="rId87" ref="A86"/>
+    <hyperlink r:id="rId88" ref="A87"/>
+    <hyperlink r:id="rId89" ref="A88"/>
+    <hyperlink r:id="rId90" ref="A89"/>
+    <hyperlink r:id="rId91" ref="A90"/>
+    <hyperlink r:id="rId92" ref="A91"/>
+    <hyperlink r:id="rId93" ref="A92"/>
+    <hyperlink r:id="rId94" ref="A93"/>
+    <hyperlink r:id="rId95" ref="A94"/>
+    <hyperlink r:id="rId96" ref="A95"/>
+    <hyperlink r:id="rId97" ref="A96"/>
+    <hyperlink r:id="rId98" ref="A97"/>
+    <hyperlink r:id="rId99" ref="A98"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -15531,22 +16254,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>922</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>923</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>924</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5">
@@ -15556,12 +16279,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>926</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>927</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8">
@@ -15571,7 +16294,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>928</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10">
@@ -15581,12 +16304,12 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>929</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -15668,7 +16391,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="18" t="s">
         <v>732</v>
       </c>
     </row>
@@ -15678,12 +16401,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="18" t="s">
         <v>735</v>
       </c>
     </row>
@@ -15693,8 +16416,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -15715,8 +16443,9 @@
     <hyperlink r:id="rId14" ref="A14"/>
     <hyperlink r:id="rId15" ref="A15"/>
     <hyperlink r:id="rId16" ref="A16"/>
+    <hyperlink r:id="rId17" ref="A17"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -15738,290 +16467,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -16119,27 +16848,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>728</v>
@@ -16148,12 +16877,12 @@
         <v>722</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>724</v>
@@ -16164,18 +16893,18 @@
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6">
@@ -16185,12 +16914,12 @@
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -16230,123 +16959,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16">
@@ -16405,53 +17134,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -16486,25 +17215,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -16530,25 +17259,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16574,20 +17303,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -16614,17 +17343,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -16651,14 +17380,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -16685,14 +17414,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -16720,10 +17449,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -46527,43 +47256,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>726</v>
@@ -46571,51 +47300,51 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -46659,32 +47388,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>727</v>
@@ -46692,15 +47421,15 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2431,7 +2431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1008">
   <si>
     <t>Name</t>
   </si>
@@ -5263,9 +5263,6 @@
   </si>
   <si>
     <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/eduagarcia-temp/portuguese-leaderboard-results-to-modelcard/discussions/1</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
@@ -15829,7 +15826,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="9" t="s">
         <v>944</v>
       </c>
     </row>
@@ -15839,7 +15836,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="18" t="s">
         <v>946</v>
       </c>
     </row>
@@ -15849,23 +15846,23 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="9" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="18" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>950</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>894</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46">
@@ -15884,27 +15881,27 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="9" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="18" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="18" t="s">
-        <v>956</v>
-      </c>
-    </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="18" t="s">
         <v>957</v>
       </c>
     </row>
@@ -15929,7 +15926,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="9" t="s">
         <v>962</v>
       </c>
     </row>
@@ -15949,17 +15946,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="18" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="9" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="18" t="s">
         <v>968</v>
       </c>
     </row>
@@ -16045,7 +16042,7 @@
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="82">
@@ -16064,12 +16061,12 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="9" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="18" t="s">
         <v>989</v>
       </c>
     </row>
@@ -16099,18 +16096,18 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="9" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
-        <v>996</v>
+      <c r="A93" s="18" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>906</v>
+        <v>996</v>
       </c>
     </row>
     <row r="95">
@@ -16126,11 +16123,6 @@
     <row r="97">
       <c r="A97" s="18" t="s">
         <v>999</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="18" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -16233,9 +16225,8 @@
     <hyperlink r:id="rId96" ref="A95"/>
     <hyperlink r:id="rId97" ref="A96"/>
     <hyperlink r:id="rId98" ref="A97"/>
-    <hyperlink r:id="rId99" ref="A98"/>
   </hyperlinks>
-  <drawing r:id="rId100"/>
+  <drawing r:id="rId99"/>
 </worksheet>
 </file>
 
@@ -16254,22 +16245,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5">
@@ -16279,12 +16270,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="8">
@@ -16294,7 +16285,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10">
@@ -16309,7 +16300,7 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2473,7 +2473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1016">
   <si>
     <t>Name</t>
   </si>
@@ -2967,7 +2967,7 @@
     <t>University of California Los Angeles</t>
   </si>
   <si>
-    <t>ConvRe</t>
+    <t>ConvRe Leaderboard</t>
   </si>
   <si>
     <t>Beihang University,Shanghai AI Laboratory,3B Group,University of Hong Kong,Massachusetts Institute of Technology</t>
@@ -4698,6 +4698,9 @@
     <t>https://github.com/taoyds/spider/issues/101</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/3B-Group/ConvRe-Leaderboard/discussions/3</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/BramVanroy/open_dutch_llm_leaderboard</t>
   </si>
   <si>
@@ -5007,22 +5010,22 @@
     <t>https://github.com/CLUEbenchmark/SuperCLUElyb/issues/6</t>
   </si>
   <si>
+    <t>https://github.com/FlagOpen/FlagEval/issues/36</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4</t>
   </si>
   <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/36</t>
+    <t>https://github.com/FlagOpen/FlagEval/issues/37</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/1</t>
   </si>
   <si>
-    <t>https://github.com/FlagOpen/FlagEval/issues/37</t>
+    <t>https://github.com/LaVi-Lab/CLEVA/issues/9</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/LaVi-Lab/CLEVA/issues/9</t>
   </si>
   <si>
     <t>https://github.com/MLGroupJLU/LLM-eval-survey/issues/30</t>
@@ -15786,501 +15789,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -16404,22 +16407,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5">
@@ -16429,12 +16432,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
@@ -16444,7 +16447,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10">
@@ -16454,12 +16457,12 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -16536,7 +16539,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>737</v>
       </c>
     </row>
@@ -16546,7 +16549,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="18" t="s">
         <v>739</v>
       </c>
     </row>
@@ -16556,12 +16559,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="18" t="s">
         <v>742</v>
       </c>
     </row>
@@ -16571,8 +16574,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -16594,8 +16602,9 @@
     <hyperlink r:id="rId15" ref="A15"/>
     <hyperlink r:id="rId16" ref="A16"/>
     <hyperlink r:id="rId17" ref="A17"/>
+    <hyperlink r:id="rId18" ref="A18"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -16617,290 +16626,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="18" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="18" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="18" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -16998,27 +17007,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>747</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>734</v>
@@ -17027,12 +17036,12 @@
         <v>728</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>730</v>
@@ -17043,33 +17052,33 @@
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -17109,61 +17118,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>747</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E4" s="18" t="s">
         <v>840</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="5">
@@ -17179,7 +17188,7 @@
       <c r="D6" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>844</v>
       </c>
     </row>
@@ -17187,45 +17196,48 @@
       <c r="D7" s="9" t="s">
         <v>845</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16">
@@ -17253,16 +17265,17 @@
     <hyperlink r:id="rId15" ref="D6"/>
     <hyperlink r:id="rId16" ref="E6"/>
     <hyperlink r:id="rId17" ref="D7"/>
-    <hyperlink r:id="rId18" ref="D8"/>
-    <hyperlink r:id="rId19" ref="D9"/>
-    <hyperlink r:id="rId20" ref="D10"/>
-    <hyperlink r:id="rId21" ref="D11"/>
-    <hyperlink r:id="rId22" ref="D12"/>
-    <hyperlink r:id="rId23" ref="D13"/>
-    <hyperlink r:id="rId24" ref="D14"/>
-    <hyperlink r:id="rId25" ref="D15"/>
+    <hyperlink r:id="rId18" ref="E7"/>
+    <hyperlink r:id="rId19" ref="D8"/>
+    <hyperlink r:id="rId20" ref="D9"/>
+    <hyperlink r:id="rId21" ref="D10"/>
+    <hyperlink r:id="rId22" ref="D11"/>
+    <hyperlink r:id="rId23" ref="D12"/>
+    <hyperlink r:id="rId24" ref="D13"/>
+    <hyperlink r:id="rId25" ref="D14"/>
+    <hyperlink r:id="rId26" ref="D15"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -17284,53 +17297,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -17365,25 +17378,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -17409,25 +17422,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17453,20 +17466,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17493,17 +17506,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17530,14 +17543,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17564,14 +17577,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -17599,10 +17612,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47406,43 +47419,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>732</v>
@@ -47450,51 +47463,51 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -47538,32 +47551,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>733</v>
@@ -47571,15 +47584,15 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,38 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D226">
+      <text>
+        <t xml:space="preserve">https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D404">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/9
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D386">
+      <text>
+        <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity/issues/2
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D282">
+      <text>
+        <t xml:space="preserve">https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/2
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D112">
+      <text>
+        <t xml:space="preserve">https://github.com/EQ-bench/EQ-Bench?tab=readme-ov-file#setting-up-firebase--firestore-for-results-uploading-optional
+	-Jimmy Chou
+https://github.com/EQ-bench/EQ-Bench?tab=readme-ov-file#setting-up-google-sheets-for-results-uploading-optional
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D204">
       <text>
         <t xml:space="preserve">https://matheval.ai/evaluation
@@ -50,7 +82,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F348">
+    <comment authorId="0" ref="F349">
       <text>
         <t xml:space="preserve">https://github.com/THUNLP-MT/StableToolBench
 	-Jimmy Chou</t>
@@ -80,13 +112,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G406">
+    <comment authorId="0" ref="G407">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2403.20331
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D406">
+    <comment authorId="0" ref="D407">
       <text>
         <t xml:space="preserve">https://github.com/AtsuMiyai/UPD?tab=readme-ov-file#how-to-add-new-vlms
 	-Jimmy Chou
@@ -94,7 +126,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D247">
+    <comment authorId="0" ref="D248">
       <text>
         <t xml:space="preserve">https://opendfm.github.io/MULTI-Benchmark/static/pages/submit.html
 	-Jimmy Chou
@@ -114,7 +146,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H335">
+    <comment authorId="0" ref="H336">
       <text>
         <t xml:space="preserve">https://scale.com/
 	-Jimmy Chou</t>
@@ -132,13 +164,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C319">
+    <comment authorId="0" ref="C320">
       <text>
         <t xml:space="preserve">https://github.com/evalplus/repoqa
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A285">
+    <comment authorId="0" ref="A286">
       <text>
         <t xml:space="preserve">https://opencompass.org.cn/arena
 	-Jimmy Chou</t>
@@ -156,7 +188,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G415">
+    <comment authorId="0" ref="G416">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -182,43 +214,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G366">
+    <comment authorId="0" ref="G367">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F366">
+    <comment authorId="0" ref="F367">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G365">
+    <comment authorId="0" ref="G366">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F365">
+    <comment authorId="0" ref="F366">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D357">
+    <comment authorId="0" ref="D358">
       <text>
         <t xml:space="preserve">https://fm.ai.tsinghua.edu.cn/superbench/#/evaluation
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G287">
+    <comment authorId="0" ref="G288">
       <text>
         <t xml:space="preserve">https://ai.meta.com/blog/openeqa-embodied-question-answering-robotics-ar-glasses/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D374">
+    <comment authorId="0" ref="D375">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -252,7 +284,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F315">
+    <comment authorId="0" ref="F316">
       <text>
         <t xml:space="preserve">https://haizelabs.com/benchmarks/space
 	-Jimmy Chou</t>
@@ -936,31 +968,31 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A320">
+    <comment authorId="0" ref="A321">
       <text>
         <t xml:space="preserve">https://github.com/allenai/reward-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A407">
+    <comment authorId="0" ref="A408">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A435">
+    <comment authorId="0" ref="A436">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H290">
+    <comment authorId="0" ref="H291">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/opencompass/blob/main/configs/datasets/OpenFinData/OpenFinData.md
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A290">
+    <comment authorId="0" ref="A291">
       <text>
         <t xml:space="preserve">https://github.com/TongjiFinLab/CFBenchmark
 	-Jimmy Chou</t>
@@ -1028,7 +1060,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A298">
+    <comment authorId="0" ref="A299">
       <text>
         <t xml:space="preserve">model- and data-centric leaderboards
 	-Jimmy Chou
@@ -1054,27 +1086,33 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F364">
+    <comment authorId="0" ref="F365">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G364">
+    <comment authorId="0" ref="G365">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F362">
+    <comment authorId="0" ref="F363">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G362">
+    <comment authorId="0" ref="G363">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F360">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1084,73 +1122,70 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F358">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G358">
+    <comment authorId="0" ref="G359">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G359">
+    <comment authorId="0" ref="G360">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_agent.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G360">
+    <comment authorId="0" ref="G361">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_auto.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G361">
+    <comment authorId="0" ref="G362">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_code3.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G363">
+    <comment authorId="0" ref="G364">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G367">
+    <comment authorId="0" ref="G368">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D271">
+    <comment authorId="0" ref="D272">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/4
+	-Jimmy Chou
+----
+https://opencompass.openxlab.space/utils/OpenVLM.json
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G258">
+    <comment authorId="0" ref="G259">
       <text>
         <t xml:space="preserve">https://nexusflow.ai/blogs/ravenv2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A255">
+    <comment authorId="0" ref="A256">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/malaysian-stt-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A253">
+    <comment authorId="0" ref="A254">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A254">
+    <comment authorId="0" ref="A255">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/embedding-benchmarks
 	-Jimmy Chou</t>
@@ -1206,43 +1241,43 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A432">
+    <comment authorId="0" ref="A433">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F333">
+    <comment authorId="0" ref="F334">
       <text>
         <t xml:space="preserve">https://github.com/tau-nlp/scrolls
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A327">
+    <comment authorId="0" ref="A328">
       <text>
         <t xml:space="preserve">https://github.com/ScandEval/ScandEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A438">
+    <comment authorId="0" ref="A439">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A296">
+    <comment authorId="0" ref="A297">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/physicaliqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A256">
+    <comment authorId="0" ref="A257">
       <text>
         <t xml:space="preserve">https://github.com/allenai/natural-instructions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A235">
+    <comment authorId="0" ref="A236">
       <text>
         <t xml:space="preserve">https://github.com/anthonywchen/mocha-leaderboard/tree/master/evaluator
 	-Jimmy Chou</t>
@@ -1272,13 +1307,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A307">
+    <comment authorId="0" ref="A308">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A284">
+    <comment authorId="0" ref="A285">
       <text>
         <t xml:space="preserve">https://github.com/allenai/aristo-leaderboard
 	-Jimmy Chou</t>
@@ -1290,25 +1325,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A337">
+    <comment authorId="0" ref="A338">
       <text>
         <t xml:space="preserve">https://github.com/allenai/sherlock/tree/main/leaderboard_eval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A341">
+    <comment authorId="0" ref="A342">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/socialiqa/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A448">
+    <comment authorId="0" ref="A449">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A353">
+    <comment authorId="0" ref="A354">
       <text>
         <t xml:space="preserve">https://github.com/eladsegal/strategyqa
 	-Jimmy Chou</t>
@@ -1320,19 +1355,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A422">
+    <comment authorId="0" ref="A423">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A385">
+    <comment authorId="0" ref="A386">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A371">
+    <comment authorId="0" ref="A372">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1356,7 +1391,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F233">
+    <comment authorId="0" ref="F234">
       <text>
         <t xml:space="preserve">https://github.com/tsb0601/MMVP
 	-Jimmy Chou</t>
@@ -1386,13 +1421,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F356">
+    <comment authorId="0" ref="F357">
       <text>
         <t xml:space="preserve">https://github.com/salesforce/factualNLG
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F327">
+    <comment authorId="0" ref="F328">
       <text>
         <t xml:space="preserve">https://scandeval.com/
 	-Jimmy Chou</t>
@@ -1428,7 +1463,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F258">
+    <comment authorId="0" ref="F259">
       <text>
         <t xml:space="preserve">https://github.com/nexusflowai/NexusRaven/
 	-Jimmy Chou</t>
@@ -1446,27 +1481,21 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F253">
+    <comment authorId="0" ref="F254">
       <text>
         <t xml:space="preserve">https://github.com/mesolitica/llm-benchmarks
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F271">
+    <comment authorId="0" ref="F272">
       <text>
         <t xml:space="preserve">https://github.com/C080/open-llm-ita-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F326">
+    <comment authorId="0" ref="F327">
       <text>
         <t xml:space="preserve">https://adwardlee.github.io/salad_bench/leaderboard.html
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D272">
-      <text>
-        <t xml:space="preserve">https://opencompass.openxlab.space/utils/OpenVLM.json
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1524,13 +1553,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F261">
+    <comment authorId="0" ref="F262">
       <text>
         <t xml:space="preserve">https://github.com/casmlab/NPHardEval
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F334">
+    <comment authorId="0" ref="F335">
       <text>
         <t xml:space="preserve">https://seaeval.github.io/
 	-Jimmy Chou</t>
@@ -1584,7 +1613,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F279">
+    <comment authorId="0" ref="F280">
       <text>
         <t xml:space="preserve">https://github.com/njunlp/mapo
 	-Jimmy Chou</t>
@@ -1642,7 +1671,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F269">
+    <comment authorId="0" ref="F270">
       <text>
         <t xml:space="preserve">https://github.com/huggingface/open_asr_leaderboard
 	-Jimmy Chou</t>
@@ -1660,25 +1689,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F367">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com/
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F360">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F363">
+    <comment authorId="0" ref="F368">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
     <comment authorId="0" ref="F361">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F364">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F362">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -1714,7 +1743,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F301">
+    <comment authorId="0" ref="F302">
       <text>
         <t xml:space="preserve">https://llm-eval.github.io/pages/leaderboard/pe.html
 	-Jimmy Chou
@@ -1750,67 +1779,70 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F448">
+    <comment authorId="0" ref="F449">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F438">
+    <comment authorId="0" ref="F439">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F353">
+    <comment authorId="0" ref="F354">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/strategyqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F341">
+    <comment authorId="0" ref="F342">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/socialiqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F337">
+    <comment authorId="0" ref="F338">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/sherlock/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F307">
+    <comment authorId="0" ref="F308">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/qasc/submissions/public
+	-Jimmy Chou
+----
+Transactions of the Association for Computational Linguistics
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F302">
+    <comment authorId="0" ref="F303">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/protoqa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F296">
+    <comment authorId="0" ref="F297">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/physicaliqa/submissions
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F284">
+    <comment authorId="0" ref="F285">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/open_book_qa/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F256">
+    <comment authorId="0" ref="F257">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/natural-instructions/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F235">
+    <comment authorId="0" ref="F236">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/mocha-qa/submissions/public
 	-Jimmy Chou</t>
@@ -1834,7 +1866,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F416">
+    <comment authorId="0" ref="F417">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
@@ -1846,7 +1878,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F388">
+    <comment authorId="0" ref="F389">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -1938,19 +1970,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F306">
+    <comment authorId="0" ref="F307">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/q-future/Q-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F285">
+    <comment authorId="0" ref="F286">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F252">
+    <comment authorId="0" ref="F253">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard
 	-Jimmy Chou
@@ -2028,13 +2060,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A286">
+    <comment authorId="0" ref="A287">
       <text>
         <t xml:space="preserve">https://github.com/open-compass/VLMEvalKit/issues/78
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F286">
+    <comment authorId="0" ref="F287">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/opencompass/open_vlm_leaderboard
 	-Jimmy Chou
@@ -2044,13 +2076,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F421">
+    <comment authorId="0" ref="F422">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F409">
+    <comment authorId="0" ref="F410">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -2064,7 +2096,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A273">
+    <comment authorId="0" ref="A274">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/gsaivinay/open_llm_leaderboard
 	-Jimmy Chou</t>
@@ -2076,7 +2108,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F446">
+    <comment authorId="0" ref="F447">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2152,12 +2184,6 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F308">
-      <text>
-        <t xml:space="preserve">Transactions of the Association for Computational Linguistics
-	-Jimmy Chou</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="H295">
       <text>
         <t xml:space="preserve">Language Resources and Evaluation Conference
@@ -2188,7 +2214,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A289">
+    <comment authorId="0" ref="A290">
       <text>
         <t xml:space="preserve">https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/24
 	-Jimmy Chou</t>
@@ -2200,25 +2226,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A369">
+    <comment authorId="0" ref="A370">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A368">
+    <comment authorId="0" ref="A369">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A360">
+    <comment authorId="0" ref="A361">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/2
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A359">
+    <comment authorId="0" ref="A360">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/7
 	-Jimmy Chou</t>
@@ -2230,19 +2256,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A374">
+    <comment authorId="0" ref="A375">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A370">
+    <comment authorId="0" ref="A371">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A324">
+    <comment authorId="0" ref="A325">
       <text>
         <t xml:space="preserve">https://github.com/thu-coai/Safety-Prompts
 	-Jimmy Chou</t>
@@ -2340,7 +2366,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F431">
+    <comment authorId="0" ref="F432">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2348,19 +2374,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F387">
+    <comment authorId="0" ref="F388">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F371">
+    <comment authorId="0" ref="F372">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F312">
+    <comment authorId="0" ref="F313">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/ought/raft-leaderboard
 	-Jimmy Chou</t>
@@ -2376,7 +2402,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F246">
+    <comment authorId="0" ref="F247">
       <text>
         <t xml:space="preserve">https://mteb.info
 	-Jimmy Chou</t>
@@ -2473,7 +2499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1020">
   <si>
     <t>Name</t>
   </si>
@@ -2785,9 +2811,6 @@
   </si>
   <si>
     <t>CanAiCode Leaderboard</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>CB</t>
@@ -3283,6 +3306,9 @@
     <t>HELM Classic</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Annals of the New York Academy of Sciences</t>
   </si>
   <si>
@@ -3749,6 +3775,18 @@
   </si>
   <si>
     <t>University of Science and Technology of China,Chinese University of Hong Kong,Shanghai AI Laboratory</t>
+  </si>
+  <si>
+    <t>MMT-Bench</t>
+  </si>
+  <si>
+    <t>gh:Regular Table+Rankable Table</t>
+  </si>
+  <si>
+    <t>ICML</t>
+  </si>
+  <si>
+    <t>Shanghai AI Laboratory,Shanghai Jiao Tong University,University of Hong Kong,University of Adelaide,Zhejiang University,Shenzhen Institutes of Advanced Technology,Chinese Academy of Sciences</t>
   </si>
   <si>
     <t>MMVP</t>
@@ -6882,8 +6920,8 @@
       <c r="C54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
+      <c r="D54" s="2">
+        <v>3.0</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -6898,7 +6936,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -6908,7 +6946,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>40</v>
@@ -6926,12 +6964,12 @@
         <v>26</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
@@ -6946,12 +6984,12 @@
         <v>26</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -6961,7 +6999,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -6971,7 +7009,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -6981,7 +7019,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -6991,7 +7029,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -7001,7 +7039,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
@@ -7016,12 +7054,12 @@
         <v>26</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
@@ -7036,12 +7074,12 @@
         <v>26</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -7051,7 +7089,7 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -7061,13 +7099,13 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -7076,7 +7114,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>34</v>
@@ -7084,7 +7122,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>78</v>
@@ -7096,18 +7134,18 @@
         <v>37</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D69" s="2">
         <v>3.0</v>
@@ -7116,15 +7154,15 @@
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
@@ -7145,7 +7183,7 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -7154,7 +7192,7 @@
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -7164,10 +7202,10 @@
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D73" s="2">
         <v>2.0</v>
@@ -7179,12 +7217,12 @@
         <v>26</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -7202,15 +7240,15 @@
         <v>26</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D75" s="2">
         <v>3.0</v>
@@ -7222,12 +7260,12 @@
         <v>26</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -7237,7 +7275,7 @@
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2"/>
       <c r="F77" s="2" t="s">
@@ -7247,7 +7285,7 @@
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
@@ -7268,7 +7306,7 @@
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -7277,10 +7315,10 @@
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D80" s="2">
         <v>3.0</v>
@@ -7289,15 +7327,15 @@
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -7307,7 +7345,7 @@
     </row>
     <row r="82">
       <c r="A82" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -7316,10 +7354,10 @@
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D83" s="2">
         <v>4.0</v>
@@ -7328,12 +7366,12 @@
         <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -7342,10 +7380,10 @@
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="2">
         <v>3.0</v>
@@ -7360,12 +7398,12 @@
         <v>26</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -7375,7 +7413,7 @@
     </row>
     <row r="87">
       <c r="A87" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -7384,10 +7422,10 @@
     </row>
     <row r="88">
       <c r="A88" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D88" s="2">
         <v>2.0</v>
@@ -7396,18 +7434,18 @@
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>36</v>
@@ -7422,15 +7460,15 @@
         <v>37</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -7440,7 +7478,7 @@
     </row>
     <row r="91">
       <c r="A91" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -7450,27 +7488,27 @@
     </row>
     <row r="92">
       <c r="A92" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D92" s="2">
         <v>2.0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -7485,7 +7523,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>14</v>
@@ -7493,7 +7531,7 @@
     </row>
     <row r="94">
       <c r="A94" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
@@ -7508,15 +7546,15 @@
         <v>26</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D95" s="2">
         <v>2.0</v>
@@ -7531,12 +7569,12 @@
         <v>26</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="6" t="s">
@@ -7553,7 +7591,7 @@
         <v>88</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7574,7 +7612,7 @@
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -7583,7 +7621,7 @@
     </row>
     <row r="98">
       <c r="A98" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -7593,7 +7631,7 @@
     </row>
     <row r="99">
       <c r="A99" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -7611,12 +7649,12 @@
         <v>26</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -7631,7 +7669,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>14</v>
@@ -7639,10 +7677,10 @@
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D101" s="2">
         <v>3.0</v>
@@ -7654,15 +7692,15 @@
         <v>26</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D102" s="2">
         <v>1.0</v>
@@ -7677,12 +7715,12 @@
         <v>88</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -7697,12 +7735,12 @@
         <v>26</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -7712,10 +7750,10 @@
     </row>
     <row r="105">
       <c r="A105" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D105" s="2">
         <v>3.0</v>
@@ -7727,15 +7765,15 @@
         <v>26</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106" s="2">
         <v>2.0</v>
@@ -7748,12 +7786,12 @@
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -7783,7 +7821,7 @@
     </row>
     <row r="108">
       <c r="A108" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -7793,7 +7831,7 @@
     </row>
     <row r="109">
       <c r="A109" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -7808,15 +7846,15 @@
         <v>18</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -7828,15 +7866,15 @@
         <v>18</v>
       </c>
       <c r="G110" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>36</v>
@@ -7852,18 +7890,18 @@
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>104</v>
+      <c r="D112" s="2">
+        <v>1.0</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -7880,10 +7918,10 @@
     </row>
     <row r="113">
       <c r="A113" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D113" s="2">
         <v>3.0</v>
@@ -7898,15 +7936,15 @@
         <v>88</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D114" s="2">
         <v>3.0</v>
@@ -7918,12 +7956,12 @@
         <v>26</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -7938,15 +7976,15 @@
         <v>18</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
@@ -7961,12 +7999,12 @@
         <v>26</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -7981,12 +8019,12 @@
         <v>88</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -7996,7 +8034,7 @@
     </row>
     <row r="119">
       <c r="A119" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
@@ -8012,12 +8050,12 @@
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C120" s="2"/>
       <c r="F120" s="2" t="s">
@@ -8027,7 +8065,7 @@
     </row>
     <row r="121">
       <c r="A121" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -8036,7 +8074,7 @@
     </row>
     <row r="122">
       <c r="A122" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>46</v>
@@ -8049,12 +8087,12 @@
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -8064,7 +8102,7 @@
     </row>
     <row r="124">
       <c r="A124" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -8074,7 +8112,7 @@
     </row>
     <row r="125">
       <c r="A125" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -8084,7 +8122,7 @@
     </row>
     <row r="126">
       <c r="A126" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -8093,7 +8131,7 @@
     </row>
     <row r="127">
       <c r="A127" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>36</v>
@@ -8110,7 +8148,7 @@
     </row>
     <row r="128">
       <c r="A128" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>36</v>
@@ -8122,15 +8160,15 @@
         <v>37</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>36</v>
@@ -8148,15 +8186,15 @@
         <v>26</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D130" s="2">
         <v>3.0</v>
@@ -8168,12 +8206,12 @@
         <v>26</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C131" s="2"/>
       <c r="F131" s="2" t="s">
@@ -8182,13 +8220,13 @@
     </row>
     <row r="132">
       <c r="A132" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -8200,12 +8238,12 @@
         <v>26</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -8214,7 +8252,7 @@
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -8229,7 +8267,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>14</v>
@@ -8237,10 +8275,10 @@
     </row>
     <row r="135">
       <c r="A135" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D135" s="2">
         <v>3.0</v>
@@ -8252,15 +8290,15 @@
         <v>26</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D136" s="2">
         <v>2.0</v>
@@ -8269,18 +8307,18 @@
         <v>11</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -8290,7 +8328,7 @@
     </row>
     <row r="138">
       <c r="A138" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -8300,10 +8338,10 @@
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D139" s="2">
         <v>3.0</v>
@@ -8318,7 +8356,7 @@
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>36</v>
@@ -8333,18 +8371,18 @@
         <v>37</v>
       </c>
       <c r="G140" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D141" s="2">
         <v>3.0</v>
@@ -8356,12 +8394,12 @@
         <v>26</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -8370,7 +8408,7 @@
     </row>
     <row r="143">
       <c r="A143" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -8382,15 +8420,15 @@
         <v>18</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>46</v>
@@ -8408,12 +8446,12 @@
         <v>88</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -8423,10 +8461,10 @@
     </row>
     <row r="146">
       <c r="A146" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" s="2">
         <v>2.0</v>
@@ -8441,15 +8479,15 @@
         <v>56</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>46</v>
@@ -8487,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>47</v>
@@ -8510,7 +8548,7 @@
         <v>12</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>47</v>
@@ -8565,10 +8603,10 @@
         <v>3.0</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>275</v>
@@ -8674,7 +8712,7 @@
         <v>286</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D160" s="2">
         <v>3.0</v>
@@ -8697,7 +8735,7 @@
         <v>288</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D161" s="2">
         <v>2.0</v>
@@ -8706,13 +8744,13 @@
         <v>11</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162">
@@ -8870,7 +8908,7 @@
         <v>303</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" s="2">
         <v>3.0</v>
@@ -8920,7 +8958,7 @@
         <v>308</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D174" s="2">
         <v>4.0</v>
@@ -8941,7 +8979,7 @@
         <v>309</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D175" s="2">
         <v>3.0</v>
@@ -8987,7 +9025,7 @@
         <v>3.0</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>26</v>
@@ -9049,7 +9087,7 @@
         <v>11</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>26</v>
@@ -9097,7 +9135,7 @@
         <v>1.0</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>329</v>
@@ -9211,7 +9249,7 @@
         <v>343</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D190" s="2">
         <v>3.0</v>
@@ -9229,7 +9267,7 @@
         <v>345</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D191" s="2">
         <v>3.0</v>
@@ -9261,7 +9299,7 @@
         <v>41</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>350</v>
@@ -9292,7 +9330,7 @@
         <v>36</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>11</v>
@@ -9309,7 +9347,7 @@
         <v>354</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D195" s="2">
         <v>2.0</v>
@@ -9318,7 +9356,7 @@
         <v>11</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>26</v>
@@ -9352,7 +9390,7 @@
         <v>358</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D197" s="2">
         <v>2.0</v>
@@ -9398,7 +9436,7 @@
         <v>364</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D199" s="2">
         <v>3.0</v>
@@ -9420,8 +9458,8 @@
       <c r="C200" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>104</v>
+      <c r="D200" s="2">
+        <v>3.0</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -9524,10 +9562,10 @@
         <v>376</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="D206" s="2">
+        <v>3.0</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>11</v>
@@ -9559,7 +9597,7 @@
         <v>18</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>380</v>
@@ -9602,7 +9640,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>14</v>
@@ -9842,7 +9880,7 @@
         <v>26</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225">
@@ -9873,7 +9911,7 @@
         <v>17</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
@@ -9914,7 +9952,7 @@
         <v>18</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>415</v>
@@ -9937,7 +9975,7 @@
         <v>37</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>417</v>
@@ -9948,13 +9986,13 @@
         <v>418</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D230" s="2">
         <v>2.0</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G230" s="7" t="s">
         <v>26</v>
@@ -9991,7 +10029,7 @@
         <v>423</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D232" s="2">
         <v>1.0</v>
@@ -10016,10 +10054,13 @@
       <c r="D233" s="2">
         <v>3.0</v>
       </c>
+      <c r="E233" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F233" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="G233" s="2" t="s">
         <v>427</v>
       </c>
       <c r="H233" s="2" t="s">
@@ -10031,7 +10072,7 @@
         <v>429</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="D234" s="2">
         <v>3.0</v>
@@ -10040,44 +10081,41 @@
         <v>18</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>126</v>
+        <v>431</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>14</v>
+        <v>432</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="D236" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>11</v>
@@ -10085,34 +10123,47 @@
       <c r="F236" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G236" s="7"/>
+      <c r="G236" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H236" s="2" t="s">
-        <v>433</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C237" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D237" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G237" s="7"/>
+      <c r="H237" s="2" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="9" t="s">
-        <v>435</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C238" s="2"/>
       <c r="F238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G238" s="7"/>
-      <c r="H238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -10122,7 +10173,7 @@
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -10132,7 +10183,7 @@
     </row>
     <row r="241">
       <c r="A241" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -10142,55 +10193,55 @@
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D242" s="2">
-        <v>3.0</v>
+        <v>442</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G242" s="7"/>
-      <c r="H242" s="2" t="s">
-        <v>440</v>
-      </c>
+      <c r="H242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D243" s="2">
         <v>3.0</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G243" s="7"/>
       <c r="H243" s="2" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="2">
+        <v>3.0</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G244" s="7"/>
-      <c r="H244" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -10200,69 +10251,70 @@
     </row>
     <row r="246">
       <c r="A246" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D246" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>448</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G246" s="7"/>
+      <c r="H246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G247" s="7" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G248" s="7"/>
-      <c r="H248" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G249" s="7"/>
+      <c r="H249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -10271,9 +10323,8 @@
     </row>
     <row r="251">
       <c r="A251" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C251" s="2"/>
+        <v>457</v>
+      </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
       </c>
@@ -10281,48 +10332,37 @@
     </row>
     <row r="252">
       <c r="A252" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D252" s="2">
-        <v>1.0</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C252" s="2"/>
       <c r="F252" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G252" s="7"/>
     </row>
     <row r="253">
       <c r="A253" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="D253" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>11</v>
+        <v>1.0</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G253" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H253" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>36</v>
@@ -10336,14 +10376,14 @@
       <c r="F254" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G254" s="12"/>
+      <c r="G254" s="7"/>
       <c r="H254" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>36</v>
@@ -10351,195 +10391,206 @@
       <c r="D255" s="2">
         <v>3.0</v>
       </c>
+      <c r="E255" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F255" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D256" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G256" s="12"/>
       <c r="H256" s="2" t="s">
-        <v>14</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G257" s="7"/>
-      <c r="H257" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D258" s="2">
-        <v>3.0</v>
+        <v>467</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G258" s="7"/>
+      <c r="H258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D259" s="2">
+        <v>3.0</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G259" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G260" s="7"/>
-      <c r="H260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D261" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H261" s="2" t="s">
-        <v>470</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G261" s="7"/>
+      <c r="H261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="D262" s="2">
         <v>3.0</v>
       </c>
+      <c r="E262" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="G262" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" s="2">
+        <v>3.0</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G263" s="7"/>
-      <c r="H263" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D264" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G264" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>475</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G264" s="7"/>
+      <c r="H264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D265" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D266" s="2">
+        <v>3.0</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G266" s="7"/>
-      <c r="H266" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -10549,28 +10600,17 @@
     </row>
     <row r="268">
       <c r="A268" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D268" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G268" s="12"/>
-      <c r="H268" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G268" s="7"/>
+      <c r="H268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>36</v>
@@ -10584,19 +10624,17 @@
       <c r="F269" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G269" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="G269" s="12"/>
       <c r="H269" s="2" t="s">
-        <v>336</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="D270" s="2">
         <v>3.0</v>
@@ -10611,30 +10649,35 @@
         <v>26</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>483</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="D271" s="2">
         <v>3.0</v>
       </c>
+      <c r="E271" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F271" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G271" s="7"/>
+      <c r="G271" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H271" s="2" t="s">
-        <v>54</v>
+        <v>487</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>36</v>
@@ -10642,23 +10685,20 @@
       <c r="D272" s="2">
         <v>3.0</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F272" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G272" s="12"/>
+      <c r="G272" s="7"/>
       <c r="H272" s="2" t="s">
-        <v>486</v>
+        <v>54</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D273" s="2">
         <v>3.0</v>
@@ -10671,15 +10711,15 @@
       </c>
       <c r="G273" s="12"/>
       <c r="H273" s="2" t="s">
-        <v>336</v>
+        <v>490</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D274" s="2">
         <v>3.0</v>
@@ -10692,12 +10732,12 @@
       </c>
       <c r="G274" s="12"/>
       <c r="H274" s="2" t="s">
-        <v>54</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="9" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>36</v>
@@ -10711,16 +10751,14 @@
       <c r="F275" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G275" s="7" t="s">
-        <v>490</v>
-      </c>
+      <c r="G275" s="12"/>
       <c r="H275" s="2" t="s">
-        <v>491</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>36</v>
@@ -10734,14 +10772,16 @@
       <c r="F276" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G276" s="7"/>
+      <c r="G276" s="7" t="s">
+        <v>494</v>
+      </c>
       <c r="H276" s="2" t="s">
-        <v>54</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>36</v>
@@ -10762,13 +10802,13 @@
     </row>
     <row r="278">
       <c r="A278" s="9" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D278" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>11</v>
@@ -10776,40 +10816,38 @@
       <c r="F278" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G278" s="12"/>
+      <c r="G278" s="7"/>
       <c r="H278" s="2" t="s">
-        <v>495</v>
+        <v>54</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D279" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G279" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G279" s="12"/>
       <c r="H279" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="D280" s="2">
         <v>3.0</v>
@@ -10818,22 +10856,24 @@
         <v>11</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G280" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H280" s="2" t="s">
-        <v>336</v>
+        <v>501</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>104</v>
+      <c r="D281" s="2">
+        <v>3.0</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>11</v>
@@ -10841,20 +10881,20 @@
       <c r="F281" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G281" s="12"/>
+      <c r="G281" s="7"/>
       <c r="H281" s="2" t="s">
-        <v>500</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D282" s="2">
-        <v>3.0</v>
+        <v>36</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>11</v>
@@ -10864,89 +10904,89 @@
       </c>
       <c r="G282" s="12"/>
       <c r="H282" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B283" s="4"/>
-      <c r="C283" s="5"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="5"/>
-      <c r="F283" s="6" t="s">
+      <c r="A283" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D283" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G283" s="12"/>
+      <c r="H283" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G283" s="7"/>
-      <c r="H283" s="5"/>
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
-      <c r="K283" s="4"/>
-      <c r="L283" s="4"/>
-      <c r="M283" s="4"/>
-      <c r="N283" s="4"/>
-      <c r="O283" s="4"/>
-      <c r="P283" s="4"/>
-      <c r="Q283" s="4"/>
-      <c r="R283" s="4"/>
-      <c r="S283" s="4"/>
-      <c r="T283" s="4"/>
-      <c r="U283" s="4"/>
-      <c r="V283" s="4"/>
-      <c r="W283" s="4"/>
-      <c r="X283" s="4"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D284" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G284" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G284" s="7"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4"/>
+      <c r="M284" s="4"/>
+      <c r="N284" s="4"/>
+      <c r="O284" s="4"/>
+      <c r="P284" s="4"/>
+      <c r="Q284" s="4"/>
+      <c r="R284" s="4"/>
+      <c r="S284" s="4"/>
+      <c r="T284" s="4"/>
+      <c r="U284" s="4"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+      <c r="X284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D285" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G285" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H285" s="2" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D286" s="2">
         <v>3.0</v>
@@ -10957,37 +10997,38 @@
       <c r="F286" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G286" s="12"/>
+      <c r="G286" s="7"/>
       <c r="H286" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>426</v>
+        <v>209</v>
       </c>
       <c r="D287" s="2">
         <v>3.0</v>
       </c>
+      <c r="E287" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G287" s="12"/>
       <c r="H287" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
       <c r="D288" s="2">
         <v>3.0</v>
@@ -10996,288 +11037,299 @@
         <v>18</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>508</v>
+        <v>187</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>450</v>
+        <v>17</v>
+      </c>
+      <c r="D289" s="2">
+        <v>3.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G289" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H289" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D290" s="2">
-        <v>3.0</v>
+        <v>46</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G290" s="7"/>
       <c r="H290" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D291" s="2">
         <v>3.0</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F291" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C292" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D292" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G292" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D293" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C293" s="2"/>
       <c r="F293" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H293" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G293" s="7"/>
     </row>
     <row r="294">
       <c r="A294" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G294" s="7"/>
-      <c r="H294" s="2"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B295" s="4"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="5"/>
-      <c r="F295" s="6" t="s">
+      <c r="G295" s="7"/>
+      <c r="H295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G295" s="7"/>
-      <c r="H295" s="5"/>
-      <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
-      <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-      <c r="M295" s="4"/>
-      <c r="N295" s="4"/>
-      <c r="O295" s="4"/>
-      <c r="P295" s="4"/>
-      <c r="Q295" s="4"/>
-      <c r="R295" s="4"/>
-      <c r="S295" s="4"/>
-      <c r="T295" s="4"/>
-      <c r="U295" s="4"/>
-      <c r="V295" s="4"/>
-      <c r="W295" s="4"/>
-      <c r="X295" s="4"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D296" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G296" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G296" s="7"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="4"/>
+      <c r="M296" s="4"/>
+      <c r="N296" s="4"/>
+      <c r="O296" s="4"/>
+      <c r="P296" s="4"/>
+      <c r="Q296" s="4"/>
+      <c r="R296" s="4"/>
+      <c r="S296" s="4"/>
+      <c r="T296" s="4"/>
+      <c r="U296" s="4"/>
+      <c r="V296" s="4"/>
+      <c r="W296" s="4"/>
+      <c r="X296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="9" t="s">
-        <v>519</v>
+        <v>522</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G297" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D298" s="2">
-        <v>3.0</v>
+        <v>523</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G298" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>522</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G298" s="7"/>
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>36</v>
+        <v>525</v>
       </c>
       <c r="D299" s="2">
         <v>3.0</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G299" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="G299" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H299" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D300" s="2">
         <v>3.0</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G300" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G300" s="12"/>
       <c r="H300" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D301" s="2">
         <v>3.0</v>
       </c>
+      <c r="E301" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F301" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G301" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G301" s="7"/>
       <c r="H301" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D302" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C303" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G303" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
-        <v>531</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C304" s="2"/>
       <c r="F304" s="2" t="s">
         <v>9</v>
       </c>
@@ -11285,279 +11337,268 @@
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D305" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>11</v>
+        <v>535</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H305" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G305" s="7"/>
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
       <c r="D306" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="D307" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>14</v>
+        <v>539</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
-        <v>537</v>
+        <v>540</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G308" s="7"/>
-      <c r="H308" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D309" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G309" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H309" s="2" t="s">
-        <v>539</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G309" s="7"/>
+      <c r="H309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F310" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F311" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G310" s="7"/>
-      <c r="H310" s="2"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="B311" s="4"/>
-      <c r="C311" s="5"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="6" t="s">
+      <c r="G311" s="7"/>
+      <c r="H311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B312" s="4"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G311" s="7"/>
-      <c r="H311" s="5"/>
-      <c r="I311" s="4"/>
-      <c r="J311" s="4"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-      <c r="M311" s="4"/>
-      <c r="N311" s="4"/>
-      <c r="O311" s="4"/>
-      <c r="P311" s="4"/>
-      <c r="Q311" s="4"/>
-      <c r="R311" s="4"/>
-      <c r="S311" s="4"/>
-      <c r="T311" s="4"/>
-      <c r="U311" s="4"/>
-      <c r="V311" s="4"/>
-      <c r="W311" s="4"/>
-      <c r="X311" s="4"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D312" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G312" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>543</v>
-      </c>
+      <c r="G312" s="7"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="4"/>
+      <c r="J312" s="4"/>
+      <c r="K312" s="4"/>
+      <c r="L312" s="4"/>
+      <c r="M312" s="4"/>
+      <c r="N312" s="4"/>
+      <c r="O312" s="4"/>
+      <c r="P312" s="4"/>
+      <c r="Q312" s="4"/>
+      <c r="R312" s="4"/>
+      <c r="S312" s="4"/>
+      <c r="T312" s="4"/>
+      <c r="U312" s="4"/>
+      <c r="V312" s="4"/>
+      <c r="W312" s="4"/>
+      <c r="X312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="C313" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D313" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G313" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
-        <v>545</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="C314" s="2"/>
       <c r="F314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G314" s="7"/>
-      <c r="H314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D315" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H315" s="2" t="s">
-        <v>547</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G315" s="7"/>
+      <c r="H315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D316" s="2">
         <v>3.0</v>
       </c>
+      <c r="E316" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F316" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="2">
+        <v>3.0</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G317" s="7"/>
-      <c r="H317" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D318" s="2">
-        <v>1.0</v>
+        <v>554</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G318" s="7"/>
+      <c r="H318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D319" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>11</v>
+        <v>1.0</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G319" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H319" s="2" t="s">
-        <v>190</v>
+        <v>556</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D320" s="2">
         <v>3.0</v>
@@ -11566,84 +11607,81 @@
         <v>11</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G320" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>555</v>
+        <v>189</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D321" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G321" s="7"/>
-      <c r="H321" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D322" s="2">
-        <v>2.0</v>
+        <v>560</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H322" s="2" t="s">
-        <v>558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G322" s="7"/>
+      <c r="H322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2.0</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G323" s="7"/>
-      <c r="H323" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D324" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>11</v>
+        <v>563</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G324" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G324" s="7"/>
+      <c r="H324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>562</v>
+        <v>134</v>
       </c>
       <c r="D325" s="2">
         <v>2.0</v>
@@ -11652,223 +11690,223 @@
         <v>11</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G325" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>563</v>
+        <v>310</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>161</v>
+        <v>566</v>
       </c>
       <c r="D326" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="G326" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D327" s="2">
         <v>3.0</v>
       </c>
+      <c r="E327" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F327" s="2" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>567</v>
+        <v>26</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D328" s="2">
+        <v>3.0</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G328" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D329" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G329" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H329" s="2" t="s">
-        <v>570</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G329" s="7"/>
     </row>
     <row r="330">
       <c r="A330" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D330" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G330" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>54</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D331" s="2">
+        <v>3.0</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G331" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
+        <v>576</v>
+      </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G332" s="7"/>
-      <c r="H332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D333" s="2">
-        <v>2.0</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
       <c r="F333" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G333" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>574</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G333" s="7"/>
+      <c r="H333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D334" s="2">
         <v>2.0</v>
       </c>
-      <c r="E334" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F334" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>243</v>
+        <v>36</v>
+      </c>
+      <c r="D335" s="2">
+        <v>2.0</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="G335" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D336" s="2">
-        <v>2.0</v>
+        <v>46</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G336" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D337" s="2">
         <v>2.0</v>
@@ -11877,174 +11915,187 @@
         <v>11</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>14</v>
+        <v>584</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
-        <v>582</v>
+        <v>585</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G338" s="16"/>
-      <c r="H338" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C339" s="2"/>
+        <v>586</v>
+      </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G339" s="7"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B340" s="4"/>
-      <c r="C340" s="5"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="5"/>
-      <c r="F340" s="6" t="s">
+      <c r="A340" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="F340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G340" s="7"/>
-      <c r="H340" s="5"/>
-      <c r="I340" s="4"/>
-      <c r="J340" s="4"/>
-      <c r="K340" s="4"/>
-      <c r="L340" s="4"/>
-      <c r="M340" s="4"/>
-      <c r="N340" s="4"/>
-      <c r="O340" s="4"/>
-      <c r="P340" s="4"/>
-      <c r="Q340" s="4"/>
-      <c r="R340" s="4"/>
-      <c r="S340" s="4"/>
-      <c r="T340" s="4"/>
-      <c r="U340" s="4"/>
-      <c r="V340" s="4"/>
-      <c r="W340" s="4"/>
-      <c r="X340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D341" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G341" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H341" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A341" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B341" s="4"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" s="7"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+      <c r="L341" s="4"/>
+      <c r="M341" s="4"/>
+      <c r="N341" s="4"/>
+      <c r="O341" s="4"/>
+      <c r="P341" s="4"/>
+      <c r="Q341" s="4"/>
+      <c r="R341" s="4"/>
+      <c r="S341" s="4"/>
+      <c r="T341" s="4"/>
+      <c r="U341" s="4"/>
+      <c r="V341" s="4"/>
+      <c r="W341" s="4"/>
+      <c r="X341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G342" s="7"/>
-      <c r="H342" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G342" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C343" s="2"/>
+        <v>590</v>
+      </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G343" s="7"/>
+      <c r="H343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="5"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="5"/>
-      <c r="F344" s="6" t="s">
+      <c r="A344" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C344" s="2"/>
+      <c r="F344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G344" s="7"/>
-      <c r="H344" s="5"/>
-      <c r="I344" s="4"/>
-      <c r="J344" s="4"/>
-      <c r="K344" s="4"/>
-      <c r="L344" s="4"/>
-      <c r="M344" s="4"/>
-      <c r="N344" s="4"/>
-      <c r="O344" s="4"/>
-      <c r="P344" s="4"/>
-      <c r="Q344" s="4"/>
-      <c r="R344" s="4"/>
-      <c r="S344" s="4"/>
-      <c r="T344" s="4"/>
-      <c r="U344" s="4"/>
-      <c r="V344" s="4"/>
-      <c r="W344" s="4"/>
-      <c r="X344" s="4"/>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D345" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>589</v>
-      </c>
+      <c r="A345" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B345" s="4"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="7"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="4"/>
+      <c r="M345" s="4"/>
+      <c r="N345" s="4"/>
+      <c r="O345" s="4"/>
+      <c r="P345" s="4"/>
+      <c r="Q345" s="4"/>
+      <c r="R345" s="4"/>
+      <c r="S345" s="4"/>
+      <c r="T345" s="4"/>
+      <c r="U345" s="4"/>
+      <c r="V345" s="4"/>
+      <c r="W345" s="4"/>
+      <c r="X345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>590</v>
+        <v>592</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G346" s="7"/>
-      <c r="H346" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
@@ -12054,37 +12105,37 @@
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>593</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G348" s="7"/>
+      <c r="H348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G349" s="7"/>
-      <c r="H349" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>9</v>
@@ -12094,7 +12145,7 @@
     </row>
     <row r="351">
       <c r="A351" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -12104,130 +12155,120 @@
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G352" s="7"/>
+      <c r="H352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D353" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>11</v>
+        <v>601</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G353" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G353" s="7"/>
     </row>
     <row r="354">
       <c r="A354" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G354" s="7"/>
-      <c r="H354" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G354" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D355" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>11</v>
+        <v>603</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G355" s="7"/>
-      <c r="H355" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D356" s="2">
         <v>3.0</v>
       </c>
+      <c r="E356" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F356" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G356" s="7"/>
       <c r="H356" s="2" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D357" s="2">
         <v>3.0</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>310</v>
+        <v>606</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="9" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>605</v>
+        <v>134</v>
       </c>
       <c r="D358" s="2">
         <v>3.0</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G358" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>606</v>
+        <v>310</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D359" s="2">
         <v>3.0</v>
@@ -12236,18 +12277,18 @@
         <v>30</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D360" s="2">
         <v>3.0</v>
@@ -12256,18 +12297,18 @@
         <v>30</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D361" s="2">
         <v>3.0</v>
@@ -12276,18 +12317,18 @@
         <v>30</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="9" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D362" s="2">
         <v>3.0</v>
@@ -12296,18 +12337,18 @@
         <v>30</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="D363" s="2">
         <v>3.0</v>
@@ -12316,96 +12357,96 @@
         <v>30</v>
       </c>
       <c r="G363" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D364" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G364" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H363" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D364" s="20">
+      <c r="H364" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B365" s="4"/>
+      <c r="C365" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D365" s="20">
         <v>3.0</v>
       </c>
-      <c r="E364" s="4"/>
-      <c r="F364" s="5" t="s">
+      <c r="E365" s="4"/>
+      <c r="F365" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G364" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H364" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="I364" s="4"/>
-      <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
-      <c r="M364" s="4"/>
-      <c r="N364" s="4"/>
-      <c r="O364" s="4"/>
-      <c r="P364" s="4"/>
-      <c r="Q364" s="4"/>
-      <c r="R364" s="4"/>
-      <c r="S364" s="4"/>
-      <c r="T364" s="4"/>
-      <c r="U364" s="4"/>
-      <c r="V364" s="4"/>
-      <c r="W364" s="4"/>
-      <c r="X364" s="4"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D365" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G365" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H365" s="2" t="s">
-        <v>604</v>
-      </c>
+      <c r="G365" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I365" s="4"/>
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+      <c r="L365" s="4"/>
+      <c r="M365" s="4"/>
+      <c r="N365" s="4"/>
+      <c r="O365" s="4"/>
+      <c r="P365" s="4"/>
+      <c r="Q365" s="4"/>
+      <c r="R365" s="4"/>
+      <c r="S365" s="4"/>
+      <c r="T365" s="4"/>
+      <c r="U365" s="4"/>
+      <c r="V365" s="4"/>
+      <c r="W365" s="4"/>
+      <c r="X365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D366" s="2">
         <v>3.0</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D367" s="2">
         <v>3.0</v>
@@ -12414,36 +12455,38 @@
         <v>30</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>17</v>
+        <v>609</v>
       </c>
       <c r="D368" s="2">
         <v>3.0</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G368" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="G368" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="H368" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D369" s="2">
         <v>3.0</v>
@@ -12451,146 +12494,141 @@
       <c r="F369" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G369" s="7"/>
+      <c r="G369" s="12"/>
       <c r="H369" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="D370" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G370" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G370" s="7"/>
       <c r="H370" s="2" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D371" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H371" s="9" t="s">
-        <v>623</v>
+        <v>88</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D372" s="2">
+        <v>1.0</v>
       </c>
       <c r="F372" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G372" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H372" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F373" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G372" s="7"/>
-      <c r="H372" s="2"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="B373" s="4"/>
-      <c r="C373" s="5"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
-      <c r="F373" s="6" t="s">
+      <c r="G373" s="7"/>
+      <c r="H373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B374" s="4"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G373" s="7"/>
-      <c r="H373" s="5"/>
-      <c r="I373" s="4"/>
-      <c r="J373" s="4"/>
-      <c r="K373" s="4"/>
-      <c r="L373" s="4"/>
-      <c r="M373" s="4"/>
-      <c r="N373" s="4"/>
-      <c r="O373" s="4"/>
-      <c r="P373" s="4"/>
-      <c r="Q373" s="4"/>
-      <c r="R373" s="4"/>
-      <c r="S373" s="4"/>
-      <c r="T373" s="4"/>
-      <c r="U373" s="4"/>
-      <c r="V373" s="4"/>
-      <c r="W373" s="4"/>
-      <c r="X373" s="4"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D374" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F374" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G374" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H374" s="2" t="s">
-        <v>626</v>
-      </c>
+      <c r="G374" s="7"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4"/>
+      <c r="K374" s="4"/>
+      <c r="L374" s="4"/>
+      <c r="M374" s="4"/>
+      <c r="N374" s="4"/>
+      <c r="O374" s="4"/>
+      <c r="P374" s="4"/>
+      <c r="Q374" s="4"/>
+      <c r="R374" s="4"/>
+      <c r="S374" s="4"/>
+      <c r="T374" s="4"/>
+      <c r="U374" s="4"/>
+      <c r="V374" s="4"/>
+      <c r="W374" s="4"/>
+      <c r="X374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>628</v>
+        <v>134</v>
       </c>
       <c r="D375" s="2">
         <v>2.0</v>
       </c>
-      <c r="E375" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F375" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>292</v>
+        <v>632</v>
       </c>
       <c r="D376" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>11</v>
@@ -12599,44 +12637,47 @@
         <v>18</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
-        <v>632</v>
+        <v>634</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D377" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G377" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G377" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D378" s="2">
-        <v>2.0</v>
+        <v>636</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G378" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="H378" s="2" t="s">
-        <v>635</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G378" s="7"/>
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>17</v>
@@ -12648,239 +12689,249 @@
         <v>18</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>56</v>
+        <v>638</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C380" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D380" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G380" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G380" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D381" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E381" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C381" s="2"/>
       <c r="F381" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G381" s="7"/>
-      <c r="H381" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="C382" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D382" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G382" s="7"/>
       <c r="H382" s="2" t="s">
-        <v>641</v>
+        <v>54</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>642</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C383" s="2"/>
       <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G383" s="7"/>
-      <c r="H383" s="2"/>
+      <c r="H383" s="2" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G384" s="7"/>
+      <c r="H384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>104</v>
+        <v>647</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G385" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H385" s="2" t="s">
-        <v>644</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G385" s="7"/>
     </row>
     <row r="386">
       <c r="A386" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D386" s="2">
         <v>3.0</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D387" s="2">
         <v>3.0</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G387" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="G387" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="H387" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D388" s="2">
         <v>3.0</v>
       </c>
-      <c r="E388" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F388" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G388" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G388" s="7"/>
       <c r="H388" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>389</v>
+        <v>36</v>
       </c>
       <c r="D389" s="2">
         <v>3.0</v>
       </c>
+      <c r="E389" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="C390" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D390" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G390" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G390" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D391" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C391" s="2"/>
       <c r="F391" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G391" s="7"/>
-      <c r="H391" s="2" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>656</v>
+        <v>36</v>
       </c>
       <c r="D392" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G392" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G392" s="7"/>
       <c r="H392" s="2" t="s">
-        <v>657</v>
+        <v>336</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D393" s="2">
+        <v>2.0</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G393" s="7"/>
-      <c r="H393" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G393" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -12890,77 +12941,67 @@
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D395" s="2">
+        <v>663</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G395" s="7"/>
+      <c r="H395" s="2"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D396" s="2">
         <v>2.0</v>
       </c>
-      <c r="F395" s="2" t="s">
+      <c r="F396" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G395" s="7" t="s">
+      <c r="G396" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H395" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="B396" s="4"/>
-      <c r="C396" s="5"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="6" t="s">
+      <c r="H396" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B397" s="4"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G396" s="7"/>
-      <c r="H396" s="5"/>
-      <c r="I396" s="4"/>
-      <c r="J396" s="4"/>
-      <c r="K396" s="4"/>
-      <c r="L396" s="4"/>
-      <c r="M396" s="4"/>
-      <c r="N396" s="4"/>
-      <c r="O396" s="4"/>
-      <c r="P396" s="4"/>
-      <c r="Q396" s="4"/>
-      <c r="R396" s="4"/>
-      <c r="S396" s="4"/>
-      <c r="T396" s="4"/>
-      <c r="U396" s="4"/>
-      <c r="V396" s="4"/>
-      <c r="W396" s="4"/>
-      <c r="X396" s="4"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D397" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G397" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>663</v>
-      </c>
+      <c r="G397" s="7"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="4"/>
+      <c r="J397" s="4"/>
+      <c r="K397" s="4"/>
+      <c r="L397" s="4"/>
+      <c r="M397" s="4"/>
+      <c r="N397" s="4"/>
+      <c r="O397" s="4"/>
+      <c r="P397" s="4"/>
+      <c r="Q397" s="4"/>
+      <c r="R397" s="4"/>
+      <c r="S397" s="4"/>
+      <c r="T397" s="4"/>
+      <c r="U397" s="4"/>
+      <c r="V397" s="4"/>
+      <c r="W397" s="4"/>
+      <c r="X397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>17</v>
@@ -12972,42 +13013,52 @@
         <v>18</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D399" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="G399" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>54</v>
+        <v>669</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>667</v>
+        <v>670</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D400" s="2">
+        <v>4.0</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G400" s="7"/>
-      <c r="H400" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>9</v>
@@ -13017,7 +13068,7 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -13027,87 +13078,74 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E403" s="2" t="s">
-        <v>11</v>
+        <v>673</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G403" s="7"/>
-      <c r="H403" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D404" s="2">
-        <v>3.0</v>
+        <v>36</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G404" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G404" s="7"/>
       <c r="H404" s="2" t="s">
-        <v>672</v>
+        <v>54</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C405" s="2"/>
+        <v>675</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D405" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F405" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G405" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G405" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E406" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="C406" s="2"/>
       <c r="F406" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>675</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G406" s="7"/>
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D407" s="2">
-        <v>3.0</v>
+        <v>10</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>11</v>
@@ -13115,69 +13153,82 @@
       <c r="F407" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G407" s="7" t="s">
+      <c r="G407" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>304</v>
+        <v>679</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="C408" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D408" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F408" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G408" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G408" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D409" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C409" s="2"/>
       <c r="F409" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G409" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H409" s="2" t="s">
-        <v>680</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G409" s="7"/>
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D410" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G410" s="7"/>
-      <c r="H410" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C411" s="2"/>
+        <v>685</v>
+      </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G411" s="7"/>
+      <c r="H411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C412" s="2"/>
       <c r="F412" s="2" t="s">
@@ -13187,7 +13238,7 @@
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C413" s="2"/>
       <c r="F413" s="2" t="s">
@@ -13197,77 +13248,78 @@
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D414" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C414" s="2"/>
       <c r="F414" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G414" s="7"/>
-      <c r="H414" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D415" s="2">
         <v>3.0</v>
       </c>
+      <c r="E415" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F415" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G415" s="21" t="s">
-        <v>75</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G415" s="7"/>
       <c r="H415" s="2" t="s">
-        <v>687</v>
+        <v>47</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D416" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G416" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="G416" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
-        <v>690</v>
+        <v>692</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D417" s="2">
+        <v>2.0</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G417" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G417" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -13276,138 +13328,137 @@
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D419" s="2">
-        <v>3.0</v>
+        <v>695</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G419" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H419" s="2" t="s">
-        <v>692</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G419" s="7"/>
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" s="2">
+        <v>3.0</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G420" s="7"/>
-      <c r="H420" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D421" s="2">
-        <v>2.0</v>
+        <v>697</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G421" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>696</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G421" s="7"/>
+      <c r="H421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>135</v>
+        <v>699</v>
       </c>
       <c r="D422" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G422" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D423" s="2">
+        <v>3.0</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G423" s="7"/>
-      <c r="H423" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D424" s="2">
-        <v>3.0</v>
+        <v>703</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G424" s="7"/>
-      <c r="H424" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="H424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D425" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G425" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G425" s="7"/>
       <c r="H425" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D426" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G426" s="7"/>
-      <c r="H426" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -13417,16 +13468,17 @@
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G428" s="7"/>
+      <c r="H428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -13435,7 +13487,7 @@
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -13444,47 +13496,46 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G431" s="7"/>
-      <c r="H431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D432" s="2">
-        <v>2.0</v>
+        <v>713</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G432" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>710</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G432" s="7"/>
+      <c r="H432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" s="2">
+        <v>2.0</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G433" s="7"/>
-      <c r="H433" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G433" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -13494,36 +13545,23 @@
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E435" s="2" t="s">
-        <v>11</v>
+        <v>716</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H435" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G435" s="7"/>
+      <c r="H435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D436" s="2">
-        <v>4.0</v>
+      <c r="D436" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>11</v>
@@ -13531,76 +13569,89 @@
       <c r="F436" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G436" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H436" s="2" t="s">
-        <v>715</v>
+        <v>304</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="B437" s="4"/>
-      <c r="C437" s="5"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="5"/>
-      <c r="F437" s="6" t="s">
+      <c r="A437" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D437" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B438" s="4"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G437" s="7"/>
-      <c r="H437" s="5"/>
-      <c r="I437" s="4"/>
-      <c r="J437" s="4"/>
-      <c r="K437" s="4"/>
-      <c r="L437" s="4"/>
-      <c r="M437" s="4"/>
-      <c r="N437" s="4"/>
-      <c r="O437" s="4"/>
-      <c r="P437" s="4"/>
-      <c r="Q437" s="4"/>
-      <c r="R437" s="4"/>
-      <c r="S437" s="4"/>
-      <c r="T437" s="4"/>
-      <c r="U437" s="4"/>
-      <c r="V437" s="4"/>
-      <c r="W437" s="4"/>
-      <c r="X437" s="4"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D438" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G438" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G438" s="7"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="4"/>
+      <c r="J438" s="4"/>
+      <c r="K438" s="4"/>
+      <c r="L438" s="4"/>
+      <c r="M438" s="4"/>
+      <c r="N438" s="4"/>
+      <c r="O438" s="4"/>
+      <c r="P438" s="4"/>
+      <c r="Q438" s="4"/>
+      <c r="R438" s="4"/>
+      <c r="S438" s="4"/>
+      <c r="T438" s="4"/>
+      <c r="U438" s="4"/>
+      <c r="V438" s="4"/>
+      <c r="W438" s="4"/>
+      <c r="X438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="9" t="s">
-        <v>717</v>
+        <v>720</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G439" s="7"/>
-      <c r="H439" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G439" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="9" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>9</v>
@@ -13610,7 +13661,7 @@
     </row>
     <row r="441">
       <c r="A441" s="9" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -13620,7 +13671,7 @@
     </row>
     <row r="442">
       <c r="A442" s="9" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -13630,99 +13681,106 @@
     </row>
     <row r="443">
       <c r="A443" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="C443" s="2"/>
+        <v>724</v>
+      </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G443" s="7"/>
+      <c r="H443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D444" s="2">
-        <v>3.0</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="C444" s="2"/>
       <c r="F444" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G444" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H444" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="9" t="s">
-        <v>723</v>
+        <v>726</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D445" s="2">
+        <v>3.0</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G445" s="7"/>
-      <c r="H445" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D446" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="G446" s="7"/>
-      <c r="H446" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D447" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="G447" s="7"/>
-      <c r="H447" s="2"/>
+      <c r="H447" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C448" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G448" s="7"/>
+      <c r="H448" s="2"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D449" s="2">
         <v>2.0</v>
       </c>
-      <c r="E448" s="2" t="s">
+      <c r="E449" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F448" s="2" t="s">
+      <c r="F449" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G448" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H448" s="2" t="s">
+      <c r="G449" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H449" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="449">
-      <c r="C449" s="2"/>
     </row>
     <row r="450">
       <c r="C450" s="2"/>
@@ -15548,7 +15606,7 @@
     <hyperlink r:id="rId231" ref="A230"/>
     <hyperlink r:id="rId232" location="leaderboard" ref="A231"/>
     <hyperlink r:id="rId233" location="Leaderboard" ref="A232"/>
-    <hyperlink r:id="rId234" ref="A233"/>
+    <hyperlink r:id="rId234" location="leaderboard" ref="A233"/>
     <hyperlink r:id="rId235" ref="A234"/>
     <hyperlink r:id="rId236" ref="A235"/>
     <hyperlink r:id="rId237" ref="A236"/>
@@ -15604,8 +15662,8 @@
     <hyperlink r:id="rId287" ref="A286"/>
     <hyperlink r:id="rId288" ref="A287"/>
     <hyperlink r:id="rId289" ref="A288"/>
-    <hyperlink r:id="rId290" location="/rank" ref="A289"/>
-    <hyperlink r:id="rId291" ref="A290"/>
+    <hyperlink r:id="rId290" ref="A289"/>
+    <hyperlink r:id="rId291" location="/rank" ref="A290"/>
     <hyperlink r:id="rId292" ref="A291"/>
     <hyperlink r:id="rId293" ref="A292"/>
     <hyperlink r:id="rId294" ref="A293"/>
@@ -15672,8 +15730,8 @@
     <hyperlink r:id="rId355" ref="A354"/>
     <hyperlink r:id="rId356" ref="A355"/>
     <hyperlink r:id="rId357" ref="A356"/>
-    <hyperlink r:id="rId358" location="/leaderboard" ref="A357"/>
-    <hyperlink r:id="rId359" ref="A358"/>
+    <hyperlink r:id="rId358" ref="A357"/>
+    <hyperlink r:id="rId359" location="/leaderboard" ref="A358"/>
     <hyperlink r:id="rId360" ref="A359"/>
     <hyperlink r:id="rId361" ref="A360"/>
     <hyperlink r:id="rId362" ref="A361"/>
@@ -15687,8 +15745,8 @@
     <hyperlink r:id="rId370" ref="A369"/>
     <hyperlink r:id="rId371" ref="A370"/>
     <hyperlink r:id="rId372" ref="A371"/>
-    <hyperlink r:id="rId373" ref="H371"/>
-    <hyperlink r:id="rId374" ref="A372"/>
+    <hyperlink r:id="rId373" ref="A372"/>
+    <hyperlink r:id="rId374" ref="H372"/>
     <hyperlink r:id="rId375" ref="A373"/>
     <hyperlink r:id="rId376" ref="A374"/>
     <hyperlink r:id="rId377" ref="A375"/>
@@ -15765,9 +15823,10 @@
     <hyperlink r:id="rId448" ref="A446"/>
     <hyperlink r:id="rId449" ref="A447"/>
     <hyperlink r:id="rId450" ref="A448"/>
+    <hyperlink r:id="rId451" ref="A449"/>
   </hyperlinks>
-  <drawing r:id="rId451"/>
-  <legacyDrawing r:id="rId452"/>
+  <drawing r:id="rId452"/>
+  <legacyDrawing r:id="rId453"/>
 </worksheet>
 </file>
 
@@ -15789,501 +15848,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -16407,62 +16466,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -16495,92 +16554,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -16626,290 +16685,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="18" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="18" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="18" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -17007,78 +17066,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="18" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -17118,126 +17177,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="16">
@@ -17297,53 +17356,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -17378,25 +17437,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -17422,25 +17481,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17466,20 +17525,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17506,17 +17565,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17543,14 +17602,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17577,14 +17636,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -17612,10 +17671,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47419,95 +47478,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -47551,48 +47610,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1020">
   <si>
     <t>Name</t>
   </si>
@@ -13093,8 +13093,8 @@
       <c r="C404" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D404" s="2" t="s">
-        <v>268</v>
+      <c r="D404" s="2">
+        <v>3.0</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>11</v>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1022">
   <si>
     <t>Name</t>
   </si>
@@ -4973,13 +4973,19 @@
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/4</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/9</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Nexusflow/Nexus_Function_Calling_Leaderboard/discussions/3</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/9</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/Nexusflow/Nexus_Function_Calling_Leaderboard/discussions/3</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/2</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/PatronusAI/enterprise_scenarios_leaderboard/discussions/10</t>
@@ -10894,7 +10900,7 @@
         <v>36</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>11</v>
@@ -15856,98 +15862,98 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20">
@@ -15957,392 +15963,392 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -16466,22 +16472,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5">
@@ -16491,12 +16497,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8">
@@ -16506,7 +16512,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10">
@@ -16521,7 +16527,7 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -16955,20 +16961,26 @@
       <c r="C21" s="18" t="s">
         <v>821</v>
       </c>
+      <c r="G21" s="18" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>822</v>
+        <v>823</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -17043,11 +17055,13 @@
     <hyperlink r:id="rId68" ref="C20"/>
     <hyperlink r:id="rId69" ref="G20"/>
     <hyperlink r:id="rId70" ref="C21"/>
-    <hyperlink r:id="rId71" ref="C22"/>
-    <hyperlink r:id="rId72" ref="C23"/>
-    <hyperlink r:id="rId73" ref="C24"/>
+    <hyperlink r:id="rId71" ref="G21"/>
+    <hyperlink r:id="rId72" ref="C22"/>
+    <hyperlink r:id="rId73" ref="G22"/>
+    <hyperlink r:id="rId74" ref="C23"/>
+    <hyperlink r:id="rId75" ref="C24"/>
   </hyperlinks>
-  <drawing r:id="rId74"/>
+  <drawing r:id="rId76"/>
 </worksheet>
 </file>
 
@@ -17083,10 +17097,10 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>738</v>
@@ -17095,12 +17109,12 @@
         <v>732</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>734</v>
@@ -17111,10 +17125,10 @@
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>748</v>
@@ -17122,7 +17136,7 @@
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6">
@@ -17132,12 +17146,12 @@
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -17194,41 +17208,41 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>741</v>
@@ -17237,66 +17251,66 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16">
@@ -17367,42 +17381,42 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -17446,7 +17460,7 @@
         <v>752</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>753</v>
@@ -17481,25 +17495,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17525,20 +17539,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17565,17 +17579,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17602,11 +17616,11 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>774</v>
@@ -17636,11 +17650,11 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>747</v>
@@ -17671,10 +17685,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47492,29 +47506,29 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>736</v>
@@ -47522,51 +47536,51 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -47621,21 +47635,21 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>737</v>
@@ -47643,15 +47657,15 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1021">
   <si>
     <t>Name</t>
   </si>
@@ -3226,9 +3226,6 @@
   </si>
   <si>
     <t>GenAI-Arena Leaderboard</t>
-  </si>
-  <si>
-    <t>4,4</t>
   </si>
   <si>
     <t>University of Waterloo</t>
@@ -8231,8 +8228,8 @@
       <c r="C132" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>242</v>
+      <c r="D132" s="2">
+        <v>4.0</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -8244,12 +8241,12 @@
         <v>26</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -8258,7 +8255,7 @@
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -8281,10 +8278,10 @@
     </row>
     <row r="135">
       <c r="A135" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D135" s="2">
         <v>3.0</v>
@@ -8296,12 +8293,12 @@
         <v>26</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>160</v>
@@ -8316,15 +8313,15 @@
         <v>161</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -8334,7 +8331,7 @@
     </row>
     <row r="138">
       <c r="A138" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -8344,10 +8341,10 @@
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D139" s="2">
         <v>3.0</v>
@@ -8362,7 +8359,7 @@
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>36</v>
@@ -8377,15 +8374,15 @@
         <v>37</v>
       </c>
       <c r="G140" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>238</v>
@@ -8400,12 +8397,12 @@
         <v>26</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="143">
       <c r="A143" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -8426,15 +8423,15 @@
         <v>18</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>46</v>
@@ -8452,12 +8449,12 @@
         <v>88</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -8467,7 +8464,7 @@
     </row>
     <row r="146">
       <c r="A146" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>134</v>
@@ -8485,15 +8482,15 @@
         <v>56</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>46</v>
@@ -8508,7 +8505,7 @@
         <v>12</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>47</v>
@@ -8516,7 +8513,7 @@
     </row>
     <row r="148">
       <c r="A148" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>46</v>
@@ -8531,7 +8528,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>47</v>
@@ -8539,7 +8536,7 @@
     </row>
     <row r="149">
       <c r="A149" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>46</v>
@@ -8554,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>47</v>
@@ -8562,7 +8559,7 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="2" t="s">
@@ -8600,10 +8597,10 @@
     </row>
     <row r="151">
       <c r="A151" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D151" s="2">
         <v>3.0</v>
@@ -8612,15 +8609,15 @@
         <v>161</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C152" s="2"/>
       <c r="F152" s="2" t="s">
@@ -8630,7 +8627,7 @@
     </row>
     <row r="153">
       <c r="A153" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -8640,7 +8637,7 @@
     </row>
     <row r="154">
       <c r="A154" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -8649,7 +8646,7 @@
     </row>
     <row r="155">
       <c r="A155" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -8663,12 +8660,12 @@
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C156" s="2"/>
       <c r="F156" s="2" t="s">
@@ -8678,7 +8675,7 @@
     </row>
     <row r="157">
       <c r="A157" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -8688,7 +8685,7 @@
     </row>
     <row r="158">
       <c r="A158" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -8698,7 +8695,7 @@
     </row>
     <row r="159">
       <c r="A159" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>36</v>
@@ -8710,12 +8707,12 @@
         <v>37</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>168</v>
@@ -8733,12 +8730,12 @@
         <v>26</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>168</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="162">
       <c r="A162" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -8791,7 +8788,7 @@
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C163" s="2"/>
       <c r="F163" s="2" t="s">
@@ -8801,10 +8798,10 @@
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D164" s="2">
         <v>3.0</v>
@@ -8819,12 +8816,12 @@
         <v>26</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B165" s="2">
         <v>2.0</v>
@@ -8842,12 +8839,12 @@
         <v>88</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C166" s="2"/>
       <c r="F166" s="2" t="s">
@@ -8857,7 +8854,7 @@
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="168">
       <c r="A168" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>36</v>
@@ -8880,12 +8877,12 @@
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -8894,10 +8891,10 @@
     </row>
     <row r="170">
       <c r="A170" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D170" s="2">
         <v>1.0</v>
@@ -8911,7 +8908,7 @@
     </row>
     <row r="171">
       <c r="A171" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>168</v>
@@ -8926,12 +8923,12 @@
         <v>26</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -8946,12 +8943,12 @@
         <v>26</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -8961,7 +8958,7 @@
     </row>
     <row r="174">
       <c r="A174" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>134</v>
@@ -8982,7 +8979,7 @@
     </row>
     <row r="175">
       <c r="A175" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>134</v>
@@ -8997,15 +8994,15 @@
         <v>26</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D176" s="2">
         <v>1.0</v>
@@ -9017,15 +9014,15 @@
         <v>26</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D177" s="2">
         <v>3.0</v>
@@ -9037,12 +9034,12 @@
         <v>26</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -9052,10 +9049,10 @@
     </row>
     <row r="179">
       <c r="A179" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D179" s="2">
         <v>3.0</v>
@@ -9067,12 +9064,12 @@
         <v>26</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -9081,10 +9078,10 @@
     </row>
     <row r="181">
       <c r="A181" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D181" s="2">
         <v>1.0</v>
@@ -9099,12 +9096,12 @@
         <v>26</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -9114,7 +9111,7 @@
     </row>
     <row r="183">
       <c r="A183" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>99</v>
@@ -9127,15 +9124,15 @@
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D184" s="2">
         <v>1.0</v>
@@ -9144,12 +9141,12 @@
         <v>161</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>36</v>
@@ -9167,15 +9164,15 @@
         <v>88</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D186" s="2">
         <v>1.0</v>
@@ -9184,7 +9181,7 @@
         <v>11</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="2" t="s">
@@ -9193,7 +9190,7 @@
     </row>
     <row r="187">
       <c r="A187" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>78</v>
@@ -9209,15 +9206,15 @@
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D188" s="2">
         <v>2.0</v>
@@ -9226,18 +9223,18 @@
         <v>30</v>
       </c>
       <c r="G188" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D189" s="2">
         <v>3.0</v>
@@ -9252,7 +9249,7 @@
     </row>
     <row r="190">
       <c r="A190" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>238</v>
@@ -9265,12 +9262,12 @@
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>146</v>
@@ -9285,18 +9282,18 @@
         <v>88</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>11</v>
@@ -9308,12 +9305,12 @@
         <v>147</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>40</v>
@@ -9330,7 +9327,7 @@
     </row>
     <row r="194">
       <c r="A194" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>36</v>
@@ -9345,12 +9342,12 @@
         <v>37</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>160</v>
@@ -9368,12 +9365,12 @@
         <v>26</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
@@ -9388,12 +9385,12 @@
         <v>26</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>134</v>
@@ -9411,18 +9408,18 @@
         <v>26</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>11</v>
@@ -9434,12 +9431,12 @@
         <v>26</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>168</v>
@@ -9454,12 +9451,12 @@
         <v>26</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>17</v>
@@ -9477,12 +9474,12 @@
         <v>26</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -9492,7 +9489,7 @@
     </row>
     <row r="202">
       <c r="A202" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>33</v>
@@ -9507,12 +9504,12 @@
         <v>26</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
@@ -9530,12 +9527,12 @@
         <v>26</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>46</v>
@@ -9550,12 +9547,12 @@
         <v>12</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -9565,7 +9562,7 @@
     </row>
     <row r="206">
       <c r="A206" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>168</v>
@@ -9583,15 +9580,15 @@
         <v>26</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D207" s="2">
         <v>2.0</v>
@@ -9606,12 +9603,12 @@
         <v>204</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -9621,7 +9618,7 @@
     </row>
     <row r="209">
       <c r="A209" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -9631,7 +9628,7 @@
     </row>
     <row r="210">
       <c r="A210" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -9654,7 +9651,7 @@
     </row>
     <row r="211">
       <c r="A211" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>46</v>
@@ -9669,12 +9666,12 @@
         <v>26</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C212" s="2"/>
       <c r="F212" s="2" t="s">
@@ -9684,7 +9681,7 @@
     </row>
     <row r="213">
       <c r="A213" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -9694,10 +9691,10 @@
     </row>
     <row r="214">
       <c r="A214" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D214" s="2">
         <v>2.0</v>
@@ -9712,15 +9709,15 @@
         <v>26</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D215" s="2">
         <v>1.0</v>
@@ -9737,7 +9734,7 @@
     </row>
     <row r="216">
       <c r="A216" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -9746,7 +9743,7 @@
     </row>
     <row r="217">
       <c r="A217" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>17</v>
@@ -9761,15 +9758,15 @@
         <v>26</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D218" s="2">
         <v>2.0</v>
@@ -9781,12 +9778,12 @@
         <v>26</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -9795,10 +9792,10 @@
     </row>
     <row r="220">
       <c r="A220" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D220" s="2">
         <v>3.0</v>
@@ -9810,15 +9807,15 @@
         <v>41</v>
       </c>
       <c r="G220" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H220" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>50</v>
@@ -9833,12 +9830,12 @@
         <v>26</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>33</v>
@@ -9853,12 +9850,12 @@
         <v>26</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -9868,7 +9865,7 @@
     </row>
     <row r="224">
       <c r="A224" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>40</v>
@@ -9891,7 +9888,7 @@
     </row>
     <row r="225">
       <c r="A225" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>17</v>
@@ -9906,18 +9903,18 @@
         <v>26</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
@@ -9929,12 +9926,12 @@
         <v>26</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -9943,7 +9940,7 @@
     </row>
     <row r="228">
       <c r="A228" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>17</v>
@@ -9961,12 +9958,12 @@
         <v>204</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>78</v>
@@ -9981,15 +9978,15 @@
         <v>37</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>160</v>
@@ -10004,15 +10001,15 @@
         <v>26</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D231" s="2">
         <v>2.0</v>
@@ -10027,12 +10024,12 @@
         <v>26</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>168</v>
@@ -10047,15 +10044,15 @@
         <v>26</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D233" s="2">
         <v>3.0</v>
@@ -10067,18 +10064,18 @@
         <v>18</v>
       </c>
       <c r="G233" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D234" s="2">
         <v>3.0</v>
@@ -10087,15 +10084,15 @@
         <v>18</v>
       </c>
       <c r="G234" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H234" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>33</v>
@@ -10107,15 +10104,15 @@
         <v>18</v>
       </c>
       <c r="G235" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H235" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -10138,10 +10135,10 @@
     </row>
     <row r="237">
       <c r="A237" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D237" s="2">
         <v>3.0</v>
@@ -10154,12 +10151,12 @@
       </c>
       <c r="G237" s="7"/>
       <c r="H237" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C238" s="2"/>
       <c r="F238" s="2" t="s">
@@ -10169,7 +10166,7 @@
     </row>
     <row r="239">
       <c r="A239" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -10179,7 +10176,7 @@
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -10189,7 +10186,7 @@
     </row>
     <row r="241">
       <c r="A241" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -10199,7 +10196,7 @@
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -10209,7 +10206,7 @@
     </row>
     <row r="243">
       <c r="A243" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>36</v>
@@ -10222,12 +10219,12 @@
       </c>
       <c r="G243" s="7"/>
       <c r="H243" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>17</v>
@@ -10242,12 +10239,12 @@
         <v>26</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -10257,7 +10254,7 @@
     </row>
     <row r="246">
       <c r="A246" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -10267,10 +10264,10 @@
     </row>
     <row r="247">
       <c r="A247" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D247" s="2">
         <v>1.0</v>
@@ -10279,24 +10276,24 @@
         <v>11</v>
       </c>
       <c r="F247" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G247" s="7" t="s">
+      <c r="H247" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>18</v>
@@ -10305,12 +10302,12 @@
         <v>26</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -10320,7 +10317,7 @@
     </row>
     <row r="250">
       <c r="A250" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -10329,7 +10326,7 @@
     </row>
     <row r="251">
       <c r="A251" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -10338,7 +10335,7 @@
     </row>
     <row r="252">
       <c r="A252" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C252" s="2"/>
       <c r="F252" s="2" t="s">
@@ -10348,10 +10345,10 @@
     </row>
     <row r="253">
       <c r="A253" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="D253" s="2">
         <v>1.0</v>
@@ -10363,12 +10360,12 @@
         <v>26</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>36</v>
@@ -10384,12 +10381,12 @@
       </c>
       <c r="G254" s="7"/>
       <c r="H254" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>36</v>
@@ -10405,12 +10402,12 @@
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>36</v>
@@ -10423,12 +10420,12 @@
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -10451,7 +10448,7 @@
     </row>
     <row r="258">
       <c r="A258" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -10461,10 +10458,10 @@
     </row>
     <row r="259">
       <c r="A259" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D259" s="2">
         <v>3.0</v>
@@ -10473,15 +10470,15 @@
         <v>37</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -10490,7 +10487,7 @@
     </row>
     <row r="261">
       <c r="A261" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -10500,7 +10497,7 @@
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>160</v>
@@ -10518,12 +10515,12 @@
         <v>26</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>17</v>
@@ -10538,12 +10535,12 @@
         <v>26</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -10553,7 +10550,7 @@
     </row>
     <row r="265">
       <c r="A265" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>36</v>
@@ -10571,12 +10568,12 @@
         <v>26</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>33</v>
@@ -10591,12 +10588,12 @@
         <v>125</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -10606,7 +10603,7 @@
     </row>
     <row r="268">
       <c r="A268" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="269">
       <c r="A269" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>36</v>
@@ -10637,7 +10634,7 @@
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>36</v>
@@ -10655,15 +10652,15 @@
         <v>26</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D271" s="2">
         <v>3.0</v>
@@ -10678,12 +10675,12 @@
         <v>26</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>36</v>
@@ -10701,7 +10698,7 @@
     </row>
     <row r="273">
       <c r="A273" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>36</v>
@@ -10717,12 +10714,12 @@
       </c>
       <c r="G273" s="12"/>
       <c r="H273" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>78</v>
@@ -10738,12 +10735,12 @@
       </c>
       <c r="G274" s="12"/>
       <c r="H274" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>36</v>
@@ -10764,7 +10761,7 @@
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>36</v>
@@ -10779,15 +10776,15 @@
         <v>37</v>
       </c>
       <c r="G276" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H276" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>36</v>
@@ -10808,7 +10805,7 @@
     </row>
     <row r="278">
       <c r="A278" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>36</v>
@@ -10829,7 +10826,7 @@
     </row>
     <row r="279">
       <c r="A279" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>36</v>
@@ -10845,12 +10842,12 @@
       </c>
       <c r="G279" s="12"/>
       <c r="H279" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>160</v>
@@ -10868,12 +10865,12 @@
         <v>26</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>36</v>
@@ -10889,12 +10886,12 @@
       </c>
       <c r="G281" s="7"/>
       <c r="H281" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>36</v>
@@ -10910,12 +10907,12 @@
       </c>
       <c r="G282" s="12"/>
       <c r="H282" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>78</v>
@@ -10931,12 +10928,12 @@
       </c>
       <c r="G283" s="12"/>
       <c r="H283" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -10966,7 +10963,7 @@
     </row>
     <row r="285">
       <c r="A285" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>10</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="286">
       <c r="A286" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>209</v>
@@ -11010,7 +11007,7 @@
     </row>
     <row r="287">
       <c r="A287" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>209</v>
@@ -11031,10 +11028,10 @@
     </row>
     <row r="288">
       <c r="A288" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D288" s="2">
         <v>3.0</v>
@@ -11051,7 +11048,7 @@
     </row>
     <row r="289">
       <c r="A289" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>17</v>
@@ -11066,30 +11063,30 @@
         <v>26</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G290" s="7"/>
       <c r="H290" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>17</v>
@@ -11101,12 +11098,12 @@
         <v>18</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>36</v>
@@ -11126,7 +11123,7 @@
     </row>
     <row r="293">
       <c r="A293" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C293" s="2"/>
       <c r="F293" s="2" t="s">
@@ -11136,7 +11133,7 @@
     </row>
     <row r="294">
       <c r="A294" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>17</v>
@@ -11154,12 +11151,12 @@
         <v>26</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -11169,7 +11166,7 @@
     </row>
     <row r="296">
       <c r="A296" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -11199,7 +11196,7 @@
     </row>
     <row r="297">
       <c r="A297" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>10</v>
@@ -11214,7 +11211,7 @@
         <v>12</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>14</v>
@@ -11222,7 +11219,7 @@
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -11231,10 +11228,10 @@
     </row>
     <row r="299">
       <c r="A299" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="D299" s="2">
         <v>3.0</v>
@@ -11246,12 +11243,12 @@
         <v>26</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>36</v>
@@ -11264,12 +11261,12 @@
       </c>
       <c r="G300" s="12"/>
       <c r="H300" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>134</v>
@@ -11285,12 +11282,12 @@
       </c>
       <c r="G301" s="7"/>
       <c r="H301" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>17</v>
@@ -11305,12 +11302,12 @@
         <v>26</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>10</v>
@@ -11333,7 +11330,7 @@
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C304" s="2"/>
       <c r="F304" s="2" t="s">
@@ -11343,7 +11340,7 @@
     </row>
     <row r="305">
       <c r="A305" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -11352,7 +11349,7 @@
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>17</v>
@@ -11370,15 +11367,15 @@
         <v>125</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D307" s="2">
         <v>3.0</v>
@@ -11390,12 +11387,12 @@
         <v>204</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>10</v>
@@ -11410,7 +11407,7 @@
         <v>12</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>14</v>
@@ -11418,7 +11415,7 @@
     </row>
     <row r="309">
       <c r="A309" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -11428,7 +11425,7 @@
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>17</v>
@@ -11446,12 +11443,12 @@
         <v>184</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -11461,7 +11458,7 @@
     </row>
     <row r="312">
       <c r="A312" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="5"/>
@@ -11491,10 +11488,10 @@
     </row>
     <row r="313">
       <c r="A313" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D313" s="2">
         <v>2.0</v>
@@ -11506,12 +11503,12 @@
         <v>88</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C314" s="2"/>
       <c r="F314" s="2" t="s">
@@ -11521,7 +11518,7 @@
     </row>
     <row r="315">
       <c r="A315" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -11531,7 +11528,7 @@
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>40</v>
@@ -11546,12 +11543,12 @@
         <v>41</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>17</v>
@@ -11566,12 +11563,12 @@
         <v>26</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -11581,7 +11578,7 @@
     </row>
     <row r="319">
       <c r="A319" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>17</v>
@@ -11596,12 +11593,12 @@
         <v>26</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>17</v>
@@ -11621,7 +11618,7 @@
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>36</v>
@@ -11639,12 +11636,12 @@
         <v>26</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -11654,7 +11651,7 @@
     </row>
     <row r="323">
       <c r="A323" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>17</v>
@@ -11669,12 +11666,12 @@
         <v>26</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -11684,7 +11681,7 @@
     </row>
     <row r="325">
       <c r="A325" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>134</v>
@@ -11702,15 +11699,15 @@
         <v>26</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="D326" s="2">
         <v>2.0</v>
@@ -11725,12 +11722,12 @@
         <v>26</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>160</v>
@@ -11748,12 +11745,12 @@
         <v>26</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>46</v>
@@ -11765,15 +11762,15 @@
         <v>12</v>
       </c>
       <c r="G328" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H328" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="H328" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -11782,7 +11779,7 @@
     </row>
     <row r="330">
       <c r="A330" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>168</v>
@@ -11800,12 +11797,12 @@
         <v>88</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>17</v>
@@ -11825,7 +11822,7 @@
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
@@ -11834,7 +11831,7 @@
     </row>
     <row r="333">
       <c r="A333" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -11846,7 +11843,7 @@
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>134</v>
@@ -11861,12 +11858,12 @@
         <v>125</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>36</v>
@@ -11884,18 +11881,18 @@
         <v>26</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D336" s="2" t="s">
-        <v>242</v>
+      <c r="D336" s="2">
+        <v>4.0</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>11</v>
@@ -11904,12 +11901,12 @@
         <v>12</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>36</v>
@@ -11927,12 +11924,12 @@
         <v>26</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>10</v>
@@ -11955,7 +11952,7 @@
     </row>
     <row r="339">
       <c r="A339" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -11965,7 +11962,7 @@
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C340" s="2"/>
       <c r="F340" s="2" t="s">
@@ -11975,7 +11972,7 @@
     </row>
     <row r="341">
       <c r="A341" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="5"/>
@@ -12005,7 +12002,7 @@
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>10</v>
@@ -12020,7 +12017,7 @@
         <v>12</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>14</v>
@@ -12028,7 +12025,7 @@
     </row>
     <row r="343">
       <c r="A343" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -12038,7 +12035,7 @@
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C344" s="2"/>
       <c r="F344" s="2" t="s">
@@ -12048,7 +12045,7 @@
     </row>
     <row r="345">
       <c r="A345" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="5"/>
@@ -12078,7 +12075,7 @@
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>17</v>
@@ -12096,12 +12093,12 @@
         <v>125</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
@@ -12111,7 +12108,7 @@
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>9</v>
@@ -12121,13 +12118,13 @@
     </row>
     <row r="349">
       <c r="A349" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>161</v>
@@ -12136,12 +12133,12 @@
         <v>26</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>9</v>
@@ -12151,7 +12148,7 @@
     </row>
     <row r="351">
       <c r="A351" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -12161,7 +12158,7 @@
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -12171,7 +12168,7 @@
     </row>
     <row r="353">
       <c r="A353" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -12180,7 +12177,7 @@
     </row>
     <row r="354">
       <c r="A354" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>10</v>
@@ -12195,7 +12192,7 @@
         <v>12</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>14</v>
@@ -12203,7 +12200,7 @@
     </row>
     <row r="355">
       <c r="A355" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -12213,7 +12210,7 @@
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>36</v>
@@ -12234,7 +12231,7 @@
     </row>
     <row r="357">
       <c r="A357" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>17</v>
@@ -12249,12 +12246,12 @@
         <v>26</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>134</v>
@@ -12266,15 +12263,15 @@
         <v>12</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D359" s="2">
         <v>3.0</v>
@@ -12286,15 +12283,15 @@
         <v>75</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D360" s="2">
         <v>3.0</v>
@@ -12303,18 +12300,18 @@
         <v>30</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D361" s="2">
         <v>3.0</v>
@@ -12323,18 +12320,18 @@
         <v>30</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D362" s="2">
         <v>3.0</v>
@@ -12343,18 +12340,18 @@
         <v>30</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D363" s="2">
         <v>3.0</v>
@@ -12363,18 +12360,18 @@
         <v>30</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D364" s="2">
         <v>3.0</v>
@@ -12386,16 +12383,16 @@
         <v>75</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D365" s="20">
         <v>3.0</v>
@@ -12405,10 +12402,10 @@
         <v>30</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
@@ -12429,7 +12426,7 @@
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>46</v>
@@ -12441,18 +12438,18 @@
         <v>12</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D367" s="2">
         <v>3.0</v>
@@ -12461,18 +12458,18 @@
         <v>30</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D368" s="2">
         <v>3.0</v>
@@ -12484,12 +12481,12 @@
         <v>75</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>17</v>
@@ -12502,12 +12499,12 @@
       </c>
       <c r="G369" s="12"/>
       <c r="H369" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>33</v>
@@ -12520,12 +12517,12 @@
       </c>
       <c r="G370" s="7"/>
       <c r="H370" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>134</v>
@@ -12543,12 +12540,12 @@
         <v>88</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>46</v>
@@ -12563,12 +12560,12 @@
         <v>125</v>
       </c>
       <c r="H372" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>9</v>
@@ -12578,7 +12575,7 @@
     </row>
     <row r="374">
       <c r="A374" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="5"/>
@@ -12608,7 +12605,7 @@
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>134</v>
@@ -12623,15 +12620,15 @@
         <v>204</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D376" s="2">
         <v>2.0</v>
@@ -12646,15 +12643,15 @@
         <v>26</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D377" s="2">
         <v>1.0</v>
@@ -12669,12 +12666,12 @@
         <v>204</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>9</v>
@@ -12683,7 +12680,7 @@
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>17</v>
@@ -12695,15 +12692,15 @@
         <v>18</v>
       </c>
       <c r="G379" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="H379" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="H379" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>17</v>
@@ -12718,12 +12715,12 @@
         <v>56</v>
       </c>
       <c r="H380" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C381" s="2"/>
       <c r="F381" s="2" t="s">
@@ -12733,7 +12730,7 @@
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>134</v>
@@ -12754,19 +12751,19 @@
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C383" s="2"/>
       <c r="F383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H383" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
@@ -12776,7 +12773,7 @@
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>9</v>
@@ -12785,7 +12782,7 @@
     </row>
     <row r="386">
       <c r="A386" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>134</v>
@@ -12800,12 +12797,12 @@
         <v>26</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>17</v>
@@ -12820,12 +12817,12 @@
         <v>125</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>40</v>
@@ -12838,12 +12835,12 @@
       </c>
       <c r="G388" s="7"/>
       <c r="H388" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>36</v>
@@ -12861,15 +12858,15 @@
         <v>26</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D390" s="2">
         <v>3.0</v>
@@ -12881,12 +12878,12 @@
         <v>26</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C391" s="2"/>
       <c r="F391" s="2" t="s">
@@ -12896,7 +12893,7 @@
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>36</v>
@@ -12912,15 +12909,15 @@
       </c>
       <c r="G392" s="7"/>
       <c r="H392" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D393" s="2">
         <v>2.0</v>
@@ -12932,12 +12929,12 @@
         <v>26</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -12947,7 +12944,7 @@
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
@@ -12957,7 +12954,7 @@
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>168</v>
@@ -12972,12 +12969,12 @@
         <v>26</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="5"/>
@@ -13007,7 +13004,7 @@
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>17</v>
@@ -13022,12 +13019,12 @@
         <v>56</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>17</v>
@@ -13042,12 +13039,12 @@
         <v>88</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>36</v>
@@ -13064,7 +13061,7 @@
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>9</v>
@@ -13074,7 +13071,7 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>9</v>
@@ -13094,7 +13091,7 @@
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>36</v>
@@ -13115,7 +13112,7 @@
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>33</v>
@@ -13130,12 +13127,12 @@
         <v>26</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C406" s="2"/>
       <c r="F406" s="2" t="s">
@@ -13145,13 +13142,13 @@
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>11</v>
@@ -13163,12 +13160,12 @@
         <v>26</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>36</v>
@@ -13186,12 +13183,12 @@
         <v>26</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C409" s="2"/>
       <c r="F409" s="2" t="s">
@@ -13201,10 +13198,10 @@
     </row>
     <row r="410">
       <c r="A410" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="D410" s="2">
         <v>2.0</v>
@@ -13219,12 +13216,12 @@
         <v>26</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -13234,7 +13231,7 @@
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C412" s="2"/>
       <c r="F412" s="2" t="s">
@@ -13244,7 +13241,7 @@
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C413" s="2"/>
       <c r="F413" s="2" t="s">
@@ -13254,7 +13251,7 @@
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C414" s="2"/>
       <c r="F414" s="2" t="s">
@@ -13264,7 +13261,7 @@
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>46</v>
@@ -13285,7 +13282,7 @@
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>17</v>
@@ -13300,12 +13297,12 @@
         <v>75</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>36</v>
@@ -13320,12 +13317,12 @@
         <v>26</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -13334,7 +13331,7 @@
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -13343,7 +13340,7 @@
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>33</v>
@@ -13355,15 +13352,15 @@
         <v>18</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -13373,10 +13370,10 @@
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="D422" s="2">
         <v>2.0</v>
@@ -13388,12 +13385,12 @@
         <v>88</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>134</v>
@@ -13408,12 +13405,12 @@
         <v>26</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -13423,7 +13420,7 @@
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>36</v>
@@ -13436,12 +13433,12 @@
       </c>
       <c r="G425" s="7"/>
       <c r="H425" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>17</v>
@@ -13459,12 +13456,12 @@
         <v>26</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -13474,7 +13471,7 @@
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -13484,7 +13481,7 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -13493,7 +13490,7 @@
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -13502,7 +13499,7 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -13511,7 +13508,7 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -13521,7 +13518,7 @@
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>36</v>
@@ -13533,15 +13530,15 @@
         <v>37</v>
       </c>
       <c r="G433" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -13551,7 +13548,7 @@
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -13561,13 +13558,13 @@
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>11</v>
@@ -13579,12 +13576,12 @@
         <v>26</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>36</v>
@@ -13599,12 +13596,12 @@
         <v>37</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="5"/>
@@ -13634,7 +13631,7 @@
     </row>
     <row r="439">
       <c r="A439" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>10</v>
@@ -13649,7 +13646,7 @@
         <v>12</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H439" s="2" t="s">
         <v>14</v>
@@ -13657,7 +13654,7 @@
     </row>
     <row r="440">
       <c r="A440" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>9</v>
@@ -13667,7 +13664,7 @@
     </row>
     <row r="441">
       <c r="A441" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -13677,7 +13674,7 @@
     </row>
     <row r="442">
       <c r="A442" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -13687,7 +13684,7 @@
     </row>
     <row r="443">
       <c r="A443" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -13697,7 +13694,7 @@
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C444" s="2"/>
       <c r="F444" s="2" t="s">
@@ -13706,7 +13703,7 @@
     </row>
     <row r="445">
       <c r="A445" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>33</v>
@@ -13726,7 +13723,7 @@
     </row>
     <row r="446">
       <c r="A446" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>9</v>
@@ -13736,10 +13733,10 @@
     </row>
     <row r="447">
       <c r="A447" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D447" s="2">
         <v>3.0</v>
@@ -13757,7 +13754,7 @@
     </row>
     <row r="448">
       <c r="A448" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>9</v>
@@ -13767,7 +13764,7 @@
     </row>
     <row r="449">
       <c r="A449" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>10</v>
@@ -15854,501 +15851,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>920</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>922</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -16472,62 +16469,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -16560,92 +16557,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -16691,296 +16688,296 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>775</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="9" t="s">
         <v>782</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>786</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="G9" s="9" t="s">
         <v>799</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>801</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>815</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>817</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>819</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>821</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>823</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -17080,78 +17077,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>828</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>832</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -17191,126 +17188,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="18" t="s">
         <v>839</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>843</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>846</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>847</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>849</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>851</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16">
@@ -17370,53 +17367,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="18" t="s">
         <v>862</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>867</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -17451,25 +17448,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -17495,25 +17492,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>877</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>878</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17539,20 +17536,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="22" t="s">
         <v>882</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>883</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17579,17 +17576,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>884</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>885</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>886</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>887</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17616,14 +17613,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17650,14 +17647,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -17685,10 +17682,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>892</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>893</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47492,95 +47489,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="18" t="s">
         <v>896</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>898</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>901</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>903</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -47624,48 +47621,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="18" t="s">
         <v>913</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>916</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>917</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -9914,7 +9914,7 @@
         <v>17</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,6 +26,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="F418">
+      <text>
+        <t xml:space="preserve">https://github.com/BradyFU/Video-MME
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D226">
       <text>
         <t xml:space="preserve">https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124
@@ -980,7 +986,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A436">
+    <comment authorId="0" ref="A437">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -1241,7 +1247,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A433">
+    <comment authorId="0" ref="A434">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1259,7 +1265,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A439">
+    <comment authorId="0" ref="A440">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1337,7 +1343,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A449">
+    <comment authorId="0" ref="A450">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1355,7 +1361,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A423">
+    <comment authorId="0" ref="A424">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
@@ -1779,13 +1785,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F449">
+    <comment authorId="0" ref="F450">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F439">
+    <comment authorId="0" ref="F440">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -2076,7 +2082,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F422">
+    <comment authorId="0" ref="F423">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
@@ -2108,7 +2114,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F447">
+    <comment authorId="0" ref="F448">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2366,7 +2372,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F432">
+    <comment authorId="0" ref="F433">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2499,7 +2505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1024">
   <si>
     <t>Name</t>
   </si>
@@ -4590,6 +4596,15 @@
   </si>
   <si>
     <t>Peking University,Peng Cheng Laboratory,Microsoft,FarReel AI Lab</t>
+  </si>
+  <si>
+    <t>Video-MME</t>
+  </si>
+  <si>
+    <t>gh:Table Screenshot+Rankable Table</t>
+  </si>
+  <si>
+    <t>University of Science and Technology of China,Xiamen University,University of Hong Kong,Peking University,Chinese University of Hong Kong,East China Normal University</t>
   </si>
   <si>
     <t>VideoInstruct</t>
@@ -13324,14 +13339,28 @@
       <c r="A418" s="9" t="s">
         <v>693</v>
       </c>
+      <c r="C418" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D418" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F418" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G418" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G418" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -13340,138 +13369,137 @@
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D420" s="2">
-        <v>3.0</v>
+        <v>697</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G420" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H420" s="2" t="s">
-        <v>695</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G420" s="7"/>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D421" s="2">
+        <v>3.0</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G421" s="7"/>
-      <c r="H421" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D422" s="2">
-        <v>2.0</v>
+        <v>699</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G422" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>699</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
         <v>700</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>134</v>
+        <v>701</v>
       </c>
       <c r="D423" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D424" s="2">
+        <v>3.0</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G424" s="7"/>
-      <c r="H424" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D425" s="2">
-        <v>3.0</v>
+        <v>705</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G425" s="7"/>
-      <c r="H425" s="2" t="s">
-        <v>704</v>
-      </c>
+      <c r="H425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D426" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E426" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G426" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G426" s="7"/>
       <c r="H426" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D427" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G427" s="7"/>
-      <c r="H427" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G427" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -13481,16 +13509,17 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G429" s="7"/>
+      <c r="H429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -13499,7 +13528,7 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -13508,47 +13537,46 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G432" s="7"/>
-      <c r="H432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D433" s="2">
-        <v>2.0</v>
+        <v>715</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G433" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>713</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G433" s="7"/>
+      <c r="H433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D434" s="2">
+        <v>2.0</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G434" s="7"/>
-      <c r="H434" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G434" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -13558,36 +13586,23 @@
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>11</v>
+        <v>718</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G436" s="7"/>
+      <c r="H436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D437" s="2">
-        <v>4.0</v>
+      <c r="D437" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>11</v>
@@ -13595,76 +13610,89 @@
       <c r="F437" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G437" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H437" s="2" t="s">
-        <v>718</v>
+        <v>303</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B438" s="4"/>
-      <c r="C438" s="5"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="5"/>
-      <c r="F438" s="6" t="s">
+      <c r="A438" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D438" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="B439" s="4"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G438" s="7"/>
-      <c r="H438" s="5"/>
-      <c r="I438" s="4"/>
-      <c r="J438" s="4"/>
-      <c r="K438" s="4"/>
-      <c r="L438" s="4"/>
-      <c r="M438" s="4"/>
-      <c r="N438" s="4"/>
-      <c r="O438" s="4"/>
-      <c r="P438" s="4"/>
-      <c r="Q438" s="4"/>
-      <c r="R438" s="4"/>
-      <c r="S438" s="4"/>
-      <c r="T438" s="4"/>
-      <c r="U438" s="4"/>
-      <c r="V438" s="4"/>
-      <c r="W438" s="4"/>
-      <c r="X438" s="4"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D439" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G439" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H439" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G439" s="7"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="4"/>
+      <c r="J439" s="4"/>
+      <c r="K439" s="4"/>
+      <c r="L439" s="4"/>
+      <c r="M439" s="4"/>
+      <c r="N439" s="4"/>
+      <c r="O439" s="4"/>
+      <c r="P439" s="4"/>
+      <c r="Q439" s="4"/>
+      <c r="R439" s="4"/>
+      <c r="S439" s="4"/>
+      <c r="T439" s="4"/>
+      <c r="U439" s="4"/>
+      <c r="V439" s="4"/>
+      <c r="W439" s="4"/>
+      <c r="X439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="9" t="s">
-        <v>720</v>
+        <v>722</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D440" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G440" s="7"/>
-      <c r="H440" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G440" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="9" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -13674,7 +13702,7 @@
     </row>
     <row r="442">
       <c r="A442" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -13684,7 +13712,7 @@
     </row>
     <row r="443">
       <c r="A443" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -13694,99 +13722,106 @@
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="C444" s="2"/>
+        <v>726</v>
+      </c>
       <c r="F444" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G444" s="7"/>
+      <c r="H444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D445" s="2">
-        <v>3.0</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C445" s="2"/>
       <c r="F445" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G445" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H445" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D446" s="2">
+        <v>3.0</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G446" s="7"/>
-      <c r="H446" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G446" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D447" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>11</v>
+        <v>729</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="G447" s="7"/>
-      <c r="H447" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D448" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="G448" s="7"/>
-      <c r="H448" s="2"/>
+      <c r="H448" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="C449" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G449" s="7"/>
+      <c r="H449" s="2"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D450" s="2">
         <v>2.0</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="E450" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F449" s="2" t="s">
+      <c r="F450" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G449" s="2" t="s">
+      <c r="G450" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H449" s="2" t="s">
+      <c r="H450" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="450">
-      <c r="C450" s="2"/>
     </row>
     <row r="451">
       <c r="C451" s="2"/>
@@ -15795,7 +15830,7 @@
     <hyperlink r:id="rId417" ref="A415"/>
     <hyperlink r:id="rId418" ref="A416"/>
     <hyperlink r:id="rId419" ref="A417"/>
-    <hyperlink r:id="rId420" ref="A418"/>
+    <hyperlink r:id="rId420" location="leaderboard" ref="A418"/>
     <hyperlink r:id="rId421" ref="A419"/>
     <hyperlink r:id="rId422" ref="A420"/>
     <hyperlink r:id="rId423" ref="A421"/>
@@ -15827,9 +15862,10 @@
     <hyperlink r:id="rId449" ref="A447"/>
     <hyperlink r:id="rId450" ref="A448"/>
     <hyperlink r:id="rId451" ref="A449"/>
+    <hyperlink r:id="rId452" ref="A450"/>
   </hyperlinks>
-  <drawing r:id="rId452"/>
-  <legacyDrawing r:id="rId453"/>
+  <drawing r:id="rId453"/>
+  <legacyDrawing r:id="rId454"/>
 </worksheet>
 </file>
 
@@ -15851,501 +15887,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -16469,62 +16505,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -16557,92 +16593,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -16688,296 +16724,296 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="18" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="9" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="18" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="9" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="18" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -17077,78 +17113,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="18" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -17188,126 +17224,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16">
@@ -17367,53 +17403,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -17448,25 +17484,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -17492,25 +17528,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17536,20 +17572,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17576,17 +17612,17 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17613,14 +17649,14 @@
     </row>
     <row r="5">
       <c r="C5" s="22" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17647,14 +17683,14 @@
     </row>
     <row r="6">
       <c r="C6" s="22" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="22" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -17682,10 +17718,10 @@
     <row r="7">
       <c r="D7" s="24"/>
       <c r="E7" s="22" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47489,95 +47525,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -47621,48 +47657,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -4805,201 +4805,216 @@
     <t>https://github.com/embeddings-benchmark/mteb/issues/192</t>
   </si>
   <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/DevBench/issues/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/687</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/784</t>
+  </si>
+  <si>
+    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/LawBench/issues/7</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/opencompass/discussions/785</t>
+  </si>
+  <si>
     <t>https://github.com/stanford-crfm/fmti/issues/2</t>
   </si>
   <si>
-    <t>https://github.com/open-compass/DevBench/issues/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/BradyFU/Awesome-Multimodal-Large-Language-Models/issues/124</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/687</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/17</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/784</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/LawBench/issues/7</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Agent/issues/8</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/9</t>
-  </si>
-  <si>
-    <t>https://github.com/jeinlee1991/chinese-llm-benchmark/issues/19</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/opencompass/discussions/785</t>
+    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/26</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
+  </si>
+  <si>
+    <t>https://github.com/TabbyML/tabby/issues/1369</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
+  </si>
+  <si>
+    <t>https://github.com/Re-Align/URIAL/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
+  </si>
+  <si>
+    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/SeaEval/SeaEval_Leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/hallucinations-leaderboard/leaderboard/discussions/20</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Auto/issues/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/upstage/open-ko-llm-leaderboard/discussions/28</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/26</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenGVLab/LAMM/issues/64</t>
+    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/blog/open-llm-leaderboard-drop</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/chat-based-image-retrieval-on-visdial</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/LanguageBind/Video-Bench/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/6</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Code3/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/nyu-mll/jiant/issues/1366</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2028</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Role/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/chinese-reading-comprehension-on-cmrc-2019</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Industry/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2350</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2062</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/TabbyML/tabby/discussions/1368</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-vitt</t>
   </si>
   <si>
-    <t>https://leaderboard.allenai.org/scifact/submission/ce0cbc2odv44t2mapeu0</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Math6/issues/1</t>
-  </si>
-  <si>
-    <t>https://github.com/TheoremOne/llm-benchmarker-suite/issues/10</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2358</t>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/43</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/6</t>
   </si>
   <si>
     <t>https://paperswithcode.com/sota/zero-shot-dense-video-captioning-on-youcook2</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/sota/speaker-verification-on-callhome</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-RAG/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/blog/open-llm-leaderboard-drop</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2441</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Role/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/TabbyML/tabby/discussions/1368</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/8</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/6</t>
-  </si>
-  <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/43</t>
-  </si>
-  <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/2</t>
   </si>
   <si>
+    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/instructkr/LogicKor-leaderboard/discussions/6</t>
   </si>
   <si>
-    <t>https://github.com/EleutherAI/lm_perplexity/issues/2</t>
+    <t>https://github.com/FreedomIntelligence/MLLM-Bench/issues/3</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/livecodebench/leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/FreedomIntelligence/MLLM-Bench/issues/3</t>
-  </si>
-  <si>
     <t>https://github.com/hendrycks/test/issues/25</t>
   </si>
   <si>
+    <t>https://github.com/open-compass/MathBench/issues/7</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/lovodkin93/FuseReviews-Leaderboard/discussions/1</t>
   </si>
   <si>
-    <t>https://github.com/open-compass/MathBench/issues/7</t>
+    <t>https://github.com/princeton-nlp/SWE-bench/issues/46</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/luisrguerra/guerra-llm-ai-leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/princeton-nlp/SWE-bench/issues/46</t>
+    <t>https://github.com/tjunlp-lab/M3KE/issues/8</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/luisrguerra/guerra-llm-ai-leaderboard/discussions/3</t>
   </si>
   <si>
-    <t>https://github.com/tjunlp-lab/M3KE/issues/8</t>
+    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/malhajar/OpenLLMTurkishLeaderboard/discussions/5</t>
   </si>
   <si>
-    <t>https://github.com/ZrrSkywalker/MathVerse/issues/4</t>
+    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/9</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/4</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/9</t>
+    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/9</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/Nexusflow/Nexus_Function_Calling_Leaderboard/discussions/3</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/mike-ravkine/can-ai-code-results/discussions/9</t>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/2</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/2</t>
   </si>
   <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/2</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/PatronusAI/enterprise_scenarios_leaderboard/discussions/10</t>
   </si>
   <si>
@@ -5153,7 +5168,7 @@
     <t>https://web.archive.org/web/20221205184917/https://paperswithcode.com/sota/image-classification-on-humaneval</t>
   </si>
   <si>
-    <t>https://github.com/CLUEbenchmark/SuperCLUE/issues/37</t>
+    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
   </si>
   <si>
     <t>https://github.com/CLUEbenchmark/SuperCLUE-Safety/issues/5</t>
@@ -5171,7 +5186,7 @@
     <t>https://web.archive.org/web/20240222011501/https://paperswithcode.com/sota/text-generation-on-humaneval</t>
   </si>
   <si>
-    <t>https://github.com/llmeval/llmeval-3/issues/1</t>
+    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
   </si>
   <si>
     <t>https://github.com/FlagOpen/FlagEval/issues/34</t>
@@ -5180,412 +5195,397 @@
     <t>https://huggingface.co/spaces/mlabonne/Yet_Another_LLM_Leaderboard/discussions/11</t>
   </si>
   <si>
-    <t>https://github.com/Re-Align/URIAL/issues/7</t>
-  </si>
-  <si>
-    <t>https://github.com/LudwigStumpp/llm-leaderboard/issues/10</t>
-  </si>
-  <si>
     <t>https://github.com/THU-KEG/KoLA/issues/8</t>
   </si>
   <si>
+    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
+  </si>
+  <si>
+    <t>https://github.com/princeton-nlp/intercode/issues/23</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
+  </si>
+  <si>
+    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x1668/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/0x9/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Aarifkhan/leaderboard-results-to-modelcard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/abidlabs/mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/AI-Vietnam/prompt-translation-vie-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Alfasign/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-docker/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard-gradio/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/arshy/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/asir0z/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/automerger/Yet_Another_LLM_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/awacke1/CanAICode-Leaderboard-Customized/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/b1sheng/kg_llm_leaderboard_test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/bittensor-dataset/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CDT-BMAI-GP/biomed_probing_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/choco9966/LeaderboardTest/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Classroom-workshop/assignments-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/CVPR/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DeepBrainz/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-crafters/leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-leaderboard-backend/leaderboard/discussions/6</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/demo-leaderboard/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard-v13/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Docfile/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ecai-2034/FSS-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/EuroSciPy2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/freddyaboulton/gradio_leaderboard_demo/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/glitchbench/Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Gradio-Blocks/Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/hjzhou/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/homunculus/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/HuggingFaceH4/human_eval_llm_leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ICML2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/JarvisKi/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kbmlcoding/open_llm_leaderboard_free/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/khhuiyh/AutoEval-Video_LeaderBoard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/kunato-lab/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ludwigstumpp/llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/MarketingHackers/chatbot-arena-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/NAACL2022/Spaces-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nan/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/neelalex/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/nouamanetazi/mteb-leaderboard-old/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/MMBench/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/openskyml/diffusion-models-leaderboard-template/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/osanseviero/llama-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/patrickvonplaten/parti-prompts-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/platzi/platzi-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/PlixAI/pixel-subnet-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard_two/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/reach-vb/leaderboards/discussions/4</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_enterprise_scenarios_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_hallucination_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_llm_perf_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data_only_open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rodrigomasini/data-only-mteb-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/rusticluftig/9-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sanchit-gandhi/leaderboards/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/seikwan/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/SIGGRAPH2022/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/Skywork/agent-studio-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/somosnlp/likes_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/speech-recognition-community-v2/Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/stabletoolbench/Stable_Tool_Bench_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/starmorph/open_llm_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard-test/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/TIGER-Lab/LongICL-Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/umdclip/grounded_qa_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/winglian/finetuning_subnet_leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/xtreme-s/leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/ybjeong/leaderboard_kr/discussions/1</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/spaces/yzeng58/CoBSAT_Leaderboard/discussions/1</t>
+  </si>
+  <si>
+    <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>https://github.com/bytedance/Portrait-Mode-Video/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/CMMMU-Benchmark/CMMMU/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/HowieHwong/TrustLLM/pull/13</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/52</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/promptbench/issues/59</t>
+  </si>
+  <si>
+    <t>https://github.com/open-compass/MathBench/issues/5</t>
+  </si>
+  <si>
     <t>https://huggingface.co/spaces/CathieDaDa/LLM_leaderboard/discussions/2</t>
   </si>
   <si>
-    <t>https://github.com/TabbyML/tabby/issues/1369</t>
-  </si>
-  <si>
     <t>https://huggingface.co/spaces/FinancialSupport/open_ita_llm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://github.com/X-PLUG/Youku-mPLUG/issues/23</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/visual-question-answering-vqa-on-3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speakleash/open_pl_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenM3D/M3DBench/issues/2</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenLMLab/GAOKAO-Bench/issues/25</t>
-  </si>
-  <si>
-    <t>https://github.com/princeton-nlp/intercode/issues/23</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Wwwduojin/MLLM_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/21</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2008</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mesolitica/malay-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://github.com/thodan/bop_toolkit/issues/119</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/18</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/5</t>
-  </si>
-  <si>
-    <t>https://github.com/tjunlp-lab/Awesome-LLMs-Evaluation-Papers/issues/27</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/instructkr/ko-chatbot-arena-leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/opencompass-llm-leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/instance-segmentation-on-cityscapes</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/qqp-on-qqp</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/reinforcement-learning-on-seals-ant-v0-1</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2176</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/6</t>
-  </si>
-  <si>
-    <t>https://github.com/stanford-crfm/helm/issues/2038</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/7</t>
-  </si>
-  <si>
-    <t>https://paperswithcode.com/sota/zero-shot-video-question-answer-on-star-1</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Vchitect/VBench/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x1668/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://github.com/THU-KEG/KoLA/issues/17</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x9/finetuning_subnet_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/17</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/0x9/pretraining-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Aarifkhan/leaderboard-results-to-modelcard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/abidlabs/chatbot-arena-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/abidlabs/mteb-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/AI-Vietnam/prompt-translation-vie-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Alfasign/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard-docker/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard-gradio/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/arshy/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/asir0z/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/automerger/Yet_Another_LLM_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/awacke1/CanAICode-Leaderboard-Customized/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/b1sheng/kg_llm_leaderboard_test/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/bittensor-dataset/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CDT-BMAI-GP/biomed_probing_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/choco9966/LeaderboardTest/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Classroom-workshop/assignments-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/CVPR/Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/DeepBrainz/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/demo-crafters/leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/demo-leaderboard-backend/leaderboard/discussions/6</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/demo-leaderboard/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard-v13/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/deprem-ml/intent-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/dimbyTa/open-llm-leaderboard-viz/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Docfile/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ecai-2034/FSS-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ECCV2022/Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/EuroPython2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/EuroSciPy2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/freddyaboulton/gradio_leaderboard_demo/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/gaia-benchmark/leaderboard/discussions/14</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/glitchbench/Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Gradio-Blocks/Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/hjzhou/chatbot-arena-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/homunculus/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/HuggingFaceH4/human_eval_llm_leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ICML2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/JarvisKi/Stable_Tool_Bench_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/kbmlcoding/open_llm_leaderboard_free/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/khhuiyh/AutoEval-Video_LeaderBoard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/kunato-lab/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ludwigstumpp/llm-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/MarketingHackers/chatbot-arena-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/NAACL2022/Spaces-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nan/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/neelalex/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/nouamanetazi/mteb-leaderboard-old/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/MMBench/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/opencompass/open_vlm_leaderboard/discussions/7</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/3</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/OpenGVLab/MVBench_Leaderboard/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openlifescienceai/open_medical_llm_leaderboard/discussions/2</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/openskyml/diffusion-models-leaderboard-template/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/osanseviero/llama-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/patrickvonplaten/parti-prompts-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/platzi/platzi-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/PlixAI/pixel-subnet-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard_two/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/pngwn/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/RaoFoundation/pretraining-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/reach-vb/leaderboards/discussions/4</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_enterprise_scenarios_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_hallucination_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_llm_perf_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data_only_open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rodrigomasini/data-only-mteb-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/rusticluftig/9-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/sanchit-gandhi/leaderboards/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/seikwan/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/SIGGRAPH2022/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/Skywork/agent-studio-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/smothiki/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/somosnlp/likes_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/sparse-generative-ai/open-moe-llm-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/speech-recognition-community-v2/Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/stabletoolbench/Stable_Tool_Bench_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/starmorph/open_llm_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard-test/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ThomasSimonini/Deep-Reinforcement-Learning-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/TIGER-Lab/LongICL-Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/umdclip/grounded_qa_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/valory/olas-prediction-leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/winglian/finetuning_subnet_leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/xtreme-s/leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/ybjeong/leaderboard_kr/discussions/1</t>
-  </si>
-  <si>
-    <t>https://huggingface.co/spaces/yzeng58/CoBSAT_Leaderboard/discussions/1</t>
-  </si>
-  <si>
-    <t>Uncategorized</t>
-  </si>
-  <si>
-    <t>https://github.com/bytedance/Portrait-Mode-Video/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/CMMMU-Benchmark/CMMMU/issues/3</t>
-  </si>
-  <si>
-    <t>https://github.com/HowieHwong/TrustLLM/pull/13</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/52</t>
-  </si>
-  <si>
-    <t>https://github.com/microsoft/promptbench/issues/59</t>
-  </si>
-  <si>
-    <t>https://github.com/open-compass/MathBench/issues/5</t>
   </si>
   <si>
     <t>https://huggingface.co/spaces/MohamedRashad/timm-leaderboard/discussions/1</t>
@@ -15895,98 +15895,98 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20">
@@ -15996,392 +15996,392 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -16505,22 +16505,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5">
@@ -16530,12 +16530,12 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8">
@@ -16545,7 +16545,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10">
@@ -16554,12 +16554,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
+    <row r="14">
+      <c r="A14" s="18" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -16576,8 +16586,10 @@
     <hyperlink r:id="rId9" ref="A10"/>
     <hyperlink r:id="rId10" ref="A11"/>
     <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -16755,7 +16767,7 @@
       <c r="C2" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="18" t="s">
         <v>762</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -16778,91 +16790,91 @@
       <c r="C3" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>746</v>
+      <c r="D3" s="18" t="s">
+        <v>769</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="D4" s="18" t="s">
         <v>775</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>776</v>
+      </c>
       <c r="E4" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="C6" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="9" t="s">
         <v>788</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>749</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="C7" s="9" t="s">
         <v>791</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>792</v>
+      </c>
       <c r="D7" s="9" t="s">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>793</v>
@@ -16875,10 +16887,10 @@
       <c r="B8" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="18" t="s">
         <v>797</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -16895,125 +16907,142 @@
       <c r="C9" s="18" t="s">
         <v>801</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>802</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>803</v>
+      <c r="C10" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>805</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="9" t="s">
-        <v>748</v>
+        <v>810</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>811</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="9" t="s">
-        <v>808</v>
+        <v>748</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="18" t="s">
-        <v>810</v>
+      <c r="C14" s="9" t="s">
+        <v>814</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="18" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="18" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="18" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="9" t="s">
-        <v>817</v>
+      <c r="C18" s="18" t="s">
+        <v>821</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="9" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="18" t="s">
-        <v>821</v>
+      <c r="C20" s="9" t="s">
+        <v>825</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="18" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="18" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="18" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="18" t="s">
-        <v>828</v>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="18" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -17063,38 +17092,43 @@
     <hyperlink r:id="rId43" ref="G8"/>
     <hyperlink r:id="rId44" ref="B9"/>
     <hyperlink r:id="rId45" ref="C9"/>
-    <hyperlink r:id="rId46" ref="G9"/>
-    <hyperlink r:id="rId47" ref="B10"/>
-    <hyperlink r:id="rId48" ref="C10"/>
-    <hyperlink r:id="rId49" ref="G10"/>
-    <hyperlink r:id="rId50" ref="C11"/>
-    <hyperlink r:id="rId51" ref="G11"/>
-    <hyperlink r:id="rId52" ref="C12"/>
-    <hyperlink r:id="rId53" ref="G12"/>
-    <hyperlink r:id="rId54" ref="C13"/>
-    <hyperlink r:id="rId55" ref="G13"/>
-    <hyperlink r:id="rId56" ref="C14"/>
-    <hyperlink r:id="rId57" ref="G14"/>
-    <hyperlink r:id="rId58" ref="C15"/>
-    <hyperlink r:id="rId59" ref="G15"/>
-    <hyperlink r:id="rId60" ref="C16"/>
-    <hyperlink r:id="rId61" ref="G16"/>
-    <hyperlink r:id="rId62" ref="C17"/>
-    <hyperlink r:id="rId63" ref="G17"/>
-    <hyperlink r:id="rId64" ref="C18"/>
-    <hyperlink r:id="rId65" ref="G18"/>
-    <hyperlink r:id="rId66" ref="C19"/>
-    <hyperlink r:id="rId67" ref="G19"/>
-    <hyperlink r:id="rId68" ref="C20"/>
-    <hyperlink r:id="rId69" ref="G20"/>
-    <hyperlink r:id="rId70" ref="C21"/>
-    <hyperlink r:id="rId71" ref="G21"/>
-    <hyperlink r:id="rId72" ref="C22"/>
-    <hyperlink r:id="rId73" ref="G22"/>
-    <hyperlink r:id="rId74" ref="C23"/>
-    <hyperlink r:id="rId75" ref="C24"/>
+    <hyperlink r:id="rId46" ref="D9"/>
+    <hyperlink r:id="rId47" ref="G9"/>
+    <hyperlink r:id="rId48" ref="B10"/>
+    <hyperlink r:id="rId49" ref="C10"/>
+    <hyperlink r:id="rId50" ref="D10"/>
+    <hyperlink r:id="rId51" ref="G10"/>
+    <hyperlink r:id="rId52" ref="C11"/>
+    <hyperlink r:id="rId53" ref="D11"/>
+    <hyperlink r:id="rId54" ref="G11"/>
+    <hyperlink r:id="rId55" ref="C12"/>
+    <hyperlink r:id="rId56" ref="D12"/>
+    <hyperlink r:id="rId57" ref="G12"/>
+    <hyperlink r:id="rId58" ref="C13"/>
+    <hyperlink r:id="rId59" ref="G13"/>
+    <hyperlink r:id="rId60" ref="C14"/>
+    <hyperlink r:id="rId61" ref="G14"/>
+    <hyperlink r:id="rId62" ref="C15"/>
+    <hyperlink r:id="rId63" ref="G15"/>
+    <hyperlink r:id="rId64" ref="C16"/>
+    <hyperlink r:id="rId65" ref="G16"/>
+    <hyperlink r:id="rId66" ref="C17"/>
+    <hyperlink r:id="rId67" ref="G17"/>
+    <hyperlink r:id="rId68" ref="C18"/>
+    <hyperlink r:id="rId69" ref="G18"/>
+    <hyperlink r:id="rId70" ref="C19"/>
+    <hyperlink r:id="rId71" ref="G19"/>
+    <hyperlink r:id="rId72" ref="C20"/>
+    <hyperlink r:id="rId73" ref="G20"/>
+    <hyperlink r:id="rId74" ref="C21"/>
+    <hyperlink r:id="rId75" ref="G21"/>
+    <hyperlink r:id="rId76" ref="C22"/>
+    <hyperlink r:id="rId77" ref="G22"/>
+    <hyperlink r:id="rId78" ref="C23"/>
+    <hyperlink r:id="rId79" ref="C24"/>
+    <hyperlink r:id="rId80" ref="C25"/>
   </hyperlinks>
-  <drawing r:id="rId76"/>
+  <drawing r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -17130,10 +17164,10 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>740</v>
@@ -17142,12 +17176,12 @@
         <v>734</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>736</v>
@@ -17158,10 +17192,10 @@
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>750</v>
@@ -17169,7 +17203,7 @@
     </row>
     <row r="5">
       <c r="D5" s="9" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6">
@@ -17179,12 +17213,12 @@
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -17241,41 +17275,41 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>743</v>
@@ -17284,66 +17318,66 @@
     <row r="5">
       <c r="A5" s="23"/>
       <c r="D5" s="9" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="9" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="9" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="9" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="9" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="9" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="18" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="9" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="9" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="9" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="9" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="16">
@@ -17414,42 +17448,42 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -17493,7 +17527,7 @@
         <v>754</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>755</v>
@@ -17528,25 +17562,25 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>875</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>876</v>
+        <v>880</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17572,20 +17606,20 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>884</v>
+        <v>888</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>889</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -17612,17 +17646,11 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
-        <v>888</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -17648,15 +17676,10 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5">
-      <c r="C5" s="22" t="s">
-        <v>890</v>
-      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="22" t="s">
-        <v>891</v>
-      </c>
       <c r="F5" s="22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17682,13 +17705,8 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6">
-      <c r="C6" s="22" t="s">
-        <v>892</v>
-      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="22" t="s">
-        <v>893</v>
-      </c>
       <c r="F6" s="22" t="s">
         <v>749</v>
       </c>
@@ -17717,11 +17735,8 @@
     </row>
     <row r="7">
       <c r="D7" s="24"/>
-      <c r="E7" s="22" t="s">
-        <v>894</v>
-      </c>
       <c r="F7" s="22" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -47493,20 +47508,13 @@
     <hyperlink r:id="rId12" ref="E3"/>
     <hyperlink r:id="rId13" ref="F3"/>
     <hyperlink r:id="rId14" ref="A4"/>
-    <hyperlink r:id="rId15" ref="C4"/>
-    <hyperlink r:id="rId16" ref="E4"/>
-    <hyperlink r:id="rId17" ref="F4"/>
-    <hyperlink r:id="rId18" ref="C5"/>
-    <hyperlink r:id="rId19" ref="E5"/>
-    <hyperlink r:id="rId20" ref="F5"/>
-    <hyperlink r:id="rId21" ref="C6"/>
-    <hyperlink r:id="rId22" ref="E6"/>
-    <hyperlink r:id="rId23" ref="F6"/>
-    <hyperlink r:id="rId24" ref="E7"/>
-    <hyperlink r:id="rId25" ref="F7"/>
+    <hyperlink r:id="rId15" ref="F4"/>
+    <hyperlink r:id="rId16" ref="F5"/>
+    <hyperlink r:id="rId17" ref="F6"/>
+    <hyperlink r:id="rId18" ref="F7"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -47539,29 +47547,29 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>738</v>
@@ -47569,51 +47577,51 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -47668,21 +47676,21 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>914</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>739</v>
@@ -47690,15 +47698,15 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/meta/Foundation Model Leaderboards.xlsx
+++ b/meta/Foundation Model Leaderboards.xlsx
@@ -26,7 +26,61 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F418">
+    <comment authorId="0" ref="G372">
+      <text>
+        <t xml:space="preserve">https://mp.weixin.qq.com/s/pNLlWesPOIeCfHu5xVfOGg
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G373">
+      <text>
+        <t xml:space="preserve">https://mp.weixin.qq.com/s/dUfF2TfYKrR3ZTn-nhpH-w
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F373">
+      <text>
+        <t xml:space="preserve">https://www.langyb.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G366">
+      <text>
+        <t xml:space="preserve">https://mp.weixin.qq.com/s/eIS7BjFYmyby2gpSd875Hw
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G364">
+      <text>
+        <t xml:space="preserve">https://mp.weixin.qq.com/s/QPeUu5ThP2f0dKEPDuFqxA
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G363">
+      <text>
+        <t xml:space="preserve">https://mp.weixin.qq.com/s/emW_g5A8DKTFojvWFnsrqQ
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F363">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F364">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F366">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F421">
       <text>
         <t xml:space="preserve">https://github.com/BradyFU/Video-MME
 	-Jimmy Chou</t>
@@ -38,13 +92,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D404">
+    <comment authorId="0" ref="D407">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/DontPlanToEnd/UGI-Leaderboard/discussions/9
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D386">
+    <comment authorId="0" ref="D389">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity/issues/2
 	-Jimmy Chou</t>
@@ -118,13 +172,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G407">
+    <comment authorId="0" ref="G410">
       <text>
         <t xml:space="preserve">https://arxiv.org/pdf/2403.20331
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D407">
+    <comment authorId="0" ref="D410">
       <text>
         <t xml:space="preserve">https://github.com/AtsuMiyai/UPD?tab=readme-ov-file#how-to-add-new-vlms
 	-Jimmy Chou
@@ -194,7 +248,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G416">
+    <comment authorId="0" ref="G419">
       <text>
         <t xml:space="preserve">https://www.reka.ai/news/vibe-eval
 	-Jimmy Chou
@@ -220,25 +274,25 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G367">
+    <comment authorId="0" ref="G370">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_role.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F367">
+    <comment authorId="0" ref="F370">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G366">
+    <comment authorId="0" ref="G369">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_rag.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F366">
+    <comment authorId="0" ref="F369">
       <text>
         <t xml:space="preserve">https://www.superclueai.com
 	-Jimmy Chou</t>
@@ -256,7 +310,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D375">
+    <comment authorId="0" ref="D378">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench/issues/46
 	-Jimmy Chou</t>
@@ -314,7 +368,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I412">
+    <comment authorId="0" ref="I415">
       <text>
         <t xml:space="preserve">Algorithm: Length Penalty
 	-Jimmy Chou</t>
@@ -980,13 +1034,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A408">
+    <comment authorId="0" ref="A411">
       <text>
         <t xml:space="preserve">https://github.com/Re-Align/URIAL
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A437">
+    <comment authorId="0" ref="A440">
       <text>
         <t xml:space="preserve">https://github.com/allenai/WildBench
 	-Jimmy Chou</t>
@@ -1086,9 +1140,21 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I364">
+    <comment authorId="0" ref="I367">
       <text>
         <t xml:space="preserve">https://toloka.ai/talk-to-us/
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F368">
+      <text>
+        <t xml:space="preserve">https://www.superclueai.com
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G368">
+      <text>
+        <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
 	-Jimmy Chou</t>
       </text>
     </comment>
@@ -1099,18 +1165,6 @@
       </text>
     </comment>
     <comment authorId="0" ref="G365">
-      <text>
-        <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_open.html
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F363">
-      <text>
-        <t xml:space="preserve">https://www.superclueai.com
-	-Jimmy Chou</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G363">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_industry.html
 	-Jimmy Chou</t>
@@ -1152,13 +1206,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G364">
+    <comment authorId="0" ref="G367">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_math6.html
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G368">
+    <comment authorId="0" ref="G371">
       <text>
         <t xml:space="preserve">https://www.cluebenchmarks.com/superclue_safety.html
 	-Jimmy Chou</t>
@@ -1247,7 +1301,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A434">
+    <comment authorId="0" ref="A437">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io
 	-Jimmy Chou</t>
@@ -1265,7 +1319,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A440">
+    <comment authorId="0" ref="A443">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/winogrande/evaluator
 	-Jimmy Chou</t>
@@ -1343,7 +1397,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A450">
+    <comment authorId="0" ref="A453">
       <text>
         <t xml:space="preserve">https://github.com/allenai/mosaic-leaderboard/tree/master/anli/evaluator
 	-Jimmy Chou</t>
@@ -1361,19 +1415,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A424">
+    <comment authorId="0" ref="A427">
       <text>
         <t xml:space="preserve">https://github.com/web-arena-x/visualwebarena
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A386">
+    <comment authorId="0" ref="A389">
       <text>
         <t xml:space="preserve">https://github.com/EleutherAI/lm_perplexity
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A372">
+    <comment authorId="0" ref="A375">
       <text>
         <t xml:space="preserve">https://github.com/kb-labb/superlim-submissions
 	-Jimmy Chou</t>
@@ -1601,19 +1655,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E377">
+    <comment authorId="0" ref="E380">
       <text>
         <t xml:space="preserve">https://whoops-benchmark.github.io/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I394">
+    <comment authorId="0" ref="I397">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard/discussions/1
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I407">
+    <comment authorId="0" ref="I410">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard-Full/discussions/1
 	-Jimmy Chou</t>
@@ -1695,7 +1749,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F368">
+    <comment authorId="0" ref="F371">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
@@ -1707,7 +1761,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F364">
+    <comment authorId="0" ref="F367">
       <text>
         <t xml:space="preserve">https://www.superclueai.com/
 	-Jimmy Chou</t>
@@ -1785,13 +1839,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F450">
+    <comment authorId="0" ref="F453">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/anli/submissions/public
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F440">
+    <comment authorId="0" ref="F443">
       <text>
         <t xml:space="preserve">https://leaderboard.allenai.org/winogrande/submissions/public
 	-Jimmy Chou</t>
@@ -1872,19 +1926,19 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F417">
+    <comment authorId="0" ref="F420">
       <text>
         <t xml:space="preserve">https://github.com/PKU-YuanGroup/Video-Bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I374">
+    <comment authorId="0" ref="I377">
       <text>
         <t xml:space="preserve">https://github.com/sylinrl/TruthfulQA/issues/8
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F389">
+    <comment authorId="0" ref="F392">
       <text>
         <t xml:space="preserve">https://github.com/sambanova/toolbench/
 	-Jimmy Chou</t>
@@ -2002,7 +2056,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H380">
+    <comment authorId="0" ref="H383">
       <text>
         <t xml:space="preserve">IEEE International Conference on Acoustics, Speech and Signal Processing
 	-Jimmy Chou</t>
@@ -2082,13 +2136,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F423">
+    <comment authorId="0" ref="F426">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/mlfoundations/VisIT-Bench-Leaderboard
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F410">
+    <comment authorId="0" ref="F413">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/Vchitect/VBench
 	-Jimmy Chou
@@ -2114,7 +2168,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F448">
+    <comment authorId="0" ref="F451">
       <text>
         <t xml:space="preserve">https://gist.github.com/mlabonne/90294929a2dbcb8877f9696f28105fdf
 	-Jimmy Chou</t>
@@ -2184,7 +2238,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H390">
+    <comment authorId="0" ref="H393">
       <text>
         <t xml:space="preserve">Workshop on Machine Translation
 	-Jimmy Chou</t>
@@ -2232,13 +2286,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A370">
+    <comment authorId="0" ref="A373">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUElyb/issues/7
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A369">
+    <comment authorId="0" ref="A372">
       <text>
         <t xml:space="preserve">https://github.com/CLUEbenchmark/SuperCLUEgkzw/issues/1
 	-Jimmy Chou</t>
@@ -2262,13 +2316,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A375">
+    <comment authorId="0" ref="A378">
       <text>
         <t xml:space="preserve">https://github.com/princeton-nlp/SWE-bench
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A371">
+    <comment authorId="0" ref="A374">
       <text>
         <t xml:space="preserve">https://github.com/nyu-mll/jiant
 	-Jimmy Chou</t>
@@ -2372,7 +2426,7 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F433">
+    <comment authorId="0" ref="F436">
       <text>
         <t xml:space="preserve">https://huggingface.co/spaces/nlphuji/WHOOPS-Leaderboard
 	-Jimmy Chou
@@ -2380,13 +2434,13 @@
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F388">
+    <comment authorId="0" ref="F391">
       <text>
         <t xml:space="preserve">https://toloka.ai/llm-leaderboard/
 	-Jimmy Chou</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F372">
+    <comment authorId="0" ref="F375">
       <text>
         <t xml:space="preserve">https://lab.kb.se/leaderboard/results
 	-Jimmy Chou</t>
@@ -2505,7 +2559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1031">
   <si>
     <t>Name</t>
   </si>
@@ -4351,9 +4405,18 @@
     <t>SuperCLUE-Code3</t>
   </si>
   <si>
+    <t>SuperCLUE-Fin</t>
+  </si>
+  <si>
+    <t>SuperCLUE-Image</t>
+  </si>
+  <si>
     <t>SuperCLUE-Industry</t>
   </si>
   <si>
+    <t>SuperCLUE-Long</t>
+  </si>
+  <si>
     <t>SuperCLUE-Math6</t>
   </si>
   <si>
@@ -4376,6 +4439,9 @@
   </si>
   <si>
     <t>SuperCLUElyb</t>
+  </si>
+  <si>
+    <t>ip:Table Screenshot+Scatter Plot+Bar Chart</t>
   </si>
   <si>
     <t>SuperGLUE</t>
@@ -4719,6 +4785,15 @@
   </si>
   <si>
     <t>αNLI</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Fin/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Image/issues/1</t>
+  </si>
+  <si>
+    <t>https://github.com/CLUEbenchmark/SuperCLUE-Long/issues/1</t>
   </si>
   <si>
     <t>https://github.com/hkust-nlp/ceval/issues/76</t>
@@ -12366,13 +12441,13 @@
         <v>614</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>611</v>
+        <v>46</v>
       </c>
       <c r="D363" s="2">
         <v>3.0</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G363" s="7" t="s">
         <v>256</v>
@@ -12386,64 +12461,46 @@
         <v>615</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>608</v>
+        <v>46</v>
       </c>
       <c r="D364" s="2">
         <v>3.0</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B365" s="4"/>
-      <c r="C365" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D365" s="20">
+      <c r="C365" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D365" s="2">
         <v>3.0</v>
       </c>
-      <c r="E365" s="4"/>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G365" s="6" t="s">
+      <c r="G365" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H365" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="I365" s="4"/>
-      <c r="J365" s="4"/>
-      <c r="K365" s="4"/>
-      <c r="L365" s="4"/>
-      <c r="M365" s="4"/>
-      <c r="N365" s="4"/>
-      <c r="O365" s="4"/>
-      <c r="P365" s="4"/>
-      <c r="Q365" s="4"/>
-      <c r="R365" s="4"/>
-      <c r="S365" s="4"/>
-      <c r="T365" s="4"/>
-      <c r="U365" s="4"/>
-      <c r="V365" s="4"/>
-      <c r="W365" s="4"/>
-      <c r="X365" s="4"/>
+      <c r="H365" s="2" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C366" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D366" s="2">
@@ -12464,7 +12521,7 @@
         <v>618</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D367" s="2">
         <v>3.0</v>
@@ -12473,66 +12530,88 @@
         <v>30</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C368" s="2" t="s">
+      <c r="A368" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B368" s="4"/>
+      <c r="C368" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="20">
         <v>3.0</v>
       </c>
-      <c r="F368" s="2" t="s">
+      <c r="E368" s="4"/>
+      <c r="F368" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G368" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H368" s="2" t="s">
-        <v>607</v>
-      </c>
+      <c r="G368" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="4"/>
+      <c r="N368" s="4"/>
+      <c r="O368" s="4"/>
+      <c r="P368" s="4"/>
+      <c r="Q368" s="4"/>
+      <c r="R368" s="4"/>
+      <c r="S368" s="4"/>
+      <c r="T368" s="4"/>
+      <c r="U368" s="4"/>
+      <c r="V368" s="4"/>
+      <c r="W368" s="4"/>
+      <c r="X368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>17</v>
+        <v>620</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D369" s="2">
         <v>3.0</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G369" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="H369" s="2" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D370" s="2">
         <v>3.0</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G370" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="G370" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="H370" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="371">
@@ -12540,204 +12619,214 @@
         <v>623</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>134</v>
+        <v>608</v>
       </c>
       <c r="D371" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E371" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D372" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H372" s="9" t="s">
-        <v>626</v>
+        <v>256</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D373" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G373" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="F373" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G373" s="7"/>
-      <c r="H373" s="2"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="14" t="s">
+      <c r="C374" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D374" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G374" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H374" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B374" s="4"/>
-      <c r="C374" s="5"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G374" s="7"/>
-      <c r="H374" s="5"/>
-      <c r="I374" s="4"/>
-      <c r="J374" s="4"/>
-      <c r="K374" s="4"/>
-      <c r="L374" s="4"/>
-      <c r="M374" s="4"/>
-      <c r="N374" s="4"/>
-      <c r="O374" s="4"/>
-      <c r="P374" s="4"/>
-      <c r="Q374" s="4"/>
-      <c r="R374" s="4"/>
-      <c r="S374" s="4"/>
-      <c r="T374" s="4"/>
-      <c r="U374" s="4"/>
-      <c r="V374" s="4"/>
-      <c r="W374" s="4"/>
-      <c r="X374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="D375" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H375" s="2" t="s">
-        <v>629</v>
+        <v>125</v>
+      </c>
+      <c r="H375" s="9" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C376" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D376" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F376" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G376" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G376" s="7"/>
+      <c r="H376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="14" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D377" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G377" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H377" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="B377" s="4"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G377" s="7"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="4"/>
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="4"/>
+      <c r="M377" s="4"/>
+      <c r="N377" s="4"/>
+      <c r="O377" s="4"/>
+      <c r="P377" s="4"/>
+      <c r="Q377" s="4"/>
+      <c r="R377" s="4"/>
+      <c r="S377" s="4"/>
+      <c r="T377" s="4"/>
+      <c r="U377" s="4"/>
+      <c r="V377" s="4"/>
+      <c r="W377" s="4"/>
+      <c r="X377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D378" s="2">
+        <v>2.0</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G378" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>17</v>
+        <v>635</v>
       </c>
       <c r="D379" s="2">
         <v>2.0</v>
       </c>
+      <c r="E379" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F379" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>637</v>
+        <v>26</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="D380" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="H380" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C381" s="2"/>
+        <v>639</v>
+      </c>
       <c r="F381" s="2" t="s">
         <v>9</v>
       </c>
@@ -12745,32 +12834,39 @@
     </row>
     <row r="382">
       <c r="A382" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D382" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H382" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D382" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G382" s="7"/>
-      <c r="H382" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C383" s="2"/>
+      <c r="C383" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D383" s="2">
+        <v>2.0</v>
+      </c>
       <c r="F383" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G383" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H383" s="2" t="s">
         <v>644</v>
@@ -12780,135 +12876,125 @@
       <c r="A384" s="9" t="s">
         <v>645</v>
       </c>
+      <c r="C384" s="2"/>
       <c r="F384" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G384" s="7"/>
-      <c r="H384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="9" t="s">
         <v>646</v>
       </c>
+      <c r="C385" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D385" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F385" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G385" s="7"/>
+      <c r="H385" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D386" s="2">
-        <v>3.0</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="C386" s="2"/>
       <c r="F386" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G386" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D387" s="2">
-        <v>3.0</v>
+        <v>649</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G387" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H387" s="2" t="s">
-        <v>649</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G387" s="7"/>
+      <c r="H387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D388" s="2">
-        <v>3.0</v>
-      </c>
       <c r="F388" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G388" s="7"/>
-      <c r="H388" s="2" t="s">
-        <v>651</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D389" s="2">
         <v>3.0</v>
       </c>
-      <c r="E389" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F389" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>388</v>
+        <v>17</v>
       </c>
       <c r="D390" s="2">
         <v>3.0</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="C391" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D391" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F391" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G391" s="7"/>
+      <c r="H391" s="2" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>36</v>
@@ -12922,9 +13008,11 @@
       <c r="F392" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G392" s="7"/>
+      <c r="G392" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H392" s="2" t="s">
-        <v>335</v>
+        <v>657</v>
       </c>
     </row>
     <row r="393">
@@ -12932,53 +13020,64 @@
         <v>658</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>659</v>
+        <v>388</v>
       </c>
       <c r="D393" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="9" t="s">
-        <v>661</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C394" s="2"/>
       <c r="F394" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G394" s="7"/>
-      <c r="H394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D395" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G395" s="7"/>
-      <c r="H395" s="2"/>
+      <c r="H395" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D396" s="2">
         <v>2.0</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="G396" s="7" t="s">
         <v>26</v>
@@ -12988,182 +13087,171 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="14" t="s">
+      <c r="A397" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B397" s="4"/>
-      <c r="C397" s="5"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
-      <c r="F397" s="6" t="s">
+      <c r="F397" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G397" s="7"/>
-      <c r="H397" s="5"/>
-      <c r="I397" s="4"/>
-      <c r="J397" s="4"/>
-      <c r="K397" s="4"/>
-      <c r="L397" s="4"/>
-      <c r="M397" s="4"/>
-      <c r="N397" s="4"/>
-      <c r="O397" s="4"/>
-      <c r="P397" s="4"/>
-      <c r="Q397" s="4"/>
-      <c r="R397" s="4"/>
-      <c r="S397" s="4"/>
-      <c r="T397" s="4"/>
-      <c r="U397" s="4"/>
-      <c r="V397" s="4"/>
-      <c r="W397" s="4"/>
-      <c r="X397" s="4"/>
+      <c r="H397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D398" s="2">
-        <v>3.0</v>
+        <v>666</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G398" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>666</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G398" s="7"/>
+      <c r="H398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="9" t="s">
         <v>667</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D399" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="9" t="s">
+      <c r="A400" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D400" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B400" s="4"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G400" s="7"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="4"/>
+      <c r="J400" s="4"/>
+      <c r="K400" s="4"/>
+      <c r="L400" s="4"/>
+      <c r="M400" s="4"/>
+      <c r="N400" s="4"/>
+      <c r="O400" s="4"/>
+      <c r="P400" s="4"/>
+      <c r="Q400" s="4"/>
+      <c r="R400" s="4"/>
+      <c r="S400" s="4"/>
+      <c r="T400" s="4"/>
+      <c r="U400" s="4"/>
+      <c r="V400" s="4"/>
+      <c r="W400" s="4"/>
+      <c r="X400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D401" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G401" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H401" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F401" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G401" s="7"/>
-      <c r="H401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="9" t="s">
         <v>671</v>
       </c>
+      <c r="C402" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F402" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G402" s="7"/>
-      <c r="H402" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G402" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D403" s="2">
+        <v>4.0</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G403" s="7"/>
-      <c r="H403" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D404" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E404" s="2" t="s">
-        <v>11</v>
+        <v>674</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G404" s="7"/>
-      <c r="H404" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D405" s="2">
-        <v>3.0</v>
+        <v>675</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G405" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>675</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G405" s="7"/>
+      <c r="H405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C406" s="2"/>
       <c r="F406" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G406" s="7"/>
+      <c r="H406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="9" t="s">
         <v>677</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>453</v>
+        <v>36</v>
+      </c>
+      <c r="D407" s="2">
+        <v>3.0</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>11</v>
@@ -13171,34 +13259,29 @@
       <c r="F407" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G407" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G407" s="7"/>
       <c r="H407" s="2" t="s">
-        <v>678</v>
+        <v>54</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D408" s="2">
         <v>3.0</v>
       </c>
-      <c r="E408" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F408" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G408" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>303</v>
+        <v>679</v>
       </c>
     </row>
     <row r="409">
@@ -13216,37 +13299,50 @@
         <v>681</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="D410" s="2">
-        <v>2.0</v>
+        <v>10</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G410" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G410" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D411" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G411" s="7"/>
-      <c r="H411" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G411" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C412" s="2"/>
       <c r="F412" s="2" t="s">
@@ -13256,91 +13352,73 @@
     </row>
     <row r="413">
       <c r="A413" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C413" s="2"/>
+      <c r="D413" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F413" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G413" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C414" s="2"/>
+        <v>688</v>
+      </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G414" s="7"/>
+      <c r="H414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D415" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="C415" s="2"/>
       <c r="F415" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G415" s="7"/>
-      <c r="H415" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D416" s="2">
-        <v>3.0</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="C416" s="2"/>
       <c r="F416" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G416" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>690</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G416" s="7"/>
     </row>
     <row r="417">
       <c r="A417" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C417" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D417" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="C417" s="2"/>
       <c r="F417" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G417" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H417" s="2" t="s">
-        <v>692</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G417" s="7"/>
     </row>
     <row r="418">
       <c r="A418" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>694</v>
+        <v>46</v>
       </c>
       <c r="D418" s="2">
         <v>3.0</v>
@@ -13349,106 +13427,117 @@
         <v>11</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G418" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G418" s="7"/>
       <c r="H418" s="2" t="s">
-        <v>695</v>
+        <v>47</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D419" s="2">
+        <v>3.0</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G419" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G419" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D420" s="2">
+        <v>2.0</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G420" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="9" t="s">
         <v>697</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>33</v>
+        <v>698</v>
       </c>
       <c r="D421" s="2">
         <v>3.0</v>
       </c>
+      <c r="E421" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F421" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G422" s="7"/>
-      <c r="H422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C423" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D423" s="2">
-        <v>2.0</v>
-      </c>
       <c r="F423" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G423" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G423" s="7"/>
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D424" s="2">
         <v>3.0</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G424" s="7" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>9</v>
@@ -13458,48 +13547,47 @@
     </row>
     <row r="426">
       <c r="A426" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D426" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H426" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D426" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F426" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G426" s="7"/>
-      <c r="H426" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D427" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>11</v>
+        <v>3.0</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G427" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -13509,84 +13597,95 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D429" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G429" s="7"/>
+      <c r="H429" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F429" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G429" s="7"/>
-      <c r="H429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="9" t="s">
         <v>712</v>
       </c>
+      <c r="C430" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F430" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G430" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G431" s="7"/>
+      <c r="H431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G432" s="7"/>
+      <c r="H432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G433" s="7"/>
-      <c r="H433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D434" s="2">
-        <v>2.0</v>
+        <v>717</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G434" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>716</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G434" s="7"/>
     </row>
     <row r="435">
       <c r="A435" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G435" s="7"/>
-      <c r="H435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
@@ -13601,128 +13700,138 @@
       <c r="C437" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D437" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>11</v>
+      <c r="D437" s="2">
+        <v>2.0</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G437" s="2" t="s">
-        <v>26</v>
+      <c r="G437" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>303</v>
+        <v>720</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D438" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>11</v>
+        <v>721</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>721</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G438" s="7"/>
+      <c r="H438" s="2"/>
     </row>
     <row r="439">
-      <c r="A439" s="14" t="s">
+      <c r="A439" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B439" s="4"/>
-      <c r="C439" s="5"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="5"/>
-      <c r="F439" s="6" t="s">
+      <c r="F439" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G439" s="7"/>
-      <c r="H439" s="5"/>
-      <c r="I439" s="4"/>
-      <c r="J439" s="4"/>
-      <c r="K439" s="4"/>
-      <c r="L439" s="4"/>
-      <c r="M439" s="4"/>
-      <c r="N439" s="4"/>
-      <c r="O439" s="4"/>
-      <c r="P439" s="4"/>
-      <c r="Q439" s="4"/>
-      <c r="R439" s="4"/>
-      <c r="S439" s="4"/>
-      <c r="T439" s="4"/>
-      <c r="U439" s="4"/>
-      <c r="V439" s="4"/>
-      <c r="W439" s="4"/>
-      <c r="X439" s="4"/>
+      <c r="H439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D440" s="2">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G440" s="7" t="s">
-        <v>338</v>
+        <v>37</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D441" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F441" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B442" s="4"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G441" s="7"/>
-      <c r="H441" s="2"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G442" s="7"/>
-      <c r="H442" s="2"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="4"/>
+      <c r="K442" s="4"/>
+      <c r="L442" s="4"/>
+      <c r="M442" s="4"/>
+      <c r="N442" s="4"/>
+      <c r="O442" s="4"/>
+      <c r="P442" s="4"/>
+      <c r="Q442" s="4"/>
+      <c r="R442" s="4"/>
+      <c r="S442" s="4"/>
+      <c r="T442" s="4"/>
+      <c r="U442" s="4"/>
+      <c r="V442" s="4"/>
+      <c r="W442" s="4"/>
+      <c r="X442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G443" s="7"/>
-      <c r="H443" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G443" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>9</v>
@@ -13732,36 +13841,27 @@
     </row>
     <row r="445">
       <c r="A445" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C445" s="2"/>
+        <v>728</v>
+      </c>
       <c r="F445" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G445" s="7"/>
+      <c r="H445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D446" s="2">
-        <v>3.0</v>
+        <v>729</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G446" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G446" s="7"/>
+      <c r="H446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>9</v>
@@ -13771,66 +13871,96 @@
     </row>
     <row r="448">
       <c r="A448" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="C448" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D448" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C448" s="2"/>
       <c r="F448" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G448" s="7"/>
-      <c r="H448" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="9" t="s">
         <v>732</v>
       </c>
+      <c r="C449" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D449" s="2">
+        <v>3.0</v>
+      </c>
       <c r="F449" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G449" s="7"/>
-      <c r="H449" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G449" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="F450" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G450" s="7"/>
+      <c r="H450" s="2"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D451" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G451" s="7"/>
+      <c r="H451" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G452" s="7"/>
+      <c r="H452" s="2"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D453" s="2">
         <v>2.0</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="E453" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F450" s="2" t="s">
+      <c r="F453" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G450" s="2" t="s">
+      <c r="G453" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H450" s="2" t="s">
+      <c r="H453" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="451">
-      <c r="C451" s="2"/>
-    </row>
-    <row r="452">
-      <c r="C452" s="2"/>
-    </row>
-    <row r="453">
-      <c r="C453" s="2"/>
     </row>
     <row r="454">
       <c r="C454" s="2"/>
@@ -15409,6 +15539,15 @@
     </row>
     <row r="979">
       <c r="C979" s="2"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="2"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="2"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15784,10 +15923,10 @@
     <hyperlink r:id="rId371" ref="A370"/>
     <hyperlink r:id="rId372" ref="A371"/>
     <hyperlink r:id="rId373" ref="A372"/>
-    <hyperlink r:id="rId374" ref="H372"/>
-    <hyperlink r:id="rId375" ref="A373"/>
-    <hyperlink r:id="rId376" ref="A374"/>
-    <hyperlink r:id="rId377" ref="A375"/>
+    <hyperlink r:id="rId374" ref="A373"/>
+    <hyperlink r:id="rId375" ref="A374"/>
+    <hyperlink r:id="rId376" ref="A375"/>
+    <hyperlink r:id="rId377" ref="H375"/>
     <hyperlink r:id="rId378" ref="A376"/>
     <hyperlink r:id="rId379" ref="A377"/>
     <hyperlink r:id="rId380" ref="A378"/>
@@ -15830,10 +15969,10 @@
     <hyperlink r:id="rId417" ref="A415"/>
     <hyperlink r:id="rId418" ref="A416"/>
     <hyperlink r:id="rId419" ref="A417"/>
-    <hyperlink r:id="rId420" location="leaderboard" ref="A418"/>
+    <hyperlink r:id="rId420" ref="A418"/>
     <hyperlink r:id="rId421" ref="A419"/>
     <hyperlink r:id="rId422" ref="A420"/>
-    <hyperlink r:id="rId423" ref="A421"/>
+    <hyperlink r:id="rId423" location="leaderboard" ref="A421"/>
     <hyperlink r:id="rId424" ref="A422"/>
     <hyperlink r:id="rId425" ref="A423"/>
     <hyperlink r:id="rId426" ref="A424"/>
@@ -15863,9 +16002,12 @@
     <hyperlink r:id="rId450" ref="A448"/>
     <hyperlink r:id="rId451" ref="A449"/>
     <hyperlink r:id="rId452" ref="A450"/>
+    <hyperlink r:id="rId453" ref="A451"/>
+    <hyperlink r:id="rId454" ref="A452"/>
+    <hyperlink r:id="rId455" ref="A453"/>
   </hyperlinks>
-  <drawing r:id="rId453"/>
-  <legacyDrawing r:id="rId454"/>
+  <drawing r:id="rId456"/>
+  <legacyDrawing r:id="rId457"/>
 </worksheet>
 </file>
 
@@ -15887,501 +16029,501 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="18" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="18" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -16505,72 +16647,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>1016</v>
+      <c r="A3" s="18" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1017</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>735</v>
+      <c r="A5" s="9" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>1018</v>
+      <c r="A6" s="25" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>737</v>
+      <c r="A8" s="18" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>741</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>1021</v>
+      <c r="A11" s="25" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>1022</v>
+      <c r="A12" s="9" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>747</v>
+      <c r="A13" s="18" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>1023</v>
+      <c r="A14" s="22" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="22" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -16588,8 +16745,11 @@
     <hyperlink r:id="rId11" ref="A12"/>
     <hyperlink r:id="rId12" ref="A13"/>
     <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -16605,92 +16765,107 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>736</v>
+      <c r="A3" s="9" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>740</v>
+      <c r="A7" s="18" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>747</v>
+      <c r="A14" s="18" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>749</v>
+        <v>753</v>
      